--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="713" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,13 @@
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="301">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -830,6 +830,102 @@
   </si>
   <si>
     <t>Sorted</t>
+  </si>
+  <si>
+    <t>Familia ma kwangi ohewo alufu 1 pii oula osedaro e sub county ma Ugenya e county ma Siaya.</t>
+  </si>
+  <si>
+    <t>Ma bang’ aora Nzoia pong’ ma omuomo kaluowre gi koth ma osebedo ka chwee Siaya gi aluorage.</t>
+  </si>
+  <si>
+    <t>Jalup Komishona morito sub county ma Ugenya Pamela Otieno, okoo ni gwenge ma midhierono ohinyo ahinya gin kaka locations ma West Ugenya gi East Ugenya kama puothe bende pii okethoe cham.</t>
+  </si>
+  <si>
+    <t>Okoo ni moko kuom familia ma pii odarogo ojot e skund sekondar ma siginga ka mamoko odak kod anyuondgi mamoko.</t>
+  </si>
+  <si>
+    <t>Jalup gavana mar county ma Kisumu, migosi Mathew Owili wacho ni giseyango ni luoro osedonjo ne jopiny ne wach midhsui mar coronavirus moko ma koro ok dwa dhii e osiptend eyudo thieth kata ka gituo</t>
+  </si>
+  <si>
+    <t>Dr. Owili wacho ni osiptende pod oyawu ne jopiny mar yudo thieth nimar nitie tuoche ma pod sando jopiny ma ok owinjore wee ma ok odhiedhgi kata odoko ni sani mahino nenore kagima oketi e tuo mar covid 19.</t>
+  </si>
+  <si>
+    <t>Jotuo Kisumu oluoro osiptal!</t>
+  </si>
+  <si>
+    <t>Riwiruok mar piny mangima ma rango weche mag thieth kod ngima oganda who ochiwo siem ne pinje ni midhusi mar Coronavirus chalo ma pod nyalo medo chwere kapok otieke.</t>
+  </si>
+  <si>
+    <t>Jataa tije ka who Dr. Tedros Adhanom Gebreyesus wacho ni thoth pinje sani pok ochopo e ng’iend lwenj kedo gi midhusino ka pinje mathoth owacho ni koreka chako ii gi lwenyno.</t>
+  </si>
+  <si>
+    <t>Dr. Tedros okwayo jotelo mag pinje mondo mii otim ikruok moromo kendo medo rido okenge mag rakruok gi midhusino ma sani gikore ni nyalo biro gwaro kapok okedgo moloo.</t>
+  </si>
+  <si>
+    <t>Od bura mar county ma Homabay opuodho nyinge jogo ma nyocha nme owal ne lemo mar jokanyo mag board ma ochung’;ne jotich piny owacho Public Service Board.</t>
+  </si>
+  <si>
+    <t>Jii ma yande nyingegi ochwal gi gavana mar countyno Cyprian Awiti kendo manyo opuodhi gi od burano gi kanyakla kod</t>
+  </si>
+  <si>
+    <t>Dr Lawrence Kotieng ma yande en jatend migao mar thieth e countyno, Elijah Ondondi kodo to kod Sarah Owino.</t>
+  </si>
+  <si>
+    <t>Jii 3go koro owinjore ocham muma mar apis mondo mii gichak chenro maggi ka maduong’ gi e thuolni en ndiko jochiwu thieth ma owinjore okony e lwenj kedo gi midhusi mar Coronavirus.</t>
+  </si>
+  <si>
+    <t>Odiechieng’ ma kawuono jokristo e piny mangima dhialo kaka tich 5 maler mar pasaka kata ‘Good Friday’ ka ma wang’ni tumore e yoo ma kende nimar onge chokruok e thoth pinje mani e bwoo pinyka, onge lamo mag ii kanisni, onge nyasi mag mor ma kaka osebedo katimore higni mosekalo.</t>
+  </si>
+  <si>
+    <t>maa en pasaka ma odonjo e kinde ma piny mangima ni e chuny midhiero kaluwore gi landruok mar midhusi mar Coronavirus.</t>
+  </si>
+  <si>
+    <t>Odiechieng’ ma kawuono ema joyie mag kristo joparoe kaka ne ogur Yesu</t>
+  </si>
+  <si>
+    <t>Ng’ur moko owuok e od bura mar county ma omabay kaluowre gi lokruoge manyo otim ne lemo mopogore opogore mag telo e od burano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCA ma Kanyadoto ward Walter Were Muok manyo omaa lemo mar jetend kweth mathoth e od burano nyoro, ywak ni yierruok ne obedo kendo nitie gwenge ma ok omii thuolo mar telo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemo mar jatend kweth mathoth ne omii MCA ma Kanyaluo ward Jeff Ongoro ka lemo mar spika ne omii MCA ma Kabondo West migosi Godfrey Anyango ma ongere kaka Goody Goody. </t>
+  </si>
+  <si>
+    <t>Ka mago duto gin MCAs mawuok e gwenge mag Rachuonyo.</t>
+  </si>
+  <si>
+    <t>Familia ma kwangi ok tin ne 20 e location ma Wang’chieng e county ma Homabay koro nigi achiedh nade ahinya to ne gwenge mani e dhoo wath ma Chuowe kama pii omol mochopo e miere kaluowre gi pong’ mar Nam Lolwe.</t>
+  </si>
+  <si>
+    <t>Jolupo gi jo ohala mamoko mani e dhoo wath ma Chuowe koro nigi luoro mokalo kaluwore gi midhierono.</t>
+  </si>
+  <si>
+    <t>Ruoth ma wang’chieng’ location Peter Agunga yango pii nam lolwe ne ochako medore juma mokalo kendo ochungo chenro mamoko mani e aluorano.</t>
+  </si>
+  <si>
+    <t>Bende ojiwo familia mani e dhoo wath mondo mii jochak manyo kuonde ma nikare.</t>
+  </si>
+  <si>
+    <t>Gavanas mag counties mag luo Nyanza iseyo ni oseweyo kawo ting’ maggi kakowinjore to kar mano ni giketo mahino e chenro magg bbi madhi nyime e pachoka.</t>
+  </si>
+  <si>
+    <t>Seneta ma Homabay migosi Moses Kajwang’ wacho ni gavanas oserem chopo kare singop maggi ka e kindeni gidhi nyime gi yuoro e romo mag BBI.</t>
+  </si>
+  <si>
+    <t>Migosi Kajwang’ manyo loso e county ma Kisumu, okoo ni midhiero ma okwako counties ema owinjore jotend county joket e mahino e kindeni.</t>
+  </si>
+  <si>
+    <t>Doho ma Kisumu kawuono owito oko bura mane omakne seneta ma Kisumu Fred Outa, mane en jalup gavana ma Kisumu Ruth Odinga, MCA ma Kondele Ward Joachim Oketch kod achije mamoko 2 ne wach mar ni ne girocho chenro mag apisas mag duol matayo yiero IEBC e kinde mane inuoyo yiero mar jatend piny kenya e dwee mar 10 higa 2018.</t>
+  </si>
+  <si>
+    <t>Doho ma Kisumu okawo okang’ makamano bang’ jomin buche were kod burano wira ni jotim neno maromo 9 duto mane igeno ni biro timo neno ne oduogo otamore timo neno.</t>
+  </si>
+  <si>
+    <t>Bad migao ma rito lee mag bunge KWS okoo ni jopiny nyaka bed gi horuok e thuolo magidhi nyime gi luwo chude ne jogo ma omonji gi lee mag bunge.</t>
+  </si>
+  <si>
+    <t>Jalup apisa maduong’ e rito lee mag bunge e county ma Kisumu gi Siaya Joseph Nyingesa wacho ni chenro mar chudono nyalo bedo ni gwaro to kata kamano piny owacho to gikone nyaka chudi.</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2481,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -2726,15 +2822,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4751,6 +4848,262 @@
       </c>
       <c r="B252" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="45">
+      <c r="A255" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="30">
+      <c r="A256" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="45">
+      <c r="A258" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="45">
+      <c r="A259" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="30">
+      <c r="A260" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="30">
+      <c r="A261" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="30">
+      <c r="A262" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30">
+      <c r="A263" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30">
+      <c r="A264" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="30">
+      <c r="A265" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="30">
+      <c r="A266" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="45">
+      <c r="A267" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="30">
+      <c r="A268" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="30">
+      <c r="A270" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="30">
+      <c r="A271" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="30">
+      <c r="A272" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="45">
+      <c r="A274" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="30">
+      <c r="A275" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="30">
+      <c r="A276" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30">
+      <c r="A278" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30">
+      <c r="A279" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="30">
+      <c r="A280" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="60">
+      <c r="A281" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30">
+      <c r="A282" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="30">
+      <c r="A283" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="30">
+      <c r="A284" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4763,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="377">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -926,6 +926,234 @@
   </si>
   <si>
     <t>Jalup apisa maduong’ e rito lee mag bunge e county ma Kisumu gi Siaya Joseph Nyingesa wacho ni chenro mar chudono nyalo bedo ni gwaro to kata kamano piny owacho to gikone nyaka chudi.</t>
+  </si>
+  <si>
+    <t>Jadolo Muheria mar Catholic okwayo kuonde lamo duto mapachoka mondo joyie oluu chike duto mane oketi mag kedo gi Covid-19</t>
+  </si>
+  <si>
+    <t>Jakom komiti mar jotend dinde mane ochuogi mag rango kaka kuonde lamo chopo chike mag kedo gi Coronavirus kapok oyau kuonde lamogo , jadolo mar kanisa mar Catholic mapachoka Anthony Muheria koro kwayo jotend dinde duto mathurka mondo jotemie neno ni chike ma oketi mag kedo gi Coronavirusgo dhano oluwo e kuonde lamogo kaka duarore</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno jadolo Muheria mabende e jatend diocese mar Catholic ma gwenge mag Nyeri ne owacho ni en gima ochuno mondo jolemo duto joluu chike moketi gi sirikalgo mondo okonygi e geng’o gamo midusi mar Covid-19no</t>
+  </si>
+  <si>
+    <t>Magi ne owacho ni esechegi makoro ne iyawoe kanise mapachoka ei kawuononi</t>
+  </si>
+  <si>
+    <t>To kumachielo bende jadolo Muheria bende ne okwayo jolemo duto mathurka mondo joket lamo ewii tuo mar Coronavirusni mondo mi Nyasaye orie bade kendo golo tuono e kind oganda – ma ochwe odhi chutho</t>
+  </si>
+  <si>
+    <t>Kanise ma County ma Kisumu ne oyepo ei odiechieng makoro ne oyawie kanise e thurkani</t>
+  </si>
+  <si>
+    <t>Kanise ma County ma Kisumu kawuono ne jonie odiechieng mar ariyo mar yuoro e weche mag alam bang yepo mag kanise e pachoka</t>
+  </si>
+  <si>
+    <t>Nonro mane otim gi Radio Ramogi ne oyango ni jolemo ne joyuoro e alam e kanise buora kaka kanisa mar Catholic , Anglican kod Deliverence Church kuom mamoko</t>
+  </si>
+  <si>
+    <t>Arch Bishop Joel Ofuna mar kanisa mar Ruwe Holy Ghost Church of East Africa ne oyango ni ne gichopo chike duto mane migao mochungne yoore mag thieth e pachoka ne duaro ni giluu mar neno ni jolemo mane odhi kuno ok jonyal gamo tuo mar Coronavirus</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno Bishop Ofuna nowacho ni giduaro temo neno ni onge ng’ata ng’ata magamo tuono e kuonde mag lamogo</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi Radio Ramogi , jadolono katakamano nowacho ni pod nitie kanise modhuro mapod nigi sida mar ng’iewo rapim liet mar del mabende ong’ere gi dho ngere kaka thermo gun ma iwacho ni nengone nimalo</t>
+  </si>
+  <si>
+    <t>Katakamano ne owacho ni kanise duaroee mondo jotemie luwo tir chike duto mane oketi gi piny owacho mag rakruok gi tuono</t>
+  </si>
+  <si>
+    <t>Midhiero mag kanisni</t>
+  </si>
+  <si>
+    <t>Jotelo mag county ma Siaya ojiwu mondo mii josir kanisni kendo neno ni gibedo gi nyalo mar yawo chenro mag alam kagiluwore gi okenge ma oketi mag geng’o landruok mar midhusi mar coronavirus.</t>
+  </si>
+  <si>
+    <t>MCA ma ward ma Usonga e kar chung od bura ma Alego Usonga migosi Silvestre Madialo wacho ni nitie kanisni ma dhii rem yawo chenro mag alam nimar gionge kod nyalo mar chopo dwaro ma piny owacho oketo</t>
+  </si>
+  <si>
+    <t>Kwan jii maromo 688 ne oyudi ei kawuononi ni nigi Coronavirus e pachoka</t>
+  </si>
+  <si>
+    <t>Kwan jii maromo 688 mane oyudi kawuononi ni nikod tuo mar Coronavirus makoro kelo kwan duto mag jogo man kod midusi magalagalano e pachoka chopo jii alufu 12 gi 750</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi gi jatend migao mochungne yoore mag thieth e pachoka migosi Mutahi Kagwe mane owacho ni kuom jii 688 go ng’ama hike ne tin mogik ne en nyathi moro ma ja dweche 7 ka mane hike duong mogik ne ja higni 95</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi jopiny kachiel kachiel e tipo mar telebisen kowuok e County ma Embu migosi Kagwe bende ne oyango ni jii 3 moko ne tuono olal gi ngimagi kawuononi makoro ne kelo kwan jogo duto ma tuono osenego e pachoka chopo jii 225 kod bende lero ni nitie jii 457 mane ochango ma owe odhi pacho ei kawuononi makoro kelo kwan jogo duto ma osechango e thurka chopo jii alufu 4 gi 440</t>
+  </si>
+  <si>
+    <t>Katakamano ne odhi nyime gi kwayo oganda jokenya duto mondo joyie okau lwenj kedo gi tuo mar Covid-19no ka margi giwegi maok weye ne mana piny owacho kende</t>
+  </si>
+  <si>
+    <t>DICHUO ODERE KA POLIS BANG’ NEGO WUON MARE</t>
+  </si>
+  <si>
+    <t>Dichuo moro ma ja higni 41 ma nyocha omaki kuom nego wuongi  ka gilaro wach  bando, okaw ngimane e cell mar obila. OCPD ma Ikolomani Joseph Chesire, oyango wachno kolero ni Raytone Luhombo mawuok e gweng ma Matundu  yoo Kakamega, nodere  kotiyo gi sati manorwako e cell mar tesend obila ma Malinya , kama osebed kolorne nyaka noneg wuon mare ma ja higni 68 no alfred isutsi.</t>
+  </si>
+  <si>
+    <t>Joyuak noyudo osechako chenro mar iko jaduongno kawuono e seche manokelnegi wach ni rawuoyino bende odere.</t>
+  </si>
+  <si>
+    <t>Riuruok mar bisobe mag oganda jokopere koro dhi nyime gi kedo gi tuo mar kahera e County ma Kisumu</t>
+  </si>
+  <si>
+    <t>Riuruok mar bisobe mag oganda jokopere mong’ere kaka Kenye Conference of Catholic Bishops kokalo kuom chenro manyochane gichako mar kedo kod landruok mar tuo mar kahera mong’ere kaka Komesha TB Program sani jodhi nyime gi puonjo jopiny e County ma Kisumu ewii wach dhi e pim mar ng’eyo chal mari ne tuo mar kaherano</t>
+  </si>
+  <si>
+    <t>Maendi koro ne gichako kaluwore kod wach kwan matin mag jii mawuok oko mar dhi e kuonde thieth nikech giluoro wach tuo mar Coronavirus masani koro landore ka maa tiang e piny Kenyani</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e Sub County ma Nyakach laktar Sam Oduor Muga maen manager mar chenro mar Komesha TB no mabende osir gi USaid nowacho ni githiedho tuo mar kaherano nono maonge chudo e osiptende mag misen ka gisiro chenro mag thieth nonogo</t>
+  </si>
+  <si>
+    <t>Zipporrah Orucho maen Coordinator mar weche mag kedo gi tuo mar kaherano e Sub County ma Nyakach kuno nowacho ni gikedo mar golo luoro ma dhano nigo e weche mag thieth mar tuo mar kaherano kaachiel gi golo akwede moko ma dhano jokwedogo joma giwinjo ni nigi tuo mar kaherano</t>
+  </si>
+  <si>
+    <t>George Oliech maen jatij kar thieth ma Nyabondo Mission Hospital nowacho ni osebedo ka otiyo tij wuoyo gi jogweng mondo joyie odhi e pim mar kahera mondo mi ging’e chal margi koluwore gi tuono kanowacho ni tuo mar kahera en tuo migamo gie yamo ma kaok ong’i wachne maber to yot mondo mi oket ngima oganda kamarach</t>
+  </si>
+  <si>
+    <t>SENETA SAKAJA ORAMO NI NE OK OMAKE</t>
+  </si>
+  <si>
+    <t>Kata kamano andike mare e mbui mar twitter omedo mana jimbo wach ka jokenya mathoth medo kwede  kuom rocho chike mag curfew  moketi gi piny owacho  to en e jakom mar kamati mar senate e wi midhusi mar corona.</t>
+  </si>
+  <si>
+    <t>Senator ma Nairobi Johnson Sakaja koro okwedo lipode ni nomake  monindo e tesend obila ma Kilimani otieno mokalo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kokalo e mbui mare mar twitter,  Sakaja wacho ni jok ma lando meko mare onego ochiw namba mar OB manondikne kobila kaka yoo mar bedo gi adiera e wi meko mare.</t>
+  </si>
+  <si>
+    <t>OPAMO DWARO RATIRO MARGI</t>
+  </si>
+  <si>
+    <t>Piny owacho mag Counties okwa mondo oket thenge kwan omenda moro mar konyo opamo mae Counties go ma sani kaloe kinde matek mokalo kaluwore gi midhiero mokel gi mucoh mar midhusi mar corona.</t>
+  </si>
+  <si>
+    <t>Riwruok moro ni sauti ya wanawake bade ma ka nam chumbi kokalo kuok jakomgi Dorcas Jibran, owacho ni andwayogo ok nyal yudo kaka chiemo wira ni chike moketi gi piny owacho oridore negi mokalo.</t>
+  </si>
+  <si>
+    <t>Nowacho ni counties onego omigi kony mar yudo kaka ginyalo medo dago ngima maber.</t>
+  </si>
+  <si>
+    <t>LADY MAUREEN POK OIKI</t>
+  </si>
+  <si>
+    <t>Kata kamano jopiny ok odewo wach mdhusi mar Corona wira ni dhano odhugni malich mokalo e kama inene ringre jangolono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringre jangolo mar ohangla lady Maureen pod ni e alak  mar sikul ma Kopanga kama jopiny pod nene ringre kapok okowe kar yueyo mare mogik. </t>
+  </si>
+  <si>
+    <t>Motelo noseter ringre pacho mak mana ni johera mage noyudho ringre motero e sikund primar ma Kopanga kama jopiny nene e yor kwe.</t>
+  </si>
+  <si>
+    <t>DOHO MA KISUMU OPUODHO OMBARA</t>
+  </si>
+  <si>
+    <t>Doho wacho ni Ombara kuom mano ne ok obalo gi chik mar doho.</t>
+  </si>
+  <si>
+    <t>Go ma Kisumo owacho ni City manager Doris Ombara ne ok otimo keth moro amora kaluwore gi okang mare mar  muko chiro ma kibuye e okang mar bero chirono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jangad bura wacho ni winjruok ne obedo kendo jo ohalago nodar modhi kamachielo  mane gidhi use ka girito tiek gedo mar chirono.</t>
+  </si>
+  <si>
+    <t>OLORNE RINGRE WUODGI NIKECH GOWI MADUONG’.</t>
+  </si>
+  <si>
+    <t>Familia moro e gweng ma Malela ei West Kabuoch  location e Sub County ma Ndhiwa sani jokwayo kony mondo mi giyud ringre wuodgi moselorne kuom kinde buora e kar kano ringruok moro ma eldoret e wi bill mar siling 759,000</t>
+  </si>
+  <si>
+    <t>Anyuolano wacho ni wuodgi ma ja higni 44 no osebet e osiptal ma Eldoretno kuom jumbe ariyo kane en gi Cancer mar remo ema kaeto bangé nowito ngimane.</t>
+  </si>
+  <si>
+    <t>Weg osiptal mar jii giwegino olero ni ok ginyal chiwo ringre jalo nyaka chul bill go duto.</t>
+  </si>
+  <si>
+    <t>Ng’ur e od bura ma Homabay</t>
+  </si>
+  <si>
+    <t>Lemo mar jatend kweth mathoth ne omii MCA ma Kanyaluo ward Jeff Ongoro ka lemo mar spika ne omii MCA ma Kabondo West migosi Godfrey Anyango ma ongere kaka Goody Goody.</t>
+  </si>
+  <si>
+    <t>MCA ma Kanyadoto ward Walter Were Muok manyo omaa lemo mar jetend kweth mathoth e od burano nyoro, ywak ni yierruok ne obedo kendo nitie gwenge ma ok omii thuolo mar telo.</t>
+  </si>
+  <si>
+    <t>Jatuo maja piny China oketi e ward e kar kende e hopspital ma Agakhan hospital Kisumu kaluwore gio luoro marni onyalo bedogi midhusi mar Corona Virus</t>
+  </si>
+  <si>
+    <t>Ja Chinano matiyo e kambi magero apaya e boma ma Ugunja county ma Siaya wachore ni nyoro oter e kar thiethno otieno manyoro gi miyo moro kendo esache mane irwake ei od thieth to ne orwakne leuni mag arita ma pononi ne onyalo bedogi midhusino to ne ok onyal landore kuom jok mamoko</t>
+  </si>
+  <si>
+    <t>Laktere wachoni jatuono ne okuong othiedhi gi tuo mar pneumonia ka katakamno ne oduog okete ei ward maentie kar kende kama osekawie ranyisi mar timo pim kendo yango kadiponi onyalo bedogi midhusi mar Coronano kata ooyo.</t>
+  </si>
+  <si>
+    <t>Katakamano kane odwar pache ewi wachni to directa mochungne chenro mag thieth e kar thieth ma Aghakan Dr. Patrick Eshiwani ne okoni ne entie e romo moro kendo ne ok oduogo oyua tol machiwo ler ewi wachno</t>
+  </si>
+  <si>
+    <t>Jagoro maduong mar duond bura mar Jubilee Raphael Tuju ne oter gi ndege nyaka epinje maoko dhi yudo thieth moyiedhi kaluwore gi masira mar apaya mane ojuke e apaya maduong mawuok Nairobika nyaka Nakuru.</t>
+  </si>
+  <si>
+    <t>Duond bura mar Jubilee e ote makende ne ute fuambo gi keyo kokalo kuom directa mochungne yore tudruok Albert Nemusi, wachoni familia mar tuju ema okawo okang’ mar tere e pinje maoko bang lalruok giu laktare mane thiedhe e pachoka</t>
+  </si>
+  <si>
+    <t>Tuju kaluwore gi memusi nyo osegol e kar thieth mar jotuo mangimagi nitie kama rach kendoni nyo osepiele e ward mapile kaluwore gi kaka ngimane nyo osechako bedogi lokruok</t>
+  </si>
+  <si>
+    <t>Tuju ne oromo gi masira mar apaya makamano tarik 12 dweni kane oriko entie e safar kane odhi e hiiko mar ker mar 2 mapachoka jaduong Daniel Arap Moi Kabarak.</t>
+  </si>
+  <si>
+    <t>Kaluwore gi ripord obila nyamburko mar tuju ne otuomore gi matatu mane temo kalo nyamburko mamoko e apayano ka tije manyocha ne Tuju timo e duond bura mar jubilee itimo gi apisa maduong james waweru makonyore gi apisas mamoko nyaka chop Tuju bii duogi kowuok e hospital.</t>
+  </si>
+  <si>
+    <t>Manyaloromo familia 10 sani jodong maonge kuma chuoyee wigi bang mach maratipo wang’o utegi e dho wath ma Sena Beach , Mfang’ano East location , Suba North e County ma Homa Bay</t>
+  </si>
+  <si>
+    <t>Majno nyo owang’o udigi ei otieno mane piny oruugo kawuononi</t>
+  </si>
+  <si>
+    <t>Majno mabende nyo omuoch kar saa adek mar otieno mane piny oruugo kawuononi ne owang’o udi 6 mag apanga ma odong mana mirni olilo nyaka mwandu mane nie igi duto bende</t>
+  </si>
+  <si>
+    <t>Kanowuoyo ewii wachno jatend obila ma County ma Homa Bay Esther Seroney nowacho ni majno nyo omuoch e achiel kuom udigo ni ema kaeto nyo olandoree ma odhi e udi mamoko ma owang’o duto gi mwandu e igi ma oweyo weg udigo ka jodong chwata gi lwetgi nono makata gima digiwachi ni gidonggo onge</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno Seroney nowacho ni majno ne owang’o udigo kod mwandu duto manyo nie igi makoro nyo ochuno weg udigo mondo jonind oko e koyo</t>
+  </si>
+  <si>
+    <t>Obila mawuok e tesend obila ma Sena Patrol Base mane joringo odhi e kama nyo masirano otimoreeno nyo jotemo konyo e nego majno ka jotenore kod jopiny to katakamano nyo nego majno otamore nikech nyo oselandore ma omako udigo duto</t>
+  </si>
+  <si>
+    <t>Jatend obilano nowacho ni gisechako timo nonro mar yango gima dinyo kel majno</t>
+  </si>
+  <si>
+    <t>Katakamano onge ng’ata ng’ata manyo ohinyore kata tho e masirano</t>
+  </si>
+  <si>
+    <t>Obila e kaunti ma Mombasa pedho achije moko angwen  mane omonjo wuon duka moro e gweng ma Chaani eodbura ma Changamwe Mombasa kuma ne gikwale kwan omwom mapok oyangi eotieno mane piny ruugo kawuono.</t>
+  </si>
+  <si>
+    <t>Kaneoyango wachnoendo komanda mar obila ma Changamwe Ali Ndiema wacho achijego mane jomanore gi musdhola ne jotingore e apiko achiel esche mag monjno mane gitimo kar saa angwen motieno.</t>
+  </si>
+  <si>
+    <t>Wachore ni achijego ne owuodho musdhola to kae to gichikone wuon dukane kagike ni oywa dhot kuna ne gidonje kae to gichoko pesa duto mane giyudo.</t>
+  </si>
+  <si>
+    <t>Ne ochuno jonjorego muocho magina ariyo e kor yamo kakoro giwuok mar keyo moko kuom jopiny mane oseyuoro modino negi bang winjo nduru mar wuon dukanoendo makatakamano ne otony maonge hinyruok.</t>
+  </si>
+  <si>
+    <t>Jochiwu thieth e osiptal ma mine ma pumwani jong’anyo tich kagibandho chudo mar osara ma giywak ni pok ochulgi kuom dweche 4.</t>
+  </si>
+  <si>
+    <t>Ma ok tin ne jochiwu thieth 70 ma ondiki e yor kojolo kata contract odagi donjo e tich kendo gibago ng’anyo kagikoo ne jatend osiptandno Geoffrey Mosira ochulgi osara ma osekunore kochakore dwee mar 11 higa mokalo.</t>
+  </si>
+  <si>
+    <t>Peter Mwangi gi Judith Adongo ma otelo ne kweth jochiwu thieth ma ng’anyogo ywakni gikadhe midhiero mathoth e osiptandno ma Pumwani.</t>
   </si>
 </sst>
 </file>
@@ -2822,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3690,7 +3918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="45">
+    <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
         <v>138</v>
       </c>
@@ -3698,7 +3926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="45">
+    <row r="109" spans="1:2" ht="30">
       <c r="A109" s="11" t="s">
         <v>132</v>
       </c>
@@ -3706,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="45">
+    <row r="110" spans="1:2" ht="30">
       <c r="A110" s="11" t="s">
         <v>133</v>
       </c>
@@ -3714,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
+    <row r="111" spans="1:2" ht="30">
       <c r="A111" s="11" t="s">
         <v>134</v>
       </c>
@@ -3722,7 +3950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45">
+    <row r="112" spans="1:2" ht="30">
       <c r="A112" s="11" t="s">
         <v>135</v>
       </c>
@@ -3730,7 +3958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="45">
+    <row r="113" spans="1:2" ht="30">
       <c r="A113" s="11" t="s">
         <v>136</v>
       </c>
@@ -3738,7 +3966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="45">
+    <row r="114" spans="1:2" ht="30">
       <c r="A114" s="11" t="s">
         <v>137</v>
       </c>
@@ -3746,7 +3974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="75">
+    <row r="115" spans="1:2" ht="30">
       <c r="A115" s="10" t="s">
         <v>139</v>
       </c>
@@ -3754,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="75">
+    <row r="116" spans="1:2" ht="30">
       <c r="A116" s="11" t="s">
         <v>140</v>
       </c>
@@ -3762,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="75">
+    <row r="117" spans="1:2" ht="30">
       <c r="A117" s="11" t="s">
         <v>141</v>
       </c>
@@ -3770,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="75">
+    <row r="118" spans="1:2" ht="30">
       <c r="A118" s="11" t="s">
         <v>142</v>
       </c>
@@ -3778,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="75">
+    <row r="119" spans="1:2">
       <c r="A119" s="11" t="s">
         <v>143</v>
       </c>
@@ -3786,7 +4014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="75">
+    <row r="120" spans="1:2" ht="30">
       <c r="A120" s="11" t="s">
         <v>144</v>
       </c>
@@ -3794,7 +4022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="75">
+    <row r="121" spans="1:2" ht="30">
       <c r="A121" s="11" t="s">
         <v>145</v>
       </c>
@@ -3938,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="60">
+    <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
         <v>163</v>
       </c>
@@ -3946,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="60">
+    <row r="140" spans="1:2" ht="45">
       <c r="A140" s="11" t="s">
         <v>164</v>
       </c>
@@ -3954,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="60">
+    <row r="141" spans="1:2" ht="45">
       <c r="A141" s="11" t="s">
         <v>165</v>
       </c>
@@ -3962,7 +4190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="60">
+    <row r="142" spans="1:2" ht="45">
       <c r="A142" s="11" t="s">
         <v>166</v>
       </c>
@@ -3970,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="60">
+    <row r="143" spans="1:2" ht="45">
       <c r="A143" s="11" t="s">
         <v>167</v>
       </c>
@@ -4034,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="45">
+    <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
         <v>175</v>
       </c>
@@ -4042,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="45">
+    <row r="152" spans="1:2" ht="30">
       <c r="A152" s="11" t="s">
         <v>176</v>
       </c>
@@ -4050,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="45">
+    <row r="153" spans="1:2" ht="30">
       <c r="A153" s="11" t="s">
         <v>177</v>
       </c>
@@ -4066,7 +4294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45">
+    <row r="155" spans="1:2" ht="30">
       <c r="A155" s="11" t="s">
         <v>179</v>
       </c>
@@ -4082,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="45">
+    <row r="157" spans="1:2" ht="30">
       <c r="A157" s="11" t="s">
         <v>181</v>
       </c>
@@ -4122,7 +4350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="75">
+    <row r="162" spans="1:2">
       <c r="A162" s="10" t="s">
         <v>186</v>
       </c>
@@ -4130,7 +4358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="75">
+    <row r="163" spans="1:2" ht="30">
       <c r="A163" s="11" t="s">
         <v>187</v>
       </c>
@@ -4138,7 +4366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="75">
+    <row r="164" spans="1:2" ht="30">
       <c r="A164" s="11" t="s">
         <v>188</v>
       </c>
@@ -4146,7 +4374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="75">
+    <row r="165" spans="1:2" ht="30">
       <c r="A165" s="11" t="s">
         <v>189</v>
       </c>
@@ -4154,7 +4382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="75">
+    <row r="166" spans="1:2" ht="30">
       <c r="A166" s="12" t="s">
         <v>190</v>
       </c>
@@ -4162,7 +4390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="75">
+    <row r="167" spans="1:2" ht="45">
       <c r="A167" s="11" t="s">
         <v>191</v>
       </c>
@@ -4170,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="75">
+    <row r="168" spans="1:2" ht="45">
       <c r="A168" s="11" t="s">
         <v>192</v>
       </c>
@@ -4178,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="75">
+    <row r="169" spans="1:2" ht="30">
       <c r="A169" s="11" t="s">
         <v>193</v>
       </c>
@@ -4186,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="75">
+    <row r="170" spans="1:2" ht="45">
       <c r="A170" s="11" t="s">
         <v>194</v>
       </c>
@@ -4194,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="75">
+    <row r="171" spans="1:2" ht="30">
       <c r="A171" s="11" t="s">
         <v>195</v>
       </c>
@@ -4202,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="75">
+    <row r="172" spans="1:2" ht="45">
       <c r="A172" s="11" t="s">
         <v>196</v>
       </c>
@@ -4210,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="75">
+    <row r="173" spans="1:2" ht="30">
       <c r="A173" s="11" t="s">
         <v>197</v>
       </c>
@@ -4306,7 +4534,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="45">
+    <row r="185" spans="1:2" ht="30">
       <c r="A185" s="11" t="s">
         <v>210</v>
       </c>
@@ -4322,7 +4550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="45">
+    <row r="187" spans="1:2" ht="30">
       <c r="A187" s="11" t="s">
         <v>212</v>
       </c>
@@ -4330,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="60">
+    <row r="188" spans="1:2" ht="45">
       <c r="A188" s="11" t="s">
         <v>213</v>
       </c>
@@ -4338,7 +4566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="60">
+    <row r="189" spans="1:2" ht="30">
       <c r="A189" s="11" t="s">
         <v>214</v>
       </c>
@@ -4346,7 +4574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="60">
+    <row r="190" spans="1:2" ht="45">
       <c r="A190" s="11" t="s">
         <v>215</v>
       </c>
@@ -4354,7 +4582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="60">
+    <row r="191" spans="1:2" ht="45">
       <c r="A191" s="11" t="s">
         <v>216</v>
       </c>
@@ -4386,7 +4614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="60">
+    <row r="195" spans="1:2" ht="45">
       <c r="A195" s="11" t="s">
         <v>220</v>
       </c>
@@ -4394,7 +4622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="60">
+    <row r="196" spans="1:2" ht="30">
       <c r="A196" s="11" t="s">
         <v>221</v>
       </c>
@@ -4402,7 +4630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="60">
+    <row r="197" spans="1:2" ht="45">
       <c r="A197" s="11" t="s">
         <v>222</v>
       </c>
@@ -4538,7 +4766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="75">
+    <row r="214" spans="1:2">
       <c r="A214" s="11" t="s">
         <v>239</v>
       </c>
@@ -4546,7 +4774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="75">
+    <row r="215" spans="1:2" ht="30">
       <c r="A215" s="11" t="s">
         <v>240</v>
       </c>
@@ -4554,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="75">
+    <row r="216" spans="1:2" ht="30">
       <c r="A216" s="11" t="s">
         <v>241</v>
       </c>
@@ -4562,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="75">
+    <row r="217" spans="1:2" ht="30">
       <c r="A217" s="11" t="s">
         <v>242</v>
       </c>
@@ -4570,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="75">
+    <row r="218" spans="1:2" ht="45">
       <c r="A218" s="11" t="s">
         <v>243</v>
       </c>
@@ -4578,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="60">
+    <row r="219" spans="1:2" ht="45">
       <c r="A219" s="11" t="s">
         <v>244</v>
       </c>
@@ -4586,7 +4814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="60">
+    <row r="220" spans="1:2" ht="45">
       <c r="A220" s="11" t="s">
         <v>245</v>
       </c>
@@ -4594,7 +4822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="60">
+    <row r="221" spans="1:2" ht="45">
       <c r="A221" s="11" t="s">
         <v>246</v>
       </c>
@@ -4602,7 +4830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="45">
+    <row r="222" spans="1:2">
       <c r="A222" s="10" t="s">
         <v>1</v>
       </c>
@@ -4610,7 +4838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="45">
+    <row r="223" spans="1:2" ht="30">
       <c r="A223" s="11" t="s">
         <v>247</v>
       </c>
@@ -4618,7 +4846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="45">
+    <row r="224" spans="1:2" ht="30">
       <c r="A224" s="11" t="s">
         <v>248</v>
       </c>
@@ -4650,7 +4878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="45">
+    <row r="228" spans="1:2" ht="30">
       <c r="A228" s="11" t="s">
         <v>252</v>
       </c>
@@ -4658,7 +4886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="45">
+    <row r="229" spans="1:2" ht="30">
       <c r="A229" s="11" t="s">
         <v>253</v>
       </c>
@@ -4666,7 +4894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="75">
+    <row r="230" spans="1:2">
       <c r="A230" s="10" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="75">
+    <row r="231" spans="1:2" ht="30">
       <c r="A231" s="11" t="s">
         <v>254</v>
       </c>
@@ -4682,7 +4910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="75">
+    <row r="232" spans="1:2" ht="30">
       <c r="A232" s="11" t="s">
         <v>255</v>
       </c>
@@ -4690,7 +4918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="75">
+    <row r="233" spans="1:2" ht="30">
       <c r="A233" s="11" t="s">
         <v>256</v>
       </c>
@@ -4698,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="75">
+    <row r="234" spans="1:2" ht="45">
       <c r="A234" s="11" t="s">
         <v>257</v>
       </c>
@@ -4706,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="75">
+    <row r="235" spans="1:2" ht="30">
       <c r="A235" s="11" t="s">
         <v>258</v>
       </c>
@@ -4714,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="75">
+    <row r="236" spans="1:2" ht="30">
       <c r="A236" s="11" t="s">
         <v>259</v>
       </c>
@@ -4722,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="75">
+    <row r="237" spans="1:2" ht="45">
       <c r="A237" s="11" t="s">
         <v>260</v>
       </c>
@@ -5104,6 +5332,614 @@
       </c>
       <c r="B284" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
+      <c r="A285" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="60">
+      <c r="A286" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="45">
+      <c r="A287" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="45">
+      <c r="A289" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="30">
+      <c r="A291" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="30">
+      <c r="A292" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="45">
+      <c r="A293" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30">
+      <c r="A294" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="45">
+      <c r="A295" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30">
+      <c r="A296" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30">
+      <c r="A298" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="45">
+      <c r="A299" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="30">
+      <c r="A301" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="45">
+      <c r="A302" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="60">
+      <c r="A303" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30">
+      <c r="A304" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="60">
+      <c r="A306" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="30">
+      <c r="A308" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="60">
+      <c r="A309" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="30">
+      <c r="A310" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="45">
+      <c r="A311" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="45">
+      <c r="A312" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="60">
+      <c r="A313" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30">
+      <c r="A315" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="30">
+      <c r="A316" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="45">
+      <c r="A317" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="45">
+      <c r="A319" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="45">
+      <c r="A320" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="30">
+      <c r="A323" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30">
+      <c r="A324" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30">
+      <c r="A325" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="30">
+      <c r="A327" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="30">
+      <c r="A328" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="45">
+      <c r="A331" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="30">
+      <c r="A332" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="30">
+      <c r="A335" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="30">
+      <c r="A336" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="30">
+      <c r="A337" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="45">
+      <c r="A338" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="45">
+      <c r="A339" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="45">
+      <c r="A340" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="45">
+      <c r="A341" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="45">
+      <c r="A342" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="30">
+      <c r="A343" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="30">
+      <c r="A344" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="45">
+      <c r="A345" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="30">
+      <c r="A346" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="30">
+      <c r="A348" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="60">
+      <c r="A349" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="30">
+      <c r="A350" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="45">
+      <c r="A351" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="45">
+      <c r="A354" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="45">
+      <c r="A355" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="30">
+      <c r="A356" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="45">
+      <c r="A357" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="30">
+      <c r="A358" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="45">
+      <c r="A359" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="30">
+      <c r="A360" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="713" sheetId="2" r:id="rId1"/>
@@ -16,12 +16,13 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="380">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -991,9 +992,6 @@
     <t>DICHUO ODERE KA POLIS BANG’ NEGO WUON MARE</t>
   </si>
   <si>
-    <t>Dichuo moro ma ja higni 41 ma nyocha omaki kuom nego wuongi  ka gilaro wach  bando, okaw ngimane e cell mar obila. OCPD ma Ikolomani Joseph Chesire, oyango wachno kolero ni Raytone Luhombo mawuok e gweng ma Matundu  yoo Kakamega, nodere  kotiyo gi sati manorwako e cell mar tesend obila ma Malinya , kama osebed kolorne nyaka noneg wuon mare ma ja higni 68 no alfred isutsi.</t>
-  </si>
-  <si>
     <t>Joyuak noyudo osechako chenro mar iko jaduongno kawuono e seche manokelnegi wach ni rawuoyino bende odere.</t>
   </si>
   <si>
@@ -1154,6 +1152,18 @@
   </si>
   <si>
     <t>Peter Mwangi gi Judith Adongo ma otelo ne kweth jochiwu thieth ma ng’anyogo ywakni gikadhe midhiero mathoth e osiptandno ma Pumwani.</t>
+  </si>
+  <si>
+    <t>Count of Familia ma kwangi ohewo alufu 1 pii oula osedaro e sub county ma Ugenya e county ma Siaya.</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>OCPD ma Ikolomani Joseph Chesire, oyango wachno kolero ni Raytone Luhombo mawuok e gweng ma Matundu  yoo Kakamega, nodere  kotiyo gi sati manorwako e cell mar tesend obila ma Malinya , kama osebed kolorne nyaka noneg wuon mare ma ja higni 68 no alfred isutsi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichuo moro ma ja higni 41 ma nyocha omaki kuom nego wuongi  ka gilaro wach  bando, okaw ngimane e cell mar obila. </t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1680,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1703,6 +1713,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1801,6 +1814,137 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44031.658877199072" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="107">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A253:B361" sheet="713"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Familia ma kwangi ohewo alufu 1 pii oula osedaro e sub county ma Ugenya e county ma Siaya." numFmtId="0">
+      <sharedItems count="107" longText="1">
+        <s v="Ma bang’ aora Nzoia pong’ ma omuomo kaluowre gi koth ma osebedo ka chwee Siaya gi aluorage."/>
+        <s v="Jalup Komishona morito sub county ma Ugenya Pamela Otieno, okoo ni gwenge ma midhierono ohinyo ahinya gin kaka locations ma West Ugenya gi East Ugenya kama puothe bende pii okethoe cham."/>
+        <s v="Okoo ni moko kuom familia ma pii odarogo ojot e skund sekondar ma siginga ka mamoko odak kod anyuondgi mamoko."/>
+        <s v="Jotuo Kisumu oluoro osiptal!"/>
+        <s v="Jalup gavana mar county ma Kisumu, migosi Mathew Owili wacho ni giseyango ni luoro osedonjo ne jopiny ne wach midhsui mar coronavirus moko ma koro ok dwa dhii e osiptend eyudo thieth kata ka gituo"/>
+        <s v="Dr. Owili wacho ni osiptende pod oyawu ne jopiny mar yudo thieth nimar nitie tuoche ma pod sando jopiny ma ok owinjore wee ma ok odhiedhgi kata odoko ni sani mahino nenore kagima oketi e tuo mar covid 19."/>
+        <s v="Riwiruok mar piny mangima ma rango weche mag thieth kod ngima oganda who ochiwo siem ne pinje ni midhusi mar Coronavirus chalo ma pod nyalo medo chwere kapok otieke."/>
+        <s v="Jataa tije ka who Dr. Tedros Adhanom Gebreyesus wacho ni thoth pinje sani pok ochopo e ng’iend lwenj kedo gi midhusino ka pinje mathoth owacho ni koreka chako ii gi lwenyno."/>
+        <s v="Dr. Tedros okwayo jotelo mag pinje mondo mii otim ikruok moromo kendo medo rido okenge mag rakruok gi midhusino ma sani gikore ni nyalo biro gwaro kapok okedgo moloo."/>
+        <s v="Od bura mar county ma Homabay opuodho nyinge jogo ma nyocha nme owal ne lemo mar jokanyo mag board ma ochung’;ne jotich piny owacho Public Service Board."/>
+        <s v="Jii ma yande nyingegi ochwal gi gavana mar countyno Cyprian Awiti kendo manyo opuodhi gi od burano gi kanyakla kod"/>
+        <s v="Dr Lawrence Kotieng ma yande en jatend migao mar thieth e countyno, Elijah Ondondi kodo to kod Sarah Owino."/>
+        <s v="Jii 3go koro owinjore ocham muma mar apis mondo mii gichak chenro maggi ka maduong’ gi e thuolni en ndiko jochiwu thieth ma owinjore okony e lwenj kedo gi midhusi mar Coronavirus."/>
+        <s v="Odiechieng’ ma kawuono jokristo e piny mangima dhialo kaka tich 5 maler mar pasaka kata ‘Good Friday’ ka ma wang’ni tumore e yoo ma kende nimar onge chokruok e thoth pinje mani e bwoo pinyka, onge lamo mag ii kanisni, onge nyasi mag mor ma kaka osebedo katimore higni mosekalo."/>
+        <s v="maa en pasaka ma odonjo e kinde ma piny mangima ni e chuny midhiero kaluwore gi landruok mar midhusi mar Coronavirus."/>
+        <s v="Odiechieng’ ma kawuono ema joyie mag kristo joparoe kaka ne ogur Yesu"/>
+        <s v="Ng’ur moko owuok e od bura mar county ma omabay kaluowre gi lokruoge manyo otim ne lemo mopogore opogore mag telo e od burano."/>
+        <s v="MCA ma Kanyadoto ward Walter Were Muok manyo omaa lemo mar jetend kweth mathoth e od burano nyoro, ywak ni yierruok ne obedo kendo nitie gwenge ma ok omii thuolo mar telo. "/>
+        <s v="Lemo mar jatend kweth mathoth ne omii MCA ma Kanyaluo ward Jeff Ongoro ka lemo mar spika ne omii MCA ma Kabondo West migosi Godfrey Anyango ma ongere kaka Goody Goody. "/>
+        <s v="Ka mago duto gin MCAs mawuok e gwenge mag Rachuonyo."/>
+        <s v="Familia ma kwangi ok tin ne 20 e location ma Wang’chieng e county ma Homabay koro nigi achiedh nade ahinya to ne gwenge mani e dhoo wath ma Chuowe kama pii omol mochopo e miere kaluowre gi pong’ mar Nam Lolwe."/>
+        <s v="Jolupo gi jo ohala mamoko mani e dhoo wath ma Chuowe koro nigi luoro mokalo kaluwore gi midhierono."/>
+        <s v="Ruoth ma wang’chieng’ location Peter Agunga yango pii nam lolwe ne ochako medore juma mokalo kendo ochungo chenro mamoko mani e aluorano."/>
+        <s v="Bende ojiwo familia mani e dhoo wath mondo mii jochak manyo kuonde ma nikare."/>
+        <s v="Gavanas mag counties mag luo Nyanza iseyo ni oseweyo kawo ting’ maggi kakowinjore to kar mano ni giketo mahino e chenro magg bbi madhi nyime e pachoka."/>
+        <s v="Seneta ma Homabay migosi Moses Kajwang’ wacho ni gavanas oserem chopo kare singop maggi ka e kindeni gidhi nyime gi yuoro e romo mag BBI."/>
+        <s v="Migosi Kajwang’ manyo loso e county ma Kisumu, okoo ni midhiero ma okwako counties ema owinjore jotend county joket e mahino e kindeni."/>
+        <s v="Doho ma Kisumu kawuono owito oko bura mane omakne seneta ma Kisumu Fred Outa, mane en jalup gavana ma Kisumu Ruth Odinga, MCA ma Kondele Ward Joachim Oketch kod achije mamoko 2 ne wach mar ni ne girocho chenro mag apisas mag duol matayo yiero IEBC e kinde mane inuoyo yiero mar jatend piny kenya e dwee mar 10 higa 2018."/>
+        <s v="Doho ma Kisumu okawo okang’ makamano bang’ jomin buche were kod burano wira ni jotim neno maromo 9 duto mane igeno ni biro timo neno ne oduogo otamore timo neno."/>
+        <s v="Bad migao ma rito lee mag bunge KWS okoo ni jopiny nyaka bed gi horuok e thuolo magidhi nyime gi luwo chude ne jogo ma omonji gi lee mag bunge."/>
+        <s v="Jalup apisa maduong’ e rito lee mag bunge e county ma Kisumu gi Siaya Joseph Nyingesa wacho ni chenro mar chudono nyalo bedo ni gwaro to kata kamano piny owacho to gikone nyaka chudi."/>
+        <s v="Jadolo Muheria mar Catholic okwayo kuonde lamo duto mapachoka mondo joyie oluu chike duto mane oketi mag kedo gi Covid-19"/>
+        <s v="Jakom komiti mar jotend dinde mane ochuogi mag rango kaka kuonde lamo chopo chike mag kedo gi Coronavirus kapok oyau kuonde lamogo , jadolo mar kanisa mar Catholic mapachoka Anthony Muheria koro kwayo jotend dinde duto mathurka mondo jotemie neno ni chike ma oketi mag kedo gi Coronavirusgo dhano oluwo e kuonde lamogo kaka duarore"/>
+        <s v="Kanomedowuoyo ewii wachno jadolo Muheria mabende e jatend diocese mar Catholic ma gwenge mag Nyeri ne owacho ni en gima ochuno mondo jolemo duto joluu chike moketi gi sirikalgo mondo okonygi e geng’o gamo midusi mar Covid-19no"/>
+        <s v="Magi ne owacho ni esechegi makoro ne iyawoe kanise mapachoka ei kawuononi"/>
+        <s v="To kumachielo bende jadolo Muheria bende ne okwayo jolemo duto mathurka mondo joket lamo ewii tuo mar Coronavirusni mondo mi Nyasaye orie bade kendo golo tuono e kind oganda – ma ochwe odhi chutho"/>
+        <s v="Kanise ma County ma Kisumu ne oyepo ei odiechieng makoro ne oyawie kanise e thurkani"/>
+        <s v="Kanise ma County ma Kisumu kawuono ne jonie odiechieng mar ariyo mar yuoro e weche mag alam bang yepo mag kanise e pachoka"/>
+        <s v="Nonro mane otim gi Radio Ramogi ne oyango ni jolemo ne joyuoro e alam e kanise buora kaka kanisa mar Catholic , Anglican kod Deliverence Church kuom mamoko"/>
+        <s v="Arch Bishop Joel Ofuna mar kanisa mar Ruwe Holy Ghost Church of East Africa ne oyango ni ne gichopo chike duto mane migao mochungne yoore mag thieth e pachoka ne duaro ni giluu mar neno ni jolemo mane odhi kuno ok jonyal gamo tuo mar Coronavirus"/>
+        <s v="Kanomedowuoyo ewii wachno Bishop Ofuna nowacho ni giduaro temo neno ni onge ng’ata ng’ata magamo tuono e kuonde mag lamogo"/>
+        <s v="Kanowuoyo gi Radio Ramogi , jadolono katakamano nowacho ni pod nitie kanise modhuro mapod nigi sida mar ng’iewo rapim liet mar del mabende ong’ere gi dho ngere kaka thermo gun ma iwacho ni nengone nimalo"/>
+        <s v="Katakamano ne owacho ni kanise duaroee mondo jotemie luwo tir chike duto mane oketi gi piny owacho mag rakruok gi tuono"/>
+        <s v="Midhiero mag kanisni"/>
+        <s v="Jotelo mag county ma Siaya ojiwu mondo mii josir kanisni kendo neno ni gibedo gi nyalo mar yawo chenro mag alam kagiluwore gi okenge ma oketi mag geng’o landruok mar midhusi mar coronavirus."/>
+        <s v="MCA ma ward ma Usonga e kar chung od bura ma Alego Usonga migosi Silvestre Madialo wacho ni nitie kanisni ma dhii rem yawo chenro mag alam nimar gionge kod nyalo mar chopo dwaro ma piny owacho oketo"/>
+        <s v="Kwan jii maromo 688 ne oyudi ei kawuononi ni nigi Coronavirus e pachoka"/>
+        <s v="Kwan jii maromo 688 mane oyudi kawuononi ni nikod tuo mar Coronavirus makoro kelo kwan duto mag jogo man kod midusi magalagalano e pachoka chopo jii alufu 12 gi 750"/>
+        <s v="Magi ne oyangi gi jatend migao mochungne yoore mag thieth e pachoka migosi Mutahi Kagwe mane owacho ni kuom jii 688 go ng’ama hike ne tin mogik ne en nyathi moro ma ja dweche 7 ka mane hike duong mogik ne ja higni 95"/>
+        <s v="Kanowuoyo gi jopiny kachiel kachiel e tipo mar telebisen kowuok e County ma Embu migosi Kagwe bende ne oyango ni jii 3 moko ne tuono olal gi ngimagi kawuononi makoro ne kelo kwan jogo duto ma tuono osenego e pachoka chopo jii 225 kod bende lero ni nitie jii 457 mane ochango ma owe odhi pacho ei kawuononi makoro kelo kwan jogo duto ma osechango e thurka chopo jii alufu 4 gi 440"/>
+        <s v="Katakamano ne odhi nyime gi kwayo oganda jokenya duto mondo joyie okau lwenj kedo gi tuo mar Covid-19no ka margi giwegi maok weye ne mana piny owacho kende"/>
+        <s v="DICHUO ODERE KA POLIS BANG’ NEGO WUON MARE"/>
+        <s v="Dichuo moro ma ja higni 41 ma nyocha omaki kuom nego wuongi  ka gilaro wach  bando, okaw ngimane e cell mar obila. OCPD ma Ikolomani Joseph Chesire, oyango wachno kolero ni Raytone Luhombo mawuok e gweng ma Matundu  yoo Kakamega, nodere  kotiyo gi sati manorwako e cell mar tesend obila ma Malinya , kama osebed kolorne nyaka noneg wuon mare ma ja higni 68 no alfred isutsi."/>
+        <s v="Joyuak noyudo osechako chenro mar iko jaduongno kawuono e seche manokelnegi wach ni rawuoyino bende odere."/>
+        <s v="Riuruok mar bisobe mag oganda jokopere koro dhi nyime gi kedo gi tuo mar kahera e County ma Kisumu"/>
+        <s v="Riuruok mar bisobe mag oganda jokopere mong’ere kaka Kenye Conference of Catholic Bishops kokalo kuom chenro manyochane gichako mar kedo kod landruok mar tuo mar kahera mong’ere kaka Komesha TB Program sani jodhi nyime gi puonjo jopiny e County ma Kisumu ewii wach dhi e pim mar ng’eyo chal mari ne tuo mar kaherano"/>
+        <s v="Maendi koro ne gichako kaluwore kod wach kwan matin mag jii mawuok oko mar dhi e kuonde thieth nikech giluoro wach tuo mar Coronavirus masani koro landore ka maa tiang e piny Kenyani"/>
+        <s v="Kanowuoyo e Sub County ma Nyakach laktar Sam Oduor Muga maen manager mar chenro mar Komesha TB no mabende osir gi USaid nowacho ni githiedho tuo mar kaherano nono maonge chudo e osiptende mag misen ka gisiro chenro mag thieth nonogo"/>
+        <s v="Zipporrah Orucho maen Coordinator mar weche mag kedo gi tuo mar kaherano e Sub County ma Nyakach kuno nowacho ni gikedo mar golo luoro ma dhano nigo e weche mag thieth mar tuo mar kaherano kaachiel gi golo akwede moko ma dhano jokwedogo joma giwinjo ni nigi tuo mar kaherano"/>
+        <s v="George Oliech maen jatij kar thieth ma Nyabondo Mission Hospital nowacho ni osebedo ka otiyo tij wuoyo gi jogweng mondo joyie odhi e pim mar kahera mondo mi ging’e chal margi koluwore gi tuono kanowacho ni tuo mar kahera en tuo migamo gie yamo ma kaok ong’i wachne maber to yot mondo mi oket ngima oganda kamarach"/>
+        <s v="SENETA SAKAJA ORAMO NI NE OK OMAKE"/>
+        <s v="Senator ma Nairobi Johnson Sakaja koro okwedo lipode ni nomake  monindo e tesend obila ma Kilimani otieno mokalo."/>
+        <s v=" Kokalo e mbui mare mar twitter,  Sakaja wacho ni jok ma lando meko mare onego ochiw namba mar OB manondikne kobila kaka yoo mar bedo gi adiera e wi meko mare."/>
+        <s v="Kata kamano andike mare e mbui mar twitter omedo mana jimbo wach ka jokenya mathoth medo kwede  kuom rocho chike mag curfew  moketi gi piny owacho  to en e jakom mar kamati mar senate e wi midhusi mar corona."/>
+        <s v="OPAMO DWARO RATIRO MARGI"/>
+        <s v="Piny owacho mag Counties okwa mondo oket thenge kwan omenda moro mar konyo opamo mae Counties go ma sani kaloe kinde matek mokalo kaluwore gi midhiero mokel gi mucoh mar midhusi mar corona."/>
+        <s v="Riwruok moro ni sauti ya wanawake bade ma ka nam chumbi kokalo kuok jakomgi Dorcas Jibran, owacho ni andwayogo ok nyal yudo kaka chiemo wira ni chike moketi gi piny owacho oridore negi mokalo."/>
+        <s v="Nowacho ni counties onego omigi kony mar yudo kaka ginyalo medo dago ngima maber."/>
+        <s v="LADY MAUREEN POK OIKI"/>
+        <s v="Ringre jangolo mar ohangla lady Maureen pod ni e alak  mar sikul ma Kopanga kama jopiny pod nene ringre kapok okowe kar yueyo mare mogik. "/>
+        <s v="Motelo noseter ringre pacho mak mana ni johera mage noyudho ringre motero e sikund primar ma Kopanga kama jopiny nene e yor kwe."/>
+        <s v="Kata kamano jopiny ok odewo wach mdhusi mar Corona wira ni dhano odhugni malich mokalo e kama inene ringre jangolono."/>
+        <s v="DOHO MA KISUMU OPUODHO OMBARA"/>
+        <s v="Go ma Kisumo owacho ni City manager Doris Ombara ne ok otimo keth moro amora kaluwore gi okang mare mar  muko chiro ma kibuye e okang mar bero chirono."/>
+        <s v=" Jangad bura wacho ni winjruok ne obedo kendo jo ohalago nodar modhi kamachielo  mane gidhi use ka girito tiek gedo mar chirono."/>
+        <s v="Doho wacho ni Ombara kuom mano ne ok obalo gi chik mar doho."/>
+        <s v="OLORNE RINGRE WUODGI NIKECH GOWI MADUONG’."/>
+        <s v="Familia moro e gweng ma Malela ei West Kabuoch  location e Sub County ma Ndhiwa sani jokwayo kony mondo mi giyud ringre wuodgi moselorne kuom kinde buora e kar kano ringruok moro ma eldoret e wi bill mar siling 759,000"/>
+        <s v="Anyuolano wacho ni wuodgi ma ja higni 44 no osebet e osiptal ma Eldoretno kuom jumbe ariyo kane en gi Cancer mar remo ema kaeto bangé nowito ngimane."/>
+        <s v="Weg osiptal mar jii giwegino olero ni ok ginyal chiwo ringre jalo nyaka chul bill go duto."/>
+        <s v="Ng’ur e od bura ma Homabay"/>
+        <s v="MCA ma Kanyadoto ward Walter Were Muok manyo omaa lemo mar jetend kweth mathoth e od burano nyoro, ywak ni yierruok ne obedo kendo nitie gwenge ma ok omii thuolo mar telo."/>
+        <s v="Lemo mar jatend kweth mathoth ne omii MCA ma Kanyaluo ward Jeff Ongoro ka lemo mar spika ne omii MCA ma Kabondo West migosi Godfrey Anyango ma ongere kaka Goody Goody."/>
+        <s v="Jatuo maja piny China oketi e ward e kar kende e hopspital ma Agakhan hospital Kisumu kaluwore gio luoro marni onyalo bedogi midhusi mar Corona Virus"/>
+        <s v="Ja Chinano matiyo e kambi magero apaya e boma ma Ugunja county ma Siaya wachore ni nyoro oter e kar thiethno otieno manyoro gi miyo moro kendo esache mane irwake ei od thieth to ne orwakne leuni mag arita ma pononi ne onyalo bedogi midhusino to ne ok onyal landore kuom jok mamoko"/>
+        <s v="Laktere wachoni jatuono ne okuong othiedhi gi tuo mar pneumonia ka katakamno ne oduog okete ei ward maentie kar kende kama osekawie ranyisi mar timo pim kendo yango kadiponi onyalo bedogi midhusi mar Coronano kata ooyo."/>
+        <s v="Katakamano kane odwar pache ewi wachni to directa mochungne chenro mag thieth e kar thieth ma Aghakan Dr. Patrick Eshiwani ne okoni ne entie e romo moro kendo ne ok oduogo oyua tol machiwo ler ewi wachno"/>
+        <s v="Jagoro maduong mar duond bura mar Jubilee Raphael Tuju ne oter gi ndege nyaka epinje maoko dhi yudo thieth moyiedhi kaluwore gi masira mar apaya mane ojuke e apaya maduong mawuok Nairobika nyaka Nakuru."/>
+        <s v="Duond bura mar Jubilee e ote makende ne ute fuambo gi keyo kokalo kuom directa mochungne yore tudruok Albert Nemusi, wachoni familia mar tuju ema okawo okang’ mar tere e pinje maoko bang lalruok giu laktare mane thiedhe e pachoka"/>
+        <s v="Tuju kaluwore gi memusi nyo osegol e kar thieth mar jotuo mangimagi nitie kama rach kendoni nyo osepiele e ward mapile kaluwore gi kaka ngimane nyo osechako bedogi lokruok"/>
+        <s v="Tuju ne oromo gi masira mar apaya makamano tarik 12 dweni kane oriko entie e safar kane odhi e hiiko mar ker mar 2 mapachoka jaduong Daniel Arap Moi Kabarak."/>
+        <s v="Kaluwore gi ripord obila nyamburko mar tuju ne otuomore gi matatu mane temo kalo nyamburko mamoko e apayano ka tije manyocha ne Tuju timo e duond bura mar jubilee itimo gi apisa maduong james waweru makonyore gi apisas mamoko nyaka chop Tuju bii duogi kowuok e hospital."/>
+        <s v="Manyaloromo familia 10 sani jodong maonge kuma chuoyee wigi bang mach maratipo wang’o utegi e dho wath ma Sena Beach , Mfang’ano East location , Suba North e County ma Homa Bay"/>
+        <s v="Majno nyo owang’o udigi ei otieno mane piny oruugo kawuononi"/>
+        <s v="Majno mabende nyo omuoch kar saa adek mar otieno mane piny oruugo kawuononi ne owang’o udi 6 mag apanga ma odong mana mirni olilo nyaka mwandu mane nie igi duto bende"/>
+        <s v="Kanowuoyo ewii wachno jatend obila ma County ma Homa Bay Esther Seroney nowacho ni majno nyo omuoch e achiel kuom udigo ni ema kaeto nyo olandoree ma odhi e udi mamoko ma owang’o duto gi mwandu e igi ma oweyo weg udigo ka jodong chwata gi lwetgi nono makata gima digiwachi ni gidonggo onge"/>
+        <s v="Kanomedowuoyo ewii wachno Seroney nowacho ni majno ne owang’o udigo kod mwandu duto manyo nie igi makoro nyo ochuno weg udigo mondo jonind oko e koyo"/>
+        <s v="Obila mawuok e tesend obila ma Sena Patrol Base mane joringo odhi e kama nyo masirano otimoreeno nyo jotemo konyo e nego majno ka jotenore kod jopiny to katakamano nyo nego majno otamore nikech nyo oselandore ma omako udigo duto"/>
+        <s v="Jatend obilano nowacho ni gisechako timo nonro mar yango gima dinyo kel majno"/>
+        <s v="Katakamano onge ng’ata ng’ata manyo ohinyore kata tho e masirano"/>
+        <s v="Obila e kaunti ma Mombasa pedho achije moko angwen  mane omonjo wuon duka moro e gweng ma Chaani eodbura ma Changamwe Mombasa kuma ne gikwale kwan omwom mapok oyangi eotieno mane piny ruugo kawuono."/>
+        <s v="Kaneoyango wachnoendo komanda mar obila ma Changamwe Ali Ndiema wacho achijego mane jomanore gi musdhola ne jotingore e apiko achiel esche mag monjno mane gitimo kar saa angwen motieno."/>
+        <s v="Wachore ni achijego ne owuodho musdhola to kae to gichikone wuon dukane kagike ni oywa dhot kuna ne gidonje kae to gichoko pesa duto mane giyudo."/>
+        <s v="Ne ochuno jonjorego muocho magina ariyo e kor yamo kakoro giwuok mar keyo moko kuom jopiny mane oseyuoro modino negi bang winjo nduru mar wuon dukanoendo makatakamano ne otony maonge hinyruok."/>
+        <s v="Jochiwu thieth e osiptal ma mine ma pumwani jong’anyo tich kagibandho chudo mar osara ma giywak ni pok ochulgi kuom dweche 4."/>
+        <s v="Ma ok tin ne jochiwu thieth 70 ma ondiki e yor kojolo kata contract odagi donjo e tich kendo gibago ng’anyo kagikoo ne jatend osiptandno Geoffrey Mosira ochulgi osara ma osekunore kochakore dwee mar 11 higa mokalo."/>
+        <s v="Peter Mwangi gi Judith Adongo ma otelo ne kweth jochiwu thieth ma ng’anyogo ywakni gikadhe midhiero mathoth e osiptandno ma Pumwani."/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Accidents, disasters and deaths" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Health"/>
+        <s v="Politics and Government"/>
+        <s v="Religion"/>
+        <s v="Sports, music and entertainment"/>
+        <s v="Crime and Legal"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="61">
   <r>
@@ -2655,7 +2799,604 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="107">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0">
+      <items count="108">
+        <item x="74"/>
+        <item x="62"/>
+        <item x="78"/>
+        <item x="39"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="72"/>
+        <item x="75"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="88"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="59"/>
+        <item x="73"/>
+        <item x="84"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="98"/>
+        <item x="83"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="104"/>
+        <item x="21"/>
+        <item x="44"/>
+        <item x="3"/>
+        <item x="53"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="101"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="40"/>
+        <item x="33"/>
+        <item x="96"/>
+        <item x="57"/>
+        <item x="95"/>
+        <item x="49"/>
+        <item x="41"/>
+        <item x="63"/>
+        <item x="71"/>
+        <item x="86"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="99"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="68"/>
+        <item x="85"/>
+        <item x="82"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="105"/>
+        <item x="14"/>
+        <item x="56"/>
+        <item x="34"/>
+        <item x="48"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="17"/>
+        <item x="45"/>
+        <item x="43"/>
+        <item x="26"/>
+        <item x="70"/>
+        <item x="103"/>
+        <item x="80"/>
+        <item x="16"/>
+        <item x="38"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="97"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="64"/>
+        <item x="106"/>
+        <item x="65"/>
+        <item x="69"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="6"/>
+        <item x="66"/>
+        <item x="22"/>
+        <item x="61"/>
+        <item x="25"/>
+        <item x="60"/>
+        <item x="35"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="102"/>
+        <item x="79"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Familia ma kwangi ohewo alufu 1 pii oula osedaro e sub county ma Ugenya e county ma Siaya." fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -2708,7 +3449,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -3050,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5079,7 +5820,7 @@
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="10" t="s">
         <v>269</v>
       </c>
       <c r="B253" s="5" t="s">
@@ -5502,17 +6243,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="60">
+    <row r="306" spans="1:2" ht="30">
       <c r="A306" s="10" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30">
+    <row r="307" spans="1:2" ht="45">
       <c r="A307" s="10" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>6</v>
@@ -5520,31 +6261,31 @@
     </row>
     <row r="308" spans="1:2" ht="30">
       <c r="A308" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="30">
       <c r="A309" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="30">
+    <row r="310" spans="1:2" ht="60">
       <c r="A310" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="45">
+    <row r="311" spans="1:2" ht="30">
       <c r="A311" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>10</v>
@@ -5552,31 +6293,31 @@
     </row>
     <row r="312" spans="1:2" ht="45">
       <c r="A312" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="60">
+    <row r="313" spans="1:2" ht="45">
       <c r="A313" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" ht="60">
       <c r="A314" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="30">
+        <v>328</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>9</v>
@@ -5584,31 +6325,31 @@
     </row>
     <row r="316" spans="1:2" ht="30">
       <c r="A316" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="30">
+      <c r="A317" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="45">
+      <c r="A318" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="45">
-      <c r="A317" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="45">
-      <c r="A319" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>9</v>
@@ -5616,15 +6357,15 @@
     </row>
     <row r="320" spans="1:2" ht="45">
       <c r="A320" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" ht="45">
       <c r="A321" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>9</v>
@@ -5632,15 +6373,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>35</v>
@@ -5648,7 +6389,7 @@
     </row>
     <row r="324" spans="1:2" ht="30">
       <c r="A324" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>35</v>
@@ -5656,23 +6397,23 @@
     </row>
     <row r="325" spans="1:2" ht="30">
       <c r="A325" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" ht="30">
       <c r="A326" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>9</v>
@@ -5680,15 +6421,15 @@
     </row>
     <row r="328" spans="1:2" ht="30">
       <c r="A328" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" ht="30">
       <c r="A329" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>9</v>
@@ -5696,31 +6437,31 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="45">
+      <c r="A332" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="45">
-      <c r="A331" s="10" t="s">
+      <c r="B332" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="30">
+      <c r="A333" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="30">
-      <c r="A332" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>8</v>
@@ -5728,15 +6469,15 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>9</v>
@@ -5752,15 +6493,15 @@
     </row>
     <row r="337" spans="1:2" ht="30">
       <c r="A337" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="30">
       <c r="A338" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>8</v>
@@ -5768,7 +6509,7 @@
     </row>
     <row r="339" spans="1:2" ht="45">
       <c r="A339" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>8</v>
@@ -5776,7 +6517,7 @@
     </row>
     <row r="340" spans="1:2" ht="45">
       <c r="A340" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>8</v>
@@ -5784,23 +6525,23 @@
     </row>
     <row r="341" spans="1:2" ht="45">
       <c r="A341" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="45">
       <c r="A342" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="30">
+    <row r="343" spans="1:2" ht="45">
       <c r="A343" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>9</v>
@@ -5808,71 +6549,71 @@
     </row>
     <row r="344" spans="1:2" ht="30">
       <c r="A344" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="30">
+      <c r="A345" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="45">
+      <c r="A346" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="45">
-      <c r="A345" s="10" t="s">
+      <c r="B346" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="30">
+      <c r="A347" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="30">
-      <c r="A346" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="30">
+    <row r="348" spans="1:2">
       <c r="A348" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="60">
+    <row r="349" spans="1:2" ht="30">
       <c r="A349" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="30">
+    <row r="350" spans="1:2" ht="60">
       <c r="A350" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="45">
+    <row r="351" spans="1:2" ht="30">
       <c r="A351" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" ht="45">
       <c r="A352" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>5</v>
@@ -5880,65 +6621,73 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="45">
+    <row r="354" spans="1:2">
       <c r="A354" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="45">
       <c r="A355" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="30">
+    <row r="356" spans="1:2" ht="45">
       <c r="A356" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="45">
+    <row r="357" spans="1:2" ht="30">
       <c r="A357" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="30">
+    <row r="358" spans="1:2" ht="45">
       <c r="A358" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="30">
+      <c r="A359" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="45">
+      <c r="A360" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="45">
-      <c r="A359" s="10" t="s">
+      <c r="B360" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="30">
+      <c r="A361" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="30">
-      <c r="A360" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B360" s="2" t="s">
+      <c r="B361" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5950,143 +6699,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J22"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="2" spans="1:14">
+      <c r="M2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
         <v>19</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="1"/>
+      <c r="J8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>122</v>
       </c>
@@ -6094,12 +6894,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="I11" s="9" t="s">
+    <row r="11" spans="1:14">
+      <c r="J11" s="13" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -6116,17 +6917,20 @@
         <v>27</v>
       </c>
       <c r="F13">
-        <f>SUM(B13:E13)</f>
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f>SUM(B13:F13)</f>
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -6140,17 +6944,20 @@
         <v>25</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F21" si="0">SUM(B14:E14)</f>
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G21" si="0">SUM(B14:F14)</f>
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -6161,17 +6968,20 @@
         <v>7</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="J15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6179,17 +6989,20 @@
         <v>7</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>209</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -6206,17 +7019,20 @@
         <v>62</v>
       </c>
       <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
         <v>7</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -6233,17 +7049,20 @@
         <v>19</v>
       </c>
       <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6254,17 +7073,20 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6272,17 +7094,20 @@
         <v>11</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>10</v>
       </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -6293,22 +7118,25 @@
         <v>5</v>
       </c>
       <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="J21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:E22" si="1">SUM(B13:B21)</f>
+        <f t="shared" ref="B22:F22" si="1">SUM(B13:B21)</f>
         <v>168</v>
       </c>
       <c r="C22">
@@ -6324,14 +7152,28 @@
         <v>145</v>
       </c>
       <c r="F22">
-        <f>SUM(F13:F21)</f>
-        <v>419</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G13:G21)</f>
+        <v>527</v>
+      </c>
+      <c r="J22" t="s">
+        <v>377</v>
+      </c>
+      <c r="K22">
+        <f>SUM(K13:K21)</f>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I13:J21">
-    <sortCondition ref="I13:I21"/>
+  <sortState ref="J13:K21">
+    <sortCondition ref="J13:J21"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="J11:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -16,13 +16,14 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="439">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -1164,13 +1165,190 @@
   </si>
   <si>
     <t xml:space="preserve">Dichuo moro ma ja higni 41 ma nyocha omaki kuom nego wuongi  ka gilaro wach  bando, okaw ngimane e cell mar obila. </t>
+  </si>
+  <si>
+    <t>Seneta mar county ma Nairobi migosi Johnson Sakaja ochung’ tenge gi lemo mare kaka jakanyo kendo jakom mar komiti ma kene mar od bura mar senate ma nyocha omii ting’ mar konyo e ng’iyo yore mag geng’o landruok mar midhusi mar coronavirus.</t>
+  </si>
+  <si>
+    <t>Migosi Sakaja okawo okang’ makama bang’ kanyo omake ni oketho chik ma tamo oganda bedo oko kochakore saa adek mar otieno nyaka saa apar mar kogwen.</t>
+  </si>
+  <si>
+    <t>Sakaja ochung’ tenge</t>
+  </si>
+  <si>
+    <t>Obila manyo achich mar nek Sinderma</t>
+  </si>
+  <si>
+    <t>Obila pedho jago ma jahigni 23 mane ochuo kod pala monego nyako ma jahigni 15 e gweng’ ma Sinderma e sub county ma Gem e county ma Siaya.</t>
+  </si>
+  <si>
+    <t>Fredrick Onyango akula ne oringo molal bang’ nego nyakono ma ripot yango ni osebedogo e osiep kaka jaherane kata odoko ni jonyuol nyakono nyocha ok orwako herano ma bende en ataro mar chik.</t>
+  </si>
+  <si>
+    <t>Ruoth ma Central Gem location Barrack Oloo oyango ni achijno nyocha koka owuok e jela ma siaya kame ne ogeng’ne gi ketho mar ketho ratiro mar nyakono e yoor hera.</t>
+  </si>
+  <si>
+    <t>Lisasi omako japiny Rangwe</t>
+  </si>
+  <si>
+    <t>Samuel Ongoro ne lisasi omako e yoor buoth kane gitemo gengÓ ne obila kik maki miyo moro gi achije mamoko ma itudo gi ketho mar uso changÁa.</t>
+  </si>
+  <si>
+    <t>Komanda mar obila ma Rangwe Jane Sang oyango wachno.</t>
+  </si>
+  <si>
+    <t>Jago moro ma hike ni e diere itimone thieth e osiptal bang’ kanyo obila ochiele gi magina kane obila rakore gi jopiny e sach apedha mar jous changaa e kar centre ma Nyamira Ndogo e location ma Gem Central e sub county ma Rangwe e county ma Homabay.</t>
+  </si>
+  <si>
+    <t>Obila ma Awendo sub county e county ma Migori nono wach thoo mar miyo moro ma jahigni 35 mane othoo bang’ kanyo obambe gi achije moko machiegni kod aora moro mani kilomita machuok kowuok e kar chiro ma Ranen.</t>
+  </si>
+  <si>
+    <t>Komanda maar obila ma Awendo sub county Mary Musyoka wacho ni miyono ma nyinge ok nyal hel e yamo, ne owito ngimane kaluowre gi hinyruok mane oyudo bang’ bembono. Ne orik itemo reso ngimane e osiptal ma st. Josephs Omboo Mission mani Migori.</t>
+  </si>
+  <si>
+    <t>Komanda mar obilano okoo ni obila oselimo kama ne timno otimore kendo choko neno ma gidhi tiyogo e nonro ka kata kamano nyaka sani pod ok gimako ngÁto angÁta.</t>
+  </si>
+  <si>
+    <t>Ne okwanye manichegni gi aorano miluongo ni jwelu kane pache olal kendo ne oonge kod teko bang’ tim ma kochno.</t>
+  </si>
+  <si>
+    <t>Ripot yango ni miyono ma odak e ot mokombo e kar centrer ma Ranen nyocha owuok e ode okinyi mar chieng’ tich 5 mokalo to ne ok ochak odok ema okinyi mar chieng’ ngeso oyude kosebambe.</t>
+  </si>
+  <si>
+    <t>Miyo obambi ma othoo Awendo</t>
+  </si>
+  <si>
+    <t>Doho ogolo singo ne jo Siaya</t>
+  </si>
+  <si>
+    <t>Bad migao mar doho bade ma siaya osingo ne oganda jo county ma siaya ni gichiwore mar neno ni ratiro oyudore ne jii duto ma oketh ratiro margi.</t>
+  </si>
+  <si>
+    <t>Jayal bura mar doho ma Siaya Roseline Aburili wacho ni gin kod singo mar tiyo ne ogand duto ma onge akweda.</t>
+  </si>
+  <si>
+    <t>Bende osingo ni gibedo akicha mar neno ni ok gidonjre e weche mag mibadhi e kinde magidhi nyime gi chneo mag yalo buche mag jopiny.</t>
+  </si>
+  <si>
+    <t>ne oloso kane gibago romo gi jopiny e boma ma siaya kama bende ne ochiwo geno ne jogo ma yuto maggi ni piny ni kik luor tero buchegi e doho nimar doho pod biro konyogi</t>
+  </si>
+  <si>
+    <t>Masich ot ma Tassia osenego jii 5</t>
+  </si>
+  <si>
+    <t>Kwan jii ma oseyangi ni owito ngimagi bang’od orofa nyo oruombore piny e kar dak ma Tassia, Embakasi e buore Nairobi ochopo jii 5.</t>
+  </si>
+  <si>
+    <t>Jalup komishona morito sub county ma Embakassi james wanyoike wacho ni nyako ma jahigni 15 manyo oresi nyoro owito ngimane ka yudo thieth e osiptal ma Kenyatta.</t>
+  </si>
+  <si>
+    <t>Wanyoike wacho ni nyaka sani jii 33 oseresi ka jii mamoko 26 pod ok oyudi bang’ od orofa auchielno ne oruombore piny okinyi ma nyoro.</t>
+  </si>
+  <si>
+    <t>Olero ni jii 18 kuom jogo manyo ogol ka ngima ne oringgo e osiptal ma Mama Lucy ka jii 16 ne oseyienegi dok pacho ka mamoko 2 to pod ithiedho. chenro mar menyo pod dhii nyime.</t>
+  </si>
+  <si>
+    <t>Wanyoike olero ni nyaka sani pok oyangore hie ni gi jii adi manyo ni e od orofano.</t>
+  </si>
+  <si>
+    <t>Midhiero mar oula Muhoroni</t>
+  </si>
+  <si>
+    <t>Midhiero mar ouola odaro familia mathoth e mieregi e gwenge ma Achuodho gi Kasese mani Ombei e sub county ma Muhoroni ka sani familiago ojot e kar jot moket tenge ma Achuodho</t>
+  </si>
+  <si>
+    <t>aora ma Ang’wecha nyo opong’ moo otieno ma piny orugo nyoro kendo lak nyaka e miere.</t>
+  </si>
+  <si>
+    <t>Maneja mar CDF ma Muhoroni sospeter ngere mane olimo gwengego, okoo ni dwarore ni piny owacho ma kisumu orure ma piyo e reso ngima oganda ma midhiero mar oula ojuko.</t>
+  </si>
+  <si>
+    <t>Familiago modak kanyo bende joywak ne piny owacho ma Kisumu kanyakla kod mcas mag gwengego.</t>
+  </si>
+  <si>
+    <t>Ja od bura mogwel ne chung’ne jogo ma ni kod ng'ol mikayi Denitah Ghati ochwalo paro mar twak e od bura ma odwaro ni piny owacho onee ni joma odak gi ngÓl oketnegi machiegni kodgi gigo ma gikonyore e yoregi.</t>
+  </si>
+  <si>
+    <t>Paro mar dwaro reso joma nigi ng'ol</t>
+  </si>
+  <si>
+    <t>mikayi ghati wacho ni osebedo matek ne joma nigi ng'ol ma chuno ni nyaka chan safar marabora nyaka e buore Nairobi biro manyo masinde magitiyogo. ewii mano okoo ni piny owacho nyalo chuogo centres moyiedhi e kar chung’ od bura ma ka kar chung’od bera ma joma nigi ng'ol ringo yudo gigo ma piny owacho konyogigo machalo ndigni, ludhe magisirorego e kind mamoko.</t>
+  </si>
+  <si>
+    <t>Mikayi Dennitah Ghati bende okone piny owacho mar county ma migori to kod counties mamoko ma thurka onee ni jogo mani kod ng'ol oket negi omenda moromo e kinde ma igoro bajet mar county.</t>
+  </si>
+  <si>
+    <t>Miyo majahigni 23 omaki kane otemo uso nyathine mawuoyi majahigni 5, Anduro Village, Siaya county</t>
+  </si>
+  <si>
+    <t>Miyo moro majahigni 23 olorne e tesend obila ama Siaya bang kane omake kane otemo uso nyathi mawuoyi maja higni 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sharom Achieng ne omake e gwnge mag Anduro Nyandiwa sub location bang kane weche owuok ni ne ojuke kotemo uso nyathine mawuoyino gi nengo mar siling milion 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaluwore gi jalup ruoth morito gwengno migosi Joseph Aloo, miyono ne oyudi kane otemo uso nyathino ne miyo machielo mabende oseyangi ni Ireen matiyo kaka chukdar e boma ma Siaya. </t>
+  </si>
+  <si>
+    <t>Ne okone Radio Ramogi ni achijno osebed kiwinjo kowacho kaka rito nyathino ojonye bang kane dichuo mane omiye iich bole piny ni pangla gi nyathino kendo lal mana miru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalup ruothno ma ema ne oyango adiera mar wachno, ne odhi nyime gi leroni wachno ne oduog ogoo mana lipode kendo gi janyiewo maen Ireen onogo ma chalo ni ne oduogo obedogi too moko nekech Shaaron en jathi kiich mosebedo kodak mana gi dan mare kendo nyuom bende pok nonyuome. </t>
+  </si>
+  <si>
+    <t>Miyono giesani olorne e tesend obila ma Siaya kuno ka nonro matut bende osechaki ewi wachni</t>
+  </si>
+  <si>
+    <t>Sekondar osekayo machiegni</t>
+  </si>
+  <si>
+    <t>Jopuonjre ma kwangi ohewo milion 1 nyocha otimo penjno ka sani thoth jopuonjre biro donjo e skunde mag county kod mag sub county.</t>
+  </si>
+  <si>
+    <t>Kenya sani nikod skunde madito mag county miluongo ni extra county 734 ka mamoko mag county gin 1412 nitie skunde mag sub county maromo 6451 ka mago mag jii giwegi gin 1164.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jopuonjre ma nyocha otimo penj margi mar klass 8 KCPE ma higani kawuono chako ng'eyo skunde sekondr ma oluonggie. </t>
+  </si>
+  <si>
+    <t>Migao mar somo chako gi jopuonjrego ma nyocha oyudo marks 400 kadhi nyime e penjno.</t>
+  </si>
+  <si>
+    <t>Chenrono owinjore orum chieng’ tich 4 jumani.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kochakore kiny idhi chak riedo jopuonjre madhi donjo e skunde madito mag county ma ongÉre kaka extra county schools kaeto mago mag sub county bende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jopuonjrego dhii donjo e skunde 135 ma dongo mago ma ong'ere kaka national skuls. </t>
+  </si>
+  <si>
+    <t>Oula ywero Nyando</t>
+  </si>
+  <si>
+    <t>Familia buora onge kuonde jot sani e sub county ma Nyando kaluowre gi oula ma nyo omuomo e gwenge mag nyando kuno bang’ koth mapek ma dhii nyime gi chwee e county ma Kisumu.</t>
+  </si>
+  <si>
+    <t>Apisas mag Kenya Redcross joyango ni ni gwenge ma midhiero mar oula nyo ojuko oriiwo koda ka Ogenya ,Kabonyo , to kod Kanyagwal e kind mamoko. gisani chuno mondo mii jo familia ma kwangi ok tin ne 28 jomany jot e kar skul ma Ogenya primary.</t>
+  </si>
+  <si>
+    <t>Midhiero mar oulano bende omiyo kata mana chope mani nyando kundo pii omuomoe kendo keto ngima oganda kamarach mar gamo tuche.</t>
+  </si>
+  <si>
+    <t>E gwenge mg Nyamasao mani ombaka, familia ma kwangi dirom 45 oringo ojot mana e skund primar ma Nyamasao</t>
+  </si>
+  <si>
+    <t>Migao mar somo bende oseyango ni nitie skunde 35 mag jopuonjre mani kod dwaro ma kende ka ranyisi ng'ol; ka skundego nyalo kawo jopuonjre 1500.</t>
+  </si>
+  <si>
+    <t>Count of Sakaja ochung’ tenge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,24 +1483,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1680,23 +1840,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1705,17 +1856,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1945,6 +2100,28 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44032.663345833331" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="57">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A362:B419" sheet="713"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Sakaja ochung’ tenge" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Politics and Government" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Politics and Government"/>
+        <s v="Crime and Legal"/>
+        <m/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Education"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="61">
   <r>
@@ -3232,9 +3409,291 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="57">
+  <r>
+    <s v="Seneta mar county ma Nairobi migosi Johnson Sakaja ochung’ tenge gi lemo mare kaka jakanyo kendo jakom mar komiti ma kene mar od bura mar senate ma nyocha omii ting’ mar konyo e ng’iyo yore mag geng’o landruok mar midhusi mar coronavirus."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Migosi Sakaja okawo okang’ makama bang’ kanyo omake ni oketho chik ma tamo oganda bedo oko kochakore saa adek mar otieno nyaka saa apar mar kogwen."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Obila manyo achich mar nek Sinderma"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Obila pedho jago ma jahigni 23 mane ochuo kod pala monego nyako ma jahigni 15 e gweng’ ma Sinderma e sub county ma Gem e county ma Siaya."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Fredrick Onyango akula ne oringo molal bang’ nego nyakono ma ripot yango ni osebedogo e osiep kaka jaherane kata odoko ni jonyuol nyakono nyocha ok orwako herano ma bende en ataro mar chik."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ruoth ma Central Gem location Barrack Oloo oyango ni achijno nyocha koka owuok e jela ma siaya kame ne ogeng’ne gi ketho mar ketho ratiro mar nyakono e yoor hera."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Lisasi omako japiny Rangwe"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jago moro ma hike ni e diere itimone thieth e osiptal bang’ kanyo obila ochiele gi magina kane obila rakore gi jopiny e sach apedha mar jous changaa e kar centre ma Nyamira Ndogo e location ma Gem Central e sub county ma Rangwe e county ma Homabay."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Samuel Ongoro ne lisasi omako e yoor buoth kane gitemo gengÓ ne obila kik maki miyo moro gi achije mamoko ma itudo gi ketho mar uso changÁa."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Komanda mar obila ma Rangwe Jane Sang oyango wachno."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Obila ma Awendo sub county e county ma Migori nono wach thoo mar miyo moro ma jahigni 35 mane othoo bang’ kanyo obambe gi achije moko machiegni kod aora moro mani kilomita machuok kowuok e kar chiro ma Ranen."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Komanda maar obila ma Awendo sub county Mary Musyoka wacho ni miyono ma nyinge ok nyal hel e yamo, ne owito ngimane kaluowre gi hinyruok mane oyudo bang’ bembono. Ne orik itemo reso ngimane e osiptal ma st. Josephs Omboo Mission mani Migori."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ne okwanye manichegni gi aorano miluongo ni jwelu kane pache olal kendo ne oonge kod teko bang’ tim ma kochno."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ripot yango ni miyono ma odak e ot mokombo e kar centrer ma Ranen nyocha owuok e ode okinyi mar chieng’ tich 5 mokalo to ne ok ochak odok ema okinyi mar chieng’ ngeso oyude kosebambe."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Komanda mar obilano okoo ni obila oselimo kama ne timno otimore kendo choko neno ma gidhi tiyogo e nonro ka kata kamano nyaka sani pod ok gimako ngÁto angÁta."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Miyo obambi ma othoo Awendo"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Doho ogolo singo ne jo Siaya"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bad migao mar doho bade ma siaya osingo ne oganda jo county ma siaya ni gichiwore mar neno ni ratiro oyudore ne jii duto ma oketh ratiro margi."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jayal bura mar doho ma Siaya Roseline Aburili wacho ni gin kod singo mar tiyo ne ogand duto ma onge akweda."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bende osingo ni gibedo akicha mar neno ni ok gidonjre e weche mag mibadhi e kinde magidhi nyime gi chneo mag yalo buche mag jopiny."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ne oloso kane gibago romo gi jopiny e boma ma siaya kama bende ne ochiwo geno ne jogo ma yuto maggi ni piny ni kik luor tero buchegi e doho nimar doho pod biro konyogi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Masich ot ma Tassia osenego jii 5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kwan jii ma oseyangi ni owito ngimagi bang’od orofa nyo oruombore piny e kar dak ma Tassia, Embakasi e buore Nairobi ochopo jii 5."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jalup komishona morito sub county ma Embakassi james wanyoike wacho ni nyako ma jahigni 15 manyo oresi nyoro owito ngimane ka yudo thieth e osiptal ma Kenyatta."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Wanyoike wacho ni nyaka sani jii 33 oseresi ka jii mamoko 26 pod ok oyudi bang’ od orofa auchielno ne oruombore piny okinyi ma nyoro."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Olero ni jii 18 kuom jogo manyo ogol ka ngima ne oringgo e osiptal ma Mama Lucy ka jii 16 ne oseyienegi dok pacho ka mamoko 2 to pod ithiedho. chenro mar menyo pod dhii nyime."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Wanyoike olero ni nyaka sani pok oyangore hie ni gi jii adi manyo ni e od orofano."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Midhiero mar oula Muhoroni"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Midhiero mar ouola odaro familia mathoth e mieregi e gwenge ma Achuodho gi Kasese mani Ombei e sub county ma Muhoroni ka sani familiago ojot e kar jot moket tenge ma Achuodho"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="aora ma Ang’wecha nyo opong’ moo otieno ma piny orugo nyoro kendo lak nyaka e miere."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Maneja mar CDF ma Muhoroni sospeter ngere mane olimo gwengego, okoo ni dwarore ni piny owacho ma kisumu orure ma piyo e reso ngima oganda ma midhiero mar oula ojuko."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Familiago modak kanyo bende joywak ne piny owacho ma Kisumu kanyakla kod mcas mag gwengego."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Paro mar dwaro reso joma nigi ng'ol"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ja od bura mogwel ne chung’ne jogo ma ni kod ng'ol mikayi Denitah Ghati ochwalo paro mar twak e od bura ma odwaro ni piny owacho onee ni joma odak gi ngÓl oketnegi machiegni kodgi gigo ma gikonyore e yoregi."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="mikayi ghati wacho ni osebedo matek ne joma nigi ng'ol ma chuno ni nyaka chan safar marabora nyaka e buore Nairobi biro manyo masinde magitiyogo. ewii mano okoo ni piny owacho nyalo chuogo centres moyiedhi e kar chung’ od bura ma ka kar chung’od bera ma joma nigi ng'ol ringo yudo gigo ma piny owacho konyogigo machalo ndigni, ludhe magisirorego e kind mamoko."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mikayi Dennitah Ghati bende okone piny owacho mar county ma migori to kod counties mamoko ma thurka onee ni jogo mani kod ng'ol oket negi omenda moromo e kinde ma igoro bajet mar county."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miyo majahigni 23 omaki kane otemo uso nyathine mawuoyi majahigni 5, Anduro Village, Siaya county"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Miyo moro majahigni 23 olorne e tesend obila ama Siaya bang kane omake kane otemo uso nyathi mawuoyi maja higni 5."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=" Sharom Achieng ne omake e gwnge mag Anduro Nyandiwa sub location bang kane weche owuok ni ne ojuke kotemo uso nyathine mawuoyino gi nengo mar siling milion 2."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi jalup ruoth morito gwengno migosi Joseph Aloo, miyono ne oyudi kane otemo uso nyathino ne miyo machielo mabende oseyangi ni Ireen matiyo kaka chukdar e boma ma Siaya. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ne okone Radio Ramogi ni achijno osebed kiwinjo kowacho kaka rito nyathino ojonye bang kane dichuo mane omiye iich bole piny ni pangla gi nyathino kendo lal mana miru"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jalup ruothno ma ema ne oyango adiera mar wachno, ne odhi nyime gi leroni wachno ne oduog ogoo mana lipode kendo gi janyiewo maen Ireen onogo ma chalo ni ne oduogo obedogi too moko nekech Shaaron en jathi kiich mosebedo kodak mana gi dan mare kendo nyuom bende pok nonyuome. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Miyono giesani olorne e tesend obila ma Siaya kuno ka nonro matut bende osechaki ewi wachni"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sekondar osekayo machiegni"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jopuonjre ma nyocha otimo penj margi mar klass 8 KCPE ma higani kawuono chako ng'eyo skunde sekondr ma oluonggie. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Migao mar somo chako gi jopuonjrego ma nyocha oyudo marks 400 kadhi nyime e penjno."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jopuonjrego dhii donjo e skunde 135 ma dongo mago ma ong'ere kaka national skuls. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Chenrono owinjore orum chieng’ tich 4 jumani."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jopuonjre ma kwangi ohewo milion 1 nyocha otimo penjno ka sani thoth jopuonjre biro donjo e skunde mag county kod mag sub county."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="kochakore kiny idhi chak riedo jopuonjre madhi donjo e skunde madito mag county ma ongÉre kaka extra county schools kaeto mago mag sub county bende. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kenya sani nikod skunde madito mag county miluongo ni extra county 734 ka mamoko mag county gin 1412 nitie skunde mag sub county maromo 6451 ka mago mag jii giwegi gin 1164."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Migao mar somo bende oseyango ni nitie skunde 35 mag jopuonjre mani kod dwaro ma kende ka ranyisi ng'ol; ka skundego nyalo kawo jopuonjre 1500."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Oula ywero Nyando"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Familia buora onge kuonde jot sani e sub county ma Nyando kaluowre gi oula ma nyo omuomo e gwenge mag nyando kuno bang’ koth mapek ma dhii nyime gi chwee e county ma Kisumu."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Apisas mag Kenya Redcross joyango ni ni gwenge ma midhiero mar oula nyo ojuko oriiwo koda ka Ogenya ,Kabonyo , to kod Kanyagwal e kind mamoko. gisani chuno mondo mii jo familia ma kwangi ok tin ne 28 jomany jot e kar skul ma Ogenya primary."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Midhiero mar oulano bende omiyo kata mana chope mani nyando kundo pii omuomoe kendo keto ngima oganda kamarach mar gamo tuche."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="E gwenge mg Nyamasao mani ombaka, familia ma kwangi dirom 45 oringo ojot mana e skund primar ma Nyamasao"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M2:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N2:O9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0">
       <items count="108">
@@ -3396,7 +3855,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -3449,7 +3908,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -3791,20 +4250,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="A419" sqref="A362:A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="94.140625" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B1" t="s">
@@ -3812,7 +4271,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -3820,7 +4279,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3828,7 +4287,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3836,7 +4295,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3844,31 +4303,31 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="63">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -3876,7 +4335,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -3884,23 +4343,23 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -3908,303 +4367,303 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="63">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="42">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="84">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="42">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="42">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="63">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="42">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="63">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="42">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="42">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="63">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="42">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="63">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="63">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="84">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="84">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="84">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="42">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="84">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="84">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="63">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="42">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="42">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="63">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="126">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="126">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="84">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="84">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
@@ -4212,7 +4671,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="A52" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
@@ -4220,7 +4679,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
@@ -4228,7 +4687,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
@@ -4236,7 +4695,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
@@ -4244,7 +4703,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
@@ -4252,7 +4711,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
@@ -4260,7 +4719,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
@@ -4268,7 +4727,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
@@ -4276,7 +4735,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
@@ -4284,15 +4743,15 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="66">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
@@ -4300,23 +4759,23 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="75">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="66">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="82.5">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
@@ -4324,7 +4783,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
@@ -4332,327 +4791,327 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="63">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="63">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="63">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="42">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="84">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="63">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="84">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="63">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="42">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="63">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="63">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="42">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="63">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="63">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:2" ht="60">
+      <c r="A82" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="63">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="63">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="84">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:2" ht="45">
+      <c r="A85" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="63">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="63">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:2" ht="45">
+      <c r="A87" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="63">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="84">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:2" ht="45">
+      <c r="A89" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="42">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="42">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="84">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="42">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="42">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="42">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="84">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:2" ht="45">
+      <c r="A96" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="63">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="63">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:2" ht="60">
+      <c r="A99" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="84">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:2" ht="45">
+      <c r="A100" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="63">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="42">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:2" ht="30">
+      <c r="A102" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="42">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="42">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:2" ht="30">
+      <c r="A104" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="126">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:2" ht="60">
+      <c r="A105" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="42">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="63">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B107" t="s">
@@ -4660,1183 +5119,1183 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="30">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="30">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="30">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="30">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="30">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="45">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="45">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="30">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="30">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="45">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="45">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="45">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="45">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="60">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="30">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="30">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="45">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="30">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="30">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="45">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="45">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="60">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="30">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="30">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="30">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="30">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="30">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="45">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="30">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="45">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="30">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="45">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="30">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="30">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="30">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="30">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="30">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="30">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="60">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="30">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="30">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="60">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="60">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="60">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="60">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="45">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="30">
-      <c r="A202" s="11" t="s">
+      <c r="A202" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="45">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="30">
-      <c r="A204" s="11" t="s">
+      <c r="A204" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="45">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="45">
-      <c r="A207" s="11" t="s">
+      <c r="A207" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="45">
-      <c r="A208" s="11" t="s">
+      <c r="A208" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="45">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="30">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="60">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="60">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="11" t="s">
+      <c r="A214" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="30">
-      <c r="A215" s="11" t="s">
+      <c r="A215" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="30">
-      <c r="A216" s="11" t="s">
+      <c r="A216" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="30">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="45">
-      <c r="A218" s="11" t="s">
+      <c r="A218" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="45">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="10" t="s">
+      <c r="A222" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="30">
-      <c r="A223" s="11" t="s">
+      <c r="A223" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="30">
-      <c r="A224" s="11" t="s">
+      <c r="A224" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60">
-      <c r="A225" s="11" t="s">
+      <c r="A225" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="45">
-      <c r="A226" s="11" t="s">
+      <c r="A226" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="45">
-      <c r="A227" s="11" t="s">
+      <c r="A227" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="30">
-      <c r="A228" s="11" t="s">
+      <c r="A228" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="30">
-      <c r="A229" s="11" t="s">
+      <c r="A229" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="30">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="30">
-      <c r="A232" s="11" t="s">
+      <c r="A232" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="30">
-      <c r="A233" s="11" t="s">
+      <c r="A233" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="45">
-      <c r="A234" s="11" t="s">
+      <c r="A234" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30">
-      <c r="A235" s="11" t="s">
+      <c r="A235" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="30">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="45">
-      <c r="A237" s="11" t="s">
+      <c r="A237" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="30">
-      <c r="A239" s="11" t="s">
+      <c r="A239" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="11" t="s">
+      <c r="A240" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="45">
-      <c r="A241" s="11" t="s">
+      <c r="A241" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30">
-      <c r="A242" s="11" t="s">
+      <c r="A242" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30">
-      <c r="A243" s="11" t="s">
+      <c r="A243" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="45">
-      <c r="A245" s="11" t="s">
+      <c r="A245" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="45">
-      <c r="A246" s="11" t="s">
+      <c r="A246" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="60">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="30">
-      <c r="A248" s="11" t="s">
+      <c r="A248" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="30">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="45">
-      <c r="A250" s="11" t="s">
+      <c r="A250" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="45">
-      <c r="A251" s="11" t="s">
+      <c r="A251" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="45">
-      <c r="A252" s="11" t="s">
+      <c r="A252" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="10" t="s">
+      <c r="A253" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="11" t="s">
+      <c r="A254" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -5844,479 +6303,479 @@
       </c>
     </row>
     <row r="256" spans="1:2" ht="30">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="45">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="45">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="30">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="30">
-      <c r="A262" s="10" t="s">
+      <c r="A262" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="30">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="30">
-      <c r="A265" s="10" t="s">
+      <c r="A265" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="30">
-      <c r="A266" s="10" t="s">
+      <c r="A266" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="45">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="30">
-      <c r="A268" s="10" t="s">
+      <c r="A268" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="10" t="s">
+      <c r="A269" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B269" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="30">
-      <c r="A270" s="10" t="s">
+      <c r="A270" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="30">
-      <c r="A271" s="10" t="s">
+      <c r="A271" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B271" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="45">
-      <c r="A274" s="10" t="s">
+      <c r="A274" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="30">
-      <c r="A275" s="10" t="s">
+      <c r="A275" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="30">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="10" t="s">
+      <c r="A277" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="30">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60">
-      <c r="A281" s="10" t="s">
+      <c r="A281" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="30">
-      <c r="A283" s="10" t="s">
+      <c r="A283" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="30">
-      <c r="A284" s="10" t="s">
+      <c r="A284" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30">
-      <c r="A285" s="10" t="s">
+      <c r="A285" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="60">
-      <c r="A286" s="10" t="s">
+      <c r="A286" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="45">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="45">
-      <c r="A289" s="10" t="s">
+      <c r="A289" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="10" t="s">
+      <c r="A290" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30">
-      <c r="A291" s="10" t="s">
+      <c r="A291" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="30">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="45">
-      <c r="A293" s="10" t="s">
+      <c r="A293" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="30">
-      <c r="A294" s="10" t="s">
+      <c r="A294" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="45">
-      <c r="A295" s="10" t="s">
+      <c r="A295" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="B295" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30">
-      <c r="A296" s="10" t="s">
+      <c r="A296" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="10" t="s">
+      <c r="A297" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30">
-      <c r="A298" s="10" t="s">
+      <c r="A298" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="45">
-      <c r="A299" s="10" t="s">
+      <c r="A299" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="10" t="s">
+      <c r="A300" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30">
-      <c r="A301" s="10" t="s">
+      <c r="A301" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="45">
-      <c r="A302" s="10" t="s">
+      <c r="A302" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B302" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="60">
-      <c r="A303" s="10" t="s">
+      <c r="A303" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="30">
-      <c r="A304" s="10" t="s">
+      <c r="A304" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="B306" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="45">
-      <c r="A307" s="10" t="s">
+      <c r="A307" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="B307" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B309" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="60">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B310" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B311" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="45">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="45">
-      <c r="A313" s="10" t="s">
+      <c r="A313" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="B313" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="60">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="B314" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="10" t="s">
+      <c r="A315" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -6324,7 +6783,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" ht="30">
-      <c r="A316" s="10" t="s">
+      <c r="A316" s="7" t="s">
         <v>331</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -6332,7 +6791,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="30">
-      <c r="A317" s="10" t="s">
+      <c r="A317" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -6340,7 +6799,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="45">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -6348,7 +6807,7 @@
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="10" t="s">
+      <c r="A319" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -6356,7 +6815,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" ht="45">
-      <c r="A320" s="10" t="s">
+      <c r="A320" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -6364,7 +6823,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" ht="45">
-      <c r="A321" s="10" t="s">
+      <c r="A321" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6372,7 +6831,7 @@
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="10" t="s">
+      <c r="A322" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -6380,7 +6839,7 @@
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="7" t="s">
         <v>337</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6388,7 +6847,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" ht="30">
-      <c r="A324" s="10" t="s">
+      <c r="A324" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -6396,7 +6855,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" ht="30">
-      <c r="A325" s="10" t="s">
+      <c r="A325" s="7" t="s">
         <v>340</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -6404,7 +6863,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" ht="30">
-      <c r="A326" s="10" t="s">
+      <c r="A326" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -6412,7 +6871,7 @@
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="10" t="s">
+      <c r="A327" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -6420,7 +6879,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" ht="30">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6428,7 +6887,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" ht="30">
-      <c r="A329" s="10" t="s">
+      <c r="A329" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -6436,7 +6895,7 @@
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="10" t="s">
+      <c r="A330" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -6444,7 +6903,7 @@
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="10" t="s">
+      <c r="A331" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6452,7 +6911,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" ht="45">
-      <c r="A332" s="10" t="s">
+      <c r="A332" s="7" t="s">
         <v>346</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6460,7 +6919,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" ht="30">
-      <c r="A333" s="10" t="s">
+      <c r="A333" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6468,7 +6927,7 @@
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="10" t="s">
+      <c r="A334" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6476,7 +6935,7 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="10" t="s">
+      <c r="A335" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6484,7 +6943,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" ht="30">
-      <c r="A336" s="10" t="s">
+      <c r="A336" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6492,7 +6951,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" ht="30">
-      <c r="A337" s="10" t="s">
+      <c r="A337" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6500,7 +6959,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" ht="30">
-      <c r="A338" s="10" t="s">
+      <c r="A338" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6508,7 +6967,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" ht="45">
-      <c r="A339" s="10" t="s">
+      <c r="A339" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6516,7 +6975,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" ht="45">
-      <c r="A340" s="10" t="s">
+      <c r="A340" s="7" t="s">
         <v>354</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6524,7 +6983,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" ht="45">
-      <c r="A341" s="10" t="s">
+      <c r="A341" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6532,7 +6991,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" ht="45">
-      <c r="A342" s="10" t="s">
+      <c r="A342" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6540,7 +6999,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" ht="45">
-      <c r="A343" s="10" t="s">
+      <c r="A343" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6548,7 +7007,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" ht="30">
-      <c r="A344" s="10" t="s">
+      <c r="A344" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6556,7 +7015,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" ht="30">
-      <c r="A345" s="10" t="s">
+      <c r="A345" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6564,7 +7023,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" ht="45">
-      <c r="A346" s="10" t="s">
+      <c r="A346" s="7" t="s">
         <v>360</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -6572,7 +7031,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" ht="30">
-      <c r="A347" s="10" t="s">
+      <c r="A347" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -6580,7 +7039,7 @@
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="10" t="s">
+      <c r="A348" s="7" t="s">
         <v>362</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -6588,7 +7047,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" ht="30">
-      <c r="A349" s="10" t="s">
+      <c r="A349" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -6596,7 +7055,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" ht="60">
-      <c r="A350" s="10" t="s">
+      <c r="A350" s="7" t="s">
         <v>364</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -6604,7 +7063,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" ht="30">
-      <c r="A351" s="10" t="s">
+      <c r="A351" s="7" t="s">
         <v>365</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -6612,7 +7071,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" ht="45">
-      <c r="A352" s="10" t="s">
+      <c r="A352" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -6620,7 +7079,7 @@
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="10" t="s">
+      <c r="A353" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -6628,7 +7087,7 @@
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="10" t="s">
+      <c r="A354" s="7" t="s">
         <v>368</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -6636,7 +7095,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" ht="45">
-      <c r="A355" s="10" t="s">
+      <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -6644,7 +7103,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" ht="45">
-      <c r="A356" s="10" t="s">
+      <c r="A356" s="7" t="s">
         <v>370</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -6652,7 +7111,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" ht="30">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="7" t="s">
         <v>371</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -6660,7 +7119,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" ht="45">
-      <c r="A358" s="10" t="s">
+      <c r="A358" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -6668,7 +7127,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" ht="30">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -6676,7 +7135,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" ht="45">
-      <c r="A360" s="10" t="s">
+      <c r="A360" s="7" t="s">
         <v>374</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -6684,12 +7143,479 @@
       </c>
     </row>
     <row r="361" spans="1:2" ht="30">
-      <c r="A361" s="10" t="s">
+      <c r="A361" s="7" t="s">
         <v>375</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="45">
+      <c r="A363" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="30">
+      <c r="A364" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="30">
+      <c r="A366" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="30">
+      <c r="A367" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="30">
+      <c r="A368" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="45">
+      <c r="A370" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="30">
+      <c r="A371" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="45">
+      <c r="A373" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="45">
+      <c r="A374" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="30">
+      <c r="A375" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="30">
+      <c r="A376" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="30">
+      <c r="A377" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="30">
+      <c r="A380" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="30">
+      <c r="A381" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="30">
+      <c r="A382" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="30">
+      <c r="A383" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="30">
+      <c r="A385" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="30">
+      <c r="A386" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="30">
+      <c r="A387" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="30">
+      <c r="A388" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="30">
+      <c r="A391" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="30">
+      <c r="A393" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="45">
+      <c r="A396" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="60">
+      <c r="A397" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="30">
+      <c r="A398" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="30">
+      <c r="A400" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="30">
+      <c r="A402" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="45">
+      <c r="A404" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="30">
+      <c r="A407" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="30">
+      <c r="A411" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="30">
+      <c r="A413" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="30">
+      <c r="A414" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="30">
+      <c r="A416" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="45">
+      <c r="A417" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="30">
+      <c r="A418" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="30">
+      <c r="A419" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6699,208 +7625,208 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="M2" s="8" t="s">
+    <row r="2" spans="1:15">
+      <c r="N2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
         <v>27</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>25</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>7</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
         <v>62</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="N6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
         <v>19</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="1"/>
+      <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="J11" s="13" t="s">
+    <row r="11" spans="1:15">
+      <c r="K11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -6920,17 +7846,20 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <f>SUM(B13:F13)</f>
-        <v>85</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <f>SUM(B13:G13)</f>
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -6947,17 +7876,20 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G21" si="0">SUM(B14:F14)</f>
-        <v>77</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="0">SUM(B14:G14)</f>
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -6971,143 +7903,161 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K16">
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>62</v>
-      </c>
-      <c r="F17">
-        <v>22</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>33</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -7121,22 +8071,25 @@
         <v>6</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:F22" si="1">SUM(B13:B21)</f>
+        <f t="shared" ref="B22:G22" si="1">SUM(B13:B21)</f>
         <v>168</v>
       </c>
       <c r="C22">
@@ -7156,23 +8109,83 @@
         <v>108</v>
       </c>
       <c r="G22">
-        <f>SUM(G13:G21)</f>
-        <v>527</v>
-      </c>
-      <c r="J22" t="s">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H13:H21)</f>
+        <v>586</v>
+      </c>
+      <c r="K22" t="s">
         <v>377</v>
       </c>
-      <c r="K22">
-        <f>SUM(K13:K21)</f>
-        <v>528</v>
+      <c r="L22">
+        <f>SUM(L13:L21)</f>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="1">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="J13:K21">
-    <sortCondition ref="J13:J21"/>
+  <sortState ref="K13:L21">
+    <sortCondition ref="K13:K21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7193,7 +8206,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
@@ -7201,7 +8214,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -7209,7 +8222,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -7217,7 +8230,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="1">
@@ -7225,7 +8238,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -7233,7 +8246,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -7241,7 +8254,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1">
@@ -7249,13 +8262,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="1">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="713" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,13 @@
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
     <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="493">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -1342,13 +1342,175 @@
   </si>
   <si>
     <t>Count of Sakaja ochung’ tenge</t>
+  </si>
+  <si>
+    <t>Laktere ma Kisumu ochungo ngányo margi mane onego chakre chuny otieno makawuono</t>
+  </si>
+  <si>
+    <t>Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu.</t>
+  </si>
+  <si>
+    <t>Lakteche go ne obuogo chako nganyo makamano kaluwore gi ngúr monyauando wach chualogi e lemo mamalo, chudo mekgi kod weche mag arita mag thieth kata insurance kuom mamoko mano makoro gisechopo e winjruok kod piny owacho mar county ma Kisumu kaka ibiro keto e tim.</t>
+  </si>
+  <si>
+    <t>Odhi nyime gileroni kwe mowuok e county ma Kisumu kuno ma ibiro telonegi gi jagoro mar county kod jatend migao mochungne yore thieth e countyno jobiro bedo gi romo mar keto lalruok makende kochokare chieng wuok tich mabiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane oloso gi nyakalondo mar Ramogi, jakom riuruok laktechego -The Kenya Medical Practitioners, Pharmacists and Dentists Union bade ma Nyanza lakktar Kevin Osuri wacho ni gichopoe winjruok kod tend county ma Kisumu kotenore gi kaka ibiro ketoe tim winjruogno ka koro lakteche maloyo 250 ok bi dhi e nganyo moro amora. </t>
+  </si>
+  <si>
+    <t>Dichuo majahigni 60 ogoyo yuore manyamin chiege monego Ochieng'a sub location, Rarieda</t>
+  </si>
+  <si>
+    <t>Jodak ma ochiengó sub location ei Rarieda sub county ne kawuono dhoogi omoko nono bang kane jago moro majahigni 60 ne otuch ogoyo yuore manyim chiege majahigni 25 motho kaluwore gi weche moko mamako mana dhok nono.</t>
+  </si>
+  <si>
+    <t>Ne okone nyakalondo mar Ramogi ni Agutu nyo osetemo gi yore tee mar kwero yuoreno mondomi kik otem ni otedo e dalano to kaka weche ne chalo, en ni nyadendi makoro onindono ne chalo mawach kenyno nyocha ne osedonjo e wiye kendo ne orito mana odiechiengno mondomi ne ochopi okau osikene odhi ka tedo e dalano</t>
+  </si>
+  <si>
+    <t>Katakamano jalup ruothno ne odhi nyime giwachoni weche nyo oduogo obedo marach mana tok kane Agutu oyudo ka yuoreno ne oriko loso gi dichuo makoro ne dwa kendeno e sime kendo kanyo ema ne otuch opodho mana kuom nyakono gi agwecho kod adhong malich miwuoro kendo nege mana gi kanyo kanyo.</t>
+  </si>
+  <si>
+    <t>Bangé to wachore ni dichuogno ne oduog olokore gi jaode Eunice Agutu mabende ne ogoyo mohinyo marach mokalo kane otiyo gi gimoro madik ka iwachoni gino bende ne otiyogo e goyo yuoreno.</t>
+  </si>
+  <si>
+    <t>Elija Agutu ogutu wachore ni ne ogoyo yuoreno manyinge Susan Awino Omollo mochwe otho mano tok fwenyoni yuareno ne chano tedo e gwengno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaluwore gi jalup ruoth mae aluorano migosi Peter Odongo, achijno wachore ni nyo oyudo muya maling ling mag ni Awino mosebedo kodak e dalane kanyo kuom jumbe 2 kende ne chano kend gi wuod libamba margi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comanda mar obila e sub county ma Rarieda migosi Thomas Sangut mane oyango wachni ne bende oleronwa ni wachno ne oduog ogoo lipode irgi kaeto ema ringre nyako majahigni 25no ne oduogo ogol moter Madiany Sub county mortuary kakoro orito bero to nonro bende osechakore. </t>
+  </si>
+  <si>
+    <t>Bende ne oleroni achijno ne osemaki kendo olorne e tesend obila ma Aram ka jaode mabende ne ohinyo marachno to orwaki e ward e kar thieth ma Madiany sub county.</t>
+  </si>
+  <si>
+    <t>Luoro nitiere ni jii maok tin ne 14 owito ngimagi e masira mar apaya</t>
+  </si>
+  <si>
+    <t>Luoro nitiere ni jii maok tin ne 14 owito ngimagi e masira mar apaya  maotimore kamoro ni kikopey e wanagapaya maduong ma nairobi -nakuru</t>
+  </si>
+  <si>
+    <t>kaluore od joneno masira onogo ne owuokie bang lorry moro manoyudo iriembo e  ngwe ahirititi bayo kendo  tuomo matatu to kod nyamburko mamoko e orido mochomo kikopey ka iwuok  gigil .</t>
+  </si>
+  <si>
+    <t>Weg nyamburko matiyo gi wangapaya no kwa mondo mi gibed motang e sechegi ma apisas mag obila tiyo mar golo chakla mar mtokni  go e wangapaya kedo neno ni yore wuoth odok e wange</t>
+  </si>
+  <si>
+    <t>ker Uhuru Kenyataa oaingo mar kedo gi mibadhi</t>
+  </si>
+  <si>
+    <t>ker Uhuru Kenyataa koro osingo ni piny owacho mare ok bi dok chien kata mbeko tol e weche mag kedo gi mibadhi e pachoka</t>
+  </si>
+  <si>
+    <t>ker maneloso e kinde mane oromo kod jokenya mawuok e piny Namibia midhiambo manyoro ne owacho ni jogo manie lemo madongo e pachoka ibiro mako kotenore gi mibadhi  ka oyango ni onge jok maibiro mako ka iumo jomoko e weche mag kedo gi mibadhi</t>
+  </si>
+  <si>
+    <t>Duol mar JCS ogolo paro madwani ker Uhuru Kenyatta ochuogi tribunal mabiro nono ngúr miluoyo ewi Justice Jackton B. Ojwang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duol mochungne ndiko jongád buche tich e bad migao mar doho JSC wachoni giseyudo ngúr mathoth mokalo ewi jong'ad buche mag doho mamalo mogik. </t>
+  </si>
+  <si>
+    <t>Jakom duolno maen ogai mar bad migao mar doho Justice David Maraga wachoni duolno katakamano oyiero ngúr ariyo ma achiel kuomgi en machiwo ng'ur ewiye en owuon kuom kalo katiba, kod machielo machiwo ng;ur ewi jong'ad buche moko 4 mag doho mamalo mogik magin justice Mohamed ibrahim, Justice jJackton Ojwang, Justice Smokin Wanjala kod justice Njoki Ndung’u.</t>
+  </si>
+  <si>
+    <t>Maraga bende oyangoni giseyudo ripord moyiedhi mar duolno ka koro gibiro dwani ker Uhuru Kenyatta obi ochuogi kweth tribunal moro ma ema biro nono mayangi kit ngur modonjonego jang'ad buche e doho mamalo mogik hon, ngire justice Jackton B. Ojwang</t>
+  </si>
+  <si>
+    <t>Eseche gogo duolno bende ne orango ng'ur 17 mane ochwal enyimgi mang'ur ewi jongád buche mopogore opogore mag doho mimake apeal kod doho mamalo, kendo tok keto lalruok maie ewigi to giyie mana gi ngúr 9 kende</t>
+  </si>
+  <si>
+    <t>Nyathi majahigni 12 ondhi gi jok mapok oyangi Rody Kopany, Homabay county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familia moro e gwenge mag Kalanya/Kanyango sub location mano yoo Rody Kopany koro sani rumbi mar lit gi kuyo omako chunygi kaluwore gi wach ndhicho mar nyathigi mane ondhi gi jok mapok oyangi chieng jumapil godhiambo. </t>
+  </si>
+  <si>
+    <t>Familia mar Lilian Omondi jamanyo wuodgi miluongoni Jack Ochieng Omondi majahigni 12 kendo japuonjre e skund primar ma rody kopany e cals 6, mabende nondhi gi jok mapok oyangi e centre ma Rodi Kopany kuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">migosi kowuo oyuago kweth moro masani owachno oonore e county ma homabay kuno majo ndhiyo nyithi jii kaeto gichako kwayo pesa madongo kamano kowachoni ngimagi nitie kama rach kaluwore gi ni nitie jok mosebedo kaluwogi kuom juma achiel koro. </t>
+  </si>
+  <si>
+    <t>Apisa maduong mochungne bad migao mar okwach kich e county ma Homabay migosi Joseph Turko oyango adiera mar wachno koleroni gisechako timo nonro ewi wachno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumachielo migosi Kowuo kod jaode Carolyn sang jokoni ng'ato nonyisogi e sime ni gior pesano makaok kamano to kare gibiro nego nyathigino. </t>
+  </si>
+  <si>
+    <t>Kaluwor gi min nyathino nyathigino ne rik oor Rody kuno nito katakamano neok odok pacho kaeto ema kane ochopo chieng wuok tich to ema ng'ato ne ogochonegie kadwaro ni gigol omenda maromo siling million 15 ni mondo eka giwe nyathigino thuolo.</t>
+  </si>
+  <si>
+    <t>Chero mapile mag somo e skund primar ma Otangre e ward ma Kibwayi dhiwa sub county osebedo matek e thulo mar jumbe adek mokalo</t>
+  </si>
+  <si>
+    <t>Ma en bang yano mager ne muko tado mar klesse auchiel kotingo nyaka mano mar apisi maduong e skund no mano maoseweyo ka jopuonjre somo e buo yien</t>
+  </si>
+  <si>
+    <t>Kaluore kod japuonj maduong e skund no migosi Daniel Seka maromo nyithindo 250 osebedo ka somo e tie yien bang yamo mapek ne muko tado mag Klesse ka klesse matadogi ne omukore otingo classa chiel nyaka auchiel.</t>
+  </si>
+  <si>
+    <t>Japuonj maduong no kor kwayo kony kowuok kuom piny owacho mamalo kod mano mar county mondo okony e gedo mar clesse go ka owacho ni temo mare mar yudo omenda kowuok e cdf mar kar chung od bura ma ndhiwa osego lwanda kinde mathoth</t>
+  </si>
+  <si>
+    <t>mca ma gwenge go migoi Richard ogindo e kinde maneochwalo mabede 40 ne skund no ne okwayo migao maochugne midhiero ma apoya e county mondo oyie oret mapiyo mar konyo skund  No gero clesse go to kod apisi</t>
+  </si>
+  <si>
+    <t>Pau ndeke ma kisumu international airport olor</t>
+  </si>
+  <si>
+    <t>Pau ndeke ma kisumu international airport olor kaka achiel kuom chiwo thuolo mag medo bero pau ndekeno gi duol mochungne pau ndeke e pachoka kata kenya airports authority.</t>
+  </si>
+  <si>
+    <t>jowuoth machano wuoth kokalo e pau ndeke ma kisumu international airportno ijiwo mondomi otudre gi kambi ndeke magichano wuothogo ne ler mathoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odiechieng makawuono pau ndekeno biro dong kolor odiechieng mangima ka gaedo mar medo yaro kama ndeke ringoeno kata mongéreni runway biro dhi nyime nyaka tarik 28 dwe mar 3 higani. </t>
+  </si>
+  <si>
+    <t>e thuolono duto kama ndeke ringoeno biro bedo ka tiyo mana kochakore saa 12 gi dakika 45 mar okinyi nyaka saa 1 ma midhiambo.</t>
+  </si>
+  <si>
+    <t>Katakamano apedha pod dhin nyime mar manyo achije mamoko ma iwachoni ne oringo olal eseche mag apedha makamano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achije 9 michichgo e wach kuong gi angénge e mbalarieny ma Maseno omaki. </t>
+  </si>
+  <si>
+    <t>Achijego mane omaki gi apisas mag bad migao mar okwach kich koro ibiro chwal enyim doho ka obi osetieki timo nonro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achijego magin Patrick Okanda, peter sande, Obed Panyako, Peter Obed, David Ndegu, Samuel Kuya, Stephen Oloo kod Nahashon Arena. </t>
+  </si>
+  <si>
+    <t>Obila joyangoni oyud kuomgi akota nag nyasore, ojalo, musumeno kod kombe machaloni negikwalo ma ogenni tiyogo enyim doho kaka neno</t>
+  </si>
+  <si>
+    <t>Jii 3 kech ochako onego Baringo county, oketo kwanno nyaka jii 7 manyaka sani osetho nekech wach kech</t>
+  </si>
+  <si>
+    <t>Jodak makono koro sieyo telo mae countyno kuom bedoni gisiko giriambo ni onge kech makecho kuno to jii to wito ngimagi piiny maruu nekech wach kech</t>
+  </si>
+  <si>
+    <t>Jii 3 moko kendo ochako oyangi ni owito ngimagi kaluwore gi kech maliyo kadhano momonjo county ma Baringo kendo kwanno koro oketo kwand jok mosewito ngimagi kono kaluwore gi wach kech onyono 7 nyaka sani. J</t>
+  </si>
+  <si>
+    <t>ogo oyangi ni owito ngimagi e wars ma Kositei ribikwo Tiaty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jii 4 mane jowito ngimagi motelo kanyo ne wuok e ward mar Silale. </t>
+  </si>
+  <si>
+    <t>Kaluwore gi telo mae aluorano, familia buora onge gi chiemo, kendo ni jogo manyalo yudo chiemo wuotho nyaka e kuionde maboyo mokalo mondo eka giyudi chiemo ka jok moko bende bedo ndalo buora kapok oyudo kata gima degidir e bund iigi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +1659,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1840,7 +2019,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1859,9 +2038,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1870,6 +2046,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3643,7 +3834,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4250,20 +4441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B474"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="A419" sqref="A362:A419"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B1" t="s">
@@ -4279,7 +4470,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -4295,7 +4486,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4303,7 +4494,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -4335,7 +4526,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -4343,7 +4534,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -4367,7 +4558,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -4671,7 +4862,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
@@ -4679,7 +4870,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
@@ -4687,7 +4878,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
@@ -4695,7 +4886,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
@@ -4703,7 +4894,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
@@ -4711,7 +4902,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
@@ -4719,7 +4910,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
@@ -4727,7 +4918,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
@@ -4735,7 +4926,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
@@ -4743,7 +4934,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
@@ -4751,7 +4942,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
@@ -4767,7 +4958,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
@@ -4775,7 +4966,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="75">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
@@ -5583,7 +5774,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="30">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -7151,7 +7342,7 @@
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="12" t="s">
+      <c r="A362" s="11" t="s">
         <v>382</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -7175,7 +7366,7 @@
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="12" t="s">
+      <c r="A365" s="11" t="s">
         <v>383</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -7207,7 +7398,7 @@
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="12" t="s">
+      <c r="A369" s="11" t="s">
         <v>387</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -7279,7 +7470,7 @@
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="12" t="s">
+      <c r="A378" s="11" t="s">
         <v>396</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -7287,7 +7478,7 @@
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="12" t="s">
+      <c r="A379" s="11" t="s">
         <v>397</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -7327,7 +7518,7 @@
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="12" t="s">
+      <c r="A384" s="11" t="s">
         <v>402</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -7375,7 +7566,7 @@
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="12" t="s">
+      <c r="A390" s="11" t="s">
         <v>408</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -7415,7 +7606,7 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="12" t="s">
+      <c r="A395" s="11" t="s">
         <v>414</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -7447,7 +7638,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="12" t="s">
+      <c r="A399" s="11" t="s">
         <v>417</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -7463,7 +7654,7 @@
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="8" t="s">
         <v>419</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -7479,7 +7670,7 @@
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="8" t="s">
         <v>421</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7495,12 +7686,12 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="12" t="s">
+      <c r="A406" s="11" t="s">
         <v>424</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -7516,7 +7707,7 @@
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="9" t="s">
+      <c r="A408" s="8" t="s">
         <v>428</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -7532,7 +7723,7 @@
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="8" t="s">
         <v>429</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -7548,7 +7739,7 @@
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="8" t="s">
         <v>430</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -7572,7 +7763,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="12" t="s">
+      <c r="A415" s="11" t="s">
         <v>432</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -7611,11 +7802,440 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
-      <c r="A421"/>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422"/>
+    <row r="420" spans="1:2" ht="42">
+      <c r="A420" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="63">
+      <c r="A421" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="60">
+      <c r="A422" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="84">
+      <c r="A423" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="84">
+      <c r="A424" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="42">
+      <c r="A425" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="51.75">
+      <c r="A426" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="34.5">
+      <c r="A427" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="45">
+      <c r="A428" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="86.25">
+      <c r="A429" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="86.25">
+      <c r="A430" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="51.75">
+      <c r="A431" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="69">
+      <c r="A432" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="21">
+      <c r="A434" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="42">
+      <c r="A435" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="63">
+      <c r="A436" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="63">
+      <c r="A437" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="21">
+      <c r="A438" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="42">
+      <c r="A439" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="84">
+      <c r="A440" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="42">
+      <c r="A441" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="42">
+      <c r="A442" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="126">
+      <c r="A443" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="84">
+      <c r="A444" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="63">
+      <c r="A445" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="42">
+      <c r="A446" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="84">
+      <c r="A447" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="63">
+      <c r="A448" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="84">
+      <c r="A449" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="42">
+      <c r="A450" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="84">
+      <c r="A451" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="63">
+      <c r="A452" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="42">
+      <c r="A453" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="63">
+      <c r="A454" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="63">
+      <c r="A455" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="84">
+      <c r="A456" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="63">
+      <c r="A457" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="21">
+      <c r="A458" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="63">
+      <c r="A459" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="63">
+      <c r="A460" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="42">
+      <c r="A461" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="63">
+      <c r="A462" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="21">
+      <c r="A463" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="42">
+      <c r="A464" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="42">
+      <c r="A465" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="42">
+      <c r="A466" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="42">
+      <c r="A467" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="42">
+      <c r="A468" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="63">
+      <c r="A469" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="21">
+      <c r="A470" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="21">
+      <c r="A471" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="84">
+      <c r="A472" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="42">
+      <c r="A473" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7627,7 +8247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -7821,10 +8441,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="713" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <pivotCache cacheId="1" r:id="rId6"/>
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="558">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -1410,18 +1411,12 @@
     <t>Duol mar JCS ogolo paro madwani ker Uhuru Kenyatta ochuogi tribunal mabiro nono ngúr miluoyo ewi Justice Jackton B. Ojwang</t>
   </si>
   <si>
-    <t xml:space="preserve">Duol mochungne ndiko jongád buche tich e bad migao mar doho JSC wachoni giseyudo ngúr mathoth mokalo ewi jong'ad buche mag doho mamalo mogik. </t>
-  </si>
-  <si>
     <t>Jakom duolno maen ogai mar bad migao mar doho Justice David Maraga wachoni duolno katakamano oyiero ngúr ariyo ma achiel kuomgi en machiwo ng'ur ewiye en owuon kuom kalo katiba, kod machielo machiwo ng;ur ewi jong'ad buche moko 4 mag doho mamalo mogik magin justice Mohamed ibrahim, Justice jJackton Ojwang, Justice Smokin Wanjala kod justice Njoki Ndung’u.</t>
   </si>
   <si>
     <t>Maraga bende oyangoni giseyudo ripord moyiedhi mar duolno ka koro gibiro dwani ker Uhuru Kenyatta obi ochuogi kweth tribunal moro ma ema biro nono mayangi kit ngur modonjonego jang'ad buche e doho mamalo mogik hon, ngire justice Jackton B. Ojwang</t>
   </si>
   <si>
-    <t>Eseche gogo duolno bende ne orango ng'ur 17 mane ochwal enyimgi mang'ur ewi jongád buche mopogore opogore mag doho mimake apeal kod doho mamalo, kendo tok keto lalruok maie ewigi to giyie mana gi ngúr 9 kende</t>
-  </si>
-  <si>
     <t>Nyathi majahigni 12 ondhi gi jok mapok oyangi Rody Kopany, Homabay county</t>
   </si>
   <si>
@@ -1504,13 +1499,214 @@
   </si>
   <si>
     <t>Kaluwore gi telo mae aluorano, familia buora onge gi chiemo, kendo ni jogo manyalo yudo chiemo wuotho nyaka e kuionde maboyo mokalo mondo eka giyudi chiemo ka jok moko bende bedo ndalo buora kapok oyudo kata gima degidir e bund iigi</t>
+  </si>
+  <si>
+    <t>Jolupo ma Migori joduaro ni Ker Uhuru kiny owuo e wii wach midhiero ma gikalee e Nam Lolwe</t>
+  </si>
+  <si>
+    <t>Jolupo ma County ma Migori koro joduaro ni Ker Uhuru Kenyatta obi owuo e wach arita kwee  ma osebedo ka rach mokalo e Nam Lolwe  e limbe mare ma odhi timo Kisumu</t>
+  </si>
+  <si>
+    <t>Jolupogo mane otelnegi kod jakom machon mar dho wath ma Sori Migosi Barmrich Okoth ne jowacho ni osebed ka isandogi malit mokalo kendo imakogi e kinde ka kinde gi obila</t>
+  </si>
+  <si>
+    <t>Nowacho ni piny owacho koro onegobed ni wuok oko mana motegno mar lando ni koro gichiwore gi yoore duto mag tieko wach weche mag arita marach e Nam Lolweno e limbe mare ma obiro dhi timo Kisumuno</t>
+  </si>
+  <si>
+    <t>Jatelono ne owacho ni wach laro kieo kata tong mag nam pod en gimatek mokalo e Nam Lolwe kuno ma onegobed ni Ker wuoyee gi pinje ma libamba kaka Uganda kod Tanzania</t>
+  </si>
+  <si>
+    <t>Jolupogo bende joduaro ni Ker okonygi yudo  chich rech kanegiwacho ni osebedo ka chunogi mondo  gius rech e nengo manyap machalo mana gima giwito nikech gionge gi chich rech ma digi usie rechgigo gi nengo mowinjore</t>
+  </si>
+  <si>
+    <t>Migosi okoth wacho sekta mar rech osebed ka ojwang kuom kinde malach kowacho ni koro duarore mondo piny owacho ochak paro kaka ginyalotingó sektano malo mar mondo mi okony dhoudi ma jolupo e thurka</t>
+  </si>
+  <si>
+    <t>Migosi okoth nowacho ni chandruok ma gisebedo ka gikalee ngény mokalo  kendo gin gik ma gisekalee  aming'a kanowacho ni kinde koro osechopo ma onegobed ni iloyo godo wachgino chutho</t>
+  </si>
+  <si>
+    <t>Raila owuoyo ewii tho mane jii othogo kod geno mapod nitie e chopo e piny Canaan</t>
+  </si>
+  <si>
+    <t>Ogai mar NASA Migosi Raila Odinga, wacho ni nee ochuno ni obed piny gi jatend piny owacho Uhuru Kenyatta mondo mii gipoor wach nikech Kenya nee osekayo kama tek.</t>
+  </si>
+  <si>
+    <t>Migosi Odinga wacho ni jokenya nee medo mana lalo ngimagi nikech chung’ chungo mar siasa ma tok yiero, wach manee omiyo oneno en owuon kaachiel gi Migosi Kenyatta mondo gigol Kenya e lweny kendo jii obed piny olalre, okang’ maema iluongo ni Building Bridges Initiative.</t>
+  </si>
+  <si>
+    <t>Kochiwo ranyisi mar kwan dhano manee onegi odichieng’ manee oaa America oduogo pachoka, Migosi Odinga okoni ratiro mag jomanee olalo ngimagi e kinde lueny ma tok yiero, ibiro chopo e yoo makare e bwoo chenro mar Building Bridgesno, masani ochiwo thuolo mar lalruok maok mana lueny mosemiyo oganda olalo ngimagi mathoth mokalo.</t>
+  </si>
+  <si>
+    <t>Migosi Odinga wacho ni katodoko ni jokenya pok ochopo kuma nee wuodh ochako kochiko, geno nitie ni gikone kokalo e bwoo chenro mar Building Bridges ni, jokenya biro yudo ratiro margi.</t>
+  </si>
+  <si>
+    <t>Miyo moro ong'adne buch twech mar higni 10 gi doho ma Rongo</t>
+  </si>
+  <si>
+    <t>Justice Kamau ne odhi nyime gi leroni jogo duto ma doho biro yudo gi ketho mar bembo kata rocho ratiro e yoo moro amora ne nyithindo to ibiro kawonegi ondamo mager mar chik mabiro bedo puonj ne jok mamoko.</t>
+  </si>
+  <si>
+    <t>Entie gi ndalo 14 mar mako apeal ewi ng'etono .</t>
+  </si>
+  <si>
+    <t>E ngÉto mare mane ogolo e doho ma rongo kuno jang'ad buche Charles Kamau ne oleroni achijno ne oyudi gi ketho makamano bang kane doho ofwenyoni notimo timno ne nyathino e kiosko mare manitie e boma ma rongo tarik 13 dwe mar 9 higani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duol mochungne ndiko jong'ad buche tich e bad migao mar doho JSC wachoni giseyudo ngúr mathoth mokalo ewi jong'ad buche mag doho mamalo mogik. </t>
+  </si>
+  <si>
+    <t>Eseche gogo duolno bende ne orango ng'ur 17 mane ochwal enyimgi mang'ur ewi jong'ad buche mopogore opogore mag doho mimake apeal kod doho mamalo, kendo tok keto lalruok maie ewigi to giyie mana gi ngúr 9 kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juma mokalo jang'ad buche e doho mamalo ma Migori Anthony Murima ne okoni doho koro sani biro chako tero buche mago motenore gi bembo kod gik machalo kamago mapiyo piyo mar nenoni jogo mirocho ratiro margi oyudo ratichgi e sama owinjre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyakono manyinge Terry Anne Usenge ne ong'adne burano kamano tok kane oyude gi ketho mar rocho ratiro mar nyathino kiringruok . </t>
+  </si>
+  <si>
+    <t>Miyo moro majahigni 26 ong'adne twech higni 10 bang kane doho ma rongo oyude gi ketho mar rocho ratiro mar nyathi moro mawuoyi e kar dak ma Mbwa Kali ei Rongo sub county Migori county</t>
+  </si>
+  <si>
+    <t>Kenya osidho siling manyien makoro ok bii bedogi pichni jotelo, obiro bedogi pichni mag lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ker Uhuru Kenyatta ne kawuono osidho ayanga siling manyien mar kenyaka ma koro ochako tiyo ayanga e thurka kawuononi kaluwore gi dwach katiba mane opuodhi e higa mar 2010 ka jopiny ne nitie gi paro mogopogore opogore ewi pesano makoro onge gi picha mar jotelo ma thurka to nitie mana gi kido mar lee mopogore opgoore. </t>
+  </si>
+  <si>
+    <t>Kane oloso ekine mane osidho ayanga pesano e bengi maduong ma thurka ker Kenyatta ne okoni silingno en mano majogo maok nyal neno biro bedogo gi yot mar tiyogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ker Kenyatta bende ne okawo thuolo mar nyiso benge mae pachoka mondomi ochiuie hola ne jo ohala matindo tindo kod mago mae diere mar mondomi gimed bero ohelnigi e yoo makare. </t>
+  </si>
+  <si>
+    <t>To korka kore gavana mar bengi mar central Patrick Njoroge to okoni siling manyienno nyo osegoo chapa nyaka e gaset mar piny owacho nikendo ochako tiyo kawuononi</t>
+  </si>
+  <si>
+    <t>Siling achiel koro biro bedogi kido mar tiga eka siling 5 to biro bedogi kido mar omuga kaeto siling 10 to biro bedogi kido mar sibuor kaeto siling 20 to biro bedogi kido mar liech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magi timore eseche ma riurwok makedone ratiro mar jonyiewo to kwedo pesano kaging'urni ne ok onyuandi pach jopiny ekinde mane iyiero sura manyien mar pesa kenyano. </t>
+  </si>
+  <si>
+    <t>Migao mar yore somo ok oikore ne chako ayanga chenro manyien mar somo mar 2-6-6-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migao mar yore somo ok oikore ne chako ayanga chenro manyien mar somo monego bedni chakore january higa mar 2019. </t>
+  </si>
+  <si>
+    <t>Jatend migao mochungne yore somo amina mohamed katakamano wachoni lalruok makende gi joket mwandu e sectani dhi nyime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina wachoni chunoni nyaka gikuong gineni gimoro amora nikare kod nyaka ginneni jopuonj nitie moromo moseyudo tiegruok ewi chenro manyien mar somono, buge bende nyaka ginenni nitie kapok chenro manyien mar somono ochakore. </t>
+  </si>
+  <si>
+    <t>Ne odhi nyime giwachoni paro makamano negichopoe bang koloi wachno matut.</t>
+  </si>
+  <si>
+    <t>Tielo mokuongo mar chnerono nonyuando skunde 470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piny owacho chano chako chenro manyien mar somo kata curriculum mong'ereni 2-6-6-3 kendo obiro kawo kar chenro mar 8-4-4. </t>
+  </si>
+  <si>
+    <t>Joyuak motingó nyaka jotend kanise otomo ng’wech e liel moro yoo Kakrao, Migori county</t>
+  </si>
+  <si>
+    <t>Ne ochuno joyuak mane ochopo e liel moro e gwenge mag Kakrao Migori county mondomi ne otomo ng’wech kendo omany kaka neginyalo reso ngimagi bang kane tulo omuoch e liendno kane moko kuom familiano ochako kuoth makoni koda kocha ewi wach dichuo mane oyudi kotho kaeto ringre nojuang yoo Mbita juma achiel mosekalo ka nochuno rowere mane nitie e liendno mondomi ne otim iiko mare maonge jotend kanise mane owuok tienda gima achamo atuoni molal nono</t>
+  </si>
+  <si>
+    <t>Wede jalno manyinge oseyangi ni Julius Odhiambo ne oriko timo nende ekinde ma jogo mabende chalo magin wedene moa komachielo ne ochako mana gore gii jii mane loso ekinde ma jogo ne timo neno.</t>
+  </si>
+  <si>
+    <t>bende ne oleroni lwasi mar tulo nyocha nochak nee kata kapok nyocha nokel ringre e pacho ne iiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaduong gweng Joseph Otieno ne oleroni gwenyruok ne omuoch ekind familia mar jal mane iikono kod mago mag jaode machalo ne nitie gi riporde mopogore ewi thone kani gisebedo kagisiemore kaluowre gi tho mare. </t>
+  </si>
+  <si>
+    <t>Ikruok ne limbe mar Ker Kenyatta e county ma Siaya gi Kisumu</t>
+  </si>
+  <si>
+    <t>Jotelo mawuok e gwenge mag nyanza dhii nyime gi hiko oganda ne limbe ma ker uhuru kenyatta dhii timo e county ma kisumu gi county ma siaya chieng’ tich 4 gi tich 5 ei jumani.</t>
+  </si>
+  <si>
+    <t>ogai mar odm migosi Raila Amollo Odinga nie opara ma nyime e timo hikruok makamano, ka mano en limbe ma dhii nyiedho e lela chiwruok margi mar tiyo kanyakla bang’ kane gimosore</t>
+  </si>
+  <si>
+    <t>jalup ker ma piny afrika ma milambo migosi David Mabuza bende igeno ni dhii yuoro e limbeno. ripot yango ni Mabuza biro lwar achiel ka achiel e alap mar ndeke ma kisumu, mano madhi ndiko historia kaka ndege mokwongo lwar kisumu kowuok e piny ma oko.</t>
+  </si>
+  <si>
+    <t>Kotenore gi limbe mar ker kenyatta kanyakla kod weche ma otenore gi dongruok mar oganda luo, migosi Raila amollo odinga dhii bedo e twak mar ohigla e nyakalondo mar ramogi otieno ma kawuono kochakore saa ang’wen e wang’e.</t>
+  </si>
+  <si>
+    <t>twagno bende dhii bironi achiel ka achiel e viusasa.</t>
+  </si>
+  <si>
+    <t>Rowere e County ma Homabay Okwayo kony mar yudo lesen mag tich e wangapaya</t>
+  </si>
+  <si>
+    <t>kweth moro mar rowere e county ma Homabay koro kwayo  jood bura  e gwenge go mondo mii ochwalie chenro mar  keto omenda moko tenge kowuok kuom omenda  mag cdf mar konyo joboda boda e yudo lesen to kod obok moko mag tiyogo e wagapaya kowuok e skunde mag tiegruok mag riembo nyamburko kod apiko.</t>
+  </si>
+  <si>
+    <t>kotelnegi kod migosi Robert Ouko ne giwacho ni thoth joriemb apiko e gwenge go pok ochikore tir gi chike mag apaya mago manogol kod migao mar wuoth to kod arita kwe maiye kaluore kod rem e yor omenda mar yudo obok madwarore</t>
+  </si>
+  <si>
+    <t>Ne owacho ni kinde mane ochiw  mar chikruok gi chike go mag michuki  kayo ka rumo  ka  okwayo jotelo mondo mii okony rowere kaluore ni thoth gi biro wito tich  maosebedo ka miyogi yuto.</t>
+  </si>
+  <si>
+    <t>Apisas 5 mag dero mar national cereals and produce board owe thuolo gi rambun mar obila</t>
+  </si>
+  <si>
+    <t>Apisas 5 mag dero mar national cereals and produce board manyo omaki kisumu gi eldoret odiochieng ma  nyoro ne weche mag mibadhi, owe thulo gi rambun mar obila maromo sillings gana 100 ngato ka ngato</t>
+  </si>
+  <si>
+    <t>ma en bang jatend duol onogo makedo gi mibadhi e gwenge mag nyanza migosi ignatius wekesa ne yango ni jangad buche maneonego winj burano ne onge machiegni  ka katakamano ibiro chwalogi e nyim doho tarik 13 dweni  ma en chieng tich angwen jumani.</t>
+  </si>
+  <si>
+    <t>apisas mag ncpbd go kanyakla kod jii moko 2 nyo omaki odhiambo ma nyorono gi okwach kich mag duol makedo gi mibadhi ethics and anti-corruption commission.kagin kamotingó willy kosgei ma en maneja mar dero mar ncpb bade ma kisumu, jalupne jeremiah omwayi, maneja mar dero ma eldoret renson korir, apisa ma ochung’ne dero mar ward ma soi thomas sang, kanyakla kod jamak pesa ka ncpb ma kisumu laban michira.</t>
+  </si>
+  <si>
+    <t>dero mar ncpb osebed ka imenyo kaluowre gi wach mar mibadhi ma okwako chnero mag nyiewo mar oduma ma iwacho ni ne otim e yo ma ok oluwore gi chik kendo omenda ma kore lach olal.</t>
+  </si>
+  <si>
+    <t>Kwayo mar kwe e tong mar Kisumu gi Nandi county</t>
+  </si>
+  <si>
+    <t>Gavana e county ma Nandi migosi Stephen Sang koro okwayo migepe mag arita kwe e tong ma Kisumu  kod Nandi county mondo mii okag jogo makwalo jamni e gwenge go kaka jomaundu ,</t>
+  </si>
+  <si>
+    <t>Migosi Sang wacho ni timbe mag kwalo jamni oseweyo ka oganda owito ngimagi kendo ok onego mak mayot kaka pogruok e kind oganda</t>
+  </si>
+  <si>
+    <t>Ne owacho ni kwe to kod dak e achiel e tong onogo oseroch kod jokuo dhok  ka okwayo apisas mond okawie okenge mager kendo mako maok gideo jiimakama maosekelo remo marach e king jodake tong onogo</t>
+  </si>
+  <si>
+    <t>Kaneoloso kod jofwambo e boma mar Kisumu e romo mar arita kwe bang nek mar jataa chenro e puodho e tongo onogo,gavana sang ne okwayo riwruok makende e kelo kwe e kind oganda modake tong no</t>
+  </si>
+  <si>
+    <t>Ne owacho ni serikand counties ariyogi tiyo kanyakla ka okwayo josiasa mondo olos e dhok achiel mar nyayo kendo yudo kwe mosiko e tong mar counties gi</t>
+  </si>
+  <si>
+    <t>Ng’anyo Kibos</t>
+  </si>
+  <si>
+    <t>Jopiny e gwenge mag Kibos kawuono jowuok oko kendo bago nga’nyo e kar kambi mar sukari mar Kibos kagiywak ni obila odagi mako achich ma gitudo gi ketho mar tuomo gi nyamburko kendo nego jii 3 chieng;’ ngeso otieno.</t>
+  </si>
+  <si>
+    <t>Jong’anyogo wacho ni ne gineno nyamburkono kendo yango ni en mar weg kambi ma Kibos ma nyaka sani pok omaki gi obila.</t>
+  </si>
+  <si>
+    <t>Jii 3go ma nyocha otuom kani ewii apiko, nyocha othoo kanyo kanyo</t>
+  </si>
+  <si>
+    <t>Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,23 +1855,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF212529"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2019,18 +2198,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2038,29 +2208,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,6 +2476,29 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44034.344006828702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="116">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A421:B537" sheet="713"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Health" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Health"/>
+        <s v="Crime and Legal"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Politics and Government"/>
+        <s v="Education"/>
+        <s v="Business"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="61">
   <r>
@@ -3833,7 +4019,529 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="116">
+  <r>
+    <s v="Kane oloso gi nyakalondo mar Ramogi, jakom riuruok laktechego -The Kenya Medical Practitioners, Pharmacists and Dentists Union bade ma Nyanza lakktar Kevin Osuri wacho ni gichopoe winjruok kod tend county ma Kisumu kotenore gi kaka ibiro ketoe tim winjruogno ka koro lakteche maloyo 250 ok bi dhi e nganyo moro amora. "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Odhi nyime gileroni kwe mowuok e county ma Kisumu kuno ma ibiro telonegi gi jagoro mar county kod jatend migao mochungne yore thieth e countyno jobiro bedo gi romo mar keto lalruok makende kochokare chieng wuok tich mabiro."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lakteche go ne obuogo chako nganyo makamano kaluwore gi ngúr monyauando wach chualogi e lemo mamalo, chudo mekgi kod weche mag arita mag thieth kata insurance kuom mamoko mano makoro gisechopo e winjruok kod piny owacho mar county ma Kisumu kaka ibiro keto e tim."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dichuo majahigni 60 ogoyo yuore manyamin chiege monego Ochieng'a sub location, Rarieda"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jodak ma ochiengó sub location ei Rarieda sub county ne kawuono dhoogi omoko nono bang kane jago moro majahigni 60 ne otuch ogoyo yuore manyim chiege majahigni 25 motho kaluwore gi weche moko mamako mana dhok nono."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Elija Agutu ogutu wachore ni ne ogoyo yuoreno manyinge Susan Awino Omollo mochwe otho mano tok fwenyoni yuareno ne chano tedo e gwengno."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=" Kaluwore gi jalup ruoth mae aluorano migosi Peter Odongo, achijno wachore ni nyo oyudo muya maling ling mag ni Awino mosebedo kodak e dalane kanyo kuom jumbe 2 kende ne chano kend gi wuod libamba margi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ne okone nyakalondo mar Ramogi ni Agutu nyo osetemo gi yore tee mar kwero yuoreno mondomi kik otem ni otedo e dalano to kaka weche ne chalo, en ni nyadendi makoro onindono ne chalo mawach kenyno nyocha ne osedonjo e wiye kendo ne orito mana odiechiengno mondomi ne ochopi okau osikene odhi ka tedo e dalano"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Katakamano jalup ruothno ne odhi nyime giwachoni weche nyo oduogo obedo marach mana tok kane Agutu oyudo ka yuoreno ne oriko loso gi dichuo makoro ne dwa kendeno e sime kendo kanyo ema ne otuch opodho mana kuom nyakono gi agwecho kod adhong malich miwuoro kendo nege mana gi kanyo kanyo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bangé to wachore ni dichuogno ne oduog olokore gi jaode Eunice Agutu mabende ne ogoyo mohinyo marach mokalo kane otiyo gi gimoro madik ka iwachoni gino bende ne otiyogo e goyo yuoreno."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Comanda mar obila e sub county ma Rarieda migosi Thomas Sangut mane oyango wachni ne bende oleronwa ni wachno ne oduog ogoo lipode irgi kaeto ema ringre nyako majahigni 25no ne oduogo ogol moter Madiany Sub county mortuary kakoro orito bero to nonro bende osechakore. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bende ne oleroni achijno ne osemaki kendo olorne e tesend obila ma Aram ka jaode mabende ne ohinyo marachno to orwaki e ward e kar thieth ma Madiany sub county."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Luoro nitiere ni jii maok tin ne 14 owito ngimagi e masira mar apaya"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Luoro nitiere ni jii maok tin ne 14 owito ngimagi e masira mar apaya  maotimore kamoro ni kikopey e wanagapaya maduong ma nairobi -nakuru"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="kaluore od joneno masira onogo ne owuokie bang lorry moro manoyudo iriembo e  ngwe ahirititi bayo kendo  tuomo matatu to kod nyamburko mamoko e orido mochomo kikopey ka iwuok  gigil ."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Weg nyamburko matiyo gi wangapaya no kwa mondo mi gibed motang e sechegi ma apisas mag obila tiyo mar golo chakla mar mtokni  go e wangapaya kedo neno ni yore wuoth odok e wange"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ker Uhuru Kenyataa oaingo mar kedo gi mibadhi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ker Uhuru Kenyataa koro osingo ni piny owacho mare ok bi dok chien kata mbeko tol e weche mag kedo gi mibadhi e pachoka"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ker maneloso e kinde mane oromo kod jokenya mawuok e piny Namibia midhiambo manyoro ne owacho ni jogo manie lemo madongo e pachoka ibiro mako kotenore gi mibadhi  ka oyango ni onge jok maibiro mako ka iumo jomoko e weche mag kedo gi mibadhi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Duol mar JCS ogolo paro madwani ker Uhuru Kenyatta ochuogi tribunal mabiro nono ngúr miluoyo ewi Justice Jackton B. Ojwang"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Duol mochungne ndiko jong'ad buche tich e bad migao mar doho JSC wachoni giseyudo ngúr mathoth mokalo ewi jong'ad buche mag doho mamalo mogik. "/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jakom duolno maen ogai mar bad migao mar doho Justice David Maraga wachoni duolno katakamano oyiero ngúr ariyo ma achiel kuomgi en machiwo ng'ur ewiye en owuon kuom kalo katiba, kod machielo machiwo ng;ur ewi jong'ad buche moko 4 mag doho mamalo mogik magin justice Mohamed ibrahim, Justice jJackton Ojwang, Justice Smokin Wanjala kod justice Njoki Ndung’u."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Maraga bende oyangoni giseyudo ripord moyiedhi mar duolno ka koro gibiro dwani ker Uhuru Kenyatta obi ochuogi kweth tribunal moro ma ema biro nono mayangi kit ngur modonjonego jang'ad buche e doho mamalo mogik hon, ngire justice Jackton B. Ojwang"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Eseche gogo duolno bende ne orango ng'ur 17 mane ochwal enyimgi mang'ur ewi jong'ad buche mopogore opogore mag doho mimake apeal kod doho mamalo, kendo tok keto lalruok maie ewigi to giyie mana gi ngúr 9 kende"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Nyathi majahigni 12 ondhi gi jok mapok oyangi Rody Kopany, Homabay county"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Familia moro e gwenge mag Kalanya/Kanyango sub location mano yoo Rody Kopany koro sani rumbi mar lit gi kuyo omako chunygi kaluwore gi wach ndhicho mar nyathigi mane ondhi gi jok mapok oyangi chieng jumapil godhiambo. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Familia mar Lilian Omondi jamanyo wuodgi miluongoni Jack Ochieng Omondi majahigni 12 kendo japuonjre e skund primar ma rody kopany e cals 6, mabende nondhi gi jok mapok oyangi e centre ma Rodi Kopany kuno"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kaluwor gi min nyathino nyathigino ne rik oor Rody kuno nito katakamano neok odok pacho kaeto ema kane ochopo chieng wuok tich to ema ng'ato ne ogochonegie kadwaro ni gigol omenda maromo siling million 15 ni mondo eka giwe nyathigino thuolo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kumachielo migosi Kowuo kod jaode Carolyn sang jokoni ng'ato nonyisogi e sime ni gior pesano makaok kamano to kare gibiro nego nyathigino. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="migosi kowuo oyuago kweth moro masani owachno oonore e county ma homabay kuno majo ndhiyo nyithi jii kaeto gichako kwayo pesa madongo kamano kowachoni ngimagi nitie kama rach kaluwore gi ni nitie jok mosebedo kaluwogi kuom juma achiel koro. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Apisa maduong mochungne bad migao mar okwach kich e county ma Homabay migosi Joseph Turko oyango adiera mar wachno koleroni gisechako timo nonro ewi wachno."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Chero mapile mag somo e skund primar ma Otangre e ward ma Kibwayi dhiwa sub county osebedo matek e thulo mar jumbe adek mokalo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ma en bang yano mager ne muko tado mar klesse auchiel kotingo nyaka mano mar apisi maduong e skund no mano maoseweyo ka jopuonjre somo e buo yien"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kaluore kod japuonj maduong e skund no migosi Daniel Seka maromo nyithindo 250 osebedo ka somo e tie yien bang yamo mapek ne muko tado mag Klesse ka klesse matadogi ne omukore otingo classa chiel nyaka auchiel."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Japuonj maduong no kor kwayo kony kowuok kuom piny owacho mamalo kod mano mar county mondo okony e gedo mar clesse go ka owacho ni temo mare mar yudo omenda kowuok e cdf mar kar chung od bura ma ndhiwa osego lwanda kinde mathoth"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="mca ma gwenge go migoi Richard ogindo e kinde maneochwalo mabede 40 ne skund no ne okwayo migao maochugne midhiero ma apoya e county mondo oyie oret mapiyo mar konyo skund  No gero clesse go to kod apisi"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pau ndeke ma kisumu international airport olor"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Pau ndeke ma kisumu international airport olor kaka achiel kuom chiwo thuolo mag medo bero pau ndekeno gi duol mochungne pau ndeke e pachoka kata kenya airports authority."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="odiechieng makawuono pau ndekeno biro dong kolor odiechieng mangima ka gaedo mar medo yaro kama ndeke ringoeno kata mongéreni runway biro dhi nyime nyaka tarik 28 dwe mar 3 higani. "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="e thuolono duto kama ndeke ringoeno biro bedo ka tiyo mana kochakore saa 12 gi dakika 45 mar okinyi nyaka saa 1 ma midhiambo."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="jowuoth machano wuoth kokalo e pau ndeke ma kisumu international airportno ijiwo mondomi otudre gi kambi ndeke magichano wuothogo ne ler mathoth"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Achije 9 michichgo e wach kuong gi angénge e mbalarieny ma Maseno omaki. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Achijego mane omaki gi apisas mag bad migao mar okwach kich koro ibiro chwal enyim doho ka obi osetieki timo nonro"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Achijego magin Patrick Okanda, peter sande, Obed Panyako, Peter Obed, David Ndegu, Samuel Kuya, Stephen Oloo kod Nahashon Arena. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Obila joyangoni oyud kuomgi akota nag nyasore, ojalo, musumeno kod kombe machaloni negikwalo ma ogenni tiyogo enyim doho kaka neno"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Katakamano apedha pod dhin nyime mar manyo achije mamoko ma iwachoni ne oringo olal eseche mag apedha makamano"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jii 3 kech ochako onego Baringo county, oketo kwanno nyaka jii 7 manyaka sani osetho nekech wach kech"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jii 3 moko kendo ochako oyangi ni owito ngimagi kaluwore gi kech maliyo kadhano momonjo county ma Baringo kendo kwanno koro oketo kwand jok mosewito ngimagi kono kaluwore gi wach kech onyono 7 nyaka sani. J"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ogo oyangi ni owito ngimagi e wars ma Kositei ribikwo Tiaty."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jii 4 mane jowito ngimagi motelo kanyo ne wuok e ward mar Silale. "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi telo mae aluorano, familia buora onge gi chiemo, kendo ni jogo manyalo yudo chiemo wuotho nyaka e kuionde maboyo mokalo mondo eka giyudi chiemo ka jok moko bende bedo ndalo buora kapok oyudo kata gima degidir e bund iigi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jodak makono koro sieyo telo mae countyno kuom bedoni gisiko giriambo ni onge kech makecho kuno to jii to wito ngimagi piiny maruu nekech wach kech"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jolupo ma Migori joduaro ni Ker Uhuru kiny owuo e wii wach midhiero ma gikalee e Nam Lolwe"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jolupo ma County ma Migori koro joduaro ni Ker Uhuru Kenyatta obi owuo e wach arita kwee  ma osebedo ka rach mokalo e Nam Lolwe  e limbe mare ma odhi timo Kisumu"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jolupogo mane otelnegi kod jakom machon mar dho wath ma Sori Migosi Barmrich Okoth ne jowacho ni osebed ka isandogi malit mokalo kendo imakogi e kinde ka kinde gi obila"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Migosi okoth nowacho ni chandruok ma gisebedo ka gikalee ngény mokalo  kendo gin gik ma gisekalee  aming'a kanowacho ni kinde koro osechopo ma onegobed ni iloyo godo wachgino chutho"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Nowacho ni piny owacho koro onegobed ni wuok oko mana motegno mar lando ni koro gichiwore gi yoore duto mag tieko wach weche mag arita marach e Nam Lolweno e limbe mare ma obiro dhi timo Kisumuno"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jatelono ne owacho ni wach laro kieo kata tong mag nam pod en gimatek mokalo e Nam Lolwe kuno ma onegobed ni Ker wuoyee gi pinje ma libamba kaka Uganda kod Tanzania"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jolupogo bende joduaro ni Ker okonygi yudo  chich rech kanegiwacho ni osebedo ka chunogi mondo  gius rech e nengo manyap machalo mana gima giwito nikech gionge gi chich rech ma digi usie rechgigo gi nengo mowinjore"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Migosi okoth wacho sekta mar rech osebed ka ojwang kuom kinde malach kowacho ni koro duarore mondo piny owacho ochak paro kaka ginyalotingó sektano malo mar mondo mi okony dhoudi ma jolupo e thurka"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Raila owuoyo ewii tho mane jii othogo kod geno mapod nitie e chopo e piny Canaan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ogai mar NASA Migosi Raila Odinga, wacho ni nee ochuno ni obed piny gi jatend piny owacho Uhuru Kenyatta mondo mii gipoor wach nikech Kenya nee osekayo kama tek."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Migosi Odinga wacho ni jokenya nee medo mana lalo ngimagi nikech chung’ chungo mar siasa ma tok yiero, wach manee omiyo oneno en owuon kaachiel gi Migosi Kenyatta mondo gigol Kenya e lweny kendo jii obed piny olalre, okang’ maema iluongo ni Building Bridges Initiative."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kochiwo ranyisi mar kwan dhano manee onegi odichieng’ manee oaa America oduogo pachoka, Migosi Odinga okoni ratiro mag jomanee olalo ngimagi e kinde lueny ma tok yiero, ibiro chopo e yoo makare e bwoo chenro mar Building Bridgesno, masani ochiwo thuolo mar lalruok maok mana lueny mosemiyo oganda olalo ngimagi mathoth mokalo."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Migosi Odinga wacho ni katodoko ni jokenya pok ochopo kuma nee wuodh ochako kochiko, geno nitie ni gikone kokalo e bwoo chenro mar Building Bridges ni, jokenya biro yudo ratiro margi."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Miyo moro ong'adne buch twech mar higni 10 gi doho ma Rongo"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Miyo moro majahigni 26 ong'adne twech higni 10 bang kane doho ma rongo oyude gi ketho mar rocho ratiro mar nyathi moro mawuoyi e kar dak ma Mbwa Kali ei Rongo sub county Migori county"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nyakono manyinge Terry Anne Usenge ne ong'adne burano kamano tok kane oyude gi ketho mar rocho ratiro mar nyathino kiringruok . "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="E ngÉto mare mane ogolo e doho ma rongo kuno jang'ad buche Charles Kamau ne oleroni achijno ne oyudi gi ketho makamano bang kane doho ofwenyoni notimo timno ne nyathino e kiosko mare manitie e boma ma rongo tarik 13 dwe mar 9 higani"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Justice Kamau ne odhi nyime gi leroni jogo duto ma doho biro yudo gi ketho mar bembo kata rocho ratiro e yoo moro amora ne nyithindo to ibiro kawonegi ondamo mager mar chik mabiro bedo puonj ne jok mamoko."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Entie gi ndalo 14 mar mako apeal ewi ng'etono ."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=" Juma mokalo jang'ad buche e doho mamalo ma Migori Anthony Murima ne okoni doho koro sani biro chako tero buche mago motenore gi bembo kod gik machalo kamago mapiyo piyo mar nenoni jogo mirocho ratiro margi oyudo ratichgi e sama owinjre"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kenya osidho siling manyien makoro ok bii bedogi pichni jotelo, obiro bedogi pichni mag lee"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ker Uhuru Kenyatta ne kawuono osidho ayanga siling manyien mar kenyaka ma koro ochako tiyo ayanga e thurka kawuononi kaluwore gi dwach katiba mane opuodhi e higa mar 2010 ka jopiny ne nitie gi paro mogopogore opogore ewi pesano makoro onge gi picha mar jotelo ma thurka to nitie mana gi kido mar lee mopogore opgoore. "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kane oloso ekine mane osidho ayanga pesano e bengi maduong ma thurka ker Kenyatta ne okoni silingno en mano majogo maok nyal neno biro bedogo gi yot mar tiyogo"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ker Kenyatta bende ne okawo thuolo mar nyiso benge mae pachoka mondomi ochiuie hola ne jo ohala matindo tindo kod mago mae diere mar mondomi gimed bero ohelnigi e yoo makare. "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="To korka kore gavana mar bengi mar central Patrick Njoroge to okoni siling manyienno nyo osegoo chapa nyaka e gaset mar piny owacho nikendo ochako tiyo kawuononi"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Magi timore eseche ma riurwok makedone ratiro mar jonyiewo to kwedo pesano kaging'urni ne ok onyuandi pach jopiny ekinde mane iyiero sura manyien mar pesa kenyano. "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Siling achiel koro biro bedogi kido mar tiga eka siling 5 to biro bedogi kido mar omuga kaeto siling 10 to biro bedogi kido mar sibuor kaeto siling 20 to biro bedogi kido mar liech"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Migao mar yore somo ok oikore ne chako ayanga chenro manyien mar somo mar 2-6-6-3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Migao mar yore somo ok oikore ne chako ayanga chenro manyien mar somo monego bedni chakore january higa mar 2019. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jatend migao mochungne yore somo amina mohamed katakamano wachoni lalruok makende gi joket mwandu e sectani dhi nyime."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Amina wachoni chunoni nyaka gikuong gineni gimoro amora nikare kod nyaka ginneni jopuonj nitie moromo moseyudo tiegruok ewi chenro manyien mar somono, buge bende nyaka ginenni nitie kapok chenro manyien mar somono ochakore. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ne odhi nyime giwachoni paro makamano negichopoe bang koloi wachno matut."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Piny owacho chano chako chenro manyien mar somo kata curriculum mong'ereni 2-6-6-3 kendo obiro kawo kar chenro mar 8-4-4. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Tielo mokuongo mar chnerono nonyuando skunde 470"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Joyuak motingó nyaka jotend kanise otomo ng’wech e liel moro yoo Kakrao, Migori county"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ne ochuno joyuak mane ochopo e liel moro e gwenge mag Kakrao Migori county mondomi ne otomo ng’wech kendo omany kaka neginyalo reso ngimagi bang kane tulo omuoch e liendno kane moko kuom familiano ochako kuoth makoni koda kocha ewi wach dichuo mane oyudi kotho kaeto ringre nojuang yoo Mbita juma achiel mosekalo ka nochuno rowere mane nitie e liendno mondomi ne otim iiko mare maonge jotend kanise mane owuok tienda gima achamo atuoni molal nono"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Wede jalno manyinge oseyangi ni Julius Odhiambo ne oriko timo nende ekinde ma jogo mabende chalo magin wedene moa komachielo ne ochako mana gore gii jii mane loso ekinde ma jogo ne timo neno."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jaduong gweng Joseph Otieno ne oleroni gwenyruok ne omuoch ekind familia mar jal mane iikono kod mago mag jaode machalo ne nitie gi riporde mopogore ewi thone kani gisebedo kagisiemore kaluowre gi tho mare. "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="bende ne oleroni lwasi mar tulo nyocha nochak nee kata kapok nyocha nokel ringre e pacho ne iiko"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ikruok ne limbe mar Ker Kenyatta e county ma Siaya gi Kisumu"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jotelo mawuok e gwenge mag nyanza dhii nyime gi hiko oganda ne limbe ma ker uhuru kenyatta dhii timo e county ma kisumu gi county ma siaya chieng’ tich 4 gi tich 5 ei jumani."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ogai mar odm migosi Raila Amollo Odinga nie opara ma nyime e timo hikruok makamano, ka mano en limbe ma dhii nyiedho e lela chiwruok margi mar tiyo kanyakla bang’ kane gimosore"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="jalup ker ma piny afrika ma milambo migosi David Mabuza bende igeno ni dhii yuoro e limbeno. ripot yango ni Mabuza biro lwar achiel ka achiel e alap mar ndeke ma kisumu, mano madhi ndiko historia kaka ndege mokwongo lwar kisumu kowuok e piny ma oko."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kotenore gi limbe mar ker kenyatta kanyakla kod weche ma otenore gi dongruok mar oganda luo, migosi Raila amollo odinga dhii bedo e twak mar ohigla e nyakalondo mar ramogi otieno ma kawuono kochakore saa ang’wen e wang’e."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="twagno bende dhii bironi achiel ka achiel e viusasa."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rowere e County ma Homabay Okwayo kony mar yudo lesen mag tich e wangapaya"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="kweth moro mar rowere e county ma Homabay koro kwayo  jood bura  e gwenge go mondo mii ochwalie chenro mar  keto omenda moko tenge kowuok kuom omenda  mag cdf mar konyo joboda boda e yudo lesen to kod obok moko mag tiyogo e wagapaya kowuok e skunde mag tiegruok mag riembo nyamburko kod apiko."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="kotelnegi kod migosi Robert Ouko ne giwacho ni thoth joriemb apiko e gwenge go pok ochikore tir gi chike mag apaya mago manogol kod migao mar wuoth to kod arita kwe maiye kaluore kod rem e yor omenda mar yudo obok madwarore"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ne owacho ni kinde mane ochiw  mar chikruok gi chike go mag michuki  kayo ka rumo  ka  okwayo jotelo mondo mii okony rowere kaluore ni thoth gi biro wito tich  maosebedo ka miyogi yuto."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Apisas 5 mag dero mar national cereals and produce board owe thuolo gi rambun mar obila"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Apisas 5 mag dero mar national cereals and produce board manyo omaki kisumu gi eldoret odiochieng ma  nyoro ne weche mag mibadhi, owe thulo gi rambun mar obila maromo sillings gana 100 ngato ka ngato"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ma en bang jatend duol onogo makedo gi mibadhi e gwenge mag nyanza migosi ignatius wekesa ne yango ni jangad buche maneonego winj burano ne onge machiegni  ka katakamano ibiro chwalogi e nyim doho tarik 13 dweni  ma en chieng tich angwen jumani."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="apisas mag ncpbd go kanyakla kod jii moko 2 nyo omaki odhiambo ma nyorono gi okwach kich mag duol makedo gi mibadhi ethics and anti-corruption commission.kagin kamotingó willy kosgei ma en maneja mar dero mar ncpb bade ma kisumu, jalupne jeremiah omwayi, maneja mar dero ma eldoret renson korir, apisa ma ochung’ne dero mar ward ma soi thomas sang, kanyakla kod jamak pesa ka ncpb ma kisumu laban michira."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="dero mar ncpb osebed ka imenyo kaluowre gi wach mar mibadhi ma okwako chnero mag nyiewo mar oduma ma iwacho ni ne otim e yo ma ok oluwore gi chik kendo omenda ma kore lach olal."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kwayo mar kwe e tong mar Kisumu gi Nandi county"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gavana e county ma Nandi migosi Stephen Sang koro okwayo migepe mag arita kwe e tong ma Kisumu  kod Nandi county mondo mii okag jogo makwalo jamni e gwenge go kaka jomaundu ,"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Migosi Sang wacho ni timbe mag kwalo jamni oseweyo ka oganda owito ngimagi kendo ok onego mak mayot kaka pogruok e kind oganda"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ne owacho ni kwe to kod dak e achiel e tong onogo oseroch kod jokuo dhok  ka okwayo apisas mond okawie okenge mager kendo mako maok gideo jiimakama maosekelo remo marach e king jodake tong onogo"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kaneoloso kod jofwambo e boma mar Kisumu e romo mar arita kwe bang nek mar jataa chenro e puodho e tongo onogo,gavana sang ne okwayo riwruok makende e kelo kwe e kind oganda modake tong no"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ne owacho ni serikand counties ariyogi tiyo kanyakla ka okwayo josiasa mondo olos e dhok achiel mar nyayo kendo yudo kwe mosiko e tong mar counties gi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ng’anyo Kibos"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jopiny e gwenge mag Kibos kawuono jowuok oko kendo bago nga’nyo e kar kambi mar sukari mar Kibos kagiywak ni obila odagi mako achich ma gitudo gi ketho mar tuomo gi nyamburko kendo nego jii 3 chieng;’ ngeso otieno."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jong’anyogo wacho ni ne gineno nyamburkono kendo yango ni en mar weg kambi ma Kibos ma nyaka sani pok omaki gi obila."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jii 3go ma nyocha otuom kani ewii apiko, nyocha othoo kanyo kanyo"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -3882,9 +4590,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N2:O9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="O2:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0">
       <items count="108">
@@ -4046,7 +4754,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -4099,7 +4807,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -4441,3801 +5149,4310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A481" sqref="A481"/>
+    <sheetView topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419:A537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="75">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="75">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="60">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="45">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="45">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="45">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="60">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="45">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="45">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="30">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="60">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="30">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="30">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="30">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="30">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="30">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="30">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="45">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="45">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="30">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="30">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="45">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="45">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="45">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="45">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="60">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="30">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="30">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="45">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="30">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="30">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="45">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="45">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="60">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="30">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="30">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="30">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="30">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="30">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="45">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="30">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="45">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="30">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="45">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="30">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="30">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="30">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="30">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="30">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="30">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="60">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="30">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="30">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="60">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="60">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="60">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="60">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="45">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="30">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="45">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="30">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="45">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="45">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="45">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="45">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="30">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="60">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="60">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="30">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="30">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="30">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="45">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="45">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="30">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="30">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="45">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="45">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="30">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="30">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="30">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="30">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="30">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="45">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="30">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="45">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="30">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="7" t="s">
+      <c r="A240" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="45">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="45">
-      <c r="A245" s="7" t="s">
+      <c r="A245" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="45">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="60">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="30">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="30">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="45">
-      <c r="A250" s="7" t="s">
+      <c r="A250" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="45">
-      <c r="A251" s="7" t="s">
+      <c r="A251" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="45">
-      <c r="A252" s="7" t="s">
+      <c r="A252" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="7" t="s">
+      <c r="A253" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="30">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="45">
-      <c r="A258" s="7" t="s">
+      <c r="A258" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="45">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="30">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="30">
-      <c r="A262" s="7" t="s">
+      <c r="A262" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="30">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="30">
-      <c r="A265" s="7" t="s">
+      <c r="A265" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="30">
-      <c r="A266" s="7" t="s">
+      <c r="A266" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="45">
-      <c r="A267" s="7" t="s">
+      <c r="A267" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="30">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="7" t="s">
+      <c r="A269" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="30">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="30">
-      <c r="A271" s="7" t="s">
+      <c r="A271" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="45">
-      <c r="A274" s="7" t="s">
+      <c r="A274" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="30">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="30">
-      <c r="A276" s="7" t="s">
+      <c r="A276" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="7" t="s">
+      <c r="A277" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
-      <c r="A279" s="7" t="s">
+      <c r="A279" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="30">
-      <c r="A280" s="7" t="s">
+      <c r="A280" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30">
-      <c r="A282" s="7" t="s">
+      <c r="A282" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="30">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="30">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30">
-      <c r="A285" s="7" t="s">
+      <c r="A285" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="60">
-      <c r="A286" s="7" t="s">
+      <c r="A286" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="45">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="7" t="s">
+      <c r="A288" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="45">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="30">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="45">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="30">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="45">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30">
-      <c r="A296" s="7" t="s">
+      <c r="A296" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="7" t="s">
+      <c r="A297" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30">
-      <c r="A298" s="7" t="s">
+      <c r="A298" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="45">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="7" t="s">
+      <c r="A300" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="45">
-      <c r="A302" s="7" t="s">
+      <c r="A302" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="60">
-      <c r="A303" s="7" t="s">
+      <c r="A303" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="30">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="7" t="s">
+      <c r="A305" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30">
-      <c r="A306" s="7" t="s">
+      <c r="A306" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="45">
-      <c r="A307" s="7" t="s">
+      <c r="A307" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30">
-      <c r="A308" s="7" t="s">
+      <c r="A308" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="60">
-      <c r="A310" s="7" t="s">
+      <c r="A310" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30">
-      <c r="A311" s="7" t="s">
+      <c r="A311" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="45">
-      <c r="A312" s="7" t="s">
+      <c r="A312" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="45">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="60">
-      <c r="A314" s="7" t="s">
+      <c r="A314" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30">
-      <c r="A316" s="7" t="s">
+      <c r="A316" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="30">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="45">
-      <c r="A318" s="7" t="s">
+      <c r="A318" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="7" t="s">
+      <c r="A319" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="45">
-      <c r="A320" s="7" t="s">
+      <c r="A320" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="45">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="7" t="s">
+      <c r="A322" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="7" t="s">
+      <c r="A323" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="30">
-      <c r="A324" s="7" t="s">
+      <c r="A324" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="30">
-      <c r="A325" s="7" t="s">
+      <c r="A325" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="30">
-      <c r="A326" s="7" t="s">
+      <c r="A326" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="7" t="s">
+      <c r="A327" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="30">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="30">
-      <c r="A329" s="7" t="s">
+      <c r="A329" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="7" t="s">
+      <c r="A330" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="7" t="s">
+      <c r="A331" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="45">
-      <c r="A332" s="7" t="s">
+      <c r="A332" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="30">
-      <c r="A333" s="7" t="s">
+      <c r="A333" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="7" t="s">
+      <c r="A334" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="7" t="s">
+      <c r="A335" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="30">
-      <c r="A336" s="7" t="s">
+      <c r="A336" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="30">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="30">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="45">
-      <c r="A339" s="7" t="s">
+      <c r="A339" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="45">
-      <c r="A340" s="7" t="s">
+      <c r="A340" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="45">
-      <c r="A341" s="7" t="s">
+      <c r="A341" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="45">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="45">
-      <c r="A343" s="7" t="s">
+      <c r="A343" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="30">
-      <c r="A344" s="7" t="s">
+      <c r="A344" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="30">
-      <c r="A345" s="7" t="s">
+      <c r="A345" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45">
-      <c r="A346" s="7" t="s">
+      <c r="A346" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="30">
-      <c r="A347" s="7" t="s">
+      <c r="A347" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="7" t="s">
+      <c r="A348" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="30">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="60">
-      <c r="A350" s="7" t="s">
+      <c r="A350" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="30">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="45">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="7" t="s">
+      <c r="A353" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="7" t="s">
+      <c r="A354" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="45">
-      <c r="A355" s="7" t="s">
+      <c r="A355" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="45">
-      <c r="A356" s="7" t="s">
+      <c r="A356" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="30">
-      <c r="A357" s="7" t="s">
+      <c r="A357" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="45">
-      <c r="A358" s="7" t="s">
+      <c r="A358" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="30">
-      <c r="A359" s="7" t="s">
+      <c r="A359" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="45">
-      <c r="A360" s="7" t="s">
+      <c r="A360" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="30">
-      <c r="A361" s="7" t="s">
+      <c r="A361" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="11" t="s">
+      <c r="A362" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="45">
-      <c r="A363" s="7" t="s">
+      <c r="A363" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="30">
-      <c r="A364" s="7" t="s">
+      <c r="A364" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="11" t="s">
+      <c r="A365" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="30">
-      <c r="A366" s="7" t="s">
+      <c r="A366" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="30">
-      <c r="A367" s="7" t="s">
+      <c r="A367" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="30">
-      <c r="A368" s="7" t="s">
+      <c r="A368" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="11" t="s">
+      <c r="A369" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="45">
-      <c r="A370" s="7" t="s">
+      <c r="A370" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="30">
-      <c r="A371" s="7" t="s">
+      <c r="A371" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="7" t="s">
+      <c r="A372" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45">
-      <c r="A373" s="7" t="s">
+      <c r="A373" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45">
-      <c r="A374" s="7" t="s">
+      <c r="A374" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="30">
-      <c r="A375" s="7" t="s">
+      <c r="A375" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="30">
-      <c r="A376" s="7" t="s">
+      <c r="A376" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="30">
-      <c r="A377" s="7" t="s">
+      <c r="A377" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="11" t="s">
+      <c r="A378" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="11" t="s">
+      <c r="A379" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="30">
-      <c r="A380" s="7" t="s">
+      <c r="A380" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="30">
-      <c r="A381" s="7" t="s">
+      <c r="A381" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="30">
-      <c r="A382" s="7" t="s">
+      <c r="A382" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="30">
-      <c r="A383" s="7" t="s">
+      <c r="A383" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="11" t="s">
+      <c r="A384" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="30">
-      <c r="A385" s="7" t="s">
+      <c r="A385" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="30">
-      <c r="A386" s="7" t="s">
+      <c r="A386" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="30">
-      <c r="A387" s="7" t="s">
+      <c r="A387" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="30">
-      <c r="A388" s="7" t="s">
+      <c r="A388" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="7" t="s">
+      <c r="A389" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="11" t="s">
+      <c r="A390" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="30">
-      <c r="A391" s="7" t="s">
+      <c r="A391" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="7" t="s">
+      <c r="A392" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="30">
-      <c r="A393" s="7" t="s">
+      <c r="A393" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="7" t="s">
+      <c r="A394" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="11" t="s">
+      <c r="A395" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="45">
-      <c r="A396" s="7" t="s">
+      <c r="A396" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="60">
-      <c r="A397" s="7" t="s">
+      <c r="A397" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="30">
-      <c r="A398" s="7" t="s">
+      <c r="A398" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="11" t="s">
+      <c r="A399" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="30">
-      <c r="A400" s="7" t="s">
+      <c r="A400" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="30">
-      <c r="A402" s="7" t="s">
+      <c r="A402" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="45">
-      <c r="A404" s="7" t="s">
+      <c r="A404" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="9" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="11" t="s">
+      <c r="A406" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="30">
-      <c r="A407" s="7" t="s">
+      <c r="A407" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="8" t="s">
+      <c r="A408" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="7" t="s">
+      <c r="A409" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="30">
-      <c r="A411" s="7" t="s">
+      <c r="A411" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="30">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="30">
-      <c r="A414" s="7" t="s">
+      <c r="A414" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="11" t="s">
+      <c r="A415" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="30">
-      <c r="A416" s="7" t="s">
+      <c r="A416" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="45">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="30">
-      <c r="A418" s="7" t="s">
+      <c r="A418" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="30">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="42">
-      <c r="A420" s="14" t="s">
+    <row r="420" spans="1:2">
+      <c r="A420" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="63">
-      <c r="A421" s="15" t="s">
+      <c r="B420" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="30">
+      <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="60">
-      <c r="A422" s="7" t="s">
+      <c r="A422" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="84">
-      <c r="A423" s="15" t="s">
+      <c r="B422" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="45">
+      <c r="A423" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="84">
-      <c r="A424" s="15" t="s">
+      <c r="B423" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="45">
+      <c r="A424" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="42">
-      <c r="A425" s="14" t="s">
+      <c r="B424" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="51.75">
-      <c r="A426" s="16" t="s">
+      <c r="B425" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="45">
+      <c r="A426" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="34.5">
-      <c r="A427" s="16" t="s">
+      <c r="B426" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="30">
+      <c r="A427" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="45">
-      <c r="A428" s="13" t="s">
+      <c r="A428" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="86.25">
-      <c r="A429" s="16" t="s">
+      <c r="B428" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="60">
+      <c r="A429" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="86.25">
-      <c r="A430" s="16" t="s">
+      <c r="B429" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="60">
+      <c r="A430" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="51.75">
-      <c r="A431" s="16" t="s">
+      <c r="B430" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="30">
+      <c r="A431" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="69">
-      <c r="A432" s="16" t="s">
+      <c r="B431" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="45">
+      <c r="A432" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="8" t="s">
+      <c r="A433" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="21">
-      <c r="A434" s="14" t="s">
+      <c r="B433" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="42">
-      <c r="A435" s="15" t="s">
+    <row r="435" spans="1:2" ht="30">
+      <c r="A435" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="63">
-      <c r="A436" s="15" t="s">
+    <row r="436" spans="1:2" ht="30">
+      <c r="A436" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="63">
-      <c r="A437" s="15" t="s">
+    <row r="437" spans="1:2" ht="30">
+      <c r="A437" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="21">
-      <c r="A438" s="14" t="s">
+    <row r="438" spans="1:2">
+      <c r="A438" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B438" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="42">
-      <c r="A439" s="15" t="s">
+      <c r="B438" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="30">
+      <c r="A439" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="84">
-      <c r="A440" s="15" t="s">
+      <c r="B439" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="45">
+      <c r="A440" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="42">
-      <c r="A441" s="14" t="s">
+      <c r="B440" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="30">
+      <c r="A441" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="42">
-      <c r="A442" s="15" t="s">
+      <c r="B441" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="30">
+      <c r="A442" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="60">
+      <c r="A443" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="126">
-      <c r="A443" s="15" t="s">
+      <c r="B443" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="45">
+      <c r="A444" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="84">
-      <c r="A444" s="15" t="s">
+      <c r="B444" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="45">
+      <c r="A445" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B444" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="63">
-      <c r="A445" s="15" t="s">
+      <c r="B446" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="45">
+      <c r="A447" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B445" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="42">
-      <c r="A446" s="14" t="s">
+      <c r="B447" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="45">
+      <c r="A448" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="84">
-      <c r="A447" s="15" t="s">
+      <c r="B448" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="45">
+      <c r="A449" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="30">
+      <c r="A450" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="45">
+      <c r="A451" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="63">
-      <c r="A448" s="15" t="s">
+      <c r="B451" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="30">
+      <c r="A452" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B448" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="84">
-      <c r="A449" s="15" t="s">
+      <c r="B452" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="30">
+      <c r="A453" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="30">
+      <c r="A454" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="42">
-      <c r="A450" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="84">
-      <c r="A451" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="63">
-      <c r="A452" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="42">
-      <c r="A453" s="14" t="s">
+      <c r="B454" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="45">
+      <c r="A455" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B455" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="63">
-      <c r="A454" s="15" t="s">
+    <row r="456" spans="1:2" ht="45">
+      <c r="A456" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B456" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="63">
-      <c r="A455" s="15" t="s">
+    <row r="457" spans="1:2" ht="45">
+      <c r="A457" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B457" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="84">
-      <c r="A456" s="15" t="s">
+    <row r="458" spans="1:2">
+      <c r="A458" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B458" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="30">
+      <c r="A459" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="30">
+      <c r="A460" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="30">
+      <c r="A461" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="30">
+      <c r="A462" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="30">
+      <c r="A464" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="30">
+      <c r="A465" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="30">
+      <c r="A466" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B466" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="30">
+      <c r="A467" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="30">
+      <c r="A468" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="45">
+      <c r="A469" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="45">
+      <c r="A472" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="30">
+      <c r="A473" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B474" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="30">
+      <c r="A475" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="30">
+      <c r="A476" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="30">
+      <c r="A477" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="45">
+      <c r="A478" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B478" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="30">
+      <c r="A479" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="45">
+      <c r="A480" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="45">
+      <c r="A481" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="30">
+      <c r="A483" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="45">
+      <c r="A484" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="60">
+      <c r="A485" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="30">
+      <c r="A486" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="30">
+      <c r="A488" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="30">
+      <c r="A489" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="45">
+      <c r="A491" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="60">
+      <c r="A495" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="30">
+      <c r="A496" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="30">
+      <c r="A497" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="30">
+      <c r="A498" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="30">
+      <c r="A499" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="30">
+      <c r="A500" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B500" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B501" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="63">
-      <c r="A457" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B457" s="2" t="s">
+    <row r="502" spans="1:2" ht="30">
+      <c r="A502" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B502" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="21">
-      <c r="A458" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B458" s="2" t="s">
+    <row r="503" spans="1:2">
+      <c r="A503" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="45">
+      <c r="A504" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="30">
+      <c r="A506" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="75">
+      <c r="A509" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="45">
+      <c r="A510" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="30">
+      <c r="A514" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="30">
+      <c r="A515" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="45">
+      <c r="A516" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="45">
+      <c r="A517" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B519" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="63">
-      <c r="A459" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B459" s="2" t="s">
+    <row r="520" spans="1:2" ht="60">
+      <c r="A520" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B520" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="63">
-      <c r="A460" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="B460" s="2" t="s">
+    <row r="521" spans="1:2" ht="45">
+      <c r="A521" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B521" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="42">
-      <c r="A461" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="B461" s="2" t="s">
+    <row r="522" spans="1:2" ht="30">
+      <c r="A522" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B522" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="63">
-      <c r="A462" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="21">
-      <c r="A463" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="42">
-      <c r="A464" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="42">
-      <c r="A465" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="42">
-      <c r="A466" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="42">
-      <c r="A467" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="42">
-      <c r="A468" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="63">
-      <c r="A469" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="21">
-      <c r="A470" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="21">
-      <c r="A471" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="84">
-      <c r="A472" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="42">
-      <c r="A473" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474"/>
+    <row r="523" spans="1:2">
+      <c r="A523" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="45">
+      <c r="A524" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="45">
+      <c r="A525" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="75">
+      <c r="A526" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="30">
+      <c r="A527" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="30">
+      <c r="A529" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="30">
+      <c r="A530" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="45">
+      <c r="A531" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="45">
+      <c r="A532" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="30">
+      <c r="A533" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="45">
+      <c r="A535" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="30">
+      <c r="A536" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8245,208 +9462,208 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:O32"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="N2" s="5" t="s">
+    <row r="2" spans="1:16">
+      <c r="O2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>11</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
         <v>25</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>7</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
         <v>62</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1">
         <v>19</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="1"/>
+      <c r="L8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>5</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="6" t="s">
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="K11" s="12" t="s">
+    <row r="11" spans="1:16">
+      <c r="L11" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -8469,17 +9686,21 @@
         <v>17</v>
       </c>
       <c r="H13">
-        <f>SUM(B13:G13)</f>
-        <v>102</v>
-      </c>
-      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <f>SUM(B13:H13)</f>
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13">
+        <f>SUM(F13:L13)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8499,17 +9720,21 @@
         <v>26</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H21" si="0">SUM(B14:G14)</f>
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I21" si="0">SUM(B14:H14)</f>
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M21" si="1">SUM(F14:L14)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -8526,17 +9751,21 @@
         <v>9</v>
       </c>
       <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
         <v>209</v>
       </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -8550,17 +9779,21 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="M16">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8583,17 +9816,21 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="K17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -8616,17 +9853,21 @@
         <v>7</v>
       </c>
       <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8643,17 +9884,21 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>10</v>
       </c>
-      <c r="L19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -8667,17 +9912,21 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
         <v>13</v>
       </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -8694,118 +9943,176 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>35</v>
       </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:G22" si="1">SUM(B13:B21)</f>
+        <f t="shared" ref="B22:H22" si="2">SUM(B13:B21)</f>
         <v>168</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H22">
-        <f>SUM(H13:H21)</f>
-        <v>586</v>
-      </c>
-      <c r="K22" t="s">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="I22">
+        <f>SUM(I13:I21)</f>
+        <v>702</v>
+      </c>
+      <c r="L22" t="s">
         <v>377</v>
       </c>
-      <c r="L22">
-        <f>SUM(L13:L21)</f>
-        <v>586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+      <c r="M22">
+        <f>SUM(M13:M21)</f>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="1">
         <v>57</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="1">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="K13:L21">
-    <sortCondition ref="K13:K21"/>
+  <sortState ref="L13:M21">
+    <sortCondition ref="L13:L21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8826,7 +10133,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
@@ -8834,7 +10141,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -8842,7 +10149,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -8850,7 +10157,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="1">
@@ -8858,7 +10165,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -8866,7 +10173,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -8874,7 +10181,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1">
@@ -8882,13 +10189,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="1">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="713" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <pivotCache cacheId="1" r:id="rId6"/>
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="661">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -1700,13 +1700,322 @@
   </si>
   <si>
     <t>Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu.</t>
+  </si>
+  <si>
+    <t>NYONG'O OYUAGO MKAPA</t>
+  </si>
+  <si>
+    <t>Nowacho ni mkapa ne en jathek mar adiera kendo ni kik telo manobedo godo ok yot yudo e kind jotelo mag Africa.</t>
+  </si>
+  <si>
+    <t>Nyong’o wacho ni jokenya biro medo paro lwedo ma Mkapa nochiw e thek ma hik 2007  manoduoko kwe e Kenya tok tulo.</t>
+  </si>
+  <si>
+    <t>Gavana ma Kisumu ngire Anyang’  Nyongó, ooro ote mage mag lit kod kuyo ne  jo Tanzania  kaluwore gi tho mar ker machon Benjamin Mkapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyongo wacho ni noyudo gi buok maduong wcah tho mar Mkapa.</t>
+  </si>
+  <si>
+    <t>Nolero ni Mkapa ema nopako dongruok mane dhi nyime kisumo gino manomiyo jatelo ma chon ma Kenya manosenindo Daniel Arap Moi oting'o malo Kisumu nyaka e ranginy mar boma  maduong kata City.</t>
+  </si>
+  <si>
+    <t>Kotelnegi kod MCA ma West Nyakach Gard Olima, sani koro gidwaro ni County Commissiner ma Kisumu susan waweru  mondo oler anena yoo manotii godo e yango kuonde ma tijego nitere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jotelo mawuok e Sub County ma Nyakach sani koro penjore gimomiyo sub countino ne ok onywaki e buo chenro  mar kazi mtaani ma sani odonjo e tielo mar ariyo.  </t>
+  </si>
+  <si>
+    <t>Chenro ma kamano sani dhi nyime e sub counties 3 ma Kisumo ma gin Kisumu East, Kisumu West, kod Kisumu central kendo rowere maromo 7000 ichulo.</t>
+  </si>
+  <si>
+    <t>owacgho ni gin kaka jotelo ma nyakach, gineno ni otug kodgi  kowacho ni nok mar tije e bombe inyalo pimo gi mago mae kor gwenge.</t>
+  </si>
+  <si>
+    <t>Olima wacho ni rowere ma Nyakach bende winjo mapek mokalo kaluwore gi midhiero mokel kod korona  kendo ne onge tiende weyogi oko.N</t>
+  </si>
+  <si>
+    <t>JOTELO MA NYAKACH NGU'R.</t>
+  </si>
+  <si>
+    <t>Koyoo wacho ni dondi dondi ma pod nyucha nitie oselosi kendo sani koro ikruok duto oseketi kare mar chako chenrono.</t>
+  </si>
+  <si>
+    <t>Ekamodhur mag lope idhi kaw mar gero yaono ealuora ma Koriu kendo duol mochungne lope e thurka National Lands Comission, sani dhi nyime gin ono kaka gichi chulo jopiny mibiro kawo lopegi,</t>
+  </si>
+  <si>
+    <t>Koyoo wacho ni chenro ma kamano madhi muonyo siling billion 25 dhi loko e okang ma malo ngima jodak ma koru kod aluora mare.</t>
+  </si>
+  <si>
+    <t>JOK MIKAW LOPEGI NE GEDO MAR SOIN DAM IDHI CHULO</t>
+  </si>
+  <si>
+    <t>Jaod bura ma Muhoroni James Onyango Koyoo owacho ni jii ma ibiro daro mondo ochiw thuolo ne gedo mar yao mar koru soin , joseyiere gi jogedogo kendo koro chenro ma kamano nyalo chakore</t>
+  </si>
+  <si>
+    <t>MANE EN JATEND TANZANIA MKAPA OTHO</t>
+  </si>
+  <si>
+    <t>Kokalo e mbui mare mar twitter, Magufuli  oyuago ,Mkapa  kowacho ni obiro pare kaka jalo manohero pinye kendo manoluoro Nyasaye  kendo manotiyo matek ne gero uchumi ma Tanzania.</t>
+  </si>
+  <si>
+    <t>Mane en jatend piny Tanzania manosedhi e yueyo Benjamin William Mkapa oninde bade. </t>
+  </si>
+  <si>
+    <t>Kanoyango wach ma kamano otieno ma piny oruu godo kawuono, jatend pinyno John Pombe Magufuli, nowacho ni jatelo mar adek mar pinyno  nowito ngimane e kar thieth moro e boma ma Dar es Salaam  kama norwake koyudo thieth.</t>
+  </si>
+  <si>
+    <t>Senators ne jochak ochwalo tuak margi ewii pogo pesa ne Counties nyaka e juma manyien</t>
+  </si>
+  <si>
+    <t>Senators mapachoka ne jochak ochweyo kendo maok jotuak ewii wach yoo ma onegobed ni ipogo godo pesa ne Counties mathurka</t>
+  </si>
+  <si>
+    <t>Spika mar bunge mar senate migosi Kenneth Lusaka ne ochwalo nyime romo mag bunge mar senateno nyaka chieng tich 2 mar juma manyien</t>
+  </si>
+  <si>
+    <t>Magi ne otimo kata obedo ni senators Johnson Sakaja, Stewart Madzayo kuom mamoko ne josingo biro wito oko tuak ma gibirobedo godo e juma manyienno</t>
+  </si>
+  <si>
+    <t>Kwan jii maromo 796 mane oyudi ni nigi Covid-19 ei kawuononi</t>
+  </si>
+  <si>
+    <t>Kwan jii mane oyudi ni nikod tuo mar Coronavirus ei kawuononi gin jii 796 makoro kelo kwan jogo duto man kod midusi makochno e pachoka ei kawuononi chopo jii alufu 15 gi 601</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi gi jalup jatend migao mochungne yoore mag thieth e thurka laktar Mercy Mwangangi mane owacho ni kwan mar jii 796 no ne oyudi kuom kwan jii maromo alufu 6 gi 754 mane opim tok seche 24 mokalo</t>
+  </si>
+  <si>
+    <t>Jatelono bende ne oyango ni Nairobi emapod nigi kwan maduong mag joma nigi tuono magin jii 539 kaachiel gi lero ni nitie jii 3 moko mane tuono onego ei kawuononi</t>
+  </si>
+  <si>
+    <t>Magawa ma Blue Ridge Hotel manie boma ma Mbita owacho ni jago manyo oyudi ni nigi Covid-19 cha ok en jatijgi moyangi</t>
+  </si>
+  <si>
+    <t>Tend magawa ma Blue Ridge Hotel manie boma ma Mbita e Sub County ma Suba North e County ma Homa Bay koro jowacho ni dichuo moro ma ja higni 29 mane oyudi ni nikod midusi mar Coronavirus ok en jatich moyangi mar magawano kakane bad migao mochungne yoor thieth e County ma Homa Bay kuno ne rik olando</t>
+  </si>
+  <si>
+    <t>Maendi koro ne wuok bang weche yangore ni achiel kuom jotij magawano nyo oyudi nyoro ni nikod tuo mar Coronavirus bang pim manyocha otim kod komiti mochungne kedo gi tuo mar Coronavirusno e County ma Homa Bay kuno -pim manyocha otim chieng wuok tich</t>
+  </si>
+  <si>
+    <t>Kanowuoyo ewii wachno jataa tije e magawa ma Blue Ridge Hotelno Hellen Oido nowacho ni gisebedo ka gikao jotich manyien ka gihikore godo ne yepo mar magawano bang lor mane olor godo magawa mapachoka nikech wach landruok mar tuo mar Covid-19 kowacho ni kakoro nyochane jatend piny Kenya migosi Uhuru Kenyatta ne oyao magawa mathurka kendo mondo jotii e bwo chike mager manyochane oketinegi to nyochane gineno ni gikau jii manyien emane gikawoe jagono ni to ne pok ondike ayanga gi magawano kaka jatich</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno mikai Oido nowacho ni magawa margino ok osebedo katiyo nikech pod ne gitemo mondo gichop chike mane oketigo mondo ekane giyepi ema koro nyochane gikawoe thuolo mar luongo apisas mochungne yoore thieth e County ma Homa Bay kuno chieng wuok tich mondo ne jobi opim jotijgi machon kod mane gikao manyien go mane jooro kwayo ni ne duaro tich kargi kanyo-mane odhi opim ne tuo mar Coronavirusno</t>
+  </si>
+  <si>
+    <t>Kwan jii moyudi ni nikod tuo mar Coronavirus ei kawuononi gin jii 637</t>
+  </si>
+  <si>
+    <t>Kwan jii ma oyudi kod tuo mar Coronavirus ei kawuononi gin 637 makoro kelo kwan jogo duto man kod tuo magalagalano e pachoka chopo jii alufu 14 gi 805</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jalup jatend migao mochungne yoore mag thieth e pachoka laktar Rashid Aman</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi jopiny kachiel kachiel e tipo mar telebisen kowuok Afya House e boma ma Nairobika laktar Aman bende ne oyango ni nitie jii 10 mane tuono olal gi ngimagi ei kawuononi makoro kelo kwan jogo duto ma tuono osenego e thurka chopo jii 260</t>
+  </si>
+  <si>
+    <t>Aman bende nowacho ni County ma Nairobi emapod ne okao namba kuom bedo kod kwan maduong mag joma nigi midusi mar Covid-19no mane gin jii 342</t>
+  </si>
+  <si>
+    <t>Bende ne oyangi ni nitie jii 499 mane ochango ei kawuononi ma owe odhi pacho kowacho ni kuom jogo, 403 ne gin jogo manyocha tuo to ne yudo thieth gie utegi mong’ere gi dho ngere kaka Home Based Care</t>
+  </si>
+  <si>
+    <t>Maraga oyudo fuong’ruok</t>
+  </si>
+  <si>
+    <t>Doho mar nyithindo owito oko bura ma yande ochwal miyo moro ma nyinge Mary Kwamboka ka ywak ni ogai mar bad migao mar doho justice David Maraga odagi kawo ting’ mar nyathi ma owacho ni ne ginyuolo kode.</t>
+  </si>
+  <si>
+    <t>Jayal bura Gerald Gitonga okoo ni burano ne onge kod mise motegno kaka ne ochwale e doho.</t>
+  </si>
+  <si>
+    <t>Okil kamaloka Danstan Omari ma yalo e loo migosi David Maraga okoo ni bura ma nyocha miyono odhi mako e doho en ma miriambo nimar migosi maraga ok ong’eyo kata mana miyono.</t>
+  </si>
+  <si>
+    <t>Mary Kwamboka yande okelo koko e kar aluora maar log tich mar bad migao mar doho ne wach onogo ma bende okinde mag Maraga ne okee kode ni otemo chuogo weche mag mirimabo.</t>
+  </si>
+  <si>
+    <t>Jii adek mawuok e familia achiel polo onego</t>
+  </si>
+  <si>
+    <t>Kane oyango aidera mar wachno  jatend obila ma County ma Busia  Wambua Katithi nowacho ni masirano mane otimore kar saa  2 mar otieno mane piny oruugo kawuononi ne okelo tho mar nyimine 2 gi owadgi</t>
+  </si>
+  <si>
+    <t>Wambua nowacho ni jomanne johinyorego to ne oringgo e kar thieth ma kocholia</t>
+  </si>
+  <si>
+    <t>Jo familia achiel mane jothogo gin ja higni 9, ja higni 14 kod ja higni 20</t>
+  </si>
+  <si>
+    <t>Jii 3 moko ma oting'o nyithindo 2  mawuok e familia achiel ne jotho kanyo kanyo ka mamoko 3 to rem nego bang polo gogi e gwenge mag Achudinet ei Teso North</t>
+  </si>
+  <si>
+    <t>Ng'anyo mar nurses mane ochan timo wuok tich koro ochwal nyime</t>
+  </si>
+  <si>
+    <t>Riuruok mar Nurses mapachoka koro jochwalo nyime  ngányo margi mane onegobed ni chakore ayanga kiny wuok tich</t>
+  </si>
+  <si>
+    <t>Riuruogno ne okao okang machalo kamano mar mondo mi gimi duol mochungne osach jotij piny owacho -Salaries and Remuneration Commission thuolo maber mar chopo dwach winjruok manegibedo godo kodgi mar medogi osara</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e boma ma Kakamega , jagoro maduong ma riuruogno migosi Seth Panyako nowacho ni ngányno koro gibirobago tarik 5 mar dwe mar 2 higa manyien</t>
+  </si>
+  <si>
+    <t>Bende riuruok mar nursesno ne duaro ni piny owacho owuo board mar NHIF kaluwore kod wach mibadhi ma okwako boardno</t>
+  </si>
+  <si>
+    <t>Meko mar apisas maka NHIF kod KPC ma weche mibadhi mako</t>
+  </si>
+  <si>
+    <t>Jotelo moko 3 mag kambi mar Kenya Pipeline manyo omaki nyoro nyo oter e apis obila mag okwach kich e apaya ma Kiambu Road buore Nairobika manyo odaye dhogi ne weche mag mibadhi ma makogi</t>
+  </si>
+  <si>
+    <t>To kumachielo bende apisas mamoko 7 ma jotiyo e board mochungne insurance mar thieth  ka NHIF bende nyo omaki</t>
+  </si>
+  <si>
+    <t>Apisas abiryogo  nyo omaki kaluwore kod wach kuo mar omenda e boardno</t>
+  </si>
+  <si>
+    <t>Apisas abiryogo  gin Mudzo Nzili mawuok e county ma Kwale ,Yussuf Ibrahiim , Simeon Kirgoty , Ruth Sudoi , Gilbert Kamau , Irene Rono kod Robert Mureithi</t>
+  </si>
+  <si>
+    <t>Jotelo manyo omakigo oting'o jataa tije ka kambi mar Kenya Pipelineno migosi Joe Sang , karan mare Gloria Khafafa  kod Vincecent Cheruiyot matiyo e bad migao mochungne ngíewo ka Kenya Pipeline kanyo</t>
+  </si>
+  <si>
+    <t>Pes bursary ma County ma Homa Bay koro oyudo mijing'o</t>
+  </si>
+  <si>
+    <t>To bende kanyowuoyo ewii wach achiel nogono MCA ma Kabondo East  migosi Ochieng nyowacho ni komiti mar bunge mar County mochungne weche mag somo oseiko  yoore mabecho ka jomakore gi bad migao mochungne somo e County ma Homa Bay kuno mar neno ni jokanyo manyien mag komiti mar bursaryno jotayo chenro mag pogo pes bursaryno  e yoo mowinjore</t>
+  </si>
+  <si>
+    <t>Nyo oyango ni wards 40 mag County ma Homa Baygo oketnegi  omenda maromo silings million 2.5 mar hik manyonge mar 2018/2019  kowuok e silings million 1.5 mane entieree e budget mokalo mar neno ni nyithindo duto maonge gi nyalo joyudo pes bursaryno</t>
+  </si>
+  <si>
+    <t>MCAno nyowacho ni form mag bursaryno birobedo  eskunde duto mag piny owacho e Countyno mangima mar mondo mi ochiu thuolo mayot ne jopuonjre maonge gi nyalo e yudo formsgo ka obi oyau school e dwe mar 1 mar higa manyien mar oro kwayo mar yudo bursaryno</t>
+  </si>
+  <si>
+    <t>Bunge mar County ma Homa Bay koro otimo lokruok ne chike matayo weche mag chiwo bursary mag somo mongere kaka Education Bursary Fund Ammendment bill 2018 mabiro konyo neno ni jogo ma odak gi ng'ol bende onyuandi e komiti mochungne bursary  kod konyo neno ni bursaryno ipogo e yoo mowinjore maonge mibadhi moro amora</t>
+  </si>
+  <si>
+    <t>Kanyowuoyo ewii wachno jakom komiti mochungne yoore mag somo migosi James Okeyo nyowacho ni okang ma gikao mar timo lokruok ne chikego biro  neno ni komiti mochungne bursaryno oting'o girube duto mondo eka koro  bursaryno inyalo pogo ne nyiithindo duto maonge gi nyalo mawuok e wards 40 duto ma Homa Bay kuno</t>
+  </si>
+  <si>
+    <t>Odinga seyo MCAs kuom chamo pes jopiny</t>
+  </si>
+  <si>
+    <t>Jatend duond bura mar ODM migosi Raila Amolo Odinga kawuono oseyo malit mokalo MCAS kuom tiyo marach gi omenda jopiny moketi mag weche dongruok</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Raila nowacho ni tend  loch gwenge kata devolution ne okel e Pachoka mar konyo neno ni mwandu duto mapachoka ipogo marom ne gwenge duto mathurka</t>
+  </si>
+  <si>
+    <t>Nowacho ni en hawi marach ni thoth pesa ma imiyo counties mag tayo weche mag dongruok ok dhi e weche mag dongruokgo</t>
+  </si>
+  <si>
+    <t>Migosi Raila nowacho ni MCAS  osebedo ka kuodo wii jii gi lweny ma gisiko godo e kinde ka kinde kar tiyone jopiny mane oyierogi</t>
+  </si>
+  <si>
+    <t>Nowacho ni gima MCAS  ongéyo en mana ngíyo rode moko ma ginyalochamo godo pes county kar tiyone jopiny</t>
+  </si>
+  <si>
+    <t>Kanowuoyo Kisumu migosi Raila nowacho ni MCA  mag counties ma Kisumu, Homa Bay, Nairobi  kod Kakamega gin jogo ma jowuok oko mar nego devolution chutho mar neno ni devolution ok okelo ber moro amora e thurka</t>
+  </si>
+  <si>
+    <t>Nowacho ni winjruok margi mongére kaka Building Bridges Initiative sani luorore e tung Kenya mangima ka choko pach jopiny ewii kaka inyalotieko weche mag jotelo chamo pes jopinygo</t>
+  </si>
+  <si>
+    <t>Chike mar apaya ibiro rido e gwenge ma nyanza e nyasi mar christmas</t>
+  </si>
+  <si>
+    <t>Apisa mag obila mag wangapaya koro omi chik mar chwalo nyime kendo rido chike mag wangapaya e kinde nyasi mar christmas e counties 6  mag nyanza</t>
+  </si>
+  <si>
+    <t>kamishna mar apisas e gwenge go  migosi Moffat Kingi wacho ni yore duto madongo to kod matindo e counties ma Kisumu Kisii Nyamira Homabay Siaya to kod Migori ibiro chwale apisas mag obila mar neno ni chike mag wangapaya oluu kaka dwarore</t>
+  </si>
+  <si>
+    <t>ne owacho ni giseketo okenge to kod chenmro makare mar chiwo kum ne jogo mabiro ketho chike mag apaya</t>
+  </si>
+  <si>
+    <t>migosi kingi wacho ni kata e kor gwenge bende apisas biro bedo mar neno ninjo apiko ochikore tir gi chike ma apaya ka okang makama en mar duoko piny masiche mag apaya mano maweyo ka thoth oganda wito ngimagi .</t>
+  </si>
+  <si>
+    <t>migosi kingi ne owaco ni weg nyamburko matingo jowuoth e kinde nyasi mar christamas nyaka bed kod obok madwarore mar chwalo jowuoth e pachoka</t>
+  </si>
+  <si>
+    <t>Raila okwayo jodak owuog oko kendo ruako ker kenyataa</t>
+  </si>
+  <si>
+    <t>Ogai mar nasa Raila Amolo Odinga koro okwayo jodak  e county ma kisumu mondo mii oikore mar rwako ker Kenyataa e kinde ma obiro wendo bomano machiegni e dwe marapar gariyo limbeno  mokuongo mar ker kenyataa chakre yiero ma higa mokalo to kod tok mosruok e kindgi dwe mar adek higani</t>
+  </si>
+  <si>
+    <t>migosi Odinga maneloso e boma ma kisumu odiochieng makawuono ne owacho kinde ochopo mar riwruok kendo keto tenge pogruok e kind oganda  ka iriwo  oganda jokenya mano maomiyo ne okao okang mag romo gi ker kenyataa kend singo tiyo kanyakla mar riwo oganda bang mosruok e kindgi</t>
+  </si>
+  <si>
+    <t>Ne bende oyango mago ma winjruok e kinde to kod ker Kenyataa geto mar chopo e pachoka mar neno ni jokenya oriwore kedno obedo e achiel mano mani e buo chenro mar building initiatives ma duol manochuogi osechako limo gwenge ma pachoka mar yudo dho oganda e wi chenro makama mar jotelo ariyogi</t>
+  </si>
+  <si>
+    <t>kwayo makama ne oganda jo county ma kisumu biro ndalo machuok kende bang senator ma Kisumu migosi Fred Outa bende ne kwayo jodak mond owuog kar rombgi kendo rwako jotelo ariyogi</t>
+  </si>
+  <si>
+    <t>Media Council of Kenya chano bago lalruok e kind obila gi jofuamb weche</t>
+  </si>
+  <si>
+    <t>Duol matayo ute fwambo mapachoka mabende ongére kaka The Media Council of Kenya koro jochano bago lalruok makende e kind apisas mag obila kod ute fwambo mathurka  kaka yoo mar neno ni winjruok maber  obedo e kind kweth ariyogo mar  neno ni ginyalotiyo kanyakla</t>
+  </si>
+  <si>
+    <t>Kanowuoyo ewii wachno jalup jataa tije e duondno migosi Victor Bwire nowacho ni okang makama ochope bang weche yangore ni okak maduong  medore  e kind jofwambo to kod apisas mag obila</t>
+  </si>
+  <si>
+    <t>Migosi Bwire nowacho ni e kinde mokalogi  jofwambo osebed ka imonjo kod obila ka mamoko to otam katamana etimo tijegi gi obila mabende osekelo winjruok mararacha mokalo e kind jofuamb weche gi obila kakoro gidwaro bago lalruok makende e kind kweth ariyogo mar kelogi kanyakla e yoore mag tich</t>
+  </si>
+  <si>
+    <t>Jatelono mane loso e boma ma Siaya e romo mane obedo godo gi jofuamb weche ne owacho ni lalruok machalo kamano birochakore e higa manyien</t>
+  </si>
+  <si>
+    <t>Ne okwayo duol onogo matayo tije apisas e pachoka mondo oket apisi ma jofwambo  nyalo yudo e weche magidwaro e par obila duto ma pachoka mabirochiwo thuolo mar timo  tijegi e yoo man thuolo</t>
+  </si>
+  <si>
+    <t>Jodolo ma Kisumu jogolo pachgi ewii limbe ma Ker Uhuru dhi timo Kisumu</t>
+  </si>
+  <si>
+    <t>Jodolo ma Kisumu koro jokwayo jopiny mondo jobi owuog oko kar rombgi e juma manyien ma igeno ni Ker Uhuru Kenyatta biro dhi sidhoe ayanga chenro moro mar yoore thieth  mongére kaka The Universal Health Coverage e boma ma Kisumu kuno</t>
+  </si>
+  <si>
+    <t>Kanowuoyo ewii wachno jakom riuruok kanise ma Nyanza Arch Bishop Ogonyo Ngede nowacho ni gwenge mag Nyanza sani joneno ber mosruok ma Ker Uhuru ne jomosore godo gi ogai mar NASA migosi Raila Amolo Odinga esechegi mabende igenoe ni ker biro wendo nyaka Bondo Sub County bende</t>
+  </si>
+  <si>
+    <t>To kumachielo bende jaod bura migosi Martin Owino kawuono ogoo dhoge piny ka opako okang ma Ker Uhuru kenyatta okao mar keto yoore mag thieth nyime moloyo e agenda meke mag dongruok mongére kaka Big 4 Agenda</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi Radio Ramogi migosi Owino nowacho ni kaka jakanyo mar komiti mar od bura mochungne weche mag thieth e County ma Mgori kod Homa Bay omor mokalo gi okang ma Ker Uhuru okao mar duaro dongo yoore mag thieth e pachoka to moloyo to egwenge mag Luo Nyanza kuom chiuruok mar duaro dhi wendo boma ma Kisumu dhi yao ayanga chenro moro mar thieth motisi ni The Universal Health Coverage kowacho ni piny ma dhano ngimae e piny manyalobedo kod dongruok mowinjore</t>
+  </si>
+  <si>
+    <t>Bende jatelono nowacho ni osiro ogai mar NASA migosi Raila Amolo Odinga kuom ruako Ker Uhuru Kisumu tarik 13 mar dweni ma odhi yawoe ayanga chenro mar thiethno gi nyasi tee mane otiso ni mar Luo Nation</t>
+  </si>
+  <si>
+    <t>Khalwale dwaro mondo oriemb Raila Odinga e duond bura mar ODM</t>
+  </si>
+  <si>
+    <t>Senator machon mar county ma Kakamega migosi Boni Khalwale koro kwayo jood bura mag ODM mondo mii oriemb ogai mar nasa raila amolo odinga e duond burano.</t>
+  </si>
+  <si>
+    <t>ma en bang kamati ma ochungne chike to kod kum e duond bur mar odm ne golo paro mar dwaro riembo jaod bura ma malindi mikayi Aisha Jumwa kod jaod bura ma Msambweni Suleiman Dori kaluore kod weche mag rem luwo chike mag ODM kendo bedo gi tok teko</t>
+  </si>
+  <si>
+    <t>kaluore kod khalwale migosi Odinga oseriwore kod Ker Kenyatta mano mawuok e duond bura mar jubilee kendo singo tiyo kode kanyakla omiyo en bende onego kao ne ondamo mag chiik.</t>
+  </si>
+  <si>
+    <t>jood bura ariyogi kaachiel kod mcas abiriyo igeno mar molo enyim kamatai matayo duond bura mar odm e kenya mangima mar  chiwo dhog gi to kod ngeyo okang mogik mibiro kaonegi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,6 +2157,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2198,7 +2519,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2211,13 +2532,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2225,6 +2540,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4489,7 +4819,60 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4541,7 +4924,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -4590,7 +4973,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O2:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -4749,59 +5132,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Familia ma kwangi ohewo alufu 1 pii oula osedaro e sub county ma Ugenya e county ma Siaya." fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -5149,63 +5479,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
-    <sheetView topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419:A537"/>
+    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="B636" sqref="B636:B640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5213,7 +5543,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5221,7 +5551,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5229,23 +5559,23 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5253,7 +5583,7 @@
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5261,15 +5591,15 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5277,7 +5607,7 @@
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5285,7 +5615,7 @@
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5293,7 +5623,7 @@
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5301,7 +5631,7 @@
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5309,7 +5639,7 @@
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5317,7 +5647,7 @@
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5325,7 +5655,7 @@
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5333,7 +5663,7 @@
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5341,7 +5671,7 @@
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5349,7 +5679,7 @@
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5357,7 +5687,7 @@
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5365,7 +5695,7 @@
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5373,7 +5703,7 @@
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5381,7 +5711,7 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5389,7 +5719,7 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5397,7 +5727,7 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5405,7 +5735,7 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5413,7 +5743,7 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5421,7 +5751,7 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5429,7 +5759,7 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5437,7 +5767,7 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5445,7 +5775,7 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5453,7 +5783,7 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5461,7 +5791,7 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5469,7 +5799,7 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5477,7 +5807,7 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5485,7 +5815,7 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5493,7 +5823,7 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5501,7 +5831,7 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5509,7 +5839,7 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5517,7 +5847,7 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5525,7 +5855,7 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5533,7 +5863,7 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5541,7 +5871,7 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5549,7 +5879,7 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5557,7 +5887,7 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5565,87 +5895,87 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="9" t="s">
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5653,15 +5983,15 @@
       <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="75">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5669,7 +5999,7 @@
       <c r="A64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5677,23 +6007,23 @@
       <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5701,7 +6031,7 @@
       <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5709,7 +6039,7 @@
       <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5717,7 +6047,7 @@
       <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5725,7 +6055,7 @@
       <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5733,7 +6063,7 @@
       <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5741,7 +6071,7 @@
       <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5749,7 +6079,7 @@
       <c r="A74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5757,7 +6087,7 @@
       <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5765,7 +6095,7 @@
       <c r="A76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5773,7 +6103,7 @@
       <c r="A77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5781,7 +6111,7 @@
       <c r="A78" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5789,7 +6119,7 @@
       <c r="A79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5797,7 +6127,7 @@
       <c r="A80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5805,7 +6135,7 @@
       <c r="A81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5813,7 +6143,7 @@
       <c r="A82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5821,7 +6151,7 @@
       <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5829,7 +6159,7 @@
       <c r="A84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5837,7 +6167,7 @@
       <c r="A85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5845,7 +6175,7 @@
       <c r="A86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5853,7 +6183,7 @@
       <c r="A87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5861,7 +6191,7 @@
       <c r="A88" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5869,7 +6199,7 @@
       <c r="A89" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5877,7 +6207,7 @@
       <c r="A90" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5885,7 +6215,7 @@
       <c r="A91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5893,7 +6223,7 @@
       <c r="A92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5901,7 +6231,7 @@
       <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5909,7 +6239,7 @@
       <c r="A94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5917,7 +6247,7 @@
       <c r="A95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5925,7 +6255,7 @@
       <c r="A96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5933,7 +6263,7 @@
       <c r="A97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5941,7 +6271,7 @@
       <c r="A98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5949,7 +6279,7 @@
       <c r="A99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5957,7 +6287,7 @@
       <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5965,7 +6295,7 @@
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5973,7 +6303,7 @@
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5981,7 +6311,7 @@
       <c r="A103" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5989,7 +6319,7 @@
       <c r="A104" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5997,7 +6327,7 @@
       <c r="A105" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6005,7 +6335,7 @@
       <c r="A106" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6013,7 +6343,7 @@
       <c r="A107" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6021,7 +6351,7 @@
       <c r="A108" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6029,7 +6359,7 @@
       <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6037,7 +6367,7 @@
       <c r="A110" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6045,7 +6375,7 @@
       <c r="A111" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6053,7 +6383,7 @@
       <c r="A112" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6061,7 +6391,7 @@
       <c r="A113" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6069,7 +6399,7 @@
       <c r="A114" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6077,7 +6407,7 @@
       <c r="A115" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6085,7 +6415,7 @@
       <c r="A116" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6093,7 +6423,7 @@
       <c r="A117" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6101,7 +6431,7 @@
       <c r="A118" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6109,7 +6439,7 @@
       <c r="A119" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6117,7 +6447,7 @@
       <c r="A120" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6125,7 +6455,7 @@
       <c r="A121" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6133,7 +6463,7 @@
       <c r="A122" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6141,7 +6471,7 @@
       <c r="A123" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6149,7 +6479,7 @@
       <c r="A124" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6157,7 +6487,7 @@
       <c r="A125" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6165,7 +6495,7 @@
       <c r="A126" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6173,7 +6503,7 @@
       <c r="A127" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6181,7 +6511,7 @@
       <c r="A128" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6189,7 +6519,7 @@
       <c r="A129" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6197,7 +6527,7 @@
       <c r="A130" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6205,7 +6535,7 @@
       <c r="A131" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6213,7 +6543,7 @@
       <c r="A132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6221,7 +6551,7 @@
       <c r="A133" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6229,7 +6559,7 @@
       <c r="A134" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6237,7 +6567,7 @@
       <c r="A135" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6245,7 +6575,7 @@
       <c r="A136" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6253,7 +6583,7 @@
       <c r="A137" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6261,7 +6591,7 @@
       <c r="A138" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6269,7 +6599,7 @@
       <c r="A139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6277,7 +6607,7 @@
       <c r="A140" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6285,7 +6615,7 @@
       <c r="A141" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6293,7 +6623,7 @@
       <c r="A142" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6301,7 +6631,7 @@
       <c r="A143" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6309,7 +6639,7 @@
       <c r="A144" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6317,7 +6647,7 @@
       <c r="A145" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6325,7 +6655,7 @@
       <c r="A146" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6333,7 +6663,7 @@
       <c r="A147" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6341,7 +6671,7 @@
       <c r="A148" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6349,7 +6679,7 @@
       <c r="A149" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6357,7 +6687,7 @@
       <c r="A150" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6365,7 +6695,7 @@
       <c r="A151" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6373,7 +6703,7 @@
       <c r="A152" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6381,7 +6711,7 @@
       <c r="A153" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6389,7 +6719,7 @@
       <c r="A154" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6397,7 +6727,7 @@
       <c r="A155" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6405,7 +6735,7 @@
       <c r="A156" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6413,7 +6743,7 @@
       <c r="A157" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6421,7 +6751,7 @@
       <c r="A158" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6429,7 +6759,7 @@
       <c r="A159" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6437,7 +6767,7 @@
       <c r="A160" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6445,7 +6775,7 @@
       <c r="A161" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6453,7 +6783,7 @@
       <c r="A162" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6461,7 +6791,7 @@
       <c r="A163" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6469,7 +6799,7 @@
       <c r="A164" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6477,7 +6807,7 @@
       <c r="A165" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6485,7 +6815,7 @@
       <c r="A166" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6493,7 +6823,7 @@
       <c r="A167" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6501,7 +6831,7 @@
       <c r="A168" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6509,7 +6839,7 @@
       <c r="A169" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6517,7 +6847,7 @@
       <c r="A170" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6525,7 +6855,7 @@
       <c r="A171" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6533,7 +6863,7 @@
       <c r="A172" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6541,7 +6871,7 @@
       <c r="A173" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6549,7 +6879,7 @@
       <c r="A174" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6557,7 +6887,7 @@
       <c r="A175" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6565,7 +6895,7 @@
       <c r="A176" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6573,7 +6903,7 @@
       <c r="A177" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6581,7 +6911,7 @@
       <c r="A178" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6589,7 +6919,7 @@
       <c r="A179" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6597,7 +6927,7 @@
       <c r="A180" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6605,7 +6935,7 @@
       <c r="A181" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6613,7 +6943,7 @@
       <c r="A182" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6621,7 +6951,7 @@
       <c r="A183" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6629,7 +6959,7 @@
       <c r="A184" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6637,7 +6967,7 @@
       <c r="A185" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6645,7 +6975,7 @@
       <c r="A186" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6653,7 +6983,7 @@
       <c r="A187" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6661,7 +6991,7 @@
       <c r="A188" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6669,7 +6999,7 @@
       <c r="A189" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6677,7 +7007,7 @@
       <c r="A190" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6685,7 +7015,7 @@
       <c r="A191" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6693,7 +7023,7 @@
       <c r="A192" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6701,7 +7031,7 @@
       <c r="A193" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6709,7 +7039,7 @@
       <c r="A194" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6717,7 +7047,7 @@
       <c r="A195" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6725,7 +7055,7 @@
       <c r="A196" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6733,7 +7063,7 @@
       <c r="A197" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6741,7 +7071,7 @@
       <c r="A198" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6749,7 +7079,7 @@
       <c r="A199" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6757,7 +7087,7 @@
       <c r="A200" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6765,7 +7095,7 @@
       <c r="A201" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6773,7 +7103,7 @@
       <c r="A202" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6781,7 +7111,7 @@
       <c r="A203" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6789,7 +7119,7 @@
       <c r="A204" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6797,7 +7127,7 @@
       <c r="A205" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6805,7 +7135,7 @@
       <c r="A206" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6813,7 +7143,7 @@
       <c r="A207" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6821,7 +7151,7 @@
       <c r="A208" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6829,7 +7159,7 @@
       <c r="A209" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6837,7 +7167,7 @@
       <c r="A210" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6845,7 +7175,7 @@
       <c r="A211" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6853,7 +7183,7 @@
       <c r="A212" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6861,7 +7191,7 @@
       <c r="A213" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6869,7 +7199,7 @@
       <c r="A214" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6877,7 +7207,7 @@
       <c r="A215" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6885,7 +7215,7 @@
       <c r="A216" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6893,7 +7223,7 @@
       <c r="A217" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6901,7 +7231,7 @@
       <c r="A218" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6909,7 +7239,7 @@
       <c r="A219" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6917,7 +7247,7 @@
       <c r="A220" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6925,7 +7255,7 @@
       <c r="A221" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6933,7 +7263,7 @@
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6941,7 +7271,7 @@
       <c r="A223" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6949,7 +7279,7 @@
       <c r="A224" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6957,7 +7287,7 @@
       <c r="A225" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6965,7 +7295,7 @@
       <c r="A226" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6973,7 +7303,7 @@
       <c r="A227" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6981,7 +7311,7 @@
       <c r="A228" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6989,7 +7319,7 @@
       <c r="A229" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6997,7 +7327,7 @@
       <c r="A230" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7005,7 +7335,7 @@
       <c r="A231" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7013,7 +7343,7 @@
       <c r="A232" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7021,7 +7351,7 @@
       <c r="A233" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7029,7 +7359,7 @@
       <c r="A234" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7037,7 +7367,7 @@
       <c r="A235" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7045,7 +7375,7 @@
       <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7053,7 +7383,7 @@
       <c r="A237" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7061,7 +7391,7 @@
       <c r="A238" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7069,7 +7399,7 @@
       <c r="A239" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7077,7 +7407,7 @@
       <c r="A240" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7085,7 +7415,7 @@
       <c r="A241" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7093,7 +7423,7 @@
       <c r="A242" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7101,7 +7431,7 @@
       <c r="A243" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7109,7 +7439,7 @@
       <c r="A244" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7117,7 +7447,7 @@
       <c r="A245" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7125,7 +7455,7 @@
       <c r="A246" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7133,7 +7463,7 @@
       <c r="A247" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7141,7 +7471,7 @@
       <c r="A248" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7149,7 +7479,7 @@
       <c r="A249" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7157,7 +7487,7 @@
       <c r="A250" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7165,7 +7495,7 @@
       <c r="A251" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7173,7 +7503,7 @@
       <c r="A252" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7181,7 +7511,7 @@
       <c r="A253" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7189,7 +7519,7 @@
       <c r="A254" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7197,7 +7527,7 @@
       <c r="A255" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7205,7 +7535,7 @@
       <c r="A256" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7213,7 +7543,7 @@
       <c r="A257" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7221,7 +7551,7 @@
       <c r="A258" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7229,7 +7559,7 @@
       <c r="A259" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7237,7 +7567,7 @@
       <c r="A260" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7245,7 +7575,7 @@
       <c r="A261" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7253,7 +7583,7 @@
       <c r="A262" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7261,7 +7591,7 @@
       <c r="A263" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7269,7 +7599,7 @@
       <c r="A264" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7277,7 +7607,7 @@
       <c r="A265" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7285,7 +7615,7 @@
       <c r="A266" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7293,7 +7623,7 @@
       <c r="A267" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7301,7 +7631,7 @@
       <c r="A268" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7309,7 +7639,7 @@
       <c r="A269" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7317,7 +7647,7 @@
       <c r="A270" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7325,7 +7655,7 @@
       <c r="A271" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7333,7 +7663,7 @@
       <c r="A272" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7341,7 +7671,7 @@
       <c r="A273" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7349,7 +7679,7 @@
       <c r="A274" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7357,7 +7687,7 @@
       <c r="A275" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7365,7 +7695,7 @@
       <c r="A276" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7373,7 +7703,7 @@
       <c r="A277" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7381,7 +7711,7 @@
       <c r="A278" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7389,7 +7719,7 @@
       <c r="A279" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7397,7 +7727,7 @@
       <c r="A280" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7405,7 +7735,7 @@
       <c r="A281" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7413,7 +7743,7 @@
       <c r="A282" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7421,7 +7751,7 @@
       <c r="A283" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7429,7 +7759,7 @@
       <c r="A284" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7437,7 +7767,7 @@
       <c r="A285" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7445,7 +7775,7 @@
       <c r="A286" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7453,7 +7783,7 @@
       <c r="A287" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7461,7 +7791,7 @@
       <c r="A288" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7469,7 +7799,7 @@
       <c r="A289" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7477,7 +7807,7 @@
       <c r="A290" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7485,7 +7815,7 @@
       <c r="A291" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7493,7 +7823,7 @@
       <c r="A292" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7501,7 +7831,7 @@
       <c r="A293" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7509,7 +7839,7 @@
       <c r="A294" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7517,7 +7847,7 @@
       <c r="A295" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7525,7 +7855,7 @@
       <c r="A296" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7533,7 +7863,7 @@
       <c r="A297" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7541,7 +7871,7 @@
       <c r="A298" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7549,7 +7879,7 @@
       <c r="A299" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7557,7 +7887,7 @@
       <c r="A300" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7565,7 +7895,7 @@
       <c r="A301" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7573,7 +7903,7 @@
       <c r="A302" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7581,7 +7911,7 @@
       <c r="A303" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7589,7 +7919,7 @@
       <c r="A304" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7597,7 +7927,7 @@
       <c r="A305" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7605,7 +7935,7 @@
       <c r="A306" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7613,7 +7943,7 @@
       <c r="A307" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7621,7 +7951,7 @@
       <c r="A308" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7629,7 +7959,7 @@
       <c r="A309" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7637,7 +7967,7 @@
       <c r="A310" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7645,7 +7975,7 @@
       <c r="A311" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7653,7 +7983,7 @@
       <c r="A312" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7661,7 +7991,7 @@
       <c r="A313" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7669,7 +7999,7 @@
       <c r="A314" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7677,7 +8007,7 @@
       <c r="A315" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7685,7 +8015,7 @@
       <c r="A316" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7693,7 +8023,7 @@
       <c r="A317" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7701,7 +8031,7 @@
       <c r="A318" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7709,7 +8039,7 @@
       <c r="A319" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7717,7 +8047,7 @@
       <c r="A320" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7725,7 +8055,7 @@
       <c r="A321" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7733,7 +8063,7 @@
       <c r="A322" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7741,7 +8071,7 @@
       <c r="A323" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7749,7 +8079,7 @@
       <c r="A324" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7757,7 +8087,7 @@
       <c r="A325" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7765,7 +8095,7 @@
       <c r="A326" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7773,7 +8103,7 @@
       <c r="A327" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7781,7 +8111,7 @@
       <c r="A328" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7789,7 +8119,7 @@
       <c r="A329" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7797,7 +8127,7 @@
       <c r="A330" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7805,7 +8135,7 @@
       <c r="A331" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7813,7 +8143,7 @@
       <c r="A332" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7821,7 +8151,7 @@
       <c r="A333" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7829,7 +8159,7 @@
       <c r="A334" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7837,7 +8167,7 @@
       <c r="A335" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7845,7 +8175,7 @@
       <c r="A336" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7853,7 +8183,7 @@
       <c r="A337" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7861,7 +8191,7 @@
       <c r="A338" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7869,7 +8199,7 @@
       <c r="A339" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7877,7 +8207,7 @@
       <c r="A340" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7885,7 +8215,7 @@
       <c r="A341" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7893,7 +8223,7 @@
       <c r="A342" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7901,7 +8231,7 @@
       <c r="A343" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7909,7 +8239,7 @@
       <c r="A344" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B344" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7917,7 +8247,7 @@
       <c r="A345" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7925,7 +8255,7 @@
       <c r="A346" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7933,7 +8263,7 @@
       <c r="A347" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7941,7 +8271,7 @@
       <c r="A348" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7949,7 +8279,7 @@
       <c r="A349" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7957,7 +8287,7 @@
       <c r="A350" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7965,7 +8295,7 @@
       <c r="A351" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7973,7 +8303,7 @@
       <c r="A352" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7981,7 +8311,7 @@
       <c r="A353" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7989,7 +8319,7 @@
       <c r="A354" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B354" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7997,7 +8327,7 @@
       <c r="A355" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B355" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8005,7 +8335,7 @@
       <c r="A356" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8013,7 +8343,7 @@
       <c r="A357" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8021,7 +8351,7 @@
       <c r="A358" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8029,7 +8359,7 @@
       <c r="A359" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8037,7 +8367,7 @@
       <c r="A360" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8045,7 +8375,7 @@
       <c r="A361" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8053,7 +8383,7 @@
       <c r="A362" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8061,7 +8391,7 @@
       <c r="A363" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8069,7 +8399,7 @@
       <c r="A364" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8077,7 +8407,7 @@
       <c r="A365" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8085,7 +8415,7 @@
       <c r="A366" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8093,7 +8423,7 @@
       <c r="A367" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8101,7 +8431,7 @@
       <c r="A368" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8109,7 +8439,7 @@
       <c r="A369" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8117,7 +8447,7 @@
       <c r="A370" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8125,7 +8455,7 @@
       <c r="A371" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8133,7 +8463,7 @@
       <c r="A372" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8141,7 +8471,7 @@
       <c r="A373" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8149,7 +8479,7 @@
       <c r="A374" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8157,7 +8487,7 @@
       <c r="A375" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8165,7 +8495,7 @@
       <c r="A376" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8173,7 +8503,7 @@
       <c r="A377" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8181,7 +8511,7 @@
       <c r="A378" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8189,7 +8519,7 @@
       <c r="A379" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8197,7 +8527,7 @@
       <c r="A380" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8205,7 +8535,7 @@
       <c r="A381" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8213,7 +8543,7 @@
       <c r="A382" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8221,7 +8551,7 @@
       <c r="A383" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8229,7 +8559,7 @@
       <c r="A384" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8237,7 +8567,7 @@
       <c r="A385" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8245,7 +8575,7 @@
       <c r="A386" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8253,7 +8583,7 @@
       <c r="A387" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8261,7 +8591,7 @@
       <c r="A388" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8269,7 +8599,7 @@
       <c r="A389" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8277,7 +8607,7 @@
       <c r="A390" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8285,7 +8615,7 @@
       <c r="A391" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8293,7 +8623,7 @@
       <c r="A392" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8301,7 +8631,7 @@
       <c r="A393" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8309,7 +8639,7 @@
       <c r="A394" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8317,7 +8647,7 @@
       <c r="A395" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8325,7 +8655,7 @@
       <c r="A396" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8333,7 +8663,7 @@
       <c r="A397" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8341,7 +8671,7 @@
       <c r="A398" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8349,7 +8679,7 @@
       <c r="A399" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8357,15 +8687,15 @@
       <c r="A400" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B400" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="9" t="s">
+      <c r="B400" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="30">
+      <c r="A401" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B401" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8373,15 +8703,15 @@
       <c r="A402" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B402" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="9" t="s">
+      <c r="B402" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="30">
+      <c r="A403" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8389,12 +8719,12 @@
       <c r="A404" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="6" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8402,7 +8732,7 @@
       <c r="A406" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8410,15 +8740,15 @@
       <c r="A407" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="9" t="s">
+      <c r="A408" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8426,15 +8756,15 @@
       <c r="A409" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8442,15 +8772,15 @@
       <c r="A411" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="9" t="s">
+    <row r="412" spans="1:2" ht="30">
+      <c r="A412" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8458,7 +8788,7 @@
       <c r="A413" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8466,7 +8796,7 @@
       <c r="A414" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8474,7 +8804,7 @@
       <c r="A415" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8482,7 +8812,7 @@
       <c r="A416" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8490,7 +8820,7 @@
       <c r="A417" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8498,7 +8828,7 @@
       <c r="A418" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8506,7 +8836,7 @@
       <c r="A419" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8514,7 +8844,7 @@
       <c r="A420" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8522,7 +8852,7 @@
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8530,7 +8860,7 @@
       <c r="A422" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8538,7 +8868,7 @@
       <c r="A423" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8546,7 +8876,7 @@
       <c r="A424" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8554,7 +8884,7 @@
       <c r="A425" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8562,7 +8892,7 @@
       <c r="A426" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8570,15 +8900,15 @@
       <c r="A427" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="45">
-      <c r="A428" s="7" t="s">
+      <c r="A428" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8586,7 +8916,7 @@
       <c r="A429" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8594,7 +8924,7 @@
       <c r="A430" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8602,7 +8932,7 @@
       <c r="A431" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8610,15 +8940,15 @@
       <c r="A432" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B432" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="9" t="s">
+      <c r="B432" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="30">
+      <c r="A433" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8626,7 +8956,7 @@
       <c r="A434" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8634,7 +8964,7 @@
       <c r="A435" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8642,7 +8972,7 @@
       <c r="A436" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8650,7 +8980,7 @@
       <c r="A437" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8658,7 +8988,7 @@
       <c r="A438" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8666,7 +8996,7 @@
       <c r="A439" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8674,7 +9004,7 @@
       <c r="A440" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8682,7 +9012,7 @@
       <c r="A441" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8690,7 +9020,7 @@
       <c r="A442" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8698,7 +9028,7 @@
       <c r="A443" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8706,7 +9036,7 @@
       <c r="A444" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8714,7 +9044,7 @@
       <c r="A445" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8722,7 +9052,7 @@
       <c r="A446" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8730,7 +9060,7 @@
       <c r="A447" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8738,7 +9068,7 @@
       <c r="A448" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8746,7 +9076,7 @@
       <c r="A449" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8754,7 +9084,7 @@
       <c r="A450" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8762,7 +9092,7 @@
       <c r="A451" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8770,7 +9100,7 @@
       <c r="A452" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8778,7 +9108,7 @@
       <c r="A453" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8786,7 +9116,7 @@
       <c r="A454" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8794,7 +9124,7 @@
       <c r="A455" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8802,7 +9132,7 @@
       <c r="A456" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8810,7 +9140,7 @@
       <c r="A457" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8818,7 +9148,7 @@
       <c r="A458" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8826,7 +9156,7 @@
       <c r="A459" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8834,7 +9164,7 @@
       <c r="A460" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8842,7 +9172,7 @@
       <c r="A461" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8850,7 +9180,7 @@
       <c r="A462" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8858,7 +9188,7 @@
       <c r="A463" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8866,7 +9196,7 @@
       <c r="A464" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8874,7 +9204,7 @@
       <c r="A465" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8882,7 +9212,7 @@
       <c r="A466" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8890,7 +9220,7 @@
       <c r="A467" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8898,7 +9228,7 @@
       <c r="A468" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8906,7 +9236,7 @@
       <c r="A469" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8914,7 +9244,7 @@
       <c r="A470" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8922,7 +9252,7 @@
       <c r="A471" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8930,7 +9260,7 @@
       <c r="A472" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8938,15 +9268,15 @@
       <c r="A473" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="8" t="s">
+      <c r="A474" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8954,7 +9284,7 @@
       <c r="A475" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8962,7 +9292,7 @@
       <c r="A476" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8970,7 +9300,7 @@
       <c r="A477" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8978,7 +9308,7 @@
       <c r="A478" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8986,7 +9316,7 @@
       <c r="A479" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8994,7 +9324,7 @@
       <c r="A480" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9002,15 +9332,15 @@
       <c r="A481" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="8" t="s">
+      <c r="A482" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="B482" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9018,7 +9348,7 @@
       <c r="A483" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B483" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9026,7 +9356,7 @@
       <c r="A484" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="B484" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9034,7 +9364,7 @@
       <c r="A485" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B485" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9042,7 +9372,7 @@
       <c r="A486" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="B486" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9050,7 +9380,7 @@
       <c r="A487" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B487" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9058,7 +9388,7 @@
       <c r="A488" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="B488" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9066,15 +9396,15 @@
       <c r="A489" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B489" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" s="9" t="s">
+      <c r="B489" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="45">
+      <c r="A490" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B490" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9082,7 +9412,7 @@
       <c r="A491" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="B491" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9090,23 +9420,23 @@
       <c r="A492" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B492" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" s="9" t="s">
+      <c r="B492" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="45">
+      <c r="A493" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B493" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="8" t="s">
+      <c r="A494" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B494" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9114,7 +9444,7 @@
       <c r="A495" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B495" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9122,7 +9452,7 @@
       <c r="A496" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="B496" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9130,7 +9460,7 @@
       <c r="A497" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B497" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9138,7 +9468,7 @@
       <c r="A498" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B498" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9146,7 +9476,7 @@
       <c r="A499" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B499" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9154,15 +9484,15 @@
       <c r="A500" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="B500" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="8" t="s">
+      <c r="A501" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="B501" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9170,15 +9500,15 @@
       <c r="A502" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="B502" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
-      <c r="A503" s="9" t="s">
+    <row r="503" spans="1:2" ht="30">
+      <c r="A503" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B503" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9186,15 +9516,15 @@
       <c r="A504" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="B504" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B505" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9202,23 +9532,23 @@
       <c r="A506" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B506" s="7" t="s">
+      <c r="B506" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B507" s="7" t="s">
+      <c r="B507" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="8" t="s">
+      <c r="A508" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B508" s="7" t="s">
+      <c r="B508" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9226,7 +9556,7 @@
       <c r="A509" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B509" s="7" t="s">
+      <c r="B509" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9234,15 +9564,15 @@
       <c r="A510" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="B510" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
-      <c r="A511" s="9" t="s">
+    <row r="511" spans="1:2" ht="45">
+      <c r="A511" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B511" s="7" t="s">
+      <c r="B511" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9250,15 +9580,15 @@
       <c r="A512" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="B512" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="8" t="s">
+      <c r="A513" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="B513" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9266,7 +9596,7 @@
       <c r="A514" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B514" s="7" t="s">
+      <c r="B514" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9274,7 +9604,7 @@
       <c r="A515" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B515" s="7" t="s">
+      <c r="B515" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9282,7 +9612,7 @@
       <c r="A516" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="B516" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9290,7 +9620,7 @@
       <c r="A517" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="B517" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9298,15 +9628,15 @@
       <c r="A518" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B518" s="7" t="s">
+      <c r="B518" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="8" t="s">
+      <c r="A519" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="B519" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9314,7 +9644,7 @@
       <c r="A520" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="B520" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9322,7 +9652,7 @@
       <c r="A521" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B521" s="7" t="s">
+      <c r="B521" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9330,15 +9660,15 @@
       <c r="A522" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="B522" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="8" t="s">
+      <c r="A523" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B523" s="7" t="s">
+      <c r="B523" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9346,7 +9676,7 @@
       <c r="A524" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="B524" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9354,7 +9684,7 @@
       <c r="A525" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="B525" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9362,7 +9692,7 @@
       <c r="A526" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B526" s="7" t="s">
+      <c r="B526" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9370,15 +9700,15 @@
       <c r="A527" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B527" s="7" t="s">
+      <c r="B527" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="8" t="s">
+      <c r="A528" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="B528" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9386,7 +9716,7 @@
       <c r="A529" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B529" s="7" t="s">
+      <c r="B529" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9394,7 +9724,7 @@
       <c r="A530" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="B530" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9402,7 +9732,7 @@
       <c r="A531" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="B531" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9410,7 +9740,7 @@
       <c r="A532" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B532" s="7" t="s">
+      <c r="B532" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9418,15 +9748,15 @@
       <c r="A533" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B533" s="7" t="s">
+      <c r="B533" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="8" t="s">
+      <c r="A534" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="B534" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9434,7 +9764,7 @@
       <c r="A535" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B535" s="7" t="s">
+      <c r="B535" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9442,7 +9772,7 @@
       <c r="A536" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B536" s="7" t="s">
+      <c r="B536" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9450,7 +9780,831 @@
       <c r="A537" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B537" s="7" t="s">
+      <c r="B537" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="30">
+      <c r="A539" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="30">
+      <c r="A541" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="30">
+      <c r="A542" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="45">
+      <c r="A543" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="30">
+      <c r="A545" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="30">
+      <c r="A546" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="30">
+      <c r="A547" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="30">
+      <c r="A548" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="30">
+      <c r="A549" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="30">
+      <c r="A551" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="30">
+      <c r="A552" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="30">
+      <c r="A553" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="30">
+      <c r="A554" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="45">
+      <c r="A557" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="30">
+      <c r="A558" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="42">
+      <c r="A559" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="42">
+      <c r="A560" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="42">
+      <c r="A561" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="63">
+      <c r="A562" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="21">
+      <c r="A563" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="63">
+      <c r="A564" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="63">
+      <c r="A565" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="63">
+      <c r="A566" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="42">
+      <c r="A567" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="105">
+      <c r="A568" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="84">
+      <c r="A569" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="168">
+      <c r="A570" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="126">
+      <c r="A571" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="21">
+      <c r="A572" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="63">
+      <c r="A573" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="42">
+      <c r="A574" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="84">
+      <c r="A575" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="63">
+      <c r="A576" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="63">
+      <c r="A577" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="21">
+      <c r="A578" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="63">
+      <c r="A579" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="42">
+      <c r="A580" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="63">
+      <c r="A581" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="63">
+      <c r="A582" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="21">
+      <c r="A583" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="63">
+      <c r="A584" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="63">
+      <c r="A585" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="21">
+      <c r="A586" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="42">
+      <c r="A587" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="21">
+      <c r="A588" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="42">
+      <c r="A589" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="84">
+      <c r="A590" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="63">
+      <c r="A591" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="42">
+      <c r="A592" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="21">
+      <c r="A593" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="63">
+      <c r="A594" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="63">
+      <c r="A595" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="42">
+      <c r="A596" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="21">
+      <c r="A597" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="42">
+      <c r="A598" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="21">
+      <c r="A599" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="105">
+      <c r="A600" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="105">
+      <c r="A601" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="105">
+      <c r="A602" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="84">
+      <c r="A603" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="84">
+      <c r="A604" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="21">
+      <c r="A605" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="63">
+      <c r="A606" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="63">
+      <c r="A607" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="42">
+      <c r="A608" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="42">
+      <c r="A609" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="42">
+      <c r="A610" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="63">
+      <c r="A611" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="63">
+      <c r="A612" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="21">
+      <c r="A613" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="42">
+      <c r="A614" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="84">
+      <c r="A615" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="42">
+      <c r="A616" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="63">
+      <c r="A617" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="42">
+      <c r="A618" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="21">
+      <c r="A619" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="84">
+      <c r="A620" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="84">
+      <c r="A621" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="105">
+      <c r="A622" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="63">
+      <c r="A623" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="21">
+      <c r="A624" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="84">
+      <c r="A625" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="63">
+      <c r="A626" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="105">
+      <c r="A627" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="42">
+      <c r="A628" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="63">
+      <c r="A629" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="21">
+      <c r="A630" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="84">
+      <c r="A631" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="84">
+      <c r="A632" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="63">
+      <c r="A633" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="147">
+      <c r="A634" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="63">
+      <c r="A635" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="21">
+      <c r="A636" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="63">
+      <c r="A637" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="84">
+      <c r="A638" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="63">
+      <c r="A639" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="63">
+      <c r="A640" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B640" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9464,7 +10618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L13" sqref="L13:M22"/>
     </sheetView>
   </sheetViews>
@@ -9658,10 +10812,10 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850"/>
   </bookViews>
@@ -19,12 +19,13 @@
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
     <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="662">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -2009,13 +2010,16 @@
   </si>
   <si>
     <t>jood bura ariyogi kaachiel kod mcas abiriyo igeno mar molo enyim kamatai matayo duond bura mar odm e kenya mangima mar  chiwo dhog gi to kod ngeyo okang mogik mibiro kaonegi</t>
+  </si>
+  <si>
+    <t>Count of NYONG'O OYUAGO MKAPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2150,25 +2154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2519,7 +2504,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2541,20 +2526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2829,6 +2805,29 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44036.434001851849" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="102">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A538:B640" sheet="713"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="NYONG'O OYUAGO MKAPA" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Politics and Government" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Politics and Government"/>
+        <s v="Health"/>
+        <s v="Crime and Legal"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Sports, music and entertainment"/>
+        <s v="Religion"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="61">
   <r>
@@ -4818,19 +4817,432 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
+  <r>
+    <s v="Gavana ma Kisumu ngire Anyang’  Nyongó, ooro ote mage mag lit kod kuyo ne  jo Tanzania  kaluwore gi tho mar ker machon Benjamin Mkapa."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v=" Nyongo wacho ni noyudo gi buok maduong wcah tho mar Mkapa."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nowacho ni mkapa ne en jathek mar adiera kendo ni kik telo manobedo godo ok yot yudo e kind jotelo mag Africa."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nyong’o wacho ni jokenya biro medo paro lwedo ma Mkapa nochiw e thek ma hik 2007  manoduoko kwe e Kenya tok tulo."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nolero ni Mkapa ema nopako dongruok mane dhi nyime kisumo gino manomiyo jatelo ma chon ma Kenya manosenindo Daniel Arap Moi oting'o malo Kisumu nyaka e ranginy mar boma  maduong kata City."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="JOTELO MA NYAKACH NGU'R."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jotelo mawuok e Sub County ma Nyakach sani koro penjore gimomiyo sub countino ne ok onywaki e buo chenro  mar kazi mtaani ma sani odonjo e tielo mar ariyo.  "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chenro ma kamano sani dhi nyime e sub counties 3 ma Kisumo ma gin Kisumu East, Kisumu West, kod Kisumu central kendo rowere maromo 7000 ichulo."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kotelnegi kod MCA ma West Nyakach Gard Olima, sani koro gidwaro ni County Commissiner ma Kisumu susan waweru  mondo oler anena yoo manotii godo e yango kuonde ma tijego nitere."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Olima wacho ni rowere ma Nyakach bende winjo mapek mokalo kaluwore gi midhiero mokel kod korona  kendo ne onge tiende weyogi oko.N"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="owacgho ni gin kaka jotelo ma nyakach, gineno ni otug kodgi  kowacho ni nok mar tije e bombe inyalo pimo gi mago mae kor gwenge."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="JOK MIKAW LOPEGI NE GEDO MAR SOIN DAM IDHI CHULO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jaod bura ma Muhoroni James Onyango Koyoo owacho ni jii ma ibiro daro mondo ochiw thuolo ne gedo mar yao mar koru soin , joseyiere gi jogedogo kendo koro chenro ma kamano nyalo chakore"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Koyoo wacho ni dondi dondi ma pod nyucha nitie oselosi kendo sani koro ikruok duto oseketi kare mar chako chenrono."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ekamodhur mag lope idhi kaw mar gero yaono ealuora ma Koriu kendo duol mochungne lope e thurka National Lands Comission, sani dhi nyime gin ono kaka gichi chulo jopiny mibiro kawo lopegi,"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Koyoo wacho ni chenro ma kamano madhi muonyo siling billion 25 dhi loko e okang ma malo ngima jodak ma koru kod aluora mare."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="MANE EN JATEND TANZANIA MKAPA OTHO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mane en jatend piny Tanzania manosedhi e yueyo Benjamin William Mkapa oninde bade. "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kanoyango wach ma kamano otieno ma piny oruu godo kawuono, jatend pinyno John Pombe Magufuli, nowacho ni jatelo mar adek mar pinyno  nowito ngimane e kar thieth moro e boma ma Dar es Salaam  kama norwake koyudo thieth."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kokalo e mbui mare mar twitter, Magufuli  oyuago ,Mkapa  kowacho ni obiro pare kaka jalo manohero pinye kendo manoluoro Nyasaye  kendo manotiyo matek ne gero uchumi ma Tanzania."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Senators ne jochak ochwalo tuak margi ewii pogo pesa ne Counties nyaka e juma manyien"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Senators mapachoka ne jochak ochweyo kendo maok jotuak ewii wach yoo ma onegobed ni ipogo godo pesa ne Counties mathurka"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Spika mar bunge mar senate migosi Kenneth Lusaka ne ochwalo nyime romo mag bunge mar senateno nyaka chieng tich 2 mar juma manyien"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Magi ne otimo kata obedo ni senators Johnson Sakaja, Stewart Madzayo kuom mamoko ne josingo biro wito oko tuak ma gibirobedo godo e juma manyienno"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kwan jii maromo 796 mane oyudi ni nigi Covid-19 ei kawuononi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kwan jii mane oyudi ni nikod tuo mar Coronavirus ei kawuononi gin jii 796 makoro kelo kwan jogo duto man kod midusi makochno e pachoka ei kawuononi chopo jii alufu 15 gi 601"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Magi ne oyangi gi jalup jatend migao mochungne yoore mag thieth e thurka laktar Mercy Mwangangi mane owacho ni kwan mar jii 796 no ne oyudi kuom kwan jii maromo alufu 6 gi 754 mane opim tok seche 24 mokalo"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jatelono bende ne oyango ni Nairobi emapod nigi kwan maduong mag joma nigi tuono magin jii 539 kaachiel gi lero ni nitie jii 3 moko mane tuono onego ei kawuononi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Magawa ma Blue Ridge Hotel manie boma ma Mbita owacho ni jago manyo oyudi ni nigi Covid-19 cha ok en jatijgi moyangi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Tend magawa ma Blue Ridge Hotel manie boma ma Mbita e Sub County ma Suba North e County ma Homa Bay koro jowacho ni dichuo moro ma ja higni 29 mane oyudi ni nikod midusi mar Coronavirus ok en jatich moyangi mar magawano kakane bad migao mochungne yoor thieth e County ma Homa Bay kuno ne rik olando"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Maendi koro ne wuok bang weche yangore ni achiel kuom jotij magawano nyo oyudi nyoro ni nikod tuo mar Coronavirus bang pim manyocha otim kod komiti mochungne kedo gi tuo mar Coronavirusno e County ma Homa Bay kuno -pim manyocha otim chieng wuok tich"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo ewii wachno jataa tije e magawa ma Blue Ridge Hotelno Hellen Oido nowacho ni gisebedo ka gikao jotich manyien ka gihikore godo ne yepo mar magawano bang lor mane olor godo magawa mapachoka nikech wach landruok mar tuo mar Covid-19 kowacho ni kakoro nyochane jatend piny Kenya migosi Uhuru Kenyatta ne oyao magawa mathurka kendo mondo jotii e bwo chike mager manyochane oketinegi to nyochane gineno ni gikau jii manyien emane gikawoe jagono ni to ne pok ondike ayanga gi magawano kaka jatich"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanomedowuoyo ewii wachno mikai Oido nowacho ni magawa margino ok osebedo katiyo nikech pod ne gitemo mondo gichop chike mane oketigo mondo ekane giyepi ema koro nyochane gikawoe thuolo mar luongo apisas mochungne yoore thieth e County ma Homa Bay kuno chieng wuok tich mondo ne jobi opim jotijgi machon kod mane gikao manyien go mane jooro kwayo ni ne duaro tich kargi kanyo-mane odhi opim ne tuo mar Coronavirusno"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kwan jii moyudi ni nikod tuo mar Coronavirus ei kawuononi gin jii 637"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kwan jii ma oyudi kod tuo mar Coronavirus ei kawuononi gin 637 makoro kelo kwan jogo duto man kod tuo magalagalano e pachoka chopo jii alufu 14 gi 805"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Magi ne oyangi kod jalup jatend migao mochungne yoore mag thieth e pachoka laktar Rashid Aman"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo gi jopiny kachiel kachiel e tipo mar telebisen kowuok Afya House e boma ma Nairobika laktar Aman bende ne oyango ni nitie jii 10 mane tuono olal gi ngimagi ei kawuononi makoro kelo kwan jogo duto ma tuono osenego e thurka chopo jii 260"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Aman bende nowacho ni County ma Nairobi emapod ne okao namba kuom bedo kod kwan maduong mag joma nigi midusi mar Covid-19no mane gin jii 342"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bende ne oyangi ni nitie jii 499 mane ochango ei kawuononi ma owe odhi pacho kowacho ni kuom jogo, 403 ne gin jogo manyocha tuo to ne yudo thieth gie utegi mong’ere gi dho ngere kaka Home Based Care"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Maraga oyudo fuong’ruok"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Doho mar nyithindo owito oko bura ma yande ochwal miyo moro ma nyinge Mary Kwamboka ka ywak ni ogai mar bad migao mar doho justice David Maraga odagi kawo ting’ mar nyathi ma owacho ni ne ginyuolo kode."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jayal bura Gerald Gitonga okoo ni burano ne onge kod mise motegno kaka ne ochwale e doho."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Okil kamaloka Danstan Omari ma yalo e loo migosi David Maraga okoo ni bura ma nyocha miyono odhi mako e doho en ma miriambo nimar migosi maraga ok ong’eyo kata mana miyono."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Mary Kwamboka yande okelo koko e kar aluora maar log tich mar bad migao mar doho ne wach onogo ma bende okinde mag Maraga ne okee kode ni otemo chuogo weche mag mirimabo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jii adek mawuok e familia achiel polo onego"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jii 3 moko ma oting'o nyithindo 2  mawuok e familia achiel ne jotho kanyo kanyo ka mamoko 3 to rem nego bang polo gogi e gwenge mag Achudinet ei Teso North"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kane oyango aidera mar wachno  jatend obila ma County ma Busia  Wambua Katithi nowacho ni masirano mane otimore kar saa  2 mar otieno mane piny oruugo kawuononi ne okelo tho mar nyimine 2 gi owadgi"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jo familia achiel mane jothogo gin ja higni 9, ja higni 14 kod ja higni 20"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Wambua nowacho ni jomanne johinyorego to ne oringgo e kar thieth ma kocholia"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ng'anyo mar nurses mane ochan timo wuok tich koro ochwal nyime"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Riuruok mar Nurses mapachoka koro jochwalo nyime  ngányo margi mane onegobed ni chakore ayanga kiny wuok tich"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Riuruogno ne okao okang machalo kamano mar mondo mi gimi duol mochungne osach jotij piny owacho -Salaries and Remuneration Commission thuolo maber mar chopo dwach winjruok manegibedo godo kodgi mar medogi osara"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo e boma ma Kakamega , jagoro maduong ma riuruogno migosi Seth Panyako nowacho ni ngányno koro gibirobago tarik 5 mar dwe mar 2 higa manyien"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bende riuruok mar nursesno ne duaro ni piny owacho owuo board mar NHIF kaluwore kod wach mibadhi ma okwako boardno"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Meko mar apisas maka NHIF kod KPC ma weche mibadhi mako"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jotelo moko 3 mag kambi mar Kenya Pipeline manyo omaki nyoro nyo oter e apis obila mag okwach kich e apaya ma Kiambu Road buore Nairobika manyo odaye dhogi ne weche mag mibadhi ma makogi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jotelo manyo omakigo oting'o jataa tije ka kambi mar Kenya Pipelineno migosi Joe Sang , karan mare Gloria Khafafa  kod Vincecent Cheruiyot matiyo e bad migao mochungne ngíewo ka Kenya Pipeline kanyo"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="To kumachielo bende apisas mamoko 7 ma jotiyo e board mochungne insurance mar thieth  ka NHIF bende nyo omaki"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Apisas abiryogo  nyo omaki kaluwore kod wach kuo mar omenda e boardno"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Apisas abiryogo  gin Mudzo Nzili mawuok e county ma Kwale ,Yussuf Ibrahiim , Simeon Kirgoty , Ruth Sudoi , Gilbert Kamau , Irene Rono kod Robert Mureithi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Pes bursary ma County ma Homa Bay koro oyudo mijing'o"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bunge mar County ma Homa Bay koro otimo lokruok ne chike matayo weche mag chiwo bursary mag somo mongere kaka Education Bursary Fund Ammendment bill 2018 mabiro konyo neno ni jogo ma odak gi ng'ol bende onyuandi e komiti mochungne bursary  kod konyo neno ni bursaryno ipogo e yoo mowinjore maonge mibadhi moro amora"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kanyowuoyo ewii wachno jakom komiti mochungne yoore mag somo migosi James Okeyo nyowacho ni okang ma gikao mar timo lokruok ne chikego biro  neno ni komiti mochungne bursaryno oting'o girube duto mondo eka koro  bursaryno inyalo pogo ne nyiithindo duto maonge gi nyalo mawuok e wards 40 duto ma Homa Bay kuno"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="To bende kanyowuoyo ewii wach achiel nogono MCA ma Kabondo East  migosi Ochieng nyowacho ni komiti mar bunge mar County mochungne weche mag somo oseiko  yoore mabecho ka jomakore gi bad migao mochungne somo e County ma Homa Bay kuno mar neno ni jokanyo manyien mag komiti mar bursaryno jotayo chenro mag pogo pes bursaryno  e yoo mowinjore"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nyo oyango ni wards 40 mag County ma Homa Baygo oketnegi  omenda maromo silings million 2.5 mar hik manyonge mar 2018/2019  kowuok e silings million 1.5 mane entieree e budget mokalo mar neno ni nyithindo duto maonge gi nyalo joyudo pes bursaryno"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="MCAno nyowacho ni form mag bursaryno birobedo  eskunde duto mag piny owacho e Countyno mangima mar mondo mi ochiu thuolo mayot ne jopuonjre maonge gi nyalo e yudo formsgo ka obi oyau school e dwe mar 1 mar higa manyien mar oro kwayo mar yudo bursaryno"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Odinga seyo MCAs kuom chamo pes jopiny"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jatend duond bura mar ODM migosi Raila Amolo Odinga kawuono oseyo malit mokalo MCAS kuom tiyo marach gi omenda jopiny moketi mag weche dongruok"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kanomedowuoyo ewii wachno migosi Raila nowacho ni tend  loch gwenge kata devolution ne okel e Pachoka mar konyo neno ni mwandu duto mapachoka ipogo marom ne gwenge duto mathurka"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nowacho ni en hawi marach ni thoth pesa ma imiyo counties mag tayo weche mag dongruok ok dhi e weche mag dongruokgo"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Migosi Raila nowacho ni MCAS  osebedo ka kuodo wii jii gi lweny ma gisiko godo e kinde ka kinde kar tiyone jopiny mane oyierogi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nowacho ni gima MCAS  ongéyo en mana ngíyo rode moko ma ginyalochamo godo pes county kar tiyone jopiny"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo Kisumu migosi Raila nowacho ni MCA  mag counties ma Kisumu, Homa Bay, Nairobi  kod Kakamega gin jogo ma jowuok oko mar nego devolution chutho mar neno ni devolution ok okelo ber moro amora e thurka"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nowacho ni winjruok margi mongére kaka Building Bridges Initiative sani luorore e tung Kenya mangima ka choko pach jopiny ewii kaka inyalotieko weche mag jotelo chamo pes jopinygo"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chike mar apaya ibiro rido e gwenge ma nyanza e nyasi mar christmas"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Apisa mag obila mag wangapaya koro omi chik mar chwalo nyime kendo rido chike mag wangapaya e kinde nyasi mar christmas e counties 6  mag nyanza"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="kamishna mar apisas e gwenge go  migosi Moffat Kingi wacho ni yore duto madongo to kod matindo e counties ma Kisumu Kisii Nyamira Homabay Siaya to kod Migori ibiro chwale apisas mag obila mar neno ni chike mag wangapaya oluu kaka dwarore"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ne owacho ni giseketo okenge to kod chenmro makare mar chiwo kum ne jogo mabiro ketho chike mag apaya"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="migosi kingi wacho ni kata e kor gwenge bende apisas biro bedo mar neno ninjo apiko ochikore tir gi chike ma apaya ka okang makama en mar duoko piny masiche mag apaya mano maweyo ka thoth oganda wito ngimagi ."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="migosi kingi ne owaco ni weg nyamburko matingo jowuoth e kinde nyasi mar christamas nyaka bed kod obok madwarore mar chwalo jowuoth e pachoka"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Raila okwayo jodak owuog oko kendo ruako ker kenyataa"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ogai mar nasa Raila Amolo Odinga koro okwayo jodak  e county ma kisumu mondo mii oikore mar rwako ker Kenyataa e kinde ma obiro wendo bomano machiegni e dwe marapar gariyo limbeno  mokuongo mar ker kenyataa chakre yiero ma higa mokalo to kod tok mosruok e kindgi dwe mar adek higani"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="migosi Odinga maneloso e boma ma kisumu odiochieng makawuono ne owacho kinde ochopo mar riwruok kendo keto tenge pogruok e kind oganda  ka iriwo  oganda jokenya mano maomiyo ne okao okang mag romo gi ker kenyataa kend singo tiyo kanyakla mar riwo oganda bang mosruok e kindgi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ne bende oyango mago ma winjruok e kinde to kod ker Kenyataa geto mar chopo e pachoka mar neno ni jokenya oriwore kedno obedo e achiel mano mani e buo chenro mar building initiatives ma duol manochuogi osechako limo gwenge ma pachoka mar yudo dho oganda e wi chenro makama mar jotelo ariyogi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="kwayo makama ne oganda jo county ma kisumu biro ndalo machuok kende bang senator ma Kisumu migosi Fred Outa bende ne kwayo jodak mond owuog kar rombgi kendo rwako jotelo ariyogi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Media Council of Kenya chano bago lalruok e kind obila gi jofuamb weche"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Duol matayo ute fwambo mapachoka mabende ongére kaka The Media Council of Kenya koro jochano bago lalruok makende e kind apisas mag obila kod ute fwambo mathurka  kaka yoo mar neno ni winjruok maber  obedo e kind kweth ariyogo mar  neno ni ginyalotiyo kanyakla"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo ewii wachno jalup jataa tije e duondno migosi Victor Bwire nowacho ni okang makama ochope bang weche yangore ni okak maduong  medore  e kind jofwambo to kod apisas mag obila"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Migosi Bwire nowacho ni e kinde mokalogi  jofwambo osebed ka imonjo kod obila ka mamoko to otam katamana etimo tijegi gi obila mabende osekelo winjruok mararacha mokalo e kind jofuamb weche gi obila kakoro gidwaro bago lalruok makende e kind kweth ariyogo mar kelogi kanyakla e yoore mag tich"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jatelono mane loso e boma ma Siaya e romo mane obedo godo gi jofuamb weche ne owacho ni lalruok machalo kamano birochakore e higa manyien"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ne okwayo duol onogo matayo tije apisas e pachoka mondo oket apisi ma jofwambo  nyalo yudo e weche magidwaro e par obila duto ma pachoka mabirochiwo thuolo mar timo  tijegi e yoo man thuolo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jodolo ma Kisumu jogolo pachgi ewii limbe ma Ker Uhuru dhi timo Kisumu"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jodolo ma Kisumu koro jokwayo jopiny mondo jobi owuog oko kar rombgi e juma manyien ma igeno ni Ker Uhuru Kenyatta biro dhi sidhoe ayanga chenro moro mar yoore thieth  mongére kaka The Universal Health Coverage e boma ma Kisumu kuno"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo ewii wachno jakom riuruok kanise ma Nyanza Arch Bishop Ogonyo Ngede nowacho ni gwenge mag Nyanza sani joneno ber mosruok ma Ker Uhuru ne jomosore godo gi ogai mar NASA migosi Raila Amolo Odinga esechegi mabende igenoe ni ker biro wendo nyaka Bondo Sub County bende"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="To kumachielo bende jaod bura migosi Martin Owino kawuono ogoo dhoge piny ka opako okang ma Ker Uhuru kenyatta okao mar keto yoore mag thieth nyime moloyo e agenda meke mag dongruok mongére kaka Big 4 Agenda"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo gi Radio Ramogi migosi Owino nowacho ni kaka jakanyo mar komiti mar od bura mochungne weche mag thieth e County ma Mgori kod Homa Bay omor mokalo gi okang ma Ker Uhuru okao mar duaro dongo yoore mag thieth e pachoka to moloyo to egwenge mag Luo Nyanza kuom chiuruok mar duaro dhi wendo boma ma Kisumu dhi yao ayanga chenro moro mar thieth motisi ni The Universal Health Coverage kowacho ni piny ma dhano ngimae e piny manyalobedo kod dongruok mowinjore"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Bende jatelono nowacho ni osiro ogai mar NASA migosi Raila Amolo Odinga kuom ruako Ker Uhuru Kisumu tarik 13 mar dweni ma odhi yawoe ayanga chenro mar thiethno gi nyasi tee mane otiso ni mar Luo Nation"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Khalwale dwaro mondo oriemb Raila Odinga e duond bura mar ODM"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Senator machon mar county ma Kakamega migosi Boni Khalwale koro kwayo jood bura mag ODM mondo mii oriemb ogai mar nasa raila amolo odinga e duond burano."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ma en bang kamati ma ochungne chike to kod kum e duond bur mar odm ne golo paro mar dwaro riembo jaod bura ma malindi mikayi Aisha Jumwa kod jaod bura ma Msambweni Suleiman Dori kaluore kod weche mag rem luwo chike mag ODM kendo bedo gi tok teko"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="kaluore kod khalwale migosi Odinga oseriwore kod Ker Kenyatta mano mawuok e duond bura mar jubilee kendo singo tiyo kode kanyakla omiyo en bende onego kao ne ondamo mag chiik."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="jood bura ariyogi kaachiel kod mcas abiriyo igeno mar molo enyim kamatai matayo duond bura mar odm e kenya mangima mar  chiwo dhog gi to kod ngeyo okang mogik mibiro kaonegi"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G26:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
+        <item x="3"/>
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4865,117 +5277,15 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of NYONG'O OYUAGO MKAPA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O2:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="P2:Q9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0">
       <items count="108">
@@ -5137,7 +5447,162 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5481,8 +5946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="B636" sqref="B636:B640"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="B650" sqref="B650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9785,7 +10250,7 @@
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="12" t="s">
+      <c r="A538" s="4" t="s">
         <v>558</v>
       </c>
       <c r="B538" s="6" t="s">
@@ -9801,7 +10266,7 @@
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="13" t="s">
+      <c r="A540" s="9" t="s">
         <v>562</v>
       </c>
       <c r="B540" s="6" t="s">
@@ -9833,7 +10298,7 @@
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="12" t="s">
+      <c r="A544" s="4" t="s">
         <v>569</v>
       </c>
       <c r="B544" s="6" t="s">
@@ -9849,7 +10314,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" ht="30">
-      <c r="A546" s="13" t="s">
+      <c r="A546" s="9" t="s">
         <v>566</v>
       </c>
       <c r="B546" s="6" t="s">
@@ -9865,7 +10330,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" ht="30">
-      <c r="A548" s="13" t="s">
+      <c r="A548" s="9" t="s">
         <v>568</v>
       </c>
       <c r="B548" s="6" t="s">
@@ -9881,7 +10346,7 @@
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="12" t="s">
+      <c r="A550" s="4" t="s">
         <v>573</v>
       </c>
       <c r="B550" s="6" t="s">
@@ -9921,7 +10386,7 @@
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="12" t="s">
+      <c r="A555" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B555" s="6" t="s">
@@ -9929,7 +10394,7 @@
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="13" t="s">
+      <c r="A556" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B556" s="6" t="s">
@@ -9937,7 +10402,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" ht="45">
-      <c r="A557" s="13" t="s">
+      <c r="A557" s="9" t="s">
         <v>578</v>
       </c>
       <c r="B557" s="6" t="s">
@@ -9945,666 +10410,666 @@
       </c>
     </row>
     <row r="558" spans="1:2" ht="30">
-      <c r="A558" s="13" t="s">
+      <c r="A558" s="9" t="s">
         <v>576</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="42">
-      <c r="A559" s="10" t="s">
+    <row r="559" spans="1:2">
+      <c r="A559" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B559" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="42">
-      <c r="A560" s="11" t="s">
+    <row r="560" spans="1:2" ht="30">
+      <c r="A560" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="42">
-      <c r="A561" s="11" t="s">
+    <row r="561" spans="1:2" ht="30">
+      <c r="A561" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B561" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="63">
-      <c r="A562" s="11" t="s">
+    <row r="562" spans="1:2" ht="30">
+      <c r="A562" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B562" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="21">
-      <c r="A563" s="10" t="s">
+    <row r="563" spans="1:2">
+      <c r="A563" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B563" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="63">
-      <c r="A564" s="11" t="s">
+      <c r="B563" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="30">
+      <c r="A564" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B564" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="63">
-      <c r="A565" s="11" t="s">
+      <c r="B564" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="45">
+      <c r="A565" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B565" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="63">
-      <c r="A566" s="11" t="s">
+      <c r="B565" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="30">
+      <c r="A566" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B566" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="42">
-      <c r="A567" s="10" t="s">
+      <c r="B566" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="30">
+      <c r="A567" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B567" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="105">
-      <c r="A568" s="11" t="s">
+      <c r="B567" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="60">
+      <c r="A568" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B568" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="84">
-      <c r="A569" s="11" t="s">
+      <c r="B568" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="45">
+      <c r="A569" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B569" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="168">
-      <c r="A570" s="11" t="s">
+      <c r="B569" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="90">
+      <c r="A570" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B570" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="126">
-      <c r="A571" s="11" t="s">
+      <c r="B570" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="75">
+      <c r="A571" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B571" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="21">
-      <c r="A572" s="10" t="s">
+      <c r="B571" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B572" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="63">
-      <c r="A573" s="11" t="s">
+      <c r="B572" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="30">
+      <c r="A573" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B573" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="42">
-      <c r="A574" s="11" t="s">
+      <c r="B573" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B574" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="84">
-      <c r="A575" s="11" t="s">
+      <c r="B574" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="45">
+      <c r="A575" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B575" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="63">
-      <c r="A576" s="11" t="s">
+      <c r="B575" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="30">
+      <c r="A576" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B576" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="63">
-      <c r="A577" s="11" t="s">
+      <c r="B576" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="45">
+      <c r="A577" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B577" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="21">
-      <c r="A578" s="10" t="s">
+      <c r="B577" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B578" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="63">
-      <c r="A579" s="11" t="s">
+      <c r="B578" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="45">
+      <c r="A579" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B579" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="42">
-      <c r="A580" s="11" t="s">
+      <c r="B579" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B580" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="63">
-      <c r="A581" s="11" t="s">
+      <c r="B580" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="30">
+      <c r="A581" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B581" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="63">
-      <c r="A582" s="11" t="s">
+      <c r="B581" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="30">
+      <c r="A582" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B582" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="21">
-      <c r="A583" s="10" t="s">
+      <c r="B582" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B583" s="3" t="s">
+      <c r="B583" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="63">
-      <c r="A584" s="11" t="s">
+    <row r="584" spans="1:2" ht="30">
+      <c r="A584" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B584" s="3" t="s">
+      <c r="B584" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="63">
-      <c r="A585" s="11" t="s">
+    <row r="585" spans="1:2" ht="45">
+      <c r="A585" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B585" s="3" t="s">
+      <c r="B585" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="21">
-      <c r="A586" s="11" t="s">
+    <row r="586" spans="1:2">
+      <c r="A586" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B586" s="3" t="s">
+      <c r="B586" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="42">
-      <c r="A587" s="11" t="s">
+    <row r="587" spans="1:2">
+      <c r="A587" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B587" s="3" t="s">
+      <c r="B587" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="21">
-      <c r="A588" s="10" t="s">
+    <row r="588" spans="1:2">
+      <c r="A588" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B588" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="42">
-      <c r="A589" s="11" t="s">
+      <c r="B588" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="30">
+      <c r="A589" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B589" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="84">
-      <c r="A590" s="11" t="s">
+      <c r="B589" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="45">
+      <c r="A590" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B590" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" ht="63">
-      <c r="A591" s="11" t="s">
+      <c r="B590" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="30">
+      <c r="A591" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="B591" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="42">
-      <c r="A592" s="11" t="s">
+      <c r="B591" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="30">
+      <c r="A592" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B592" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" ht="21">
-      <c r="A593" s="10" t="s">
+      <c r="B592" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B593" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="63">
-      <c r="A594" s="11" t="s">
+      <c r="B593" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="30">
+      <c r="A594" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B594" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="63">
-      <c r="A595" s="11" t="s">
+      <c r="B594" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="45">
+      <c r="A595" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B595" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="42">
-      <c r="A596" s="11" t="s">
+      <c r="B595" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="30">
+      <c r="A596" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B596" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="21">
-      <c r="A597" s="11" t="s">
+      <c r="B596" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B597" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="42">
-      <c r="A598" s="11" t="s">
+      <c r="B597" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="30">
+      <c r="A598" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B598" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" ht="21">
-      <c r="A599" s="10" t="s">
+      <c r="B598" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B599" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="105">
-      <c r="A600" s="11" t="s">
+      <c r="B599" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="60">
+      <c r="A600" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B600" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="105">
-      <c r="A601" s="11" t="s">
+      <c r="B600" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="60">
+      <c r="A601" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B601" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="105">
-      <c r="A602" s="11" t="s">
+      <c r="B601" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="60">
+      <c r="A602" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B602" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" ht="84">
-      <c r="A603" s="11" t="s">
+      <c r="B602" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="45">
+      <c r="A603" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B603" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" ht="84">
-      <c r="A604" s="11" t="s">
+      <c r="B603" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="45">
+      <c r="A604" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B604" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="21">
-      <c r="A605" s="10" t="s">
+      <c r="B604" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B605" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" ht="63">
-      <c r="A606" s="11" t="s">
+      <c r="B605" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="30">
+      <c r="A606" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B606" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" ht="63">
-      <c r="A607" s="11" t="s">
+      <c r="B606" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="30">
+      <c r="A607" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B607" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" ht="42">
-      <c r="A608" s="11" t="s">
+      <c r="B607" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="30">
+      <c r="A608" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B608" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" ht="42">
-      <c r="A609" s="11" t="s">
+      <c r="B608" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="30">
+      <c r="A609" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B609" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="42">
-      <c r="A610" s="11" t="s">
+      <c r="B609" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="30">
+      <c r="A610" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B610" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" ht="63">
-      <c r="A611" s="11" t="s">
+      <c r="B610" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="45">
+      <c r="A611" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B611" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="63">
-      <c r="A612" s="11" t="s">
+      <c r="B611" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="30">
+      <c r="A612" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B612" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" ht="21">
-      <c r="A613" s="10" t="s">
+      <c r="B612" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B613" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="42">
-      <c r="A614" s="11" t="s">
+      <c r="B613" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="30">
+      <c r="A614" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B614" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" ht="84">
-      <c r="A615" s="11" t="s">
+      <c r="B614" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="45">
+      <c r="A615" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B615" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="42">
-      <c r="A616" s="11" t="s">
+      <c r="B615" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="30">
+      <c r="A616" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="B616" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="63">
-      <c r="A617" s="11" t="s">
+      <c r="B616" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="45">
+      <c r="A617" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B617" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="42">
-      <c r="A618" s="11" t="s">
+      <c r="B617" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="30">
+      <c r="A618" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B618" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="21">
-      <c r="A619" s="10" t="s">
+      <c r="B618" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B619" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" ht="84">
-      <c r="A620" s="11" t="s">
+      <c r="B619" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="60">
+      <c r="A620" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B620" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" ht="84">
-      <c r="A621" s="11" t="s">
+      <c r="B620" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="45">
+      <c r="A621" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B621" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" ht="105">
-      <c r="A622" s="11" t="s">
+      <c r="B621" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="60">
+      <c r="A622" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B622" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="63">
-      <c r="A623" s="11" t="s">
+      <c r="B622" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="30">
+      <c r="A623" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B623" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" ht="21">
-      <c r="A624" s="10" t="s">
+      <c r="B623" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B624" s="3" t="s">
+      <c r="B624" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="84">
-      <c r="A625" s="11" t="s">
+    <row r="625" spans="1:2" ht="45">
+      <c r="A625" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B625" s="3" t="s">
+      <c r="B625" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="63">
-      <c r="A626" s="11" t="s">
+    <row r="626" spans="1:2" ht="30">
+      <c r="A626" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="B626" s="3" t="s">
+      <c r="B626" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="105">
-      <c r="A627" s="11" t="s">
+    <row r="627" spans="1:2" ht="45">
+      <c r="A627" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B627" s="3" t="s">
+      <c r="B627" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="42">
-      <c r="A628" s="11" t="s">
+    <row r="628" spans="1:2" ht="30">
+      <c r="A628" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="B628" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="63">
-      <c r="A629" s="11" t="s">
+    <row r="629" spans="1:2" ht="30">
+      <c r="A629" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B629" s="3" t="s">
+      <c r="B629" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="21">
-      <c r="A630" s="10" t="s">
+    <row r="630" spans="1:2">
+      <c r="A630" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B630" s="3" t="s">
+      <c r="B630" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="84">
-      <c r="A631" s="11" t="s">
+    <row r="631" spans="1:2" ht="45">
+      <c r="A631" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B631" s="3" t="s">
+      <c r="B631" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="84">
-      <c r="A632" s="11" t="s">
+    <row r="632" spans="1:2" ht="60">
+      <c r="A632" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B632" s="3" t="s">
+      <c r="B632" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="63">
-      <c r="A633" s="11" t="s">
+    <row r="633" spans="1:2" ht="45">
+      <c r="A633" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B633" s="3" t="s">
+      <c r="B633" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="147">
-      <c r="A634" s="11" t="s">
+    <row r="634" spans="1:2" ht="90">
+      <c r="A634" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="B634" s="3" t="s">
+      <c r="B634" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="63">
-      <c r="A635" s="11" t="s">
+    <row r="635" spans="1:2" ht="45">
+      <c r="A635" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B635" s="3" t="s">
+      <c r="B635" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="21">
-      <c r="A636" s="10" t="s">
+    <row r="636" spans="1:2">
+      <c r="A636" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B636" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" ht="63">
-      <c r="A637" s="11" t="s">
+      <c r="B636" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="30">
+      <c r="A637" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B637" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="84">
-      <c r="A638" s="11" t="s">
+      <c r="B637" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="45">
+      <c r="A638" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="B638" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" ht="63">
-      <c r="A639" s="11" t="s">
+      <c r="B638" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="30">
+      <c r="A639" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B639" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" ht="63">
-      <c r="A640" s="11" t="s">
+      <c r="B639" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="30">
+      <c r="A640" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B640" s="3" t="s">
+      <c r="B640" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10616,194 +11081,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P33"/>
+  <dimension ref="A2:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M22"/>
+      <selection activeCell="M13" sqref="M13:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
-      <c r="O2" s="2" t="s">
+    <row r="2" spans="1:17">
+      <c r="P2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>27</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
         <v>25</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>7</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
         <v>62</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
         <v>19</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>18</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="3" t="s">
+      <c r="K8" s="1"/>
+      <c r="M8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>5</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
@@ -10811,13 +11276,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="L11" s="9" t="s">
+    <row r="11" spans="1:17">
+      <c r="M11" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -10843,18 +11308,21 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
-        <v>117</v>
-      </c>
-      <c r="L13" t="s">
         <v>5</v>
       </c>
-      <c r="M13">
-        <f>SUM(F13:L13)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13">
+        <f>SUM(B13:I13)</f>
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <f>SUM(F13:M13)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -10877,18 +11345,21 @@
         <v>33</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I21" si="0">SUM(B14:H14)</f>
-        <v>136</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M21" si="1">SUM(F14:L14)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J21" si="0">SUM(B14:I14)</f>
+        <v>153</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N21" si="1">SUM(F14:M14)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -10908,18 +11379,21 @@
         <v>12</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>209</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -10936,18 +11410,21 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>7</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -10973,18 +11450,21 @@
         <v>3</v>
       </c>
       <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="L17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17">
+        <v>189</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -11010,18 +11490,21 @@
         <v>37</v>
       </c>
       <c r="I18">
+        <v>49</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -11041,18 +11524,21 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -11069,18 +11555,21 @@
         <v>16</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -11100,23 +11589,26 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
         <v>35</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:H22" si="2">SUM(B13:B21)</f>
+        <f t="shared" ref="B22:I22" si="2">SUM(B13:B21)</f>
         <v>168</v>
       </c>
       <c r="C22">
@@ -11144,18 +11636,22 @@
         <v>116</v>
       </c>
       <c r="I22">
-        <f>SUM(I13:I21)</f>
-        <v>702</v>
-      </c>
-      <c r="L22" t="s">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J13:J21)</f>
+        <v>805</v>
+      </c>
+      <c r="M22" t="s">
         <v>377</v>
       </c>
-      <c r="M22">
-        <f>SUM(M13:M21)</f>
-        <v>985</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N22">
+        <f>SUM(N13:N21)</f>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
@@ -11168,8 +11664,14 @@
       <c r="E26" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="G26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -11182,8 +11684,15 @@
       <c r="E27" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -11196,8 +11705,15 @@
       <c r="E28" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
         <v>209</v>
       </c>
@@ -11210,8 +11726,15 @@
       <c r="E29" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -11224,8 +11747,15 @@
       <c r="E30" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>48</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>121</v>
       </c>
@@ -11238,8 +11768,15 @@
       <c r="E31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>122</v>
       </c>
@@ -11252,21 +11789,35 @@
       <c r="E32" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="4:5">
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="4:9">
       <c r="D33" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="1">
         <v>116</v>
       </c>
+      <c r="G33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="1">
+        <v>102</v>
+      </c>
+      <c r="I33" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="L13:M21">
-    <sortCondition ref="L13:L21"/>
+  <sortState ref="M13:N21">
+    <sortCondition ref="M13:M21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -19,13 +19,13 @@
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
     <pivotCache cacheId="4" r:id="rId9"/>
-    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="712">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -2013,13 +2013,163 @@
   </si>
   <si>
     <t>Count of NYONG'O OYUAGO MKAPA</t>
+  </si>
+  <si>
+    <t>ODM OKWEDO WINJRUOK GI WIPER</t>
+  </si>
+  <si>
+    <t>Duond bura mar ODM okwedo mokalo wach moro ni nitie winjruok moro malingling mar dhi e yiero kaka twech achiel gi duond buch WIPER.</t>
+  </si>
+  <si>
+    <t>Maeri en bang’ Kalonzo Musyoka ma en jatend wiper, e twak moro mar oboke ma pacho kae   wacho ni giseketo kogno e winjruok en kod Raila Odinga e wi yiero mabiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jagoro maduong mar odm Edwin Sifuna,  olero na Kalonzo, Mudavadi kod Wetangula ema ne jopodho NASA bang panjo ne nyasi mag sidho Raila Odinga kaka jatend oganda.</t>
+  </si>
+  <si>
+    <t>ODM kata kamano okwedo wach ma kamano ka giwacho ni winjruok ma kamano pok nobedo.</t>
+  </si>
+  <si>
+    <t>BISOBE MAKPERE PUONJO WACH PIMO KAHERA</t>
+  </si>
+  <si>
+    <t>Coordinator mar tuo kahera e county ma kisumo timothy malika, owacho ni maromo jii 2500 sani dhi nyime gi yudo thieth mar tuo  kahera e countino.</t>
+  </si>
+  <si>
+    <t>Nowacho nithiedho kahera en nono ka okwayo jopiny ni kik luor dhi e pim ma kamano.</t>
+  </si>
+  <si>
+    <t>Kweth ma kamano notero kampen ma kamano e boma ma awasi  kama nopuonj jo ohala ber mar dhi e pim e osiptal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riwruok mar bisobe makopere  kokalo kuom chenro mar komesha tuberclosis, dhi nyime gi puonjo jodak ma Kisumo  e wi dwaro mar dhi e pim mar tuo kaherano.  </t>
+  </si>
+  <si>
+    <t>ONDIEK ONEGO JAMNI OCHIKO</t>
+  </si>
+  <si>
+    <t>Jopith jamni e gwenge 2 ma south Kanyabala  Sub location  e boma ma Homabay, jokwano lal  bang’ ondiek moro monjo kendo nego jambgi ochiko otieno mokalo.</t>
+  </si>
+  <si>
+    <t>Jopinygo wacho ni ondiegno osebed ka ineo e aluorano kendo ni mae ok e thuolo mokuongo monege jamni.</t>
+  </si>
+  <si>
+    <t>Gikwayo jorit lee mag bunge ni ,ondo okonygi kapok okelo tho  mar dhano.</t>
+  </si>
+  <si>
+    <t>JII 960 OYUDO KORONA</t>
+  </si>
+  <si>
+    <t>Kwan mar jii moyudo midhusi mar corona e buo seche 24 mokalo gin 960. Maeri en kwan mowuok kuom kwan jii 8,261  manopim e buo thuolo ma kamano.</t>
+  </si>
+  <si>
+    <t>Bad migao mar thieth olero ni mano koro kelo kwan jii moseyudo tuono chopo 17,603 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E ote  mane oor ne ute fwambo,  , bad migao mar thieth olero ni jii 169 owe thuolo odok pacho bang chango . </t>
+  </si>
+  <si>
+    <t>Jo Kakrao yuak ni MCA margi ojuang’o weche mag dongruok ma gwenggi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gi e kindeno jotuo mok 2 owito ngimagi gi tuo makochno. </t>
+  </si>
+  <si>
+    <t>Maeri koro kelo kwan jok ma osewito ngimagi chopo 280.</t>
+  </si>
+  <si>
+    <t>Jo Kakrao Ward Sub County ma Suna East e County ma Migori sani koro joseyo malit mokalo piny owacho mar County margino kod jotelo mane oyier gwenggi kuno kuom jwang’ogi kagiwacho gwengegigo osebedo ka odong chien e weche mag oongruok kuom higni modhuro</t>
+  </si>
+  <si>
+    <t>Jo gwenggo mane otelnegi kod migosi Paul Otieno ne jowacho ni osebed mana ka iketogi mana gi singo modhuro gi jotelogo mabende ok chopi</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Otieno nowacho ni giduaro ni wach ndara maricho makono ng’ii kaachiel gi ng’iyo wach taya mag chiche makono kod wach pur ndawa masani koro odok chieng kuno bende ng’ii</t>
+  </si>
+  <si>
+    <t>Jogwenggo joowacho ni gisetemo golo yuak margi ewii gik ma giduaro ni ng’iigo ne MCA margi migosi George Owiti to MCAno osebedo ka okao mamalo gi ma piny omuno maok oduar katamana wuoyo ewii wachno</t>
+  </si>
+  <si>
+    <t>Kwan jii maromo million 16 gi alufu 48 gi 101 ma oyudi kawuononi ni nikod Covid-19 e bwo piny mangima</t>
+  </si>
+  <si>
+    <t>Kwan jogo man kod midusi mar Coronavirus e bwo piny mangima koro en million 16 gi alufu 48 gi 101 ka kwan jogo ma tuono osenego e bwo piny mangima gin jii alufu 644 gi 679</t>
+  </si>
+  <si>
+    <t>Bende ripot mane wayudo wacho ni kwan jogo ma tuono ne omako ma othiedhi ma ochango ma owe odhi pacho e bwo piny mangima gin jii million 9 gi alufu 808 gi 404</t>
+  </si>
+  <si>
+    <t>Piny America ema okao namba achiel kuom pinje duto e bwo piny mangima kuom pinje ma tuono osenegoe jii mang’enyie moloyo ma gin jii alufu 148 gi 848 ka namba ariyo e piny Brazil ma osenegoe jii alufu 85 gi 385 ka namba 3 en India ma oseneoge jii alufu 31 gi 406</t>
+  </si>
+  <si>
+    <t>World News</t>
+  </si>
+  <si>
+    <t>JONEKO GI KORONA MOMBASA</t>
+  </si>
+  <si>
+    <t>Esechegi ma oganda duto jotemo kawo okange mag ritore mondo mi kik gigam midhusi mar Korona, ngima jotuo mapachgi ogwenyore to chutho mago madangni e chuny boma ma Mombasa josebedo ekind akuru ga sumbi mar gamo tuonoendo nimar onge okange magikawo mar temo ritore kaluwore gi pachgi maok nikare.</t>
+  </si>
+  <si>
+    <t>Kaluwore gi mano mikayi Amina Abdala maen jatend riwruog mine midendo ni Mombasa Women network ne ochako chenro mar choko jotuogoeko mondo mi oketgi kamoro thenge kuma gin bende inyalo pimgi midhuso mar corona mondo mi ochiwnegi thieth mowinjore.</t>
+  </si>
+  <si>
+    <t>JAL MANE WANGÓ MAKAA OTHO KILAWE</t>
+  </si>
+  <si>
+    <t>Jal moro ma ja higni 40 owito ngimane bang ng’ielore kowuok e  wi gode ma gwassi e sub location ma Malongo  e sub county ma Suba South e seche manyoringo kopanjo ne apisa marito bunge manyogoo apedha mar jok ma wangó makaa e bungego.</t>
+  </si>
+  <si>
+    <t>Jaloero mane oyudo ilao gi apisa marito bunge nokier molwar koridore e gode ma gwassi kanyo ema kaeto nowito ngimane.</t>
+  </si>
+  <si>
+    <t>Miyo moro achiel mane gin godo to kata kamano nomaki.</t>
+  </si>
+  <si>
+    <t>KWAN JOK MA MANYO THIETH ODOK PINY MIGORI</t>
+  </si>
+  <si>
+    <t>Oguk wacho ni gisefwenyo ni jii sani thoro mana ng’iew yien e kuonde uso yedhe  ka mamoko to limo nyamrerwa mae kor gwenge ka gimanyo thieth.</t>
+  </si>
+  <si>
+    <t>Oguk wacho ni jii mathoth sani paro ni laktere odich ahinya gi wach midhusi mar corona moloyo tuoche mamoko gino mowacho ni ok adier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwan mar jii madhi e ute mag thieth manyo thieth e County ma Migori odok piny mokalo nyaka ne midhusi mar corona muoji e thurka. </t>
+  </si>
+  <si>
+    <t>Maeri en kaluwore g apisa moro mar thieth e countino James Oguk.</t>
+  </si>
+  <si>
+    <t>DOHO MA MOMBASA OCHAKO WINJO BUCHE AYANGA</t>
+  </si>
+  <si>
+    <t>Doho ma Mombasa kawuono ochako ayanga chenro mage mag winjo buche bang kanyocha olore kaluwore gi kwan mathoth mag jogo matiyo e doho kanyo manyocha oyangi ni neogamo midhusi mar Corona.</t>
+  </si>
+  <si>
+    <t>Doho no ne ochak olor kata bang ogai mar Doho e pachoka David Maraga chiwo thuolo mondo mi oyaw kuondego bang yangore ni jii 11 matiyo e doho kanyo monywando okinde kod apisas mag doho ne jogamo midhusi noendo.</t>
+  </si>
+  <si>
+    <t>KARAN MANYIEN MA NAIROBI OCHAMO MUMA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Gichana osechamo muma kaka karan manyien mar od bura ma Nairobi . </t>
+  </si>
+  <si>
+    <t>Nyasi ma kamano notelie kkod spika Beatrivce Elachi mana odiechieng achiel tok kanyo opuodh nyinge  gi od burano e romo manyokelo fwere, ka koro nenore ni lweny manyien nyalo biro muoch e assembly ma Nairobi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motelo odiechieng ma kawuono,  yuaruok nomuoch bang’ spika Elachi nodagi yango Jacob Ngwele kaka karan mar od Burano. </t>
+  </si>
+  <si>
+    <t>Ngwele osebedo oko mar apisi chakre dwe mar 11 higa mokalo  tok ka Elachi nondiko ne EACC ni noyiere e yoo maok ni kare.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2161,6 +2311,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2504,7 +2671,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2531,6 +2698,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5231,7 +5410,109 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G26:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -5283,7 +5564,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P2:Q9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5447,7 +5728,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5495,108 +5776,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -5944,10 +6123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="B650" sqref="B650"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="B685" sqref="B685:B689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11070,6 +11249,398 @@
         <v>660</v>
       </c>
       <c r="B640" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="21">
+      <c r="A641" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="42">
+      <c r="A642" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="63">
+      <c r="A643" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>666</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="63">
+      <c r="A645" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="21">
+      <c r="A646" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="63">
+      <c r="A647" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>670</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="42">
+      <c r="A649" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="42">
+      <c r="A650" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="21">
+      <c r="A651" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="63">
+      <c r="A652" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="42">
+      <c r="A653" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="21">
+      <c r="A654" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="21">
+      <c r="A655" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="63">
+      <c r="A656" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>678</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="42">
+      <c r="A658" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="21">
+      <c r="A661" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="84">
+      <c r="A662" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="42">
+      <c r="A663" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="63">
+      <c r="A664" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="63">
+      <c r="A665" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="42">
+      <c r="A666" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="63">
+      <c r="A667" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="63">
+      <c r="A668" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="84">
+      <c r="A669" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="21">
+      <c r="A670" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="105">
+      <c r="A671" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="84">
+      <c r="A672" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="21">
+      <c r="A673" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="84">
+      <c r="A674" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="42">
+      <c r="A675" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="21">
+      <c r="A676" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="21">
+      <c r="A677" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="42">
+      <c r="A678" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>703</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="42">
+      <c r="A680" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="42">
+      <c r="A681" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="21">
+      <c r="A682" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="63">
+      <c r="A683" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="63">
+      <c r="A684" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="21">
+      <c r="A685" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="34.5">
+      <c r="A686" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="45">
+      <c r="A687" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="34.5">
+      <c r="A688" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B689" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="768">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -2163,13 +2163,181 @@
   </si>
   <si>
     <t>Ngwele osebedo oko mar apisi chakre dwe mar 11 higa mokalo  tok ka Elachi nondiko ne EACC ni noyiere e yoo maok ni kare.</t>
+  </si>
+  <si>
+    <t>Japuonjre ma jahigni 17 manetimo penj mar KCSE ongielo orengo</t>
+  </si>
+  <si>
+    <t>Japuonjre ma jahigni 17 manetimo penj maduong mar kcse e skund sekondar ma DC mixed e gwenge ma Randung ,Gem west location e constituency ma Rangwe ongielo orengo</t>
+  </si>
+  <si>
+    <t>Japuonjreno ne owito ngimane okinyi makawuono e kar thieth ma Homabay County Teaching and Referal Hospital kamosebedo ka oyudo thieth chakre chieng tich abich .</t>
+  </si>
+  <si>
+    <t>japuonjreno ma oyangi kaka Javan Onyango ne oyudo hinyruok e bund iy e kinde maneotugo kod jowetene opira e pap mar skundno .</t>
+  </si>
+  <si>
+    <t>Ruoth ma gwenge go Joel Otieno yango ni ne ogweye e iye kuom hawi marach gi japuonjre machielo e kinde manegitugo opira bang penj ma tich abich kendo ring kode e kar thieth ma rodi kopany kama bange ne ochwale e kar thieth ma homabay county teaching and referal hospital  ma Ongieloe orengo.</t>
+  </si>
+  <si>
+    <t>Jalup county commisioner ma sub county ma Rangwe Elvis Kolum kaneyango wachni owachoni ne ochwale e kar thieth ma homabay county Referal Hospital ne thieth makende kama ne ongielo orengo.</t>
+  </si>
+  <si>
+    <t>ka giesani ringre osechwal e kar kano ringruok ma Homabay kairito timone bero.</t>
+  </si>
+  <si>
+    <t>Oppositon pod ochung kar tiende</t>
+  </si>
+  <si>
+    <t>senator ma Siaya James Orengo koro owuok oko kendo wacho ni oposition ma thur ka pod otegno kendo ochung kar tiende</t>
+  </si>
+  <si>
+    <t>ne  okwedo weche moko maosebedo ka liekore ni oposition ma thurka orumo kaluowore kod mosruok maneobedo e kiind jatend kweth makwedo piny owacho Raila Amolo Odinga  kor ker Uhuru Kenyatta.</t>
+  </si>
+  <si>
+    <t>Orengo ma en jatend kweth manok e od buch senate wacho ni chenro mar riwo oganda maneochak kod jotelo ariyogo ok onego okaw kaka mar riwruok e kind piny owacho kod opposition ne loso e yik moro e gwenge ma masiri ramunde ugenya constituency kama ne okwayo ker kenyataa mondo orid okanda e kedo kod mibadhi e pachoka .</t>
+  </si>
+  <si>
+    <t>ne opuoyo Ker Kenyatta kuom okenge  ma piny owacho mare osekao mar kedo gi mibadhi ka okwaye mondo otime ma ok odewo ngato angata.</t>
+  </si>
+  <si>
+    <t>Senator orengo ne oten  kod jaod bura ma Rarieda migosi Otiende Amolo to kod migosi Elisha Odhiambo .</t>
+  </si>
+  <si>
+    <t>jotelogi ne  ohum kod kwan jopiny china ma osemedore e pachoka ka okwayo piny wacho mondo ongi matut wachni kotenore kod uchumi ma pachoka</t>
+  </si>
+  <si>
+    <t>Riurwog nurses mapachoka buogo luongo ngányo ekind thuolo mar ndalo 21 kaok ochop dwachgi</t>
+  </si>
+  <si>
+    <t>Riwruog nurses e pachoka ochiwo notis mar 21 ne piny owacho ma malo gi piny owacho mag counties mondomi gikete tim winjruok mane giketoe e kokgi mar dok etich maka okotimore gibiro bago nganyo.</t>
+  </si>
+  <si>
+    <t>Jagoro maduong mar riwruogno Seth Panyako ne okoni winjruok mar dok etich ne nitiere e ogorimiti mane gichue kokgi 2 dwee mar 11 higa mokalo.</t>
+  </si>
+  <si>
+    <t>Migosi Panyako ne okoni notis mane gichiwono chako tiyo tarik 19 dweeni mar 11 kadiponi winjruogno mane obedo ekindgi tarik 2 dwee mar 11 2017 ok oketi etim kakane owinjore gitim kochaokre tarik 1 dwee mar 7 higani.</t>
+  </si>
+  <si>
+    <t>Nurses go joo dwaroni omedgi omenda ma balang mar silings sh. 5000 kuom lep gi mag tich kod omenda ma balang mar sh.3000 ne jopuonjre e hikgi mokwuongo.</t>
+  </si>
+  <si>
+    <t>Kane giloso gi jofwambo eboma ma Kisumu riwruogno seyo moko kuom piny owacho mag counties ma jo tiyo kanyakla kod mane en jakom margi John Bii e mayo riwruogno omenda mathoth ka gityo kod aguche maok opuodhi e yor chudo manyasani mar IFMIS.</t>
+  </si>
+  <si>
+    <t>Doho oweyo thuolo gavana Obado gi rambun</t>
+  </si>
+  <si>
+    <t>Gavana ma Migori migosi Okoth Obado nyalo buonjo bang doho ma Kibra weye thuolo gi rambun mar silings gana 500 .</t>
+  </si>
+  <si>
+    <t>Jangad buche edoho ma Kibra  Joyce Gandani ne okoni onge neno moromo mane ochiw gi jomin wach eloo piny manyalo miyo mmed gengne migosi Obado kuom thuolo mar jumbe 2 kaka ne gidwaro..</t>
+  </si>
+  <si>
+    <t>Gavana Obado ne odonjne kod ketho mar bedo kod bunde 8 maok opuodhi gi chik .</t>
+  </si>
+  <si>
+    <t>Bunde 5 ne oyudie eode ma Lavingtone ka 3 ne oyudi  eode ma Migori ethuolo mane apisas mag okwach kich mawuok ka duol makedo gi mibadhi EACC ne joo timo nonro  ewi mibadhii mar silings bilion 2 mawachore ne otii godo eyoo marach ecountyno.</t>
+  </si>
+  <si>
+    <t>Mcas moko mawuok e county assembly ma Homabay dhii bedo erumend kuom jumbe 2</t>
+  </si>
+  <si>
+    <t>Mcas mawuok ecounty assembly ma Homabay mane ochwal enyim doho maKisumu kendo odonjnegi kod ketho mar monjo spika mar county assemblyno mikayi Elizabeth Ayoo joo dhii bedo erumend ma Kodiaga kuom jumbe ariyo ka nonro dhii nyime.</t>
+  </si>
+  <si>
+    <t>Jangad buche edoho ma Kisumu Rose Ndombi ne owachoni weyo thuolo Mcas go kaka ne okinde mayalo ne joo dwaro ne nyalo rocho chenro mar timo nonro ewii ketho mane odonjnegi godo.</t>
+  </si>
+  <si>
+    <t>Mcas gin Evans Marieba, ma Gwasi North ,Phelimon Onditi (Kagan), Dan Were (Kakelo Kokwanyo) Paul Wamunga (North Karachuonyo ward),  kod Mca ma Wang’chieng ward Peter Kaula.</t>
+  </si>
+  <si>
+    <t>Motelone mano Mcas go ne joo ochiwore ne obila mag okwach kich bang’ yudo maling ling ni obila ne manyogi ewii wach monjo spika ma Homabay bange to ne ochwal gi enim doho.</t>
+  </si>
+  <si>
+    <t>Obila ma Bondo okwedo weche moko ni gikao asoya eseche ma gitimo apedha eapaya</t>
+  </si>
+  <si>
+    <t>Obila e subcounty ma Bondo okwedo weche moko mawuok kuom jotelo ni gitiyo kod thuolo mar apedha madhii nyime eapaya ekawo asoya kuom weg matatu kod jo bodaboda.</t>
+  </si>
+  <si>
+    <t>OCPD  ma Bondo Harriet Kinya,ne okoni gisebedo kagitimo apedha kendo gimako mana weg matatu gi jo bodaboda maok luw chikego mane ochak ket etim.</t>
+  </si>
+  <si>
+    <t>Odiechieng manyoro moko kuom jo boda boda gi jotelo mawuok siaya kotelnegi kod mca ma ogwel ecounty assembly ma Siaya Tabu Osewe ne oseyo apisas mag obila kane gikoni gisebedo ka  gisando weg matatu ka gikawo asoya kuomgi.</t>
+  </si>
+  <si>
+    <t>Mikayi Kinya ne oyangoni apise  oyawu thuolo ne ngat moro amora mankod ngur machal gi mago kane oleroni apisas mage okoyiene sando kendo kawo asoya kuom weg matatu gi jo boada boda.</t>
+  </si>
+  <si>
+    <t>Kane omedo loso ewii wachno mikayi Harriet  ne okoni joo go mapod okluw chikego mag apaya ibiro maki machwal enyim doho kendo donjnegi kod keth mar rem luwo chike mag apaya.</t>
+  </si>
+  <si>
+    <t>MCAs 9 ma Homabay ni e lwet obila</t>
+  </si>
+  <si>
+    <t>MCAs mamoko 7 mag county ma Homabay jochopo gin giwegi e nyim obila mag okwach kich e boma ma Kisumu okinyi ma kawuono ewii wach monj ma nyocha omonjgo spika ma homabay mikayi Elizabeth Ayoo.</t>
+  </si>
+  <si>
+    <t>Maa en bang’ ka MCAs 2 manyo omaki Homabay bende ne oseter e Kisumu kuno kendo ogeng’negi e tesend obila ma Kisumu; mano MCA ma Kanyidoto Walter Were Muok ma en jatend kweth mathoth e od bura ma Homabay kod MCA ma Central Karachuonyo Julius Gaya.</t>
+  </si>
+  <si>
+    <t>MCAs ma ochopo e nyim obila gin giwegi kawuono gin kanyakla kod mano ma Gwasi North Evans Marieba, Phelimon Onditi (Kagan), Dan Were (Kakelo Kokwanyo) Paul Wamunga (North Karachuonyo Ward), Geoffrey Guma Anyango( Kabondo West),Paul Adika (Lambwe Ward) kod MCA ma Wang’chieng ward Peter Kaula.</t>
+  </si>
+  <si>
+    <t>MCAs jodhi kobila bang’ yudo uma ni obila ne manyogi ewii wach monjo spika ma Homabay.</t>
+  </si>
+  <si>
+    <t>Ringre ja sekondar pod imanyo</t>
+  </si>
+  <si>
+    <t>Chenro mar menyo dhii nyime ne ringre japuonjre ma klass 11 manyo olwar e dhoo wath ma Bongu Beach e Central Karungu location, mano e Sub County ma Nyatike e County ma Migori.</t>
+  </si>
+  <si>
+    <t>Briton Mike Odhiambo nyo okier molwar e pii odhiambo ma nyoro kanyo otemo gamo besen moro manyo oriko dhii gi pii.</t>
+  </si>
+  <si>
+    <t>Ruoth ma Central Karungu Isaac Bungu okwayo piny owacho ma Migori kod apisas mag Kenya Redcross mondo jokony e chenro mar manyo ringre rawerano.</t>
+  </si>
+  <si>
+    <t>Jokue moko 2 ojuki rando gi diel mane gikwalo e chula Nyakagere, Seme sub county</t>
+  </si>
+  <si>
+    <t>Obila ei egweng ma Kombe Seme subcounty joo ogengene achije moko 2 ma mane omaki rando gi diel mane gikualo e chula ma Nyakagere.</t>
+  </si>
+  <si>
+    <t>Achije 2 go majohigni 43 gi 48 nyoo okwalo dielno manyuok edala mama pamela atieno odindo ei chula ma Nyakagere mayudore enam lolwe kar saa 10 ma kogwen.</t>
+  </si>
+  <si>
+    <t>Jalup ruoth ma East Othany subalocation migosi Caleb Apondi okuon ne okoni achijego ne omanyo yie mane gikuang godo gi diendno nyaka eloo motuo kamne ginnyalo yudoe chiro</t>
+  </si>
+  <si>
+    <t>Migosi Apondi ne okoni achije 2go magin George Opiyo kod Charles Odhiambo ne omaki bang kane jopiny ogoyo milome ne obila ma ema ne omakogi ma ogengnegi etesend obila ma Kombewa ka ibiro chwalgi enyim doho ma maseno odiechieng ma kiny.</t>
+  </si>
+  <si>
+    <t>Jago ma jahigni 41 ne omaki ka okwalo weyni mag keyo teko stima Ugenya</t>
+  </si>
+  <si>
+    <t>Obila ne ogengone jago moro ma jahigni 41 e tesend obila ma Ukwala bang kane omake ka okwalo weyni mag keyo teko stima egweng ma Ligega Ugenya sub-county</t>
+  </si>
+  <si>
+    <t>Daniel Okoth Ochieng ne nyoo omaki kod jopiny kane ongado weyni mag stima e transformer machiegni gi skund sekondar ma Ugenya.</t>
+  </si>
+  <si>
+    <t>Jalup ruoth ma Ligega sub-location migosi Johannes Ngesa Odundo, ne oyango wach makamano kane okoni ripodno nyoo ochoppone kowuok jopiny .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migosi Odundo ne okone nyakalondo mar Ramogi ni achijno bende ne omaki gi misip ma ityiogodo e idhoo yien mar stima, kachiel gi apiko mane otiyo godo kowuok dalagi egweng mag Got Nanga kod Weyni mane osengado </t>
+  </si>
+  <si>
+    <t>Ne okoni achijno ibiro chwal enyim doho ka gisetieko timo nonro margi ewii wachno.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,6 +2494,17 @@
     </font>
     <font>
       <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF212529"/>
       <name val="Inherit"/>
     </font>
@@ -2671,7 +2850,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2697,9 +2876,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2709,6 +2885,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5410,161 +5595,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G26:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of NYONG'O OYUAGO MKAPA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P2:Q9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5728,7 +5758,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5776,6 +5806,161 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D26:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Riwruok mar lakteche bade ma Nyanza ochungo nganyo margi manonego chakre chuny otieno makawuono bang chopo e winjruok gi piny owacho e county ma Kisumu." fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sakaja ochung’ tenge" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G26:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of NYONG'O OYUAGO MKAPA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -6123,10 +6308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B689"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="B685" sqref="B685:B689"/>
+    <sheetView tabSelected="1" topLeftCell="A739" workbookViewId="0">
+      <selection activeCell="B739" sqref="B739:B744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11253,7 +11438,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" ht="21">
-      <c r="A641" s="12" t="s">
+      <c r="A641" s="11" t="s">
         <v>662</v>
       </c>
       <c r="B641" s="7" t="s">
@@ -11261,7 +11446,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" ht="42">
-      <c r="A642" s="13" t="s">
+      <c r="A642" s="12" t="s">
         <v>663</v>
       </c>
       <c r="B642" s="7" t="s">
@@ -11269,7 +11454,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" ht="63">
-      <c r="A643" s="13" t="s">
+      <c r="A643" s="12" t="s">
         <v>664</v>
       </c>
       <c r="B643" s="7" t="s">
@@ -11285,7 +11470,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" ht="63">
-      <c r="A645" s="13" t="s">
+      <c r="A645" s="12" t="s">
         <v>665</v>
       </c>
       <c r="B645" s="7" t="s">
@@ -11293,7 +11478,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" ht="21">
-      <c r="A646" s="12" t="s">
+      <c r="A646" s="11" t="s">
         <v>667</v>
       </c>
       <c r="B646" s="3" t="s">
@@ -11301,7 +11486,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" ht="63">
-      <c r="A647" s="13" t="s">
+      <c r="A647" s="12" t="s">
         <v>671</v>
       </c>
       <c r="B647" s="3" t="s">
@@ -11317,7 +11502,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" ht="42">
-      <c r="A649" s="13" t="s">
+      <c r="A649" s="12" t="s">
         <v>668</v>
       </c>
       <c r="B649" s="3" t="s">
@@ -11325,7 +11510,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" ht="42">
-      <c r="A650" s="13" t="s">
+      <c r="A650" s="12" t="s">
         <v>669</v>
       </c>
       <c r="B650" s="3" t="s">
@@ -11333,7 +11518,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" ht="21">
-      <c r="A651" s="12" t="s">
+      <c r="A651" s="11" t="s">
         <v>672</v>
       </c>
       <c r="B651" s="3" t="s">
@@ -11341,7 +11526,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" ht="63">
-      <c r="A652" s="13" t="s">
+      <c r="A652" s="12" t="s">
         <v>673</v>
       </c>
       <c r="B652" s="3" t="s">
@@ -11349,7 +11534,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" ht="42">
-      <c r="A653" s="13" t="s">
+      <c r="A653" s="12" t="s">
         <v>674</v>
       </c>
       <c r="B653" s="3" t="s">
@@ -11357,7 +11542,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" ht="21">
-      <c r="A654" s="13" t="s">
+      <c r="A654" s="12" t="s">
         <v>675</v>
       </c>
       <c r="B654" s="3" t="s">
@@ -11365,7 +11550,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" ht="21">
-      <c r="A655" s="12" t="s">
+      <c r="A655" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B655" s="3" t="s">
@@ -11373,7 +11558,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" ht="63">
-      <c r="A656" s="13" t="s">
+      <c r="A656" s="12" t="s">
         <v>677</v>
       </c>
       <c r="B656" s="3" t="s">
@@ -11389,7 +11574,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" ht="42">
-      <c r="A658" s="13" t="s">
+      <c r="A658" s="12" t="s">
         <v>679</v>
       </c>
       <c r="B658" s="3" t="s">
@@ -11397,7 +11582,7 @@
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="11" t="s">
+      <c r="A659" s="10" t="s">
         <v>681</v>
       </c>
       <c r="B659" s="3" t="s">
@@ -11413,7 +11598,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" ht="21">
-      <c r="A661" s="12" t="s">
+      <c r="A661" s="11" t="s">
         <v>680</v>
       </c>
       <c r="B661" s="3" t="s">
@@ -11421,7 +11606,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" ht="84">
-      <c r="A662" s="13" t="s">
+      <c r="A662" s="12" t="s">
         <v>683</v>
       </c>
       <c r="B662" s="3" t="s">
@@ -11429,7 +11614,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" ht="42">
-      <c r="A663" s="13" t="s">
+      <c r="A663" s="12" t="s">
         <v>684</v>
       </c>
       <c r="B663" s="3" t="s">
@@ -11437,7 +11622,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" ht="63">
-      <c r="A664" s="13" t="s">
+      <c r="A664" s="12" t="s">
         <v>685</v>
       </c>
       <c r="B664" s="3" t="s">
@@ -11445,7 +11630,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" ht="63">
-      <c r="A665" s="13" t="s">
+      <c r="A665" s="12" t="s">
         <v>686</v>
       </c>
       <c r="B665" s="3" t="s">
@@ -11453,7 +11638,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" ht="42">
-      <c r="A666" s="12" t="s">
+      <c r="A666" s="11" t="s">
         <v>687</v>
       </c>
       <c r="B666" s="3" t="s">
@@ -11461,7 +11646,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" ht="63">
-      <c r="A667" s="13" t="s">
+      <c r="A667" s="12" t="s">
         <v>688</v>
       </c>
       <c r="B667" s="3" t="s">
@@ -11469,7 +11654,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" ht="63">
-      <c r="A668" s="13" t="s">
+      <c r="A668" s="12" t="s">
         <v>689</v>
       </c>
       <c r="B668" s="3" t="s">
@@ -11477,7 +11662,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" ht="84">
-      <c r="A669" s="13" t="s">
+      <c r="A669" s="12" t="s">
         <v>690</v>
       </c>
       <c r="B669" s="3" t="s">
@@ -11485,7 +11670,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" ht="21">
-      <c r="A670" s="12" t="s">
+      <c r="A670" s="11" t="s">
         <v>692</v>
       </c>
       <c r="B670" s="3" t="s">
@@ -11493,7 +11678,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" ht="105">
-      <c r="A671" s="13" t="s">
+      <c r="A671" s="12" t="s">
         <v>693</v>
       </c>
       <c r="B671" s="3" t="s">
@@ -11501,7 +11686,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" ht="84">
-      <c r="A672" s="13" t="s">
+      <c r="A672" s="12" t="s">
         <v>694</v>
       </c>
       <c r="B672" s="3" t="s">
@@ -11509,7 +11694,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" ht="21">
-      <c r="A673" s="12" t="s">
+      <c r="A673" s="11" t="s">
         <v>695</v>
       </c>
       <c r="B673" s="3" t="s">
@@ -11517,7 +11702,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" ht="84">
-      <c r="A674" s="13" t="s">
+      <c r="A674" s="12" t="s">
         <v>696</v>
       </c>
       <c r="B674" s="3" t="s">
@@ -11525,7 +11710,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" ht="42">
-      <c r="A675" s="13" t="s">
+      <c r="A675" s="12" t="s">
         <v>697</v>
       </c>
       <c r="B675" s="3" t="s">
@@ -11533,7 +11718,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" ht="21">
-      <c r="A676" s="13" t="s">
+      <c r="A676" s="12" t="s">
         <v>698</v>
       </c>
       <c r="B676" s="3" t="s">
@@ -11541,7 +11726,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" ht="21">
-      <c r="A677" s="12" t="s">
+      <c r="A677" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B677" s="3" t="s">
@@ -11549,7 +11734,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" ht="42">
-      <c r="A678" s="13" t="s">
+      <c r="A678" s="12" t="s">
         <v>702</v>
       </c>
       <c r="B678" s="3" t="s">
@@ -11565,7 +11750,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" ht="42">
-      <c r="A680" s="13" t="s">
+      <c r="A680" s="12" t="s">
         <v>700</v>
       </c>
       <c r="B680" s="3" t="s">
@@ -11573,7 +11758,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" ht="42">
-      <c r="A681" s="13" t="s">
+      <c r="A681" s="12" t="s">
         <v>701</v>
       </c>
       <c r="B681" s="3" t="s">
@@ -11581,7 +11766,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" ht="21">
-      <c r="A682" s="12" t="s">
+      <c r="A682" s="11" t="s">
         <v>704</v>
       </c>
       <c r="B682" s="3" t="s">
@@ -11589,7 +11774,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" ht="63">
-      <c r="A683" s="13" t="s">
+      <c r="A683" s="12" t="s">
         <v>705</v>
       </c>
       <c r="B683" s="3" t="s">
@@ -11597,7 +11782,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" ht="63">
-      <c r="A684" s="13" t="s">
+      <c r="A684" s="12" t="s">
         <v>706</v>
       </c>
       <c r="B684" s="3" t="s">
@@ -11605,7 +11790,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" ht="21">
-      <c r="A685" s="12" t="s">
+      <c r="A685" s="11" t="s">
         <v>707</v>
       </c>
       <c r="B685" s="3" t="s">
@@ -11613,7 +11798,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" ht="34.5">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="13" t="s">
         <v>708</v>
       </c>
       <c r="B686" s="3" t="s">
@@ -11621,7 +11806,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" ht="45">
-      <c r="A687" s="11" t="s">
+      <c r="A687" s="10" t="s">
         <v>709</v>
       </c>
       <c r="B687" s="3" t="s">
@@ -11629,19 +11814,467 @@
       </c>
     </row>
     <row r="688" spans="1:2" ht="34.5">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="13" t="s">
         <v>710</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" ht="30">
       <c r="A689" s="6" t="s">
         <v>711</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="21">
+      <c r="A690" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="63">
+      <c r="A691" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="63">
+      <c r="A692" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="42">
+      <c r="A693" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="84">
+      <c r="A694" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="63">
+      <c r="A695" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="42">
+      <c r="A696" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" ht="21">
+      <c r="A697" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="42">
+      <c r="A698" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="63">
+      <c r="A699" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="105">
+      <c r="A700" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="42">
+      <c r="A701" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="42">
+      <c r="A702" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="42">
+      <c r="A703" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="42">
+      <c r="A704" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="63">
+      <c r="A705" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="42">
+      <c r="A706" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="63">
+      <c r="A707" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="63">
+      <c r="A708" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="84">
+      <c r="A709" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" ht="21">
+      <c r="A710" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="34.5">
+      <c r="A711" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="51.75">
+      <c r="A712" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="34.5">
+      <c r="A713" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="69">
+      <c r="A714" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="39">
+      <c r="A715" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="84">
+      <c r="A716" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="63">
+      <c r="A717" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="63">
+      <c r="A718" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="63">
+      <c r="A719" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="42">
+      <c r="A720" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="63">
+      <c r="A721" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="63">
+      <c r="A722" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="84">
+      <c r="A723" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="63">
+      <c r="A724" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="63">
+      <c r="A725" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" ht="21">
+      <c r="A726" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" ht="63">
+      <c r="A727" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="84">
+      <c r="A728" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="105">
+      <c r="A729" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="42">
+      <c r="A730" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="21">
+      <c r="A731" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="63">
+      <c r="A732" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="42">
+      <c r="A733" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="63">
+      <c r="A734" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="42">
+      <c r="A735" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="42">
+      <c r="A736" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="63">
+      <c r="A737" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="63">
+      <c r="A738" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="84">
+      <c r="A739" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="21">
+      <c r="A740" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="63">
+      <c r="A741" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="42">
+      <c r="A742" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="63">
+      <c r="A743" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
+        <v>766</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="42">
+      <c r="A745" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11848,10 +12481,10 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -2,21 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
-    <sheet name="Annotated" sheetId="2" r:id="rId2"/>
-    <sheet name="Main Pivot" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="Annotated" sheetId="2" r:id="rId3"/>
+    <sheet name="Main Pivot" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="1175">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -3390,13 +3394,166 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>En fuongruok ne weg matatu ma Awendo ma ok osebedo ka tiyo kuom kinde buora kuom rem bedo gi puoth mayienegi tingo jowuoth e ndara bang bad migao mar thieth kod apisa mag obula chako timo nonro mar puodho jok mowinjore dhi nyime gi tije.</t>
+  </si>
+  <si>
+    <t>Chenro ma kamano nochakore kawuono migori primary school kendo joriemb matatu maloyo 100 noyuoro mondo mi omigi puoth mowinjore mondo gidogi e ndara.</t>
+  </si>
+  <si>
+    <t>Jakom riwruok weg matatu e aluorano George Rarieda nowacho ni gin gi yie  ni gachegi duto biro dok e ndara bang yudo certificate madwarore.</t>
+  </si>
+  <si>
+    <t>Nokwayo NTSA mondo ombek chung margi e wi badges manyien ma sani oket chik ni nyaka bedie eka nyamburko odogi e ndara.</t>
+  </si>
+  <si>
+    <t>OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI</t>
+  </si>
+  <si>
+    <t>DOHO OCHUNGO GEDO MA CHIRO RANGWE</t>
+  </si>
+  <si>
+    <t>Doho ma Homabay nochungo gedo mar chiro ma Rangwe mitayo kod aguch NGAAF kuom rem luwo chike mooketi mag gedo.</t>
+  </si>
+  <si>
+    <t>Maeri enb bang kweth moko adek makedo ne ratiro mawuok Homabay  dhi e doho  ka gidwaro ni mondo ochung contractor manomi tich ma kamano  nikech ne ok okaw pach jopiny.</t>
+  </si>
+  <si>
+    <t>Kweth adekgo mongere kaka Sego  Public Litigation forum motelne kod Micheal Kojo, Interface Community Help Desk motelne kod Evance Otieno kaachiel gi  Walter Opiyo mar Homa-bay bunge la wenye nchi , nodhi e  doho  nyoro mar dwaro chik mar chungo gedo ma kamano  ka giwcaho ni ne onge kata puoth manowuok ka NEMA kaachiel gi bad migao mar apida.</t>
+  </si>
+  <si>
+    <t>ABUOG ROMBE MOSETIYO OK WIT MABER</t>
+  </si>
+  <si>
+    <t>Mask mosetiyo imedo nee kokere e kuonde mopogore e thurka gino ma medo kelo luoro mar medo landruok midhusi mar Korona  kaachiel gi medo chido aluora.</t>
+  </si>
+  <si>
+    <t>Jalup jatend migao mar thieth Dr. Rashid Aman,  siemo ni tuoni inyalo med lando gi mast mosetiyogo e ranginy ma malo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad migao mar thieth okwayo  jopiny ni mondo jone ni giwitogi  kuonde nowiwnjore bang tiyo kodgi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maero koro okelo kwan jok manig tuoni e pavcho kae chopo 23,202</t>
+  </si>
+  <si>
+    <t>Magi eki timore e seche ma jii mamoko 605 noyudi gi tuono e buo seche 24 mokalo.</t>
+  </si>
+  <si>
+    <t>JARIEMB LORY OTONY E LAK THO</t>
+  </si>
+  <si>
+    <t>Dereba moro mar lorry otony e lak tho odhiambo ma kawuono bang gachego bagni moweyo yoo ojola e wang apaya ma kisumu kochomo busia.</t>
+  </si>
+  <si>
+    <t>Kaluwore gi liport mar obila, jariembono ma nyinge Geoffrey Muchiri, ma ja higni 45, ngimane ok ni marach ahinya.</t>
+  </si>
+  <si>
+    <t>Lorino noting’o ogunde 130 mag bando kowuok uganda  e seche ma masirano notimore.</t>
+  </si>
+  <si>
+    <t>Maeri en mana kinde machuok tok ka lorry mar tingo moo nongielore mana e aluorano</t>
+  </si>
+  <si>
+    <t>NYAKO MA JA KLAS 7 ORESI KARIWO ARUS</t>
+  </si>
+  <si>
+    <t>Nyako ma ja class 7 , ja higni 16 e Sub County ma Kuria West, oresi e seche manoriwo arus ka wuon mare monyuole ema nobedo jadolo mane riwe arus gi rawera ma ja higni 23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obila nogogi gono ka nyasi ma kamano ne dhi nykme ka wachore ni wuon wuoyi nosepuodho kenya ma kamano. </t>
+  </si>
+  <si>
+    <t>Obila wacho ni ibiro chopo jalo e nyim doho.</t>
+  </si>
+  <si>
+    <t>Jagoro mar KMPDU ma kono Dr Lameck Omweri,  dwaro ni mondo oduok bad migao mar thieth mangima ne piny owacho ma malo  nikech piny owacho ma county ma Homabay ok osebedo kadhi kodgi maber.</t>
+  </si>
+  <si>
+    <t>JOTHEITH MA HOMABAY JOCHAKO NG’ANYO</t>
+  </si>
+  <si>
+    <t>Jothiethgo wacho bende ni gitiyo e lwasi maok ber mar tich ka giwacho ni ok ginidog e tich nyaka chop dwarogi duto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jakom kmpdu bade ma nyanza dr kevin osuri,  olero ni ok ginidog e tich nyaka chop chulgi kendo ni nganyo ma kamano oluwore gi chik.</t>
+  </si>
+  <si>
+    <t>Chenro mag thieth e kuonde mirite jotuo mag korona  kod chenro mag thieth mangima e county ma Homabay ongíkore bang jothieth chako ng’anyo margi kawuono e wi osara mar dwe mar 6  gi mar 7 ma giwacho ni pok ochulgi.</t>
+  </si>
+  <si>
+    <t>JO MOMBASA OKWA MONDO OTANG’ NE KORONA</t>
+  </si>
+  <si>
+    <t>Jodak e kaunti ma Mombasa okwa mondo mi kik jochak nyiso mor kaluworegi kwan ma piny mag jogo milando ni gamo midhusi mar corona ei kauntino, nimar samples mikawo kuom jopiny sani nipiny kipimo kod mano mane ikawo e kinde mosekalo.</t>
+  </si>
+  <si>
+    <t>Magi ne owacho kabende apisas mag thieth e kaunti ma Mombasa sani koro chich ni kwan jogo magamo midhusi mar corona Mombasa kidek gik e ng’iende ekind dweni mar aboro kod ochiko kaluwore gi kwan welo ma igeno ni biro yuoro e boma ma mombasa.</t>
+  </si>
+  <si>
+    <t>JODONG LUO DWA KONYO E GAYO IYE MOHIW</t>
+  </si>
+  <si>
+    <t>Jotelo mag duol mar jodong oganda luo sani koro kwayo piny owacho mondo onywakgi e chenro mar konyo duoko chien wach gamo iye mohiw e kind rowere ma raga e thurka ma sani itudo gi bedo pacho alanda kaluwore gi wcah midhusi mar Korona.</t>
+  </si>
+  <si>
+    <t>KODO WINJRUOK MAR SENATORS HINYO COUNTIES</t>
+  </si>
+  <si>
+    <t>Koso winjruok e kind Senatas ma thurka e wi kaka owinjore opog omenda madhi e Counties osemiyo Counties mathoth okoso pesa mag tayo chenro maggi kaachiel bende gi deko chulo jotich osara.</t>
+  </si>
+  <si>
+    <t>Jatend migao mar omenda Ukur Yattani kiny nobed gi romo gi jokanyo magin kaachiel gi Senators , jotend Gavanas, kod kamati mochungne pok omenda  mar temo manyo duoko e wi yuaruok ma kamano.</t>
+  </si>
+  <si>
+    <t>Maeri timore e sechegi ma riwruok makedo ne ajuoke ma thurka buogo bago nganyo  tich abich mabironi kaponi Senate ok bi winjore e wi yoo miibiro pogie omendago ne counties.</t>
+  </si>
+  <si>
+    <t>OBILA OMAKO OGUNDE 4 MAG NJAGA RANGWE</t>
+  </si>
+  <si>
+    <t>Nowacho ni apiko ariyogo gi njaga manomaki noter e tesend obila ,a rangwe  e sechegi mobila djhi nyime gi manyo weg mwandugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obila e Sub County ma Rangwe omako ogunde 4 mag nyasore ma nengone mar chiro nyalo romo siling 400,000 koting’ e apiko moko ariyo  ewang’ apaya ma Yimbo kochomo Olare. </t>
+  </si>
+  <si>
+    <t>Apisago mane oyudo malingling koa kuom jopiny noketo obadho ma gimako jok manotingo nyasorego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaluwore gi komanda mar obila ma sub county ma Rangwe Jane Sang,  joriemb nowuok Rodi kopany kagichomo olare . </t>
+  </si>
+  <si>
+    <t>JO MITUMBA YUAK NE PINY OWACHO</t>
+  </si>
+  <si>
+    <t>Jo ohala mauso lep mitumba e thurka sani koro seyo bad migao mochungne ohala kod kembe  kuom rem goyo chapa chike monego oluw kapok oyiene ngato tayo ohala ma kamano.</t>
+  </si>
+  <si>
+    <t>Riwruok jo ohala ma kamago kotelnegi kod Teresia Njenga,  wacho ni jatend piny kenya nogolo chik  mondo mi giyaw ohala ma kamano to lwetgi pod omoko wira ni bad migao mochungne chenro ma kamano e buo jatend migao Betty Maina pok ochiwo ler kaka wachno onego obedi.</t>
+  </si>
+  <si>
+    <t>Giwacho ni manyalo romo jo ohala tara 2 sani kuomgi omok e rot e pacho kae mangima.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI</t>
+  </si>
+  <si>
+    <t>Nolero ni jii ariyogo nojwang’o apikegigo  ma gidonjo e bungu bang neno obilago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3569,6 +3726,18 @@
     </font>
     <font>
       <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3915,7 +4084,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3960,12 +4129,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4014,6 +4188,328 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44048.352665856481" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="47">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A788:B835" sheet="Annotated"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Business" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Business"/>
+        <s v="Crime and Legal"/>
+        <s v="Health"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Gender"/>
+        <s v="Politics and Government"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="47">
+  <r>
+    <s v="En fuongruok ne weg matatu ma Awendo ma ok osebedo ka tiyo kuom kinde buora kuom rem bedo gi puoth mayienegi tingo jowuoth e ndara bang bad migao mar thieth kod apisa mag obula chako timo nonro mar puodho jok mowinjore dhi nyime gi tije."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chenro ma kamano nochakore kawuono migori primary school kendo joriemb matatu maloyo 100 noyuoro mondo mi omigi puoth mowinjore mondo gidogi e ndara."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jakom riwruok weg matatu e aluorano George Rarieda nowacho ni gin gi yie  ni gachegi duto biro dok e ndara bang yudo certificate madwarore."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nokwayo NTSA mondo ombek chung margi e wi badges manyien ma sani oket chik ni nyaka bedie eka nyamburko odogi e ndara."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="DOHO OCHUNGO GEDO MA CHIRO RANGWE"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Doho ma Homabay nochungo gedo mar chiro ma Rangwe mitayo kod aguch NGAAF kuom rem luwo chike mooketi mag gedo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Maeri enb bang kweth moko adek makedo ne ratiro mawuok Homabay  dhi e doho  ka gidwaro ni mondo ochung contractor manomi tich ma kamano  nikech ne ok okaw pach jopiny."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kweth adekgo mongere kaka Sego  Public Litigation forum motelne kod Micheal Kojo, Interface Community Help Desk motelne kod Evance Otieno kaachiel gi  Walter Opiyo mar Homa-bay bunge la wenye nchi , nodhi e  doho  nyoro mar dwaro chik mar chungo gedo ma kamano  ka giwcaho ni ne onge kata puoth manowuok ka NEMA kaachiel gi bad migao mar apida."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ABUOG ROMBE MOSETIYO OK WIT MABER"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Mask mosetiyo imedo nee kokere e kuonde mopogore e thurka gino ma medo kelo luoro mar medo landruok midhusi mar Korona  kaachiel gi medo chido aluora."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bad migao mar thieth okwayo  jopiny ni mondo jone ni giwitogi  kuonde nowiwnjore bang tiyo kodgi. "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jalup jatend migao mar thieth Dr. Rashid Aman,  siemo ni tuoni inyalo med lando gi mast mosetiyogo e ranginy ma malo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Magi eki timore e seche ma jii mamoko 605 noyudi gi tuono e buo seche 24 mokalo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=" Maero koro okelo kwan jok manig tuoni e pavcho kae chopo 23,202"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JARIEMB LORY OTONY E LAK THO"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Dereba moro mar lorry otony e lak tho odhiambo ma kawuono bang gachego bagni moweyo yoo ojola e wang apaya ma kisumu kochomo busia."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi liport mar obila, jariembono ma nyinge Geoffrey Muchiri, ma ja higni 45, ngimane ok ni marach ahinya."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lorino noting’o ogunde 130 mag bando kowuok uganda  e seche ma masirano notimore."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Maeri en mana kinde machuok tok ka lorry mar tingo moo nongielore mana e aluorano"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NYAKO MA JA KLAS 7 ORESI KARIWO ARUS"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Nyako ma ja class 7 , ja higni 16 e Sub County ma Kuria West, oresi e seche manoriwo arus ka wuon mare monyuole ema nobedo jadolo mane riwe arus gi rawera ma ja higni 23."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v=" Obila nogogi gono ka nyasi ma kamano ne dhi nykme ka wachore ni wuon wuoyi nosepuodho kenya ma kamano. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Obila wacho ni ibiro chopo jalo e nyim doho."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JOTHEITH MA HOMABAY JOCHAKO NG’ANYO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Chenro mag thieth e kuonde mirite jotuo mag korona  kod chenro mag thieth mangima e county ma Homabay ongíkore bang jothieth chako ng’anyo margi kawuono e wi osara mar dwe mar 6  gi mar 7 ma giwacho ni pok ochulgi."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jothiethgo wacho bende ni gitiyo e lwasi maok ber mar tich ka giwacho ni ok ginidog e tich nyaka chop dwarogi duto."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v=" Jakom kmpdu bade ma nyanza dr kevin osuri,  olero ni ok ginidog e tich nyaka chop chulgi kendo ni nganyo ma kamano oluwore gi chik."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jagoro mar KMPDU ma kono Dr Lameck Omweri,  dwaro ni mondo oduok bad migao mar thieth mangima ne piny owacho ma malo  nikech piny owacho ma county ma Homabay ok osebedo kadhi kodgi maber."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JO MOMBASA OKWA MONDO OTANG’ NE KORONA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jodak e kaunti ma Mombasa okwa mondo mi kik jochak nyiso mor kaluworegi kwan ma piny mag jogo milando ni gamo midhusi mar corona ei kauntino, nimar samples mikawo kuom jopiny sani nipiny kipimo kod mano mane ikawo e kinde mosekalo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Magi ne owacho kabende apisas mag thieth e kaunti ma Mombasa sani koro chich ni kwan jogo magamo midhusi mar corona Mombasa kidek gik e ng’iende ekind dweni mar aboro kod ochiko kaluwore gi kwan welo ma igeno ni biro yuoro e boma ma mombasa."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JODONG LUO DWA KONYO E GAYO IYE MOHIW"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jotelo mag duol mar jodong oganda luo sani koro kwayo piny owacho mondo onywakgi e chenro mar konyo duoko chien wach gamo iye mohiw e kind rowere ma raga e thurka ma sani itudo gi bedo pacho alanda kaluwore gi wcah midhusi mar Korona."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="KODO WINJRUOK MAR SENATORS HINYO COUNTIES"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Koso winjruok e kind Senatas ma thurka e wi kaka owinjore opog omenda madhi e Counties osemiyo Counties mathoth okoso pesa mag tayo chenro maggi kaachiel bende gi deko chulo jotich osara."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jatend migao mar omenda Ukur Yattani kiny nobed gi romo gi jokanyo magin kaachiel gi Senators , jotend Gavanas, kod kamati mochungne pok omenda  mar temo manyo duoko e wi yuaruok ma kamano."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Maeri timore e sechegi ma riwruok makedo ne ajuoke ma thurka buogo bago nganyo  tich abich mabironi kaponi Senate ok bi winjore e wi yoo miibiro pogie omendago ne counties."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="OBILA OMAKO OGUNDE 4 MAG NJAGA RANGWE"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Obila e Sub County ma Rangwe omako ogunde 4 mag nyasore ma nengone mar chiro nyalo romo siling 400,000 koting’ e apiko moko ariyo  ewang’ apaya ma Yimbo kochomo Olare. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Apisago mane oyudo malingling koa kuom jopiny noketo obadho ma gimako jok manotingo nyasorego."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi komanda mar obila ma sub county ma Rangwe Jane Sang,  joriemb nowuok Rodi kopany kagichomo olare . "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nolero ni jii ariyogo nojwangó apikegigo  ma gidonjo e bungu bang neno obilago"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nowacho ni apiko ariyogo gi njaga manomaki noter e tesend obila ,a rangwe  e sechegi mobila djhi nyime gi manyo weg mwandugo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JO MITUMBA YUAK NE PINY OWACHO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jo ohala mauso lep mitumba e thurka sani koro seyo bad migao mochungne ohala kod kembe  kuom rem goyo chapa chike monego oluw kapok oyiene ngato tayo ohala ma kamano."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Riwruok jo ohala ma kamago kotelnegi kod Teresia Njenga,  wacho ni jatend piny kenya nogolo chik  mondo mi giyaw ohala ma kamano to lwetgi pod omoko wira ni bad migao mochungne chenro ma kamano e buo jatend migao Betty Maina pok ochiwo ler kaka wachno onego obedi."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Giwacho ni manyalo romo jo ohala tara 2 sani kuomgi omok e rot e pacho kae mangima."/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4301,10 +4797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A950"/>
+  <dimension ref="A1:A998"/>
   <sheetViews>
-    <sheetView topLeftCell="A946" workbookViewId="0">
-      <selection activeCell="A911" sqref="A911:A950"/>
+    <sheetView topLeftCell="A945" workbookViewId="0">
+      <selection activeCell="A950" sqref="A950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8863,7 +9359,7 @@
       </c>
     </row>
     <row r="911" spans="1:1" ht="21">
-      <c r="A911" s="17" t="s">
+      <c r="A911" s="16" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -8883,7 +9379,7 @@
       </c>
     </row>
     <row r="915" spans="1:1" ht="21">
-      <c r="A915" s="17" t="s">
+      <c r="A915" s="16" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -8903,7 +9399,7 @@
       </c>
     </row>
     <row r="919" spans="1:1" ht="21">
-      <c r="A919" s="17" t="s">
+      <c r="A919" s="16" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -8923,7 +9419,7 @@
       </c>
     </row>
     <row r="923" spans="1:1" ht="21">
-      <c r="A923" s="17" t="s">
+      <c r="A923" s="16" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -8943,7 +9439,7 @@
       </c>
     </row>
     <row r="927" spans="1:1" ht="21">
-      <c r="A927" s="17" t="s">
+      <c r="A927" s="16" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -8958,7 +9454,7 @@
       </c>
     </row>
     <row r="930" spans="1:1" ht="21">
-      <c r="A930" s="17" t="s">
+      <c r="A930" s="16" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -8983,7 +9479,7 @@
       </c>
     </row>
     <row r="935" spans="1:1" ht="21">
-      <c r="A935" s="17" t="s">
+      <c r="A935" s="16" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -9018,7 +9514,7 @@
       </c>
     </row>
     <row r="942" spans="1:1" ht="21">
-      <c r="A942" s="17" t="s">
+      <c r="A942" s="16" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -9048,7 +9544,7 @@
       </c>
     </row>
     <row r="948" spans="1:1" ht="21">
-      <c r="A948" s="17" t="s">
+      <c r="A948" s="16" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -9060,6 +9556,246 @@
     <row r="950" spans="1:1" ht="84">
       <c r="A950" s="11" t="s">
         <v>1121</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" ht="21">
+      <c r="A951" s="11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" ht="84">
+      <c r="A952" s="11" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" ht="63">
+      <c r="A953" s="11" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" ht="63">
+      <c r="A954" s="11" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="42">
+      <c r="A955" s="11" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" ht="21">
+      <c r="A956" s="18" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" ht="42">
+      <c r="A957" s="11" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" ht="63">
+      <c r="A958" s="11" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" ht="126">
+      <c r="A959" s="11" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="9" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="63">
+      <c r="A961" s="11" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" ht="42">
+      <c r="A962" s="11" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="42">
+      <c r="A963" s="11" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="42">
+      <c r="A964" s="11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="21">
+      <c r="A965" s="11" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="21">
+      <c r="A966" s="18" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="51.75">
+      <c r="A967" s="12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="30">
+      <c r="A968" s="9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" ht="34.5">
+      <c r="A969" s="12" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="9" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" ht="21">
+      <c r="A971" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" ht="30">
+      <c r="A972" s="9" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" ht="30">
+      <c r="A973" s="9" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="9" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="9" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" ht="84">
+      <c r="A976" s="11" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="42">
+      <c r="A977" s="11" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" ht="84">
+      <c r="A979" s="11" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="9" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" ht="84">
+      <c r="A981" s="11" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" ht="84">
+      <c r="A982" s="11" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" ht="21">
+      <c r="A983" s="18" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" ht="18.75">
+      <c r="A984" s="19" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="9" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" ht="63">
+      <c r="A986" s="11" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" ht="84">
+      <c r="A987" s="11" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="63">
+      <c r="A988" s="11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" ht="63">
+      <c r="A990" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" ht="42">
+      <c r="A991" s="11" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="42">
+      <c r="A992" s="11" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="42">
+      <c r="A993" s="11" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" ht="42">
+      <c r="A994" s="11" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" ht="63">
+      <c r="A996" s="11" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" ht="105">
+      <c r="A997" s="11" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" ht="42">
+      <c r="A998" s="11" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -9069,10 +9805,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B789"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="A786" sqref="A786"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B10" s="1">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B835"/>
+  <sheetViews>
+    <sheetView topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="A835" sqref="A788:A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15045,7 +15864,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" ht="21">
-      <c r="A748" s="17" t="s">
+      <c r="A748" s="16" t="s">
         <v>1082</v>
       </c>
       <c r="B748" s="2" t="s">
@@ -15077,7 +15896,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" ht="21">
-      <c r="A752" s="17" t="s">
+      <c r="A752" s="16" t="s">
         <v>1086</v>
       </c>
       <c r="B752" s="2" t="s">
@@ -15109,7 +15928,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" ht="21">
-      <c r="A756" s="17" t="s">
+      <c r="A756" s="16" t="s">
         <v>1090</v>
       </c>
       <c r="B756" s="2" t="s">
@@ -15141,7 +15960,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" ht="21">
-      <c r="A760" s="17" t="s">
+      <c r="A760" s="16" t="s">
         <v>1094</v>
       </c>
       <c r="B760" s="2" t="s">
@@ -15173,7 +15992,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" ht="21">
-      <c r="A764" s="17" t="s">
+      <c r="A764" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="B764" s="2" t="s">
@@ -15197,7 +16016,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" ht="21">
-      <c r="A767" s="17" t="s">
+      <c r="A767" s="16" t="s">
         <v>1101</v>
       </c>
       <c r="B767" s="2" t="s">
@@ -15237,7 +16056,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" ht="21">
-      <c r="A772" s="17" t="s">
+      <c r="A772" s="16" t="s">
         <v>1106</v>
       </c>
       <c r="B772" s="2" t="s">
@@ -15293,7 +16112,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" ht="21">
-      <c r="A779" s="17" t="s">
+      <c r="A779" s="16" t="s">
         <v>1113</v>
       </c>
       <c r="B779" s="2" t="s">
@@ -15341,7 +16160,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" ht="21">
-      <c r="A785" s="17" t="s">
+      <c r="A785" s="16" t="s">
         <v>1119</v>
       </c>
       <c r="B785" s="2" t="s">
@@ -15364,13 +16183,389 @@
         <v>12</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
-      <c r="A788"/>
-      <c r="B788"/>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789"/>
-      <c r="B789"/>
+    <row r="788" spans="1:2" ht="21">
+      <c r="A788" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="84">
+      <c r="A789" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="63">
+      <c r="A790" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="42">
+      <c r="A791" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="42">
+      <c r="A792" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="21">
+      <c r="A793" s="18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="42">
+      <c r="A794" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="63">
+      <c r="A795" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="105">
+      <c r="A796" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="63">
+      <c r="A798" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="42">
+      <c r="A799" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="42">
+      <c r="A800" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="42">
+      <c r="A801" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="21">
+      <c r="A802" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="21">
+      <c r="A803" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="34.5">
+      <c r="A804" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="30">
+      <c r="A805" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="34.5">
+      <c r="A806" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="21">
+      <c r="A808" s="18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="30">
+      <c r="A809" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="30">
+      <c r="A810" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="63">
+      <c r="A813" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="42">
+      <c r="A814" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" ht="63">
+      <c r="A816" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="84">
+      <c r="A818" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="84">
+      <c r="A819" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="21">
+      <c r="A820" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="18.75">
+      <c r="A821" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="63">
+      <c r="A823" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="63">
+      <c r="A824" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="63">
+      <c r="A825" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="63">
+      <c r="A827" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="42">
+      <c r="A828" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="42">
+      <c r="A829" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="42">
+      <c r="A830" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="42">
+      <c r="A831" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="63">
+      <c r="A833" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="84">
+      <c r="A834" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="42">
+      <c r="A835" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15378,40 +16573,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q33"/>
+  <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>1123</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1122</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>112</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -15422,21 +16617,24 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f>SUM(B3:C3)</f>
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>148</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="L3">
+        <v>153</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -15447,21 +16645,24 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D11" si="0">SUM(B4:C4)</f>
-        <v>202</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>202</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">SUM(B4:D4)</f>
+        <v>212</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>212</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -15471,22 +16672,22 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>204</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>32</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -15497,21 +16698,24 @@
         <v>3</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -15522,21 +16726,24 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>209</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+        <v>224</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>224</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -15547,21 +16754,24 @@
         <v>9</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>248</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+        <v>254</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>254</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -15571,20 +16781,20 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>46</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -15595,17 +16805,20 @@
         <v>3</v>
       </c>
       <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="L10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -15615,20 +16828,20 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>25</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -15637,99 +16850,163 @@
         <v>910</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="1">SUM(C3:C11)</f>
+        <f t="shared" ref="C12:E12" si="1">SUM(C3:C11)</f>
         <v>40</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
-      <c r="J12" t="s">
+        <v>998</v>
+      </c>
+      <c r="K12" t="s">
         <v>262</v>
       </c>
-      <c r="K12">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L12">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B24" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="4:9">
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="M13:N21">
-    <sortCondition ref="M13:M21"/>
+  <sortState ref="N13:O21">
+    <sortCondition ref="N13:N21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
-    <sheet name="Annotated" sheetId="2" r:id="rId3"/>
-    <sheet name="Main Pivot" sheetId="4" r:id="rId4"/>
+    <sheet name="Annotated" sheetId="2" r:id="rId2"/>
+    <sheet name="Main Pivot" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="1233">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -3547,13 +3547,187 @@
   </si>
   <si>
     <t>Nolero ni jii ariyogo nojwang’o apikegigo  ma gidonjo e bungu bang neno obilago</t>
+  </si>
+  <si>
+    <t>ANYUOLA KAJEMBE YUAK NE KAGWE</t>
+  </si>
+  <si>
+    <t>Anywola mar mosenindo Ramadhan Seif Kajembe koro jobwono mar donjone jatend migao mar thieth migosi Mutahi Kagwe magitwoni ne ochiwo ote maok gimor godo kata matin, bang wacho ni wuod Kajembe ema ne okelo tuo ne mingi kod wuongi magiduto giwito ngimagi.</t>
+  </si>
+  <si>
+    <t>Anywola no bende oseyo Gavana ma Nairobi Mike Sonko kod jatend migao mar somo George Magoha kuom jiwo wach makamano kagitwoni wuod kajembe ne otamore dhi e quarantine mochwe ochiwo tuono ne jonywolne.</t>
+  </si>
+  <si>
+    <t>KAMBI REGO NIANG MA SONY OYUDO LAL</t>
+  </si>
+  <si>
+    <t>Kambi rego niang ma Sony osewito  maromo acre 15 mag niang e masiche mopogore opogore mag mach ka mano koro oseweyo kambino gi lal maduong mokalo.</t>
+  </si>
+  <si>
+    <t>Jataa tije ka kambino Stephen Ligawa,  owacho ni giwito niang mathoth e sechegi ma kambino temo chung e tiende kendo.</t>
+  </si>
+  <si>
+    <t>JASAMARIA MANG’UON OLOSO NDARA NDHIWA</t>
+  </si>
+  <si>
+    <t>Jopur mag niang ma Ndhiwa ma chenro maggi mag pur oseyudo dok chien kaluwore gi rach mag apaya ma kono, joyudo fuongruok  bang japiny moro mochiwore nojok ochako loso ndara ma kamano  mar jiwo pur niang e aluorano.</t>
+  </si>
+  <si>
+    <t>Contractorno ma nyinge Johnson Oduru, nowacho ni nokaw okang ma kamano mar reso jopur matero niang e kambi mar sukari industries manitiere Ndhiwa.</t>
+  </si>
+  <si>
+    <t>KALAPAPLA MAR MUTAHI KAGWE ODAGI MOR</t>
+  </si>
+  <si>
+    <t>Nochuno jatend migao mar thieth Mutahi Kagwe ni mondo oduog Nairobi kowuok Kericho gi yor ndara bang ndek kalapapla manotere Kericho tamore mor e seche manoikore mar duogo buore.</t>
+  </si>
+  <si>
+    <t>Kagwe noyudo osedonjo ei ndegeno eka jariemb ndege notemo tielo  mangeny  mit nodagi mor chutho.</t>
+  </si>
+  <si>
+    <t>Kagwe nojok otiyo manan gi nyamburko mare e wuodhe mar duogo Nairobi tok twak gi jopiny e wi wach midhusi mar corona e thurka, twak manobiro achiel kachiel kowuok Kericho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nochako gi timo limbe e kar jotuo mohewre ma Kericho kama bange nolimo laboratories ma Waltereed  kama ipime samples mag corona. </t>
+  </si>
+  <si>
+    <t>Kagwe nowuotho gi gavana ma Kericho Paul Chepkwony, kod apisa mathoth mag bag migao mar thieth.</t>
+  </si>
+  <si>
+    <t>Kaluwore gi jagoro mar kenya national unio of nurses bade ma siaya  sylvester ngánda,  nganyo ma kamano manochaklore okinyi ma kawuuono biro dhi nyime nyaka chop dwaro margi.</t>
+  </si>
+  <si>
+    <t>Ne giwacho ni karan ma county m,a siaya joseph ogutu nondikonegi jumamos mokalo mak mana ni obokeno ne ok onywako dwaro manoyudo gilose tic abich kokalo e romo manotim e yor lonny ma nyasani mar zoom.</t>
+  </si>
+  <si>
+    <t>JOTHIETH MA SIAYA JOCHAKO NG’ANYO</t>
+  </si>
+  <si>
+    <t>Maloyo nurses  480 kod clinical officers e county ma siaya jochako ng’anyo  ka giyuak ne deko piny owacho ma county ma sisys medogi lemo kaka winjruok nobedo.</t>
+  </si>
+  <si>
+    <t>JATEND MIGAO MAGOHA LOSO E WI YEPO MAR SIKUNDE</t>
+  </si>
+  <si>
+    <t>Jatend migao mar somo ngire George Magoha, onyiero jogo ma sundo piny owacho mondo oyaw sikunde ni johore mos  kendo ni piny owacho nono mos kaka tuo makochni medo landore eka gibiro ngeyo ka ibiro yawo sikunde e dwe mar 1 higa manyien.</t>
+  </si>
+  <si>
+    <t>Jakom Suba North constituency disability forum mr. James Oloo Masiga , wacho ni gisebedo gi kinde matek mokalo  e seche mipogo jok ma ngáw wira ni ok ginyal chopo kuonde ma jii larore ka manyo chiemo mag kony.</t>
+  </si>
+  <si>
+    <t>Gabriel Oduor Oyuga nochopi e nyim jang’ad bura  James Ong’ondo  kama nodonjne ni tarik 27 December higa mokalo, ne orocho ratiro mar nyathino kongéyo.</t>
+  </si>
+  <si>
+    <t>JOK MODAK GI NG’oL SUBA NORTH YUAK</t>
+  </si>
+  <si>
+    <t>Jogo modak gi ng’ol e Sub County ma Suba North  jodwaro ni mondo piny owacho ma malo kod mago mag counties obed gi chenro moyiedhi mar neno ni gin bende giyudo sir mowinjore  e seche mikonyo oganda kaluwore gi ngaji mokel gi midhusi mar corona.</t>
+  </si>
+  <si>
+    <t>Ne giwacho ni jok modak gi ng’ol ojwang mokalo e buo chenro  madhi nyime sani mar pogo chiemo kod gik mamoko aok chiemo.</t>
+  </si>
+  <si>
+    <t>Jatend migao  mar thieth Mutahi Kagwe owacho ni nitie moko kuom laktache mag ute thieth mag jii giwegi machiw obok ma bandia ne anyuola ma joggi otho gi corona mar nyiso ni ok githo gi ruono.</t>
+  </si>
+  <si>
+    <t>Kagwe wacho ni laktachego timo kamano mar mondo mi anyuola ma kamago odhi nyime gi iko e yoo ma pile mopogore gi kaka iiko jok ma onindo kaluwre gi corona.</t>
+  </si>
+  <si>
+    <t>Kagwe nowacho ni jok ma timo kamano keto ngima jokenya e kind akuru gasumbi</t>
+  </si>
+  <si>
+    <t>JATEND MIGAO KAGWE NG’UR</t>
+  </si>
+  <si>
+    <t>GAYO YE MOMONDO</t>
+  </si>
+  <si>
+    <t>Kaluwore gi jawach e loo Idda Odinga Trust migosi Odhiambo Otieno, campen ma kamano  ochaki kaluwore gi kwan  ma malo mag nyithindo ma gamo remo e aluorano kama nyaka sani nyithindo ma nyiri ma raga maromo 390,000 osegamo remo e buo dweche 6 kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min od ogai mar ODM Raila Odinga mikayi Idda Odinga ochako chenro makende mar  kampen mar dweche adek mar kedo gi gamo remo momondo e kind nyithindo ma nyiri  e county ma Siaya.  </t>
+  </si>
+  <si>
+    <t>Kokalo kuom Idda Odinga trust,  nyithindo ma kamago ibiro romogo kaachiel kod jonyuol keto puonjogi e yre ma ginyalo geng’o godo gamo iye momondo.</t>
+  </si>
+  <si>
+    <t>JII 3 OTHO E MASIRA</t>
+  </si>
+  <si>
+    <t>Jii adek nyotho kanyo kanyo e masira mar apiko gi nyamburko manyotimore Ligega e wang apaya ma Kisumu kochomo busia otieno mokalo.</t>
+  </si>
+  <si>
+    <t>Jii adekgo manyo otingore e apiko nyotuom gi chien gi nyamburko matin manyochomo Kisumo manyo ringo ngwe airititi .</t>
+  </si>
+  <si>
+    <t>Komanda mar obila ma county ma Siaya francis kooli, owcho ni dereba mar nyamburko matinno nyohinyore kendo nyothiedhe Sega mission hospital ka ringre jii adekgo to noter e kar kano ringruok ma ambira. Garino kod apikono nyoter e tesend obila ma ugunja.</t>
+  </si>
+  <si>
+    <t>KAJEMBE OIKI KAWUONO</t>
+  </si>
+  <si>
+    <t>Kajembe inyalo par kaka jasiasa mane nigi chung motegno e kedo ne jopiny to moloyo mago mawuok yoo nam chumbi.</t>
+  </si>
+  <si>
+    <t>Jotelo mathoth ma pacho kae oseoro ote maggi mag lit kod kuyo kaluworre gi tho mar jatelono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mane en jaod bura ma changamwe Ramadhan Kajembe oseiki e pare ma kwa she manitiere Mikindani e kar chung od bura ma Jomvu Mombasa kawuono. </t>
+  </si>
+  <si>
+    <t>Kajembe nyowito ngimane nyoro bang bedo e od thieth mar jotuo mohewre  e kar thieth ma Pandya kuom jumbe ariyo.</t>
+  </si>
+  <si>
+    <t>YIERO MAG GOR MAHIA KINY DHI NYIME</t>
+  </si>
+  <si>
+    <t>Maeri an bang apisa moko dhi e doho dhi kwedo yiero mar Gor mochan timore kiny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yier mar club mar Gor Mahia kiny nodhi nyime maonge dok chien. </t>
+  </si>
+  <si>
+    <t>Jagoro mar board mochungne yiero Kennedy Mbara owacho ni duko manyowuok e doho nyoro ok ochungo yierono mak mana ni nyowacho ni kapo obi ofweny ni yiero ok otimore maber to inyaloo bi ruche bang’e.</t>
+  </si>
+  <si>
+    <t>DCC MA MUHORONI OSIEMO OGANDA</t>
+  </si>
+  <si>
+    <t>Jalup County Komishna ma Muhoroni Eric Wanyonyi, owacho ni onge ng’ama ibiro konyo e yoo moro amora e apisi mar piny owacho kaok orwako mask.</t>
+  </si>
+  <si>
+    <t>Wanyonyi wacho ni gisefwenyo ni thoth oganda ok osebedo ka rwako maskgo kowacho ni gidwa chako apedha mar mako jogo maok rwak mask go ma ibiro chwalo e doho.</t>
+  </si>
+  <si>
+    <t>Nolero bende ni ginono mos jogo mabuono chike moketi mag chokruok kaachiel gi mag liete  kowacho ni sani tuoni landore e kor gwenge maok ginyal ling’ ka gineno ka oganda ketho chike moketi mag gayo tuono.</t>
+  </si>
+  <si>
+    <t>JAKOM KNUT RONGO YUAK E WI MIBADHI</t>
+  </si>
+  <si>
+    <t>Jakom KNUT bade ma Rongo Samwel Omwaga,  dwaro ni duol makedo gi mibadhi EACC kod okwach kich ni mondo onon matut wach mnada ma sani igoyo kata iusogo gache mag piny owacho ma County ma Migori kowacho ni chenro  ma kamano itimo mobalo gi chike.</t>
+  </si>
+  <si>
+    <t>Omwaga wacho ni gima timore sani en mana chopo chik mak mana ni gachego noseusi ne jii chon kendo wegi rito mana kawgi.</t>
+  </si>
+  <si>
+    <t>Korka kore, jatelo mochungne tudruok e apisi Gavana Nicholas Anyor,  nokwedo wach ma kamano  kowacho ni chenro ma kamano idhi tim kaluwore gi chike.</t>
+  </si>
+  <si>
+    <t>Omwaga bende nokwayo Senator Ochilo Ayako  mondo okony jo Migori nono  wach uso ma kamano ma iwacho ni nosechan jok mane dhi yudo nyamburkogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowacho ni moko kuom gechego bende oketi e nengo mapiny miwuoro mar neno ni jii migeto oyudogi  ka jok mane nigi omenda ma malo to owe oko. </t>
+  </si>
+  <si>
+    <t>Count of ANYUOLA KAJEMBE YUAK NE KAGWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3738,6 +3912,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -4084,7 +4264,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4132,14 +4312,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4207,6 +4390,30 @@
         <s v="Accidents, disasters and deaths"/>
         <s v="Gender"/>
         <s v="Politics and Government"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="student" refreshedDate="44053.882217129627" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="55">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A836:B891" sheet="Annotated"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="ANYUOLA KAJEMBE YUAK NE KAGWE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Health" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Health"/>
+        <s v="Business"/>
+        <s v="Politics and Government"/>
+        <s v="Education"/>
+        <s v="Gender"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Sports, music and entertainment"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -4406,19 +4613,245 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
+  <r>
+    <s v="Anywola mar mosenindo Ramadhan Seif Kajembe koro jobwono mar donjone jatend migao mar thieth migosi Mutahi Kagwe magitwoni ne ochiwo ote maok gimor godo kata matin, bang wacho ni wuod Kajembe ema ne okelo tuo ne mingi kod wuongi magiduto giwito ngimagi."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Anywola no bende oseyo Gavana ma Nairobi Mike Sonko kod jatend migao mar somo George Magoha kuom jiwo wach makamano kagitwoni wuod kajembe ne otamore dhi e quarantine mochwe ochiwo tuono ne jonywolne."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="KAMBI REGO NIANG MA SONY OYUDO LAL"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kambi rego niang ma Sony osewito  maromo acre 15 mag niang e masiche mopogore opogore mag mach ka mano koro oseweyo kambino gi lal maduong mokalo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jataa tije ka kambino Stephen Ligawa,  owacho ni giwito niang mathoth e sechegi ma kambino temo chung e tiende kendo."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JASAMARIA MANG’UON OLOSO NDARA NDHIWA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jopur mag niang ma Ndhiwa ma chenro maggi mag pur oseyudo dok chien kaluwore gi rach mag apaya ma kono, joyudo fuongruok  bang japiny moro mochiwore nojok ochako loso ndara ma kamano  mar jiwo pur niang e aluorano."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Contractorno ma nyinge Johnson Oduru, nowacho ni nokaw okang ma kamano mar reso jopur matero niang e kambi mar sukari industries manitiere Ndhiwa."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="KALAPAPLA MAR MUTAHI KAGWE ODAGI MOR"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nochuno jatend migao mar thieth Mutahi Kagwe ni mondo oduog Nairobi kowuok Kericho gi yor ndara bang ndek kalapapla manotere Kericho tamore mor e seche manoikore mar duogo buore."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kagwe noyudo osedonjo ei ndegeno eka jariemb ndege notemo tielo  mangeny  mit nodagi mor chutho."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kagwe nojok otiyo manan gi nyamburko mare e wuodhe mar duogo Nairobi tok twak gi jopiny e wi wach midhusi mar corona e thurka, twak manobiro achiel kachiel kowuok Kericho."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nochako gi timo limbe e kar jotuo mohewre ma Kericho kama bange nolimo laboratories ma Waltereed  kama ipime samples mag corona. "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kagwe nowuotho gi gavana ma Kericho Paul Chepkwony, kod apisa mathoth mag bag migao mar thieth."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JOTHIETH MA SIAYA JOCHAKO NG’ANYO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Maloyo nurses  480 kod clinical officers e county ma siaya jochako ng’anyo  ka giyuak ne deko piny owacho ma county ma sisys medogi lemo kaka winjruok nobedo."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi jagoro mar kenya national unio of nurses bade ma siaya  sylvester ngánda,  nganyo ma kamano manochaklore okinyi ma kawuuono biro dhi nyime nyaka chop dwaro margi."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ne giwacho ni karan ma county m,a siaya joseph ogutu nondikonegi jumamos mokalo mak mana ni obokeno ne ok onywako dwaro manoyudo gilose tic abich kokalo e romo manotim e yor lonny ma nyasani mar zoom."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="JATEND MIGAO MAGOHA LOSO E WI YEPO MAR SIKUNDE"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jatend migao mar somo ngire George Magoha, onyiero jogo ma sundo piny owacho mondo oyaw sikunde ni johore mos  kendo ni piny owacho nono mos kaka tuo makochni medo landore eka gibiro ngeyo ka ibiro yawo sikunde e dwe mar 1 higa manyien."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="JOK MODAK GI NG’oL SUBA NORTH YUAK"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jogo modak gi ng’ol e Sub County ma Suba North  jodwaro ni mondo piny owacho ma malo kod mago mag counties obed gi chenro moyiedhi mar neno ni gin bende giyudo sir mowinjore  e seche mikonyo oganda kaluwore gi ngaji mokel gi midhusi mar corona."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ne giwacho ni jok modak gi ng’ol ojwang mokalo e buo chenro  madhi nyime sani mar pogo chiemo kod gik mamoko aok chiemo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jakom Suba North constituency disability forum mr. James Oloo Masiga , wacho ni gisebedo gi kinde matek mokalo  e seche mipogo jok ma ngáw wira ni ok ginyal chopo kuonde ma jii larore ka manyo chiemo mag kony."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JATEND MIGAO KAGWE NG’UR"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jatend migao  mar thieth Mutahi Kagwe owacho ni nitie moko kuom laktache mag ute thieth mag jii giwegi machiw obok ma bandia ne anyuola ma joggi otho gi corona mar nyiso ni ok githo gi ruono."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kagwe wacho ni laktachego timo kamano mar mondo mi anyuola ma kamago odhi nyime gi iko e yoo ma pile mopogore gi kaka iiko jok ma onindo kaluwre gi corona."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kagwe nowacho ni jok ma timo kamano keto ngima jokenya e kind akuru gasumbi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GAYO YE MOMONDO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Min od ogai mar ODM Raila Odinga mikayi Idda Odinga ochako chenro makende mar  kampen mar dweche adek mar kedo gi gamo remo momondo e kind nyithindo ma nyiri  e county ma Siaya.  "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kokalo kuom Idda Odinga trust,  nyithindo ma kamago ibiro romogo kaachiel kod jonyuol keto puonjogi e yre ma ginyalo geng’o godo gamo iye momondo."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kaluwore gi jawach e loo Idda Odinga Trust migosi Odhiambo Otieno, campen ma kamano  ochaki kaluwore gi kwan  ma malo mag nyithindo ma gamo remo e aluorano kama nyaka sani nyithindo ma nyiri ma raga maromo 390,000 osegamo remo e buo dweche 6 kende"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="JII 3 OTHO E MASIRA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jii adek nyotho kanyo kanyo e masira mar apiko gi nyamburko manyotimore Ligega e wang apaya ma Kisumu kochomo busia otieno mokalo."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jii adekgo manyo otingore e apiko nyotuom gi chien gi nyamburko matin manyochomo Kisumo manyo ringo ngwe airititi ."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Komanda mar obila ma county ma Siaya francis kooli, owcho ni dereba mar nyamburko matinno nyohinyore kendo nyothiedhe Sega mission hospital ka ringre jii adekgo to noter e kar kano ringruok ma ambira. Garino kod apikono nyoter e tesend obila ma ugunja."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="KAJEMBE OIKI KAWUONO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Mane en jaod bura ma changamwe Ramadhan Kajembe oseiki e pare ma kwa she manitiere Mikindani e kar chung od bura ma Jomvu Mombasa kawuono. "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kajembe nyowito ngimane nyoro bang bedo e od thieth mar jotuo mohewre  e kar thieth ma Pandya kuom jumbe ariyo."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kajembe inyalo par kaka jasiasa mane nigi chung motegno e kedo ne jopiny to moloyo mago mawuok yoo nam chumbi."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jotelo mathoth ma pacho kae oseoro ote maggi mag lit kod kuyo kaluworre gi tho mar jatelono."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="YIERO MAG GOR MAHIA KINY DHI NYIME"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Yier mar club mar Gor Mahia kiny nodhi nyime maonge dok chien. "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Jagoro mar board mochungne yiero Kennedy Mbara owacho ni duko manyowuok e doho nyoro ok ochungo yierono mak mana ni nyowacho ni kapo obi ofweny ni yiero ok otimore maber to inyaloo bi ruche bang’e."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Maeri an bang apisa moko dhi e doho dhi kwedo yiero mar Gor mochan timore kiny."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="DCC MA MUHORONI OSIEMO OGANDA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jalup County Komishna ma Muhoroni Eric Wanyonyi, owacho ni onge ng’ama ibiro konyo e yoo moro amora e apisi mar piny owacho kaok orwako mask."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Wanyonyi wacho ni gisefwenyo ni thoth oganda ok osebedo ka rwako maskgo kowacho ni gidwa chako apedha mar mako jogo maok rwak mask go ma ibiro chwalo e doho."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nolero bende ni ginono mos jogo mabuono chike moketi mag chokruok kaachiel gi mag liete  kowacho ni sani tuoni landore e kor gwenge maok ginyal ling’ ka gineno ka oganda ketho chike moketi mag gayo tuono."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JAKOM KNUT RONGO YUAK E WI MIBADHI"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jakom KNUT bade ma Rongo Samwel Omwaga,  dwaro ni duol makedo gi mibadhi EACC kod okwach kich ni mondo onon matut wach mnada ma sani igoyo kata iusogo gache mag piny owacho ma County ma Migori kowacho ni chenro  ma kamano itimo mobalo gi chike."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Omwaga wacho ni gima timore sani en mana chopo chik mak mana ni gachego noseusi ne jii chon kendo wegi rito mana kawgi."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Nowacho ni moko kuom gechego bende oketi e nengo mapiny miwuoro mar neno ni jii migeto oyudogi  ka jok mane nigi omenda ma malo to owe oko. "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Omwaga bende nokwayo Senator Ochilo Ayako  mondo okony jo Migori nono  wach uso ma kamano ma iwacho ni nosechan jok mane dhi yudo nyamburkogo."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Korka kore, jatelo mochungne tudruok e apisi Gavana Nicholas Anyor,  nokwedo wach ma kamano  kowacho ni chenro ma kamano idhi tim kaluwore gi chike."/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G17:H25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
+        <item x="5"/>
+        <item x="1"/>
         <item x="3"/>
+        <item x="4"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
         <item x="2"/>
-        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4426,7 +4859,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -4445,6 +4878,9 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4453,14 +4889,14 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of OSECHAK PUODHO MATATU MATING’OJOWUOTH MIGORI" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of ANYUOLA KAJEMBE YUAK NE KAGWE" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4797,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A998"/>
+  <dimension ref="A1:A1054"/>
   <sheetViews>
-    <sheetView topLeftCell="A945" workbookViewId="0">
-      <selection activeCell="A950" sqref="A950"/>
+    <sheetView topLeftCell="A1049" workbookViewId="0">
+      <selection activeCell="A999" sqref="A999:A1054"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9584,7 +10020,7 @@
       </c>
     </row>
     <row r="956" spans="1:1" ht="21">
-      <c r="A956" s="18" t="s">
+      <c r="A956" s="17" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -9634,7 +10070,7 @@
       </c>
     </row>
     <row r="966" spans="1:1" ht="21">
-      <c r="A966" s="18" t="s">
+      <c r="A966" s="17" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -9659,7 +10095,7 @@
       </c>
     </row>
     <row r="971" spans="1:1" ht="21">
-      <c r="A971" s="18" t="s">
+      <c r="A971" s="17" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -9719,12 +10155,12 @@
       </c>
     </row>
     <row r="983" spans="1:1" ht="21">
-      <c r="A983" s="18" t="s">
+      <c r="A983" s="17" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="984" spans="1:1" ht="18.75">
-      <c r="A984" s="19" t="s">
+      <c r="A984" s="18" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -9796,6 +10232,286 @@
     <row r="998" spans="1:1" ht="42">
       <c r="A998" s="11" t="s">
         <v>1170</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" ht="105">
+      <c r="A1000" s="11" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" ht="84">
+      <c r="A1001" s="11" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" ht="21">
+      <c r="A1002" s="21" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="63">
+      <c r="A1003" s="11" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" ht="42">
+      <c r="A1004" s="11" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005" s="9" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="84">
+      <c r="A1006" s="11" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="63">
+      <c r="A1007" s="11" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" ht="21">
+      <c r="A1008" s="21" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" ht="63">
+      <c r="A1009" s="11" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" ht="42">
+      <c r="A1010" s="11" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" ht="63">
+      <c r="A1011" s="11" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" ht="42">
+      <c r="A1012" s="11" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" ht="30">
+      <c r="A1013" s="9" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" ht="21">
+      <c r="A1014" s="21" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="63">
+      <c r="A1015" s="11" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" ht="63">
+      <c r="A1016" s="11" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" ht="84">
+      <c r="A1017" s="11" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" s="9" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" ht="18.75">
+      <c r="A1019" s="18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" s="9" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" ht="105">
+      <c r="A1021" s="11" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" ht="42">
+      <c r="A1022" s="11" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" ht="84">
+      <c r="A1023" s="11" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" s="9" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" ht="63">
+      <c r="A1025" s="11" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" ht="63">
+      <c r="A1026" s="11" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" ht="42">
+      <c r="A1027" s="11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" ht="21">
+      <c r="A1028" s="21" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" ht="63">
+      <c r="A1029" s="11" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" ht="63">
+      <c r="A1030" s="11" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" ht="105">
+      <c r="A1031" s="11" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" ht="21">
+      <c r="A1032" s="21" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" ht="63">
+      <c r="A1033" s="11" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" ht="42">
+      <c r="A1034" s="11" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" ht="84">
+      <c r="A1035" s="11" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" s="9" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" ht="63">
+      <c r="A1037" s="11" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" ht="42">
+      <c r="A1038" s="11" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" ht="42">
+      <c r="A1039" s="11" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" ht="42">
+      <c r="A1040" s="11" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="21">
+      <c r="A1041" s="21" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="21">
+      <c r="A1042" s="11" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" ht="84">
+      <c r="A1043" s="11" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" ht="42">
+      <c r="A1044" s="11" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="21">
+      <c r="A1045" s="21" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="63">
+      <c r="A1046" s="11" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="63">
+      <c r="A1047" s="11" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" ht="84">
+      <c r="A1048" s="11" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="21">
+      <c r="A1049" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" ht="105">
+      <c r="A1050" s="11" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" ht="42">
+      <c r="A1051" s="11" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="63">
+      <c r="A1052" s="11" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" ht="63">
+      <c r="A1053" s="11" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" ht="63">
+      <c r="A1054" s="11" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -9805,93 +10521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B10" s="1">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B835"/>
-  <sheetViews>
-    <sheetView topLeftCell="A781" workbookViewId="0">
-      <selection activeCell="A835" sqref="A788:A835"/>
+    <sheetView topLeftCell="A886" workbookViewId="0">
+      <selection activeCell="A895" sqref="A895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16129,7 +16762,7 @@
     </row>
     <row r="781" spans="1:2" ht="63">
       <c r="A781" s="11" t="s">
-        <v>1115</v>
+        <v>1197</v>
       </c>
       <c r="B781" s="2" t="s">
         <v>5</v>
@@ -16224,7 +16857,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" ht="21">
-      <c r="A793" s="18" t="s">
+      <c r="A793" s="17" t="s">
         <v>1129</v>
       </c>
       <c r="B793" s="2" t="s">
@@ -16304,7 +16937,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" ht="21">
-      <c r="A803" s="18" t="s">
+      <c r="A803" s="17" t="s">
         <v>1139</v>
       </c>
       <c r="B803" s="2" t="s">
@@ -16344,7 +16977,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" ht="21">
-      <c r="A808" s="18" t="s">
+      <c r="A808" s="17" t="s">
         <v>1144</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -16440,7 +17073,7 @@
       </c>
     </row>
     <row r="820" spans="1:2" ht="21">
-      <c r="A820" s="18" t="s">
+      <c r="A820" s="17" t="s">
         <v>1156</v>
       </c>
       <c r="B820" s="2" t="s">
@@ -16448,7 +17081,7 @@
       </c>
     </row>
     <row r="821" spans="1:2" ht="18.75">
-      <c r="A821" s="19" t="s">
+      <c r="A821" s="18" t="s">
         <v>1157</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -16565,6 +17198,454 @@
       </c>
       <c r="B835" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="84">
+      <c r="A837" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="63">
+      <c r="A838" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="21">
+      <c r="A839" s="21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="63">
+      <c r="A840" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="42">
+      <c r="A841" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" ht="84">
+      <c r="A843" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" ht="63">
+      <c r="A844" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" ht="21">
+      <c r="A845" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="63">
+      <c r="A846" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" ht="42">
+      <c r="A847" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="63">
+      <c r="A848" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="42">
+      <c r="A849" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="30">
+      <c r="A850" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="21">
+      <c r="A851" s="21" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="63">
+      <c r="A852" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="63">
+      <c r="A853" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="63">
+      <c r="A854" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="18.75">
+      <c r="A856" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="84">
+      <c r="A858" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="42">
+      <c r="A859" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" ht="63">
+      <c r="A860" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="63">
+      <c r="A862" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" ht="63">
+      <c r="A863" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="42">
+      <c r="A864" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="21">
+      <c r="A865" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="63">
+      <c r="A866" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" ht="63">
+      <c r="A867" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="84">
+      <c r="A868" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="21">
+      <c r="A869" s="21" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="42">
+      <c r="A870" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="42">
+      <c r="A871" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="84">
+      <c r="A872" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="42">
+      <c r="A874" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="42">
+      <c r="A875" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="42">
+      <c r="A876" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" ht="42">
+      <c r="A877" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="21">
+      <c r="A878" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" ht="21">
+      <c r="A879" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="63">
+      <c r="A880" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="42">
+      <c r="A881" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" ht="21">
+      <c r="A882" s="21" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="42">
+      <c r="A883" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" ht="63">
+      <c r="A884" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" ht="63">
+      <c r="A885" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" ht="21">
+      <c r="A886" s="21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" ht="84">
+      <c r="A887" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="42">
+      <c r="A888" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="42">
+      <c r="A889" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="63">
+      <c r="A890" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="63">
+      <c r="A891" s="11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -16573,40 +17654,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R33"/>
+  <dimension ref="A2:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L12"/>
+      <selection activeCell="L2" sqref="L2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>1123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -16620,21 +17701,24 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3)</f>
-        <v>153</v>
-      </c>
-      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>162</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>153</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="M3">
+        <v>162</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16647,22 +17731,22 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">SUM(B4:D4)</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">SUM(B4:E4)</f>
         <v>212</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>212</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -16673,21 +17757,24 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
         <v>204</v>
       </c>
-      <c r="L5">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16701,21 +17788,24 @@
         <v>3</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -16729,21 +17819,24 @@
         <v>15</v>
       </c>
       <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>224</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18">
+        <v>235</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>235</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -16757,21 +17850,24 @@
         <v>6</v>
       </c>
       <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>254</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+        <v>274</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>274</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -16781,20 +17877,20 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>46</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -16808,17 +17904,20 @@
         <v>9</v>
       </c>
       <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="L10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="M10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -16829,19 +17928,22 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="L11">
-        <v>25</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -16850,163 +17952,227 @@
         <v>910</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="1">SUM(C3:C11)</f>
+        <f t="shared" ref="C12:F12" si="1">SUM(C3:C11)</f>
         <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>998</v>
-      </c>
-      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="L12" t="s">
         <v>262</v>
       </c>
-      <c r="L12">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="20" t="s">
+      <c r="M12">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="19" t="s">
         <v>1171</v>
       </c>
       <c r="B17" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="G17" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="G20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="B24" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="G25" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H25" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="N13:O21">
-    <sortCondition ref="N13:N21"/>
+  <sortState ref="O13:P21">
+    <sortCondition ref="O13:O21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="1252">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -3721,13 +3721,71 @@
   </si>
   <si>
     <t>Count of ANYUOLA KAJEMBE YUAK NE KAGWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD BUCH SENATE KINY NOROM KENDO E WI WACH POK OMENDA MAG COUNTIES.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUOM THUOLO MAR OCHIKO OD BUCH SENATE KINY NOROM MAR TEMO MANYO WINJRUOK E YOO MAKARE MIBIRO TIYO GODO E POGO OMENDA MADHI E COUNTIES. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMO MA KAMANO KINY NOTIMRE E KINDENI MA MOK KUOM SENATORS WACHO NI IBUOGOGI MONDO MI GIGOL PARO KALUWORE GI DWARO MAR PINY OWACHO. </t>
+  </si>
+  <si>
+    <t>SENATOR MA ELGEIYO MARAKWET KIPCHUMBA MURKOMEN, WACHO NI SAMORO KA WINJRUOK OK OYUDORE TO BIRO CHUNO NI MONDO OCHAK OCHWAL MBELE TWAK MA KAMANO.</t>
+  </si>
+  <si>
+    <t>SENATORS MALUNGORE NI TEAM KENYA TO SEYO JAGOOO OPORO MAR KWETH MATHOTH IRUNGU KANGATA MA GIWACHO NI NIGI DWARO MAR CHWALO KENDO TWAK MA KAMANO NYIME.</t>
+  </si>
+  <si>
+    <t>JO PAU NYUKA DWARO OLALO</t>
+  </si>
+  <si>
+    <t>JODAK MA PAU NYUKA EI KAKRAO WARD E SUB COUNTY MA SUNA EAST DWARO NI PINY OWACHO MA COUNTY MA MIGORI MONDO OGERNEGI OLALO MABIRO RINGO E WI AORA NYASARARA MONDO MI OTIEK MIDHIERO MA NYITHINDO MASOMO NYIKENDO PRIMARY SCHOOL THORO KALE E KINDE KOTH.</t>
+  </si>
+  <si>
+    <t>KOTELNEGI KOD ISMAIL AKEDE, JOPUONJRE MA NYIKENDO PRIMARY MANIE BATH AORANO KOMACHIELO THORO BEDO GI MDHIERO KA GIWACHO NI GISEGOO LIPORT MA KAMANO TIELO MANG’ENY KENDO NI LIPORT MARGI SEBEDO KA LWAR MANA E IT MODINO.</t>
+  </si>
+  <si>
+    <t>DICHUO MORO YUAGO RATIRO MVITA</t>
+  </si>
+  <si>
+    <t>DICHUO MORO MANTIE E KAR DAK MONGOHORE MA AMAZON EOD BURA MVITA MOMBASA KORO YWAGO RATICHE BANG OBILA WEYO THUOLO JARIEMBO MORO MANYOCHA OGWEYO MONEGO NYATHINE MAJAHIGNI APAR JUMBE ARIYO MOSEKALO.</t>
+  </si>
+  <si>
+    <t>WUON NYATHINO KONI NYAKA SANI POK GIWINJO WACH MORO AMORO KUWUOK KUOM OBILA KATA JAGO MANYOCHA ONEKONO, KA EN BENDE POD RINGERE NYATHINE POD OKWAMO E MORTUARY MAONGE KAKA OTER DALA ODHI OYIKI.</t>
+  </si>
+  <si>
+    <t>JAL MAONONEG NYATHINE ODAK GI LUORO</t>
+  </si>
+  <si>
+    <t>PINY OWACHO OLERO NI GISETIMO MATHOTH NE JOTHIETH</t>
+  </si>
+  <si>
+    <t>BAD MIGAO MAR THIETH OWACHO NI MOKO KUOM NGÚR MA LAKTACHE MA COUNTY MA NAIROBI NYOGOLO KANYO GICHIWO NOTICE MAR CHAKO NGANY GIN GIGO MA PINY OWACHO DHI NYIME GI LOSO MA BENDE MOKO KUOMGI OSELOSI.</t>
+  </si>
+  <si>
+    <t>JALUP JATEND MIGAO MAR THIETH DR MERCY MWANGANGI OLERO NI BAD MIGAONO OSEGOO OKANG E NENO NI GICHOPO YUAK MAG JOTHIETH MA THURKA.</t>
+  </si>
+  <si>
+    <t>E TWAK MA PILE KA PILE GI UTE FWAMBO MAR CHIWO LER E WI MIDHUSI MAR CORONA, DR MWANGANGI  NYOWACHO NI LAKTACHE DUTO MMA COUNTY MA NAIROBI NOSECHUL MBALANG MAGGI MOTUDORE GI WCAH MIDHUSI MAR KORONA.</t>
+  </si>
+  <si>
+    <t>OKWACH KICH OTHO E AORA KIPKELION</t>
+  </si>
+  <si>
+    <t>NYO EN LIT KOD KUYO YOO KIPKELION BANG APISA MORO MAR OKWACH KICH MA KIPKELION KOD MIYO MORO THO E PII ODHIAMBO MA NYORO BANG OHULA YUEROGI.</t>
+  </si>
+  <si>
+    <t>MCA MA KIPKELION ANTHONY RUTO, OYANGO NI JATEND OKWACH KICHNO MANOCHUNG’NE KIPKELION, NYOTHO E SECHE MA NYAMBURKO MARE MATIN MANYOTINGE KOD NYANO  NYO OHULA OYUAYO KANYO GITEMO NGÁDO NDARA MANYO PII OPONGÓ EMA NYO OYUA GARINO NYAKA EI AORA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3912,6 +3970,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -4264,7 +4328,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4317,10 +4381,13 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4839,7 +4906,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G17:H25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4896,7 +4963,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -10250,7 +10317,7 @@
       </c>
     </row>
     <row r="1002" spans="1:1" ht="21">
-      <c r="A1002" s="21" t="s">
+      <c r="A1002" s="20" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -10280,7 +10347,7 @@
       </c>
     </row>
     <row r="1008" spans="1:1" ht="21">
-      <c r="A1008" s="21" t="s">
+      <c r="A1008" s="20" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -10310,7 +10377,7 @@
       </c>
     </row>
     <row r="1014" spans="1:1" ht="21">
-      <c r="A1014" s="21" t="s">
+      <c r="A1014" s="20" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10380,7 +10447,7 @@
       </c>
     </row>
     <row r="1028" spans="1:1" ht="21">
-      <c r="A1028" s="21" t="s">
+      <c r="A1028" s="20" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -10400,7 +10467,7 @@
       </c>
     </row>
     <row r="1032" spans="1:1" ht="21">
-      <c r="A1032" s="21" t="s">
+      <c r="A1032" s="20" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -10445,7 +10512,7 @@
       </c>
     </row>
     <row r="1041" spans="1:1" ht="21">
-      <c r="A1041" s="21" t="s">
+      <c r="A1041" s="20" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -10465,7 +10532,7 @@
       </c>
     </row>
     <row r="1045" spans="1:1" ht="21">
-      <c r="A1045" s="21" t="s">
+      <c r="A1045" s="20" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10485,7 +10552,7 @@
       </c>
     </row>
     <row r="1049" spans="1:1" ht="21">
-      <c r="A1049" s="21" t="s">
+      <c r="A1049" s="20" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -10521,10 +10588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B891"/>
+  <dimension ref="A1:B910"/>
   <sheetViews>
-    <sheetView topLeftCell="A886" workbookViewId="0">
-      <selection activeCell="A895" sqref="A895"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="A909" sqref="A909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17225,7 +17292,7 @@
       </c>
     </row>
     <row r="839" spans="1:2" ht="21">
-      <c r="A839" s="21" t="s">
+      <c r="A839" s="20" t="s">
         <v>1178</v>
       </c>
       <c r="B839" s="2" t="s">
@@ -17273,7 +17340,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" ht="21">
-      <c r="A845" s="21" t="s">
+      <c r="A845" s="20" t="s">
         <v>1184</v>
       </c>
       <c r="B845" s="2" t="s">
@@ -17321,7 +17388,7 @@
       </c>
     </row>
     <row r="851" spans="1:2" ht="21">
-      <c r="A851" s="21" t="s">
+      <c r="A851" s="20" t="s">
         <v>1192</v>
       </c>
       <c r="B851" s="2" t="s">
@@ -17433,7 +17500,7 @@
       </c>
     </row>
     <row r="865" spans="1:2" ht="21">
-      <c r="A865" s="21" t="s">
+      <c r="A865" s="20" t="s">
         <v>1205</v>
       </c>
       <c r="B865" s="2" t="s">
@@ -17465,7 +17532,7 @@
       </c>
     </row>
     <row r="869" spans="1:2" ht="21">
-      <c r="A869" s="21" t="s">
+      <c r="A869" s="20" t="s">
         <v>1209</v>
       </c>
       <c r="B869" s="2" t="s">
@@ -17537,7 +17604,7 @@
       </c>
     </row>
     <row r="878" spans="1:2" ht="21">
-      <c r="A878" s="21" t="s">
+      <c r="A878" s="20" t="s">
         <v>1218</v>
       </c>
       <c r="B878" s="2" t="s">
@@ -17569,7 +17636,7 @@
       </c>
     </row>
     <row r="882" spans="1:2" ht="21">
-      <c r="A882" s="21" t="s">
+      <c r="A882" s="20" t="s">
         <v>1222</v>
       </c>
       <c r="B882" s="2" t="s">
@@ -17601,7 +17668,7 @@
       </c>
     </row>
     <row r="886" spans="1:2" ht="21">
-      <c r="A886" s="21" t="s">
+      <c r="A886" s="20" t="s">
         <v>1226</v>
       </c>
       <c r="B886" s="2" t="s">
@@ -17646,6 +17713,158 @@
       </c>
       <c r="B891" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="30">
+      <c r="A892" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="30">
+      <c r="A893" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="30">
+      <c r="A894" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" ht="30">
+      <c r="A895" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" ht="30">
+      <c r="A896" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" ht="21">
+      <c r="A897" s="22" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="105">
+      <c r="A898" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="84">
+      <c r="A899" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" ht="21">
+      <c r="A900" s="22" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="84">
+      <c r="A901" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" ht="84">
+      <c r="A902" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="21">
+      <c r="A903" s="22" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="21">
+      <c r="A904" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" ht="84">
+      <c r="A905" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="63">
+      <c r="A906" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" ht="84">
+      <c r="A907" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" ht="21">
+      <c r="A908" s="22" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="63">
+      <c r="A909" s="11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" ht="105">
+      <c r="A910" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -17658,7 +17877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M12"/>
     </sheetView>
   </sheetViews>
@@ -17940,8 +18159,8 @@
       <c r="M11">
         <v>29</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELOHOME\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CA433-A2FE-43EA-BA89-B4EBEB6CF4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13C41C-87BF-4F76-9BC3-B341E4B1CD07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1329">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -3886,6 +3886,138 @@
   </si>
   <si>
     <t>ROMO MA KAMANO KINY NOTIMRE E KINDENI MA MOK KUOM SENATORS WACHO NI IBUOGOGI MONDO MI GIGOL PARO KALUWORE GI DWARO MAR PINY OWACHO.</t>
+  </si>
+  <si>
+    <t>Jolupo ma Muhurubay e Sub County ma Nyatike e County ma Migori koro joduaro ni piny owacho osiek kod yoore moko mabecho mag tieko lweny mabedo e kind lee mag nam kod oganda ma odak e dho wedhe ma Muhurubay kuno</t>
+  </si>
+  <si>
+    <t>Jolupogo mane otelnegi kod jakom dho wedhe ma Muhurubay Ward migosi Odhiambo Nyakiaro ne jowacho ni jolupo mang’eny nyaka gi jogweng osehiny marach mokalo ka moko bende osekata negi gi leego moting’o rewe kod nyenge kuom mamoko</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Odhiambo nowacho ni leego pod keto ngima oganda kamarach kane okwayo mondo piny owacho osiek kod yoore mabecho mag tieko lwenje mabedo e kind dhano gi leego</t>
+  </si>
+  <si>
+    <t>Bende ne okwayo Kenya Wildlife Services mondo jotemie ruyo chulo familia ma jogi ne leego ohinyo mapok joyudo chudo mekgi nyaka sani kowacho ni nitie bende familia moko mane ochuno mondo jogoo harambee mag thiedho jogi ma leego ne ohinyo</t>
+  </si>
+  <si>
+    <t>Odhiambo ne owacho ni familia mar nyako moro mane rao ohinyo Muhurubay kuno dweche buora mokalo ne ochuno mondo ne jo tim harambee mar yudo pesa mag chulo bill mar osiptal kowacho ni thieth machalo kamago onegobed ni piny owacho ema chung’ee</t>
+  </si>
+  <si>
+    <t>Oganda ma County ma Nyamira jonigi to kod chanjo mar corona mane omolo e pachoka</t>
+  </si>
+  <si>
+    <t>Kwan maduong mag oganda ma County ma Nyamira kawuono ne jogoo dhogi piny kagiwacho ni ok gihikore kata matin mar mondo mi timnegi chanjo mar corona kod yadh chanjo manyo ochopo e pachoka ei otieno mane piny oruugo kawuononi</t>
+  </si>
+  <si>
+    <t>Kanegiwuoyo gi Radio Ramogi oganda ma County ma Nyamirago ne jowacho ni gibiroduaro mondo apisas madito ei piny owacho ema kuong timnegi chanjono mondi kapok chanjono ochopo kuom raia ni eka gibed gi chanjono gi adiera</t>
+  </si>
+  <si>
+    <t>Piny owacho koro hikore ne chiwo chanjo mar corona</t>
+  </si>
+  <si>
+    <t>Donjo mar chanjo mar corona e pachoka igeno ni biro konyo ahinya e jiwo lwenj kedo gi midusi mar corona e thurka ka thoth oganda jokenya bende pod jonigi paro mokikore kod chanjono</t>
+  </si>
+  <si>
+    <t>Jatend migao mochungne yoore thieth migosi Mutahi Kagwe ne osingone oganda jokenya duto ni giduto gibiro yudo chanjono ni to ibiromana miye joma oyie maok chunee ng’ato</t>
+  </si>
+  <si>
+    <t>Katakamano jopiny kod riuruok mar kanise mapachoka -the National Council of Churches of Kenya ne josegolo kwayo ni temie neno ni chanjono ichiwo e yoo man thuolo kod mar ratiro maok mbalie jomoko</t>
+  </si>
+  <si>
+    <t>chanjo mar corona biro molo e pachoka e lap ndeke ma Jomo kenyataa saa Auchiel mar Otieno</t>
+  </si>
+  <si>
+    <t>Jatend piny Kenya Uhuru Kenyataa jalupne William Ruto migosi Raila Amolo Odinga to kod jatend migao mar thieth Mutahi Kagwe ibiro miyo chanjo ayanga e nyim oganda kotenore gi midhusi mar corona e kar thieth ma Kenyataa National Hospital tich abich jumani.</t>
+  </si>
+  <si>
+    <t>ma timore e seche ma saa auchiel otieno ma kawuono chanjo mar corona biro molo e pachoka e lap ndeke ma Jomo kenyataa ka ibiro kano gi e kamoket tenge</t>
+  </si>
+  <si>
+    <t>Owete ariyo onegore e gwenge ma Wangaya Muhoroni Sub County</t>
+  </si>
+  <si>
+    <t>Gweng ma Kaniga Makome ei Wangaya sub county ma Muhoroni nigi kuyo bang tho mar owete ariyo mago manotho bang dhao mapek manobedo e kind gi</t>
+  </si>
+  <si>
+    <t>Joseph Othoro ma jahigni 37 kod Kennedy Otieno 36 ne ongielo orengo bang negi bedo kod dhao mapek ka gitiyo gi opanga kata beti e kinde kedo no otieno manyoro</t>
+  </si>
+  <si>
+    <t>Kaluore kod jalup ruoth ma wangaya 2 sub location Teressa Akinyi manoyango wachni oyango ni odiochieng motelo ne nyoro joute gi mago jood owete gi ne obedo kod dhao mano manokelo ywarruok e kind owetegi</t>
+  </si>
+  <si>
+    <t>Kenndy ne ongielo orengo ka ichwale e kar thieth ma Ahero sub county ka ringre ni e kar kano ringruok ma kuno ka Joseph wito ngimane e kar thieth ma Jaramogi Oginga Odinga Teaching and Referal Hospital Kisumu kama ringre okan e kar kano ringruok e kar thieth noero</t>
+  </si>
+  <si>
+    <t>Dayo kaachiel gi wuode kod nyakware omak bang daro chi liel e dalane ka gilaro loo</t>
+  </si>
+  <si>
+    <t>Apisas mag obila e gwenge ma Ratta e Sub County ma Seme omako dayo kaacheil gi wuode to kod nyakwaro mago maotud gi temo riembo e dalane chi liel mano manonindo e koyo otieno manyoro kaluore gi ywaruok mar loo.</t>
+  </si>
+  <si>
+    <t>Ma en bang mama ni moyang kaka Margaret Achieng kaacheil kod kweth makedo ne ratich oganda e gwnege go ne molo e par obila ma Ratta mago manodhi nyime gi mako jii adek gi e dala no</t>
+  </si>
+  <si>
+    <t>kaluore kod Margaret Achieng ywaruuok ne ochakore tok jaode ne ngielo orengo ka imaye opande mar jaode to kod obok ne mar tho.</t>
+  </si>
+  <si>
+    <t>Kanoyango wachni jalup ruoth ei North Ratta sub location migosi Boniface Owuor wacho ni wachno osechwal ne apisas kendo gibiro neno ni mama no oyudo ratiro mare</t>
+  </si>
+  <si>
+    <t>Jii 152 oyud kod midhusi mar corona ,Jii adek owito ngimagi e buo seche 24 mokadho</t>
+  </si>
+  <si>
+    <t>Jii 152 oyud kod midhusi mar corona e buo seche 24 mokadho kuom jii 2213 manopimMa koro kelo kwan jogo moseyud gi midhusi ni nyaka 106,125</t>
+  </si>
+  <si>
+    <t>Kaluore kod Migao mar thieth jii mamoko 39 ne ochango mano makelo kwan jogo maosechango nyaka 86,717 ,Kata kamano jii 3 ne owito ngimagi mano makelo kwan jogo mosewito ngimagi nyaka 1,859</t>
+  </si>
+  <si>
+    <t>Chanjo mar midhusi mar corona ibiro chako chiwo e pachoka kochakore tich angwen jumani</t>
+  </si>
+  <si>
+    <t>Ma en kaluore kod migao mar thieth ma oyango ni chanjo go biro molo e pachoka chieng tich ariyo otieno kama jatend migao mar thieth Mutahi Kagwe biro yao ayanga tiyo kod chanjo go tich angwen jumani</t>
+  </si>
+  <si>
+    <t>Kaluore kod laktar Collins Tabu mabende en jatend bad migao maotenore gi chanjo e pachoka jii maromo million 1.2 ibiro miyo chanjo e tiielo mokuongo</t>
+  </si>
+  <si>
+    <t>Jochiw thieth ema biro bedo mokuongo yudo chanjo no ka kapok omigi chanjo nyaka gi bi gindikre kendo keto kokgi mar yie yudo chanjo no</t>
+  </si>
+  <si>
+    <t>Migosi Raila kawuono omedo yango ni en mana BBI emabirokonyo e kelo lokruok ne oganda jokenya</t>
+  </si>
+  <si>
+    <t>Ogai mar ODM migosi Raila Amolo Odinga kawuono koro ne omedo yangone oganda jokenya ni en mana loko katiba kokalo kuom paro mar chik mar BBI ema birokelonegi lokruok ma gisebedo ka gigombo aming’a e ngimagi</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e iko mar min governor ma Bungoma e County ma Bungoma kuno migosi Raila nowacho ni bang bunge mag Counties mapachoka kalo paro mar chik mar BBIno koro giduaro ni tim mapiyo mar neno ni dhano jodhi e referendum kendo loko katibano mondo mi koro chike ma obi olokigo obi ochak tiyo mar konyo oganda e thurka</t>
+  </si>
+  <si>
+    <t>Onge japuonjre moro amora ma ja klas 8 kod klas 12 e kar dak ma Kibra maok bi timo penj</t>
+  </si>
+  <si>
+    <t>Tend loch nanga ma Sub County ma Kibra e boma ma Nairobi kawuono ne okwedo malit mokalo paro moko manyochane chako betie ni nyithindo moko mane omuki skunde mane gisomee e kar dak ma Kibra kuno jonyalobiro chweyo maok otimo penj mar class 8 kod class 12 kanegiwacho ni jopuonjre duto ma onegobed ni timo penjgo e thurka biro timo penjgo maonge ma ibiro weyo oko</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jalup County Commissioner ma Sub County ma kibra kuno migosi Gideon Ombongi mane owacho ni jopuonjre duto ma jo class 12 gi class 8 mane skundegi omukigo ne odar ka itero e centres mamoko man machiegni kodgi makoro gibiro dhi timoe penj</t>
+  </si>
+  <si>
+    <t>E higa mokalo kambi mar Kenya Railways ne omuko gedo buora kama bende ne gimukoe skunde buora nyaka kanisni</t>
+  </si>
+  <si>
+    <t>Bende Ombongi ne ogolo siem mager ne joma pod dwa dok e kuonde mane omukie udigo ni ibiro kaonegi ondamo mager mokalo mar kum kowacho ni katamana udi mane omukigo ne omuki kuondego nikech ne ogergi kuondego e tok chik</t>
+  </si>
+  <si>
+    <t>Joma idhikao dhi somo puonj mag puonjo e skunde primary koro idhikao gi grade C</t>
+  </si>
+  <si>
+    <t>Kochakore dwe mar 5 mar higani jogo ma ibiro kao mondo jodhi osom weche mag puonj mag puonjo e skunde primary ibiro kawo gi grade mar C ma gidhi somogo diploma e weche mag puonjgo</t>
+  </si>
+  <si>
+    <t>Katakamano jogo mawuok e gwenge ma ongoro mapachoka to jowacho ni dhi e tiegruok gi grade mar C no nyalobiro tamogi nikech thothgi ok nyal bi yudo grade mar C no mayot</t>
+  </si>
+  <si>
+    <t>Riuruok mar jopuonj madongo mag skunde primary-KEPSHA ne oramo ni kadipo ni iduoko grade piny ma ikawogo jii e kuonde tiegruok mag jopuony primarygo to nyaka duoke piny mana egwenge duto mapachoka maok ni gwenge moko ema iduokonegi grade no piny to moko to grade no bedo ‘C’ ma iwachono</t>
   </si>
 </sst>
 </file>
@@ -4447,7 +4579,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4514,6 +4646,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10778,10 +10913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B951"/>
+  <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
-      <selection activeCell="B961" sqref="B961"/>
+    <sheetView tabSelected="1" topLeftCell="A991" workbookViewId="0">
+      <selection activeCell="B992" sqref="B992:B996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18383,6 +18518,366 @@
       </c>
       <c r="B951" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" ht="43.2">
+      <c r="A952" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="79.2">
+      <c r="A953" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B953" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" ht="59.4">
+      <c r="A954" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" ht="79.2">
+      <c r="A955" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" ht="79.2">
+      <c r="A956" s="25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" ht="40.799999999999997">
+      <c r="A957" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B957" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" ht="59.4">
+      <c r="A958" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" ht="59.4">
+      <c r="A959" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" ht="20.399999999999999">
+      <c r="A960" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B960" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="59.4">
+      <c r="A961" s="25" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="59.4">
+      <c r="A962" s="25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" ht="59.4">
+      <c r="A963" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="40.799999999999997">
+      <c r="A964" s="23" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="15">
+      <c r="A965" s="24" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" ht="15">
+      <c r="A966" s="24" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" ht="20.399999999999999">
+      <c r="A967" s="23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" ht="33.6">
+      <c r="A968" s="26" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B968" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="33.6">
+      <c r="A969" s="26" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" ht="50.4">
+      <c r="A970" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" ht="67.2">
+      <c r="A971" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" ht="40.799999999999997">
+      <c r="A972" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B972" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="15">
+      <c r="A973" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B973" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" ht="15">
+      <c r="A974" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" ht="15">
+      <c r="A975" s="24" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" ht="15">
+      <c r="A976" s="24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B976" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="40.799999999999997">
+      <c r="A977" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" ht="15">
+      <c r="A978" s="24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="15">
+      <c r="A979" s="24" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="40.799999999999997">
+      <c r="A980" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" ht="15">
+      <c r="A981" s="24" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="15">
+      <c r="A982" s="24" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="15">
+      <c r="A983" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="15">
+      <c r="A984" s="24" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" ht="40.799999999999997">
+      <c r="A985" s="23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" ht="59.4">
+      <c r="A986" s="25" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" ht="99">
+      <c r="A987" s="25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="40.799999999999997">
+      <c r="A988" s="23" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="99">
+      <c r="A989" s="25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="79.2">
+      <c r="A990" s="25" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="39.6">
+      <c r="A991" s="25" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="79.2">
+      <c r="A992" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B992" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" ht="40.799999999999997">
+      <c r="A993" s="23" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="59.4">
+      <c r="A994" s="25" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" ht="59.4">
+      <c r="A995" s="25" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" ht="79.2">
+      <c r="A996" s="25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B996" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELOHOME\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13C41C-87BF-4F76-9BC3-B341E4B1CD07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621471D-8F59-421F-9D3A-A4195F3CACE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1401">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -4018,6 +4018,222 @@
   </si>
   <si>
     <t>Riuruok mar jopuonj madongo mag skunde primary-KEPSHA ne oramo ni kadipo ni iduoko grade piny ma ikawogo jii e kuonde tiegruok mag jopuony primarygo to nyaka duoke piny mana egwenge duto mapachoka maok ni gwenge moko ema iduokonegi grade no piny to moko to grade no bedo ‘C’ ma iwachono</t>
+  </si>
+  <si>
+    <t>KETE KEMBE E LWET JOPINY NYAKA DHI NYIME</t>
+  </si>
+  <si>
+    <t>MOKO KUOM JOPUR MANIE BUO Kenya NATIONAL FEDERATION OF SUGARCANE FARMERS BADE MA MUHORONI JOKWEDO PARO MAR KAMATI MAR SENATE E WI PUR MAR DWARO CHAKO MNAYIEN CHENRO CHENRO MAR DWARO CHIWO E LWET JII GIWEGI KUOM THUOLO MOYIEDHI KEMBE ABICH MAG REGO NIANG MAG OPINY OWACHO.</t>
+  </si>
+  <si>
+    <t>JOPURGO WACHO NI CHENRO MA KAMANO NOSECHAKLORE KENDO ONGE DOK CHIEN KA GICHICH NI MOKO KUO M GAVANAS NIGI MALING LING E WI KEMBEGO.</t>
+  </si>
+  <si>
+    <t>JO KISUMU MANYATTA DWARO NI MONDO ONON JOK MAKAW NAMBA OPANDE</t>
+  </si>
+  <si>
+    <t>JODAK MA KONA MBAYA EI MANYATTA SANI NGUR MOKALO KALUWORE GI JWETH MORO MOSEBEDO KA LUORORE E ALUORANO KA WACHO NI GINDIKO NYING JII MONDO JOYUD CHIEMB KONY.</t>
+  </si>
+  <si>
+    <t>JODAK MA KONO WACHPO NI GICHICHI NI GITIE GIA DH NYIME MOPGOGORE GI WACH CHIEMB KONY NIMAR GIPENJ JII NYAKA NAMBA MARGI MAR KIPANDE.</t>
+  </si>
+  <si>
+    <t>GRACE ATIENO MA EN JA OHALA EI MANYATTA WACHO NI JOTELO MAG ARITA EI MANYATTA KANYO ONEGO OWUOG OKO MONDO ORANG ANE LER MAR KWETH MA KAMANO.</t>
+  </si>
+  <si>
+    <t>ALEX OMONDO MANOLOSO GI RADIO RAMOGI WACHO NI GIN GI LUORO NIMAR JII MATHOTH NI KECH KENDO NYALO CHIW KIPANDEGI MAYOT.</t>
+  </si>
+  <si>
+    <t>OBILA ARIYO OMAKI BANG CHUO JOMATH MOKO GI PALA</t>
+  </si>
+  <si>
+    <t>APISA 2 MAG OBILA E COUNTY MA NAKURU OLORNEGI E TESEND OBILAMA NJABINI BANG CHUOYO GI PALA CHUO MOKO ARIYO E BAR MORO KAMA NYOYUDO GIKUOTE ANDIWO.</t>
+  </si>
+  <si>
+    <t>WACHORE NI YUARUOK NOMUOCH E KIND OGUL MAMA KOD JOMATH MAMOKGO E SECHE MANYO OCHUOGI GI PALA KA ACHIEL NYOCHUO E BUND IYE TO MACHIELO OCHUO NGÚT LWETE.</t>
+  </si>
+  <si>
+    <t>JATEND OBILA MA KINANGOP BENJAMIN ONGÓMBE OYANGO WCAH MEKO MAR OBILAGO KA GILERO NI IBIRO CHOPOGI EMNYIM DOHO KA NONRO OSERUMO.</t>
+  </si>
+  <si>
+    <t>Japuony moro ma Senye Primary School sani ogengne e tesend obila gi ketho mar nego dichuo moro ma ja higni 35</t>
+  </si>
+  <si>
+    <t>Japuony moro ma Senye Primary School e gweng Kibro e Muhuru Central Location , e Sub County ma Nyatike e County ma Migori sani koro ogengne e tesend obila gi ketho mar nego dichuo moro ma ja higni 35 mane oyang nyinge kaka Bob Otieno</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi gi jatend obila ma Sub County ma Nyatike mikai Stela Too mane owacho ni japuonyno mabende ogengne e tesend obila ma Macalder Police Post osebedo ka odak e ot achiel gi jago ma iwacho ni ne onegono -wach makoro miyo en ema obedo kaka achich e nek mane obetieno</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno mikai Too nowacho ni japuonyno en mana achich kanowacho ni obila pod jotimo nonro mar yango gima dinyo bed ni otimore kapok nekno ne obetie kaachiel gi yango joma dinebed ni jonego jagono</t>
+  </si>
+  <si>
+    <t>Jatend obilano nowacho ni ringre jagono ne nigi adhonde buora matut machalo ni jagono ne ochuo gi gimoro ma dhoge bith</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi Radio Ramogi jaduong gweng ma Kibro kuno migosi Hassan Gombania nowacho ni jago mane onegino kod japuonyno josebedo ka odak e ot achiel kuom kinde malach</t>
+  </si>
+  <si>
+    <t>Nowacho ni ne giyudo ringre dichuono ka oriere e dier ot ei okinyi makawuononi</t>
+  </si>
+  <si>
+    <t>Ringre jagono ne oseter e kar kano ringre joma otho ma kar thieth ma Migori Level Four Hospital esechegi ma obila bende pod jodhiye nyime gi nonroni</t>
+  </si>
+  <si>
+    <t>Jago moro omaki ne ketho mar bambo mingi ma bathe</t>
+  </si>
+  <si>
+    <t>Jago moro ma jahigni 29 omaki gi joket arita ne ketho mar bambo mingi ma bathe ma jahigni 53 e gweng’ ma Kagombe mani Rachuonyo North e county ma Homabay.</t>
+  </si>
+  <si>
+    <t>Nonro ma oiwu yango ni nyo okuongo omonjo mingino kendo buoge kod opanga ma kaeto obambe.</t>
+  </si>
+  <si>
+    <t>Gisani ogeng’ne e tesend obila ma Kendu Bay ka nonro dhii nyime.</t>
+  </si>
+  <si>
+    <t>Achijno ma nyinge Washington Otieno omaki gi jalup ruoth ma gweng’no Johnson Osumba ma otere nyaka e tesend obila bang’ ketho ma yangore ni nyo otimo otieno ma yoro.</t>
+  </si>
+  <si>
+    <t>Chenro mag thieth koro osechako dok e wang’e mos mos Migori Level Four Hospital</t>
+  </si>
+  <si>
+    <t>Chenro mag thieth koro ne ochako dok e wang’e mos mos e kar thieth ma Migori Level Four Hospital bang lakteche mag County ma Migori kuno ma josebedo e ng’anyo kuom maloyo dweche 10 dok e tich ndalo 2 mokalo</t>
+  </si>
+  <si>
+    <t>Nonro mane otim gi Radio Ramogi ne oyango ni tije buora ne osechako dok e wang’e e osiptandno ka jotuo buora bende ne one ka dhi e osiptandno dhi manyo thieth</t>
+  </si>
+  <si>
+    <t>Kanowuoyo gi gi Radio Ramogi jatend migao mochungne yoore mag thieth e County ma Migori kuno migosi Kephas Nyamita nowacho ni chenro mag thieth ne chako duogo e wang’e mos mos nikech lakteche ma jonie tich pod nok</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Nyamita nowacho ni gisewuoyo kod jotend bede migepe mopogore opogore mag osiptandno mondo jotemie neno ni thieth odok e wang’e kapod girito nurses,clinical officers kod jothieth mag laboratory mondo jodog e tich</t>
+  </si>
+  <si>
+    <t>Namba lope iketo e chike manyasani</t>
+  </si>
+  <si>
+    <t>Migao ma ochung’ne lope ma pachoka osechako chenro mar daro ‘title deeds’ mag lope kigolo e rijista ma nene kendo irwako e rijista manyien manyasani ma osir gi chike mag loo mane okadhi e higa 2012.</t>
+  </si>
+  <si>
+    <t>Migao mar lope osingo ni onge ng’ata ng’ata ma dhii wito lope  kata odoko ni lokruok makamano dhii nyime</t>
+  </si>
+  <si>
+    <t>Pii taka orocho chenro Kisumu Girls</t>
+  </si>
+  <si>
+    <t>Tend skund nyiri mar Kisumu Girls okone kambi ma keyo pii (KIWASCO) mono oruwre ma piyo e loso hoto-goro mar pii taka ma ne obarore kendo keyo pii mochido e skundno.</t>
+  </si>
+  <si>
+    <t>Ochuno mondo mii jogo ma donjo e skundno otii mana kod apiko eka gichop ei skul.</t>
+  </si>
+  <si>
+    <t>Chenro mag wuoth ma donjo kata wuok e skundno obedo matek chakre nyoro manyo pii mochidono ochako kere.</t>
+  </si>
+  <si>
+    <t>Board mar skundno ma Kisumu Girls okoo ni chenro mag somo ok nyal dhii nyime makare ka ok olosi midhierono.</t>
+  </si>
+  <si>
+    <t>Thoo mar ja od bura machon Zablon Olang’</t>
+  </si>
+  <si>
+    <t>Oganda dhii nyime gi ywago mosenindo Zablon Owigo Olang’ mane en ja od bura ma Ndhiwa e kinde mokalo.</t>
+  </si>
+  <si>
+    <t>Gavana mar county ma Migori e ote mare, opuoyo mosenindo Olang kaka jal mane konyo e chiwo paro ma liwu mag dongo county ma Migori.</t>
+  </si>
+  <si>
+    <t>Ja od bura machon ma Rongo migosi Dalmas Otieno ma bende sani en komishona mar duol machano osara mag jotich e pachoka SRC, bende opuoyo mosenindo olang.</t>
+  </si>
+  <si>
+    <t>Mosenindo zablon olang ne ongielo orengo odiechieng ma nyoro ka en jahigni 81.</t>
+  </si>
+  <si>
+    <t>Ne obedo ja od bura ma ndhiwa e kind higa 1979 nyaka 83.</t>
+  </si>
+  <si>
+    <t>Piny owacho ogolo omenda maromo siling million 10 ne skunde</t>
+  </si>
+  <si>
+    <t>Piny owacho koro ogolo omenda maromo silings million 10 ne skunde mane okethi gi pii mapong kendo mamuomore mar konyo e chenro mag gedo mag skundego</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jatend migao mochungne yoore mag somo e pachoka ngire George Magoha mabende nowacho ni lipiago biro konyo e chenro mag daro skundego e kuonde mane ogergiego ka idhi gerogi kuonde mamoko makoro oula ok nyal chendee</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e skund primary ma Ombaka e Sub County ma Nyando e County ma Kisumu ngire Magoha nowacho ni piny owacho ne ogolo pesago ne skunde ma County ma Kisumu kod County ma Baringo mar konyo e chako weche mag gedo mag skunde mane pii oketho e Countiesgo</t>
+  </si>
+  <si>
+    <t>Jatend migaono bende nowacho ni omor gi kwan mag jopuonjre mane jogoyo ripot e skunde nyakane yau skunde chieng wuok tich kanowacho ni kwanno duong maber kabende ne okwayo ruodhi mondo jodhi nyime gi pedho jopuonjre mapok jodhi e school mondo mi gine ni jopuonjrego jodhi e school</t>
+  </si>
+  <si>
+    <t>Katakamano ngire Magoha ne ogolo siem mager ne jopuonje madongo mag skunde mag primary ni kik gitem riembo nyithindo e school ne school fees</t>
+  </si>
+  <si>
+    <t>Piny owacho mamalo chano tiego jo ohala</t>
+  </si>
+  <si>
+    <t>Piny owacho mamalo kokalo kuom bad migao mochungne riuruok pinje Africa ma Ugwe san koro osechako tiego jo ohala modak e Counties manie tong mag pinje Africa ma Ugwego kaka yoore ting’o malo weche mag ohala e kind pinjego</t>
+  </si>
+  <si>
+    <t>Oseyudi ni rem bedo kod ng’eyo ewii weche mag ohala ema osebedo obadho maduong mokalo ewii dongruok mag ohala migoyo e tong mag pinje Africa ma Ugwego moting’o rocho yoore mag ohala kuom jo ohala ma piny Kenyaka modak e Counties manie tong pinjego -wach mabende koro ne omiyo piny owacho mamalo ochako chenro mag tiego jo ohala e weche mag ohalago mar tieko chutho wach rem bedo kod ng’eyo e weche mag ohalago</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jagoro mongirore e migao mochungne riuruok mar pinje Africa ma Ugweno Kevit Desai mabende ne oromne e limbe mare mane otimo e County ma Homa Bay gi jalup governor mar County ma Homa Bay kuno migosi Hamilton Orata</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e romo mane obedo godo gi jotelo ma County ma Homa Bay kuno Desai nowacho ni gigeto tiego jo ohala modhuro e County ma Homa Bay kuno mondo jobed kod lony mowinjore e weche mag ohala</t>
+  </si>
+  <si>
+    <t>Jatelono nowacho ni piny owacho ochiwore gi yoore duto mag tieko chutho rem bedo kod rieko e wii weche mag ohalano mar konyo neno ni jo ohala ma Kenya koro jonyalo donjo e weche mag ohala gi mijing’o</t>
+  </si>
+  <si>
+    <t>To bende kanowuoyo e romo achiel nogono jalup govenor ma Homa Bay migosi Hamilton O rata nowacho ni bad migao mochungne weche mag ohala e piny owacho mar County ma Homa Bay kuno biro dhi nyime gi tiego jo ohala modhuro e weche mag ohala ma mariwa ma oriwo pinjego</t>
+  </si>
+  <si>
+    <t>Orata nowacho ni gie sechegi gidhi nyime kod lalruok gi piny owacho mamalo mondo mi ogerie kar ohala moro maduong e boma ma Mbita mar konyo jiwo weche mag ohala e kind County ma Homa Bay gi pinje ma libamba mag pinje Africa ma Ugwe</t>
+  </si>
+  <si>
+    <t>Clinical officers jowacho ni gidok e ng’anyo margi e dier otieno makawuononi</t>
+  </si>
+  <si>
+    <t>Riuruok mar clinical officers mapachoka kawuono koro olando ni gidhi dok e ng’anyo margi kochakore saa auchiel mar otieno makawuononi bang rumb seche 48 mane gimiyo riuruok mar governors mathurka mondo ne joloo godo dwachgi</t>
+  </si>
+  <si>
+    <t>Kanegiwuoyo ewii wachno jotend riuruogno ma gin jagoro George Gibore kod jakom Peterson Wachira ne jowacho ni riuruok mar governorsno oserem chopo dwach winjruok mane gichopee kodgi ewii kakane onegobed ni gidok e tich mabende ong’ere gi dho ngere ni Return to Work Formula mabende ne oketie kogno tarik achiel mar dweni</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Gibore nowacho ni riuruok mar governorsno onge kod chuny mar bero sekta mar thieth e pachoka ni nikech moko kuom governors koro osebukore gi tim moro mar riembo jothieth e tich kaachiel gi buogo moko mapok jodok e tich bende</t>
+  </si>
+  <si>
+    <t>Negiwacho ni ng’anyo masanini biro dhi nyime nyakachop chieng ma riuruok mar governorsno obiro obedo ni ohikore mar keto koke e winjruogno mabende oting’o thuond weche 17 ma giduaro ni lonegi</t>
+  </si>
+  <si>
+    <t>Nyathi skul obambi kaeto onegi</t>
+  </si>
+  <si>
+    <t>Obila ma Sub county ma Bondo timo nonro ewii nek mar japuonjre ma ja klass 10 ma ringre ne okwany e gweng’ ma Abom mani e sub location ma Ajigo.</t>
+  </si>
+  <si>
+    <t>Ringre japuonjreno ma en jahigni 20 ma nyocha somo e skund sekondar ma Kamnara Mixed ne okwany e puodho moro mana bang’ ka nyo oselal kowuok e ot mosebedo koninde e dalagi.</t>
+  </si>
+  <si>
+    <t>Jalup ruoth ma Ajigo Emily Awimbo chiwo lerno.</t>
+  </si>
+  <si>
+    <t>Ruto kawuono ne odhi nyime gi kidho BBI</t>
+  </si>
+  <si>
+    <t>Jalup jatend piny Kenya laktar William Ruto kawuono ne odhi nyime gi kidho BBI kane owacho ni BBI ok en gima ochuno ahinya e piny Kenyaka gie sechegi</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno laktar Ruto nowacho gima ochuno e piny Kenyaka gie sechegi ma onegobed ni jotelo ma Kenyaka joketoe maino margi en wach dongruok kanowacho ni dongruok ema onegobed ni iketo nyime moloyo e pachoka gie sechegi maok wach BBIno</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e County ma Embu kucho laktar Ruto nowacho ni nikech gombo nitie mar chiero ochumi mapachoka bang tuo mar Corona ketho ochumi ma piny Kenyaka onegobed ni jotelo mathurka joketo maino margi e weche mag dongruok kende gie sechegi maok dich gi goyo campaign ne BBI</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e kanisa mar Moore Catholic Church Kairuri Parish mabende ne odhi yuagoe familia mar jatend oganda jokopere mapachoka Cardinal John Njue kuom tho mar nyamin Njue nogono laktar Ruto nowacho ni wach sieko mar BBIno osemono piny owacho mar Jubilee e timo chenro meke mag dongruok ne jopiny kabende ne osingo ne oganda ma Embu kuno ni piny owacho ohikore mar biro tieko wach gedo mag apaya makono</t>
   </si>
 </sst>
 </file>
@@ -10913,10 +11129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B996"/>
+  <dimension ref="A1:B1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A991" workbookViewId="0">
-      <selection activeCell="B992" sqref="B992:B996"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="A1070" sqref="A1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18878,6 +19094,594 @@
       </c>
       <c r="B996" s="6" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" ht="99">
+      <c r="A998" s="25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="59.4">
+      <c r="A999" s="25" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B999" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="40.799999999999997">
+      <c r="A1000" s="23" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" ht="59.4">
+      <c r="A1001" s="25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" ht="39.6">
+      <c r="A1002" s="25" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="59.4">
+      <c r="A1003" s="25" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="39.6">
+      <c r="A1004" s="25" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="20.399999999999999">
+      <c r="A1005" s="23" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" ht="59.4">
+      <c r="A1006" s="25" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="59.4">
+      <c r="A1007" s="25" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="39.6">
+      <c r="A1008" s="25" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="40.799999999999997">
+      <c r="A1009" s="23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" ht="59.4">
+      <c r="A1010" s="25" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011"/>
+      <c r="B1011" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" ht="79.2">
+      <c r="A1012" s="25" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="59.4">
+      <c r="A1013" s="25" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" ht="39.6">
+      <c r="A1014" s="25" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" ht="59.4">
+      <c r="A1015" s="25" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="19.8">
+      <c r="A1016" s="25" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" ht="39.6">
+      <c r="A1017" s="25" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" ht="20.399999999999999">
+      <c r="A1018" s="23" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" ht="39.6">
+      <c r="A1019" s="25" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" ht="59.4">
+      <c r="A1020" s="25" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" ht="39.6">
+      <c r="A1021" s="25" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="19.8">
+      <c r="A1022" s="25" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="40.799999999999997">
+      <c r="A1023" s="23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="59.4">
+      <c r="A1024" s="25" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="59.4">
+      <c r="A1025" s="25" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="59.4">
+      <c r="A1026" s="25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="79.2">
+      <c r="A1027" s="25" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="20.399999999999999">
+      <c r="A1028" s="23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="59.4">
+      <c r="A1029" s="25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" ht="39.6">
+      <c r="A1030" s="25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" ht="20.399999999999999">
+      <c r="A1031" s="23" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" ht="59.4">
+      <c r="A1032" s="25" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" ht="39.6">
+      <c r="A1033" s="25" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="39.6">
+      <c r="A1035" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="20.399999999999999">
+      <c r="A1036" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" ht="39.6">
+      <c r="A1037" s="25" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038"/>
+      <c r="B1038" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="39.6">
+      <c r="A1039" s="25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="59.4">
+      <c r="A1040" s="25" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1040" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="19.8">
+      <c r="A1041" s="25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1041" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="19.8">
+      <c r="A1042" s="25" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1042" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="20.399999999999999">
+      <c r="A1043" s="23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1043" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="39.6">
+      <c r="A1044" s="25" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1044" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="79.2">
+      <c r="A1045" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1045" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="79.2">
+      <c r="A1046" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1046" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="79.2">
+      <c r="A1047" s="25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1047" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="39.6">
+      <c r="A1048" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1048" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1049" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="59.4">
+      <c r="A1050" s="25" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1050" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" ht="118.8">
+      <c r="A1051" s="25" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1051" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="79.2">
+      <c r="A1052" s="25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1052" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" ht="59.4">
+      <c r="A1053" s="25" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1053" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="59.4">
+      <c r="A1054" s="25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1054" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="79.2">
+      <c r="A1055" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1055" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="79.2">
+      <c r="A1056" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1056" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" ht="20.399999999999999">
+      <c r="A1057" s="23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1057" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="59.4">
+      <c r="A1058" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1058" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="99">
+      <c r="A1059" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1059" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="79.2">
+      <c r="A1060" s="25" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1060" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="59.4">
+      <c r="A1061" s="25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1061" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1062" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="39.6">
+      <c r="A1063" s="25" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1063" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="59.4">
+      <c r="A1064" s="25" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1064" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="19.8">
+      <c r="A1065" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1065" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" ht="20.399999999999999">
+      <c r="A1066" s="23" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1066" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" ht="39.6">
+      <c r="A1067" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1067" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="79.2">
+      <c r="A1068" s="25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1068" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="79.2">
+      <c r="A1069" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1069" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="118.8">
+      <c r="A1070" s="25" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchiawo\Desktop\Luo-News-Dataset-master\Luo-News-Dataset-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13335" windowHeight="2850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
     <sheet name="Annotated" sheetId="2" r:id="rId2"/>
     <sheet name="Main Pivot" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1458">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -3779,13 +3786,631 @@
   </si>
   <si>
     <t>MCA MA KIPKELION ANTHONY RUTO, OYANGO NI JATEND OKWACH KICHNO MANOCHUNG’NE KIPKELION, NYOTHO E SECHE MA NYAMBURKO MARE MATIN MANYOTINGE KOD NYANO  NYO OHULA OYUAYO KANYO GITEMO NGÁDO NDARA MANYO PII OPONGÓ EMA NYO OYUA GARINO NYAKA EI AORA.</t>
+  </si>
+  <si>
+    <t>PIDHURU RECH MATINDO MIUSO NE JOPITH</t>
+  </si>
+  <si>
+    <t>NOMEDO NI KWAN JOPUR KOD JOPITH MA SNAI USO RECH MATINDO POD NI PINY KA KUOM MANO DWARO NITIERE MAR NENO NI OMED KWANNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOPUR KOD JOPITH MA SIAYA OKWA MONDO JONE NI OCHAKO PITH MAR RECH MATINDO MIUSO NE JOPITH MAR NENO NI NWENGO MARGI OMEDORE </t>
+  </si>
+  <si>
+    <t>KALUWORE GI DWARO MA JATEND MIGAO MAR PUR E COU NTY MA SIAYA DR. ELIZABETH ODHIAMBO, OWACHO NI BEDO NI NITIE CAGES MOHINGO 2,000 E ALUORANO, DWARO MAR RECH MATINDO MIPIDH KORO NI MALO MOKALO.</t>
+  </si>
+  <si>
+    <t>JAOD BURA OCHANDA OBALO E WACH KOMBE MILOSO NE SIKUNDE</t>
+  </si>
+  <si>
+    <t>GEORGE AMOLO NIGI MATHOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAOD BURA MA BOINDO GUIDEON OCHANDA KORO WCAHO NI PINY OWACHO NONEGO OMI THUOLO MOKUONGO GIGO MOCHUNO E WACH  GAYO LANDRUOK KORONA KAR NE GIKET THENGE SILING BILLION 1.9 MAR LOSO KOMBE NE SIKUNDE. </t>
+  </si>
+  <si>
+    <t>JO KISUMU MANYATTA DWARO NI MONDO ONON JOK MAKAW NAMBA OPANDE</t>
+  </si>
+  <si>
+    <t>JODAK MA KONA MBAYA EI MANYATTA SANI NGUR MOKALO KALUWORE GI JWETH MORO MOSEBEDO KA LUORORE E ALUORANO KA WACHO NI GINDIKO NYING JII MONDO JOYUD CHIEMB KONY.</t>
+  </si>
+  <si>
+    <t>JODAK MA KONO WACHPO NI GICHICHI NI GITIE GIA DH NYIME MOPGOGORE GI WACH CHIEMB KONY NIMAR GIPENJ JII NYAKA NAMBA MARGI MAR KIPANDE.</t>
+  </si>
+  <si>
+    <t>GRACE ATIENO MA EN JA OHALA EI MANYATTA WACHO NI JOTELO MAG ARITA EI MANYATTA KANYO ONEGO OWUOG OKO MONDO ORANG ANE LER MAR KWETH MA KAMANO.</t>
+  </si>
+  <si>
+    <t>ALEX OMONDO MANOLOSO GI RADIO RAMOGI WACHO NI GIN GI LUORO NIMAR JII MATHOTH NI KECH KENDO NYALO CHIW KIPANDEGI MAYOT.</t>
+  </si>
+  <si>
+    <t>OBILA ARIYO OMAKI BANG CHUO JOMATH MOKO GI PALA</t>
+  </si>
+  <si>
+    <t>APISA 2 MAG OBILA E COUNTY MA NAKURU OLORNEGI E TESEND OBILAMA NJABINI BANG CHUOYO GI PALA CHUO MOKO ARIYO E BAR MORO KAMA NYOYUDO GIKUOTE ANDIWO.</t>
+  </si>
+  <si>
+    <t>WACHORE NI YUARUOK NOMUOCH E KIND OGUL MAMA KOD JOMATH MAMOKGO E SECHE MANYO OCHUOGI GI PALA KA ACHIEL NYOCHUO E BUND IYE TO MACHIELO OCHUO NGÚT LWETE.</t>
+  </si>
+  <si>
+    <t>JATEND OBILA MA KINANGOP BENJAMIN ONGÓMBE OYANGO WCAH MEKO MAR OBILAGO KA GILERO NI IBIRO CHOPOGI EMNYIM DOHO KA NONRO OSERUMO.</t>
+  </si>
+  <si>
+    <t>Japuony moro ma Senye Primary School sani ogengne e tesend obila gi ketho mar nego dichuo moro ma ja higni 35</t>
+  </si>
+  <si>
+    <t>Jago moro omaki ne ketho mar bambo mingi ma bathe</t>
+  </si>
+  <si>
+    <t>Chenro mag thieth koro osechako dok e wang’e mos mos Migori Level Four Hospital</t>
+  </si>
+  <si>
+    <t>Namba lope iketo e chike manyasani</t>
+  </si>
+  <si>
+    <t>Migao ma ochung’ne lope ma pachoka osechako chenro mar daro ‘title deeds’ mag lope kigolo e rijista ma nene kendo irwako e rijista manyien manyasani ma osir gi chike mag loo mane okadhi e higa 2012.</t>
+  </si>
+  <si>
+    <t>Migao mar lope osingo ni onge ng’ata ng’ata ma dhii wito lope  kata odoko ni lokruok makamano dhii nyime</t>
+  </si>
+  <si>
+    <t>Pii taka orocho chenro Kisumu Girls</t>
+  </si>
+  <si>
+    <t>Tend skund nyiri mar Kisumu Girls okone kambi ma keyo pii (KIWASCO) mono oruwre ma piyo e loso hoto-goro mar pii taka ma ne obarore kendo keyo pii mochido e skundno.</t>
+  </si>
+  <si>
+    <t>Ochuno mondo mii jogo ma donjo e skundno otii mana kod apiko eka gichop ei skul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenro mag wuoth ma donjo kata wuok e skundno obedo matek chakre nyoro manyo pii mochidono ochako kere. </t>
+  </si>
+  <si>
+    <t>Board mar skundno ma Kisumu Girls okoo ni chenro mag somo ok nyal dhii nyime makare ka ok olosi midhierono.</t>
+  </si>
+  <si>
+    <t>Thoo mar ja od bura machon Zablon Olang’</t>
+  </si>
+  <si>
+    <t>Oganda dhii nyime gi ywago mosenindo Zablon Owigo Olang’ mane en ja od bura ma Ndhiwa e kinde mokalo.</t>
+  </si>
+  <si>
+    <t>Gavana mar county ma Migori e ote mare, opuoyo mosenindo Olang kaka jal mane konyo e chiwo paro ma liwu mag dongo county ma Migori.</t>
+  </si>
+  <si>
+    <t>Ja od bura machon ma Rongo migosi Dalmas Otieno ma bende sani en komishona mar duol machano osara mag jotich e pachoka SRC, bende opuoyo mosenindo olang.</t>
+  </si>
+  <si>
+    <t>Mosenindo zablon olang ne ongielo orengo odiechieng ma nyoro ka en jahigni 81.</t>
+  </si>
+  <si>
+    <t>Ne obedo ja od bura ma ndhiwa e kind higa 1979 nyaka 83.</t>
+  </si>
+  <si>
+    <t>Piny owacho ogolo omenda maromo siling million 10 ne skunde</t>
+  </si>
+  <si>
+    <t>Piny owacho koro ogolo omenda maromo silings million 10 ne skunde mane okethi gi pii mapong kendo mamuomore mar konyo e chenro mag gedo mag skundego</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jatend migao mochungne yoore mag somo e pachoka ngire George Magoha mabende nowacho ni lipiago biro konyo e chenro mag daro skundego e kuonde mane ogergiego ka idhi gerogi kuonde mamoko makoro oula ok nyal chendee</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e skund primary ma Ombaka e Sub County ma Nyando e County ma Kisumu ngire Magoha nowacho ni piny owacho ne ogolo pesago ne skunde ma County ma Kisumu kod County ma Baringo mar konyo e chako weche mag gedo mag skunde mane pii oketho e Countiesgo</t>
+  </si>
+  <si>
+    <t>Jatend migaono bende nowacho ni omor gi kwan mag jopuonjre mane jogoyo ripot e skunde nyakane yau skunde chieng wuok tich kanowacho ni kwanno duong maber kabende ne okwayo ruodhi mondo jodhi nyime gi pedho jopuonjre mapok jodhi e school mondo mi gine ni jopuonjrego jodhi e school</t>
+  </si>
+  <si>
+    <t>Katakamano ngire Magoha ne ogolo siem mager ne jopuonje madongo mag skunde mag primary ni kik gitem riembo nyithindo e school ne school fees</t>
+  </si>
+  <si>
+    <t>Piny owacho mamalo chano tiego jo ohala</t>
+  </si>
+  <si>
+    <t>Piny owacho mamalo kokalo kuom bad migao mochungne riuruok pinje Africa ma Ugwe san koro osechako tiego jo ohala modak e Counties manie tong mag pinje Africa ma Ugwego kaka yoore ting’o malo weche mag ohala e kind pinjego</t>
+  </si>
+  <si>
+    <t>Oseyudi ni rem bedo kod ng’eyo ewii weche mag ohala ema osebedo obadho maduong mokalo ewii dongruok mag ohala migoyo e tong mag pinje Africa ma Ugwego moting’o rocho yoore mag ohala kuom jo ohala ma piny Kenyaka modak e Counties manie tong pinjego -wach mabende koro ne omiyo piny owacho mamalo ochako chenro mag tiego jo ohala e weche mag ohalago mar tieko chutho wach rem bedo kod ng’eyo e weche mag ohalago</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jagoro mongirore e migao mochungne riuruok mar pinje Africa ma Ugweno Kevit Desai mabende ne oromne e limbe mare mane otimo e County ma Homa Bay gi jalup governor mar County ma Homa Bay kuno migosi Hamilton Orata</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e romo mane obedo godo gi jotelo ma County ma Homa Bay kuno Desai nowacho ni gigeto tiego jo ohala modhuro e County ma Homa Bay kuno mondo jobed kod lony mowinjore e weche mag ohala</t>
+  </si>
+  <si>
+    <t>Jatelono nowacho ni piny owacho ochiwore gi yoore duto mag tieko chutho rem bedo kod rieko e wii weche mag ohalano mar konyo neno ni jo ohala ma Kenya koro jonyalo donjo e weche mag ohala gi mijing’o</t>
+  </si>
+  <si>
+    <t>To bende kanowuoyo e romo achiel nogono jalup govenor ma Homa Bay migosi Hamilton O rata nowacho ni bad migao mochungne weche mag ohala e piny owacho mar County ma Homa Bay kuno biro dhi nyime gi tiego jo ohala modhuro e weche mag ohala ma mariwa ma oriwo pinjego</t>
+  </si>
+  <si>
+    <t>Orata nowacho ni gie sechegi gidhi nyime kod lalruok gi piny owacho mamalo mondo mi ogerie kar ohala moro maduong e boma ma Mbita mar konyo jiwo weche mag ohala e kind County ma Homa Bay gi pinje ma libamba mag pinje Africa ma Ugwe</t>
+  </si>
+  <si>
+    <t>Clinical officers jowacho ni gidok e ng’anyo margi e dier otieno makawuononi</t>
+  </si>
+  <si>
+    <t>Riuruok mar clinical officers mapachoka kawuono koro olando ni gidhi dok e ng’anyo margi kochakore saa auchiel mar otieno makawuononi bang rumb seche 48 mane gimiyo riuruok mar governors mathurka mondo ne joloo godo dwachgi</t>
+  </si>
+  <si>
+    <t>Kanegiwuoyo ewii wachno jotend riuruogno ma gin jagoro George Gibore kod jakom Peterson Wachira ne jowacho ni riuruok mar governorsno oserem chopo dwach winjruok mane gichopee kodgi ewii kakane onegobed ni gidok e tich mabende ong’ere gi dho ngere ni Return to Work Formula mabende ne oketie kogno tarik achiel mar dweni</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Gibore nowacho ni riuruok mar governorsno onge kod chuny mar bero sekta mar thieth e pachoka ni nikech moko kuom governors koro osebukore gi tim moro mar riembo jothieth e tich kaachiel gi buogo moko mapok jodok e tich bende</t>
+  </si>
+  <si>
+    <t>Negiwacho ni ng’anyo masanini biro dhi nyime nyakachop chieng ma riuruok mar governorsno obiro obedo ni ohikore mar keto koke e winjruogno mabende oting’o thuond weche 17 ma giduaro ni lonegi</t>
+  </si>
+  <si>
+    <t>Nyathi skul obambi kaeto onegi</t>
+  </si>
+  <si>
+    <t>Obila ma Sub county ma Bondo timo nonro ewii nek mar japuonjre ma ja klass 10 ma ringre ne okwany e gweng’ ma Abom mani e sub location ma Ajigo.</t>
+  </si>
+  <si>
+    <t>Ringre japuonjreno ma en jahigni 20 ma nyocha somo e skund sekondar ma Kamnara Mixed ne okwany e puodho moro mana bang’ ka nyo oselal kowuok e ot mosebedo koninde e dalagi.</t>
+  </si>
+  <si>
+    <t>Jalup ruoth ma Ajigo Emily Awimbo chiwo lerno.</t>
+  </si>
+  <si>
+    <t>Ruto kawuono ne odhi nyime gi kidho BBI</t>
+  </si>
+  <si>
+    <t>Jalup jatend piny Kenya laktar William Ruto kawuono ne odhi nyime gi kidho BBI kane owacho ni BBI ok en gima ochuno ahinya e piny Kenyaka gie sechegi</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno laktar Ruto nowacho gima ochuno e piny Kenyaka gie sechegi ma onegobed ni jotelo ma Kenyaka joketoe maino margi en wach dongruok kanowacho ni dongruok ema onegobed ni iketo nyime moloyo e pachoka gie sechegi maok wach BBIno</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e County ma Embu kucho laktar Ruto nowacho ni nikech gombo nitie mar chiero ochumi mapachoka bang tuo mar Corona ketho ochumi ma piny Kenyaka onegobed ni jotelo mathurka joketo maino margi e weche mag dongruok kende gie sechegi maok dich gi goyo campaign ne BBI</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e kanisa mar Moore Catholic Church Kairuri Parish mabende ne odhi yuagoe familia mar jatend oganda jokopere mapachoka Cardinal John Njue kuom tho mar nyamin Njue nogono laktar Ruto nowacho ni wach sieko mar BBIno osemono piny owacho mar Jubilee e timo chenro meke mag dongruok ne jopiny kabende ne osingo ne oganda ma Embu kuno ni piny owacho ohikore mar biro tieko wach gedo mag apaya makono</t>
+  </si>
+  <si>
+    <t>KUONDE SOMO MA MALO POK OIKORE NE YEPO–MAGOHA OLERO</t>
+  </si>
+  <si>
+    <t>MANA COLEGES ADEK KENDE MAPUONJO TIJE MAG LWEDO EMA OSEIKORE NE YEPO KENDO . ADEKGO GIN NYERI NYERI NATIONAL POLYTECHNIC, RIFT VALLEY TECHNICAL TRAINING INSTITUTE KOD THE ELDORET POLYTECHNIC.</t>
+  </si>
+  <si>
+    <t>KALUWORE GI JATEND MIGAO MAR SOMO NGIRE GEORGE MAGOHA, MANOTIMO LIMBE MAR NONO CHAL MAR IKRUOK E KAR TIEGRUOK MA NYERI, , NOWACHO NI ATA MALO 40 MAR KUONDE TIEGRUOK MAPUONJO TIJE LWEDOGO OSEGIK CHOPO E RANGINY MIDWARO MAR YEPO KENDO.</t>
+  </si>
+  <si>
+    <t>KATA KAMAN MAGOHA NOWACHO NI SIKUNDE MAG PRIMAR KOD MAG SECONDAR IKRUOK MAR YEPO MARGI POD NI MABOR.</t>
+  </si>
+  <si>
+    <t>MAGOHA NOWACHO NI POD OBIRO MEDO TIMO LIMBE E KUONDE TIEGRUOK E SECHEGI MA PINY OWACHO MEDO TIMO IKRUOK MAR YEPO MAR SIKUNDE MA THURKA.</t>
+  </si>
+  <si>
+    <t>JODOLO MATINDO OKWA MONDO OSUM PARO KUOM MADONGO</t>
+  </si>
+  <si>
+    <t>ESECHEEGI MA PINY OWACHO POD OKETO KUM MAGENGO NE JODONGO DHI E UTE MAG ALAM  MAR GAYOGI MONDO MI KIK GIGAM MIDHUSI MAR CORONA, LUORO NITIERE NI MOKO KUOM UTE MAG ALAM KIDEK PODHO KALUWORE GI TELO MAG OJENDE.</t>
+  </si>
+  <si>
+    <t>KALUWOREGI MANO OJENDE MASANI OKAWO TELO MAG KANISNI KORO IJIWO MONDO NI JOBED KASUMO PACH JODONGO MOSEBEDO KATAYO CHENRO MAG ALAM TO KATAKAMANO SANI KORO OLORNEGI OKO MAR KANISNI.</t>
+  </si>
+  <si>
+    <t>JOTHIETH MEDO YUDO CORONA KENDO GIYUAK</t>
+  </si>
+  <si>
+    <t>E SECHEGI A MIDHUSI MAR CORONA MEDO MAA LANDORE E PACHO KAE, KWAN JOTHIETH MA MEDO YUDO TUONO BENDE MEDO MANA IDHO. NYAKA SANI KWAN JOTHIETH MAROMO 1,437 OSEYUDO TUONO.</t>
+  </si>
+  <si>
+    <t>E DWENI MAR 10 KENDE JOTHIETH 217 OSEGAMO TUO MAKOCHNO KA THOTHGI MEDO YUAK NE LWASI MARACH MAR TICH. 0</t>
+  </si>
+  <si>
+    <t>JAGORO MAR RIWRUOK LAKTACHE DR CHIBANZI MWACHONDA NYISOWA GIMOMIYO TUO MA KAMANO MEDO LANDORE E KIND JOTHIETH.</t>
+  </si>
+  <si>
+    <t>MWACHONDA WACHO NI OKANG A KORO JOTHIETH 18 OSETHO GI KORONA ROCHO MOKALO CHENRO MAG THIETH KOWACHO NI KATA KOBEDO NI JOTHIETH OCHIWORE MOKALO, KATA MANA MBALANG MIMIYOGI MBENDE ONGE.</t>
+  </si>
+  <si>
+    <t>GEORGE GIBORE MOCHUNGNE JOTHIETH KATA CLINICIANS WACHO NI CHAKRUOK MAR TIELO MAR ARIYO MAR CORONA MEDO KELO LUORO MOKALO E KIND OGANDA.</t>
+  </si>
+  <si>
+    <t>MIYO MORO ODERE ALEGO BANG PESANE GWENYORE</t>
+  </si>
+  <si>
+    <t>JODAK MA LWALA VILLAGE E KAR CHUNG OD BURA MA ALEGO USONGA, NOCHIEW GI BUOK OKINYI MA KAWUONO BANG YUDO RINGRE MIYO MA JA HIGNI 51 KA DANGNI E TAT ODE KA ICHICH NI NOKAW NGIMANE OWUON.</t>
+  </si>
+  <si>
+    <t>JOK MANODAR KOWUOK KIBUYE YUAK </t>
+  </si>
+  <si>
+    <t>RINGRE NOTER SIAYA COUNTY REFERAL HOSPITAL MORTUARY</t>
+  </si>
+  <si>
+    <t>IWACHO NI MOTELO NE MANO NYOYUAK NI NOKANO SILING 40,000 MAG CHAMA TO EMA BANGE NOFWENY NI 20,000 ONGE</t>
+  </si>
+  <si>
+    <t>KALUWORE GI WEDENE, MIYONO IWACHO NI PESA MAROMO SH 20,000 MAG CHAMA NYOGWENYORENE EN KAKA JAKENO GINO MANE NALO MIYO OKAW NGIMANE</t>
+  </si>
+  <si>
+    <t>JARED JUMA NOYUDE RINGRE JAODE MARGRET ATINEO KOLIERO KA THOL BENDE NORIDO NGÚTE</t>
+  </si>
+  <si>
+    <t>KUPPET DWARO LWASI MABER NE JOPUONJ</t>
+  </si>
+  <si>
+    <t>JAGORO MAR KUPPET BADE MA KISUMU ZABLON AWANGE, SANI DWARO NI PINY OWACHO MONDO OKET LWASI MABER NE JOPUONJ MOTELO NE YEPO MAR SIKUNDE MOCHAN TIMORE JANUAR HIGA MANYIEN.</t>
+  </si>
+  <si>
+    <t>AWANGE WACHO NI YEPO MA ALUNDE MA SANI OSECHAKORENI NI KOD ACHIEDHNADE MATHOTH MOKALO. NOWACHO NE PINY OWACHO NI NYAKA GINE NI JOPUONJ NIGI GIGE GENG’RUOK MORTOMO KATA PPES MA RANGNINY GI NI MALO.</t>
+  </si>
+  <si>
+    <t>KANOLOSO E BOMA MA KISUMO, AWANGE KATA KAMANO NOWACHO NI GIONGE GI WACH GI KALENDAR MANYIEN MAR SOMONO KOWACHO NI JOPUONJ MA HIKGI OKALO 58 OK ONEGO OCHUN DHI E SIKUL NIMAR MOKO KUOMGI NYAKA SANI ICHUNO MONDO JOTII KA GIN E SIKUL KAR TIYO KA GIN PACHO.</t>
+  </si>
+  <si>
+    <t>LUORO NITIE MOMBASA KALUWORE GI NGÁNYO MAG JOTHIETH</t>
+  </si>
+  <si>
+    <t>LUORO NITIERE NI OGANDA MATHOTH KIDEK WITO NGIMAGI MOMBASA TO CHUTHO ESECHEGI MA JOTUO CORONA KORONA MEDORE E PACHOKA KALUWORE GI NGANYO MAR NURSES MASANI ODONJO ODIOCHIENGE MAR ADEK.</t>
+  </si>
+  <si>
+    <t>KAMATI MAE SENATE DAYOP DHO JOK MANOLOKO GI KEMSA</t>
+  </si>
+  <si>
+    <t>KAMATI MAR OD BURA  MAR SENATE E WI THIETH ISECHAKO NONO KEMBE MANOCHIWO MWANDU MAG GENGRUOK NE MIDHUSI MAR CORONA  MA GIYUDO BILLION MODHURO MAG OMENDA.</t>
+  </si>
+  <si>
+    <t>JATAA TIJE MADUONG KA ANDELICA MEDICAL NICHOLAS MATU NOWACHO E SAMA NIDAYO DHOGE GI KAMATINO MOTELNE KOD SENETA MA TRANZOIA  MICHAEL MBITO NI NONDIKO NE KEMSA NI NODWA CHWALO GIGE THIETHGO KATA KOBEDO NI KEMSA NE POK OLANDO TENDER MA KAMANO.</t>
+  </si>
+  <si>
+    <t>NOLERO NI KEMSA NOYIENE KA BANG MANO NE GICHAKO WINJORE E WI NENGO  MAG NGIEWO PPES GO. MOPOGORE GI ANGELICA MEDICAL , KEMBE MAMOKO MA IDAYO DHOGI MANOYUDO BILLION MODHURO MAG OMENDA E MIBADHI MA KA KEMSA GO GIN KAACHIEL KOD</t>
+  </si>
+  <si>
+    <t>Jabodaboda odere nikech gowi</t>
+  </si>
+  <si>
+    <t>ROWERE 21 OMAKI BUNGOMA KA TOYO NGONA</t>
+  </si>
+  <si>
+    <t>ANYUOLA MORO MIGORI DWARO RATIRO NE NYARGI MNAOBAMBI</t>
+  </si>
+  <si>
+    <t>OKWACH KICH NONO KENDO MANYIEN TULO MA TOK YIERO</t>
+  </si>
+  <si>
+    <t>MATIANGÍ WACHO NI KENYA OSEGOYO OKANG</t>
+  </si>
+  <si>
+    <t>politics and Government</t>
+  </si>
+  <si>
+    <t>Count of PIDHURU RECH MATINDO MIUSO NE JOPITH</t>
+  </si>
+  <si>
+    <t>MUDAVADI DWARO REFERENDUM MONYWAKO JOKENYA</t>
+  </si>
+  <si>
+    <t>JATEND DUOND BURA MAR ANC MUSALIA MUDAVADI OKWAYO MOGANDA JO MASAI  MONDO JOMED RIWORE E TWECH ACHIEL  E SECHEGI MA KENYA OCHOMO YIERO MA HIGA 2022. MUDAVADI MA BENDE NYOWACHO NI EN GI MILUMA MAR BEDO JATEND PINY KENYA E YIERO MADUONG MAR HIGA 2022, NOKWAYO OGANDA JO MASAI NI MONDO JOBI OSIRE LWEDO E KINDE YIERO.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI KAPO OYIER, OBIRO TIYO GI THUOLO MA KAMANO E CHIERO OCHUMI MAR KENYA.  MUDAVADI NOWACHO NI GI SANI OSIRO OKANG MAR JATEND KENYA UHURU KENYATTA E LWENY MAR KEDO GI MIBADHI KOPAKO DUOL MAR KEDO GI MIBADHI KUOM OKENGE MOSEGOYO E LWENY MA KAMANO.</t>
+  </si>
+  <si>
+    <t>MUDAVADI NOWACHO NI OKANG MA SANI KENYA OCHOMO MAR DWARO LOKO KATIBA OK ONEGO BED NI EN MANO MA KELO BER NE JII MANOK KOWACHO NI ONEGO OBED NI EN MAKELO CHIKO MA BIRO DEWO JII DUTO MACHAL</t>
+  </si>
+  <si>
+    <t>MAGOHA OWACH NI SIKUNDE KORO OK YAW</t>
+  </si>
+  <si>
+    <t>ATEND MIGAO MAR SOMO NGIRE GEORGE MAGOHA, OWACHO NI JOPUONJRE MANI PACHO BIRO MEDO BEDO PACHO NYAKA CHOP KAMA PINY OWACHO BIRO LANDO YEPO AR SIKUNDE. KANOLOSO BANG TIM LIMBE E SIKUND PRIMAR MA DR MUTHIORA YOO DAGORETI, MAGOHA NOWACHO NI YEPO KAMOR OK BI TIMORE MACHIEGNI KALUWPORE FG MEDRUOK MAR MIDHUSI MAR CORONA E PACHO KAE.</t>
+  </si>
+  <si>
+    <t>NOKWAYO SIKUNDE MACHIWO PUONJ MAG 8-4-4 MONDO JONE NI OLUWORE GI CHIKE MOKET MAG GAYO KORONA KOWACHO NI IBIRO KAWO ONDAMO NE NGATO ANGATA MABIRO YAWO SIKUL MOTELO NE LEMNDO MOYIEDHI MAR YEPO.</t>
+  </si>
+  <si>
+    <t>GI E KINDENO, MAGOHA OWACHO NI APIS A MAWUOK E BAD MIGAO MAR SOMO KOD MANO MAR ARITA MOCHUUNGNE LOSO KOMBE MAG SIKUNDE ONEGO ONE NI KOMBE KATA DESK MA KAMAGO OCHOPO E RANGINY MA DWARORE.</t>
+  </si>
+  <si>
+    <t>MAERI NE BANG YANGORE NI DESK MOTER E SIKUND DR MUTHIORANO OK OCHOPO E RANGINY MA KARE.</t>
+  </si>
+  <si>
+    <t>OWNG’ NEDE MAG LUPO</t>
+  </si>
+  <si>
+    <t>JAKOM DHO WEDHE DUTO MA PACHO KAE BMUS TOM GUDA, OPAKO MOKALO OKANG MOKAW GI KENYA COAST GUARDS  MAR WANGÓ GIGE LUPO MAOK OUPDHI MA YANDE NE JOLUPO MOKO TIYO GODO E NAM LOLWE MA NENGOGI ROMO SILING MILLIN 4</t>
+  </si>
+  <si>
+    <t>NEDEGO GIMN MAGO MANOMAKI ENAM LOLWE  KENDO NYOWANGGI MANA E DHO LWANGNI BEACH  KISUMO.</t>
+  </si>
+  <si>
+    <t>GUDA WACHO NI KATA KOBEDO NI EN GIMA LIT NENO KAKA GOGO MILUWOGO RECH WANG, THOTH GIGE LIUPO MAOK OPUODHIGO EMA OSEBEDO KA KELO IDHIERO MATHOTH E NAM.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI OSEYANGORE NI RECH KWANNE DOK PINY E NAM LOLWE  KALUWORE NI JOLUPO MATHOTH SANI POD NEGO REDCH MATINDO.</t>
+  </si>
+  <si>
+    <t>JO KISUMO ONYIS MONDO OTII GI CHENRO MAR PINY OWACHO MABER</t>
+  </si>
+  <si>
+    <t>COUNTY COMMISSIONER MA KISUMO JOSEPHINE OUKO, DWARO NI JODAK MA COUNTINO MKONDO KAW THUOLO MAKENDE MAG CHENRO MAG DONGRUOK MAG PINY OWACHO MA MALO MONDO GIDONGREGO.</t>
+  </si>
+  <si>
+    <t>OUKO WACHO NI DHO WATH MANYIEN MIGERONO KOD GACH RERU KOD UHURU MARKET MIDWA CHUOGI E ALUORANO ONEGO OBED MAGO MANYALO KONYO JODAK MA KONO DONGORE.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI MALOYO ROWERE 7000 SANI CHAMO OLEMNMO MAG PINY OWCAHOM A MALO KOKALO KUOM CHENRO MAR KAZI MTAANI.</t>
+  </si>
+  <si>
+    <t>KANOLOSO E SACH YNYASI MAR ODIECHIENG MAR YANGO THUONDI MONGERE KAKA MASHUJAA DAY, OUKO NOWCAHO NE JDAK MA KONO NI MONDO JOMED LUWO CHIKE MAG GAYO LANDRUOK MAR CORONA.</t>
+  </si>
+  <si>
+    <t>OBUILA MA NYAKACH MANYO JOKUOYE MAG LAPTOP</t>
+  </si>
+  <si>
+    <t>OBILA E SUB COUNTY MA NYAKACH JOCHAKO APEDHA MAR MANYO JONJORE MOKO MANOKWAELO E SIKUND PRIMAR MA NYABOLA EI NYALUNYA LOCATION KAMA NE GIKWALE LAPTOPS 15</t>
+  </si>
+  <si>
+    <t>JATEND OBILA MA SU COUNTY MA NYAKACH JONATHAN KOECH, WACHO NI JOKUOYEG NODONJO E APISI MAR JAPUONJ MADUONG MAR SIKUNDNO GI E WI TADO KAMA BANGE NE GITURO DHOOT GI IYE.</t>
+  </si>
+  <si>
+    <t>NOILERO NI NE GITWEYO CHUKDAR MAR SIKUNDNO BANG GOYE RADAR EKA BANGE NE GIDONJO MA GIKWELO.</t>
+  </si>
+  <si>
+    <t>NOLERO NI MOPOGORE GI LAPTOPGO, NE GIKWALO OPICH ADHULA KOD WAYA MAR JWAYO SIKUNDNO. BARACK RANDA MA EN JAPUONJ MADUONG MAR SIKUNDNO WACHO NI NE GITERO CHUKDAR E OSIPTAL KAMA NOTHIEDHE KA KORO SANI BETKA ODHI MABER.</t>
+  </si>
+  <si>
+    <t>NOLERO NI SANI KORO GIDO6 MANE GIYUDO KOWUOK KUOM PINY OWACHO.NG MANA GI LAPTOPS 21 E KIND</t>
+  </si>
+  <si>
+    <t>JACHUNG ODM MSAMBWENI OPUODHI GI IEBC</t>
+  </si>
+  <si>
+    <t>JACHUNG’ MAR DUOND BURA MAAR ODM MIGOSI OMARI BOGA OSEPUODHI GI DUOL MATAYO CHENRO MAG YIERO E PACHOKA IEBC NE DHII LARO KOM KAR CHUNG’ OD BURA MA MSAMBWENI E COUNTY MA KWALE; E YIERO MA ADUNDO MA IDHI BAGI TARIK 15 DWEE MAR 12 HIGANI.</t>
+  </si>
+  <si>
+    <t>MIGOSI BOGA MA OLOSO BANG’ IEBC PUODHE NE DHII E YIERONO, OKOO NI EN KOD GENO MAR YUDO KOMNO MANE ODONG’ NONO BANG’ THOO MR MIGOSI SULEIMAN DORI.</t>
+  </si>
+  <si>
+    <t>NE OTENE GI GAVANA MA MOMBASA ALI HASSAN JOHO E KIND JOTELO MAMOKO.</t>
+  </si>
+  <si>
+    <t>MIGOSI OMARBOGA DHII PEIM GI JOCHUNG’ MAMOKO MORIWO KODA KA MIGOSI FEISAL ABDALLAH MA OCHUNG’ MA ONGE DUOND BURA, KANYAKLA KODD JACHUNG’ SHARLET MARIAM</t>
+  </si>
+  <si>
+    <t>JACHUNG’ MAR WIPER SHEHE MAHMOUD KOD HAMISI MWAKAONJE MAR UNITED GREEN MOVEMENT IGENO NI IDHI PUODHI GI IEBC BANG’E.</t>
+  </si>
+  <si>
+    <t>KENYATTA KWAYO JOKENYA MONDO JOYIE LOKRUOK KATIBA</t>
+  </si>
+  <si>
+    <t>JATEND PINY KENYA UHURU KENYATTA OKWAYO OGANDA JOKENYA MONDO JOYIERE E WACH LOKO KATIBA KOKALO E OMBULU MAR REFERENDUM E BUO CHENRO MAR BBI MAR KEDO GI MOKO KUOM ACHIEDHNADE MA OSEBEDO KA OKWAKO JOKENYA.</t>
+  </si>
+  <si>
+    <t>UHURU WACHO NI SIASA MAPOGO JOKENYA E KINDE YIERO OK OWINJORTE KOWACHO NI MANO OSEBEDO MA DUOKO CHIEN DIONGRUOK MAG KENYA.</t>
+  </si>
+  <si>
+    <t>KANONENORE KA NGÁMA DUUOKO JALUPNE WILLIAM RUTO, UHURU NOWACHO NI GIMA LOKRUOK MAR KATIBANO GETO KELO EN RIWO WI OGANDA JOKENYA.</t>
+  </si>
+  <si>
+    <t>OGAI MAR ODM RAILA ODINGA KORKA KORE OWACHO NI GIIKORE DOK E PAP GOO KAMPEN NE BBI KOWACHO NI NE GIN MANA E YUEYO KALUWORE GI WACH KORONA MANOMUOCH E PACHO KAE.</t>
+  </si>
+  <si>
+    <t>KUOM THUOLO MACHIELO RAILA NOWACHO NI WACH LOKO KATIBA OK NOKETHI KATA NADE.</t>
+  </si>
+  <si>
+    <t>RIWRUOGE MAG OGANDA DWANI OKAW PACH JOPINY</t>
+  </si>
+  <si>
+    <t>RIWRUOGE MAG OGANDA E COUNTY MA MIGORI KOTELNEGI KOD BETTYY OKERO JONGUR E WI RANGINY MA PINY MA INYWAKOGO JOPINY E CHENRO MAG DONGRUOK KOKALO KUOM KAW PACH OGANDA  NYAKA NE  YUD RANYISI MOKUONGO MAR CORONA E COUNTINO.</t>
+  </si>
+  <si>
+    <t>KALUWORE GI MIKAI OKERO, KWAN MAR JII MIMIYO THUOLO TIN MOKALO KA MANO OK NYIS PICHA MOYIEDHI MAR NYWAKO PACH JOPINY E COUNTINO.</t>
+  </si>
+  <si>
+    <t>OKERO WACHO NI WACH MIDHUSI MAR CORONA ROCHO CHENRO MAG ROMO MADIMII  JOPINY BEDIE ROMO MAG DONGRUOK.</t>
+  </si>
+  <si>
+    <t>GI E KINDENO MIKAI OKERO WACHO NI OKWAYO RIWRUOGE MAG OGANDA E COUNTY MA MIGORI  MONDO OWUOG OKO OPUONJ JOPINY E WI WACH BBI.</t>
+  </si>
+  <si>
+    <t>NOLERO NI JOKENYA MATHOTH KOD JO MIGORI POK ONGEYO MATUT MAHGO MANIE LIPORT MAR BBI.</t>
+  </si>
+  <si>
+    <t>RINGRE NGÁTO ACHIEL MANOTHO E NAM LOLWE OYUDI, POD IMANYO OCHIKO</t>
+  </si>
+  <si>
+    <t>RINGRE ACHIEL KUOM JOK MANOGADO PII E MASIRA MAKOCH MAR NAM LOLWE OTIENO MOKALO E DHO WATH MA HONGE E SUB COUNTY MA BONDO OYUDI. RINGRE NOYUDI E SACH MENYO MOSEBEDO KADH NYIME MANOTELNEGI KOD APISA MAG KRA , KENYA COAST GUARD SERVICES KOD TELO MAG DHO WEDHE MA ALUORANO.</t>
+  </si>
+  <si>
+    <t>JOK MODAK GI NGÓL MUHORONI SIRO MLWEDO BBI</t>
+  </si>
+  <si>
+    <t>JOGO MODAK GI NG’OL E SUB COUNTY MA MUHORONI, JOLERO NI GISIRO WACH BBI. ISAYA AMBUSO MA EN ACHIEL KUOM JOK MODAK GI NGÓL E ALUORANO, WACHO NI BEDO NI BBI EN OLEMO MAR MOSRUOK</t>
+  </si>
+  <si>
+    <t>AMBUSO WACHO NI NE GICHANDORE MOKALO E KINDE MACHON  MA LWENY NE MUOCH TOK YIERO  KENDO OK DIGIHER NI GIMA KAMANO ONUORE.</t>
+  </si>
+  <si>
+    <t>AMBUSO WACHO NI MOKO KUOM NGOL MANE GIYUDE NE KINDE TULO MA TOK YIERO, TO MOLOYO MOKO MANOCHIEL GI MAGINA GOBILA  KOWACHO NI MAGO E MOKO KUOM GIGO MOMIYO GIDWARO KWE.</t>
+  </si>
+  <si>
+    <t>KANYOLOSO E BOMA MA KISUMO, AMBUSO NYOWACHO NI GIRITO GI SISO CHENRO MAR CHOKO SEI MA BENDE POD NYOCHWAL MBELE.</t>
+  </si>
+  <si>
+    <t>THUONDI MAG LUO OYANGI</t>
+  </si>
+  <si>
+    <t>E HIGA 2013, NOYUDO MICH MAR GROOVE AWARDS KUOM WENDE MANILUONGO NI SONKO WA MASONKO.</t>
+  </si>
+  <si>
+    <t>JANGOLO MAR BENGA PRINCESS JULLY BENDE NOYUDO YANG MA KAMANO KA EN BENDE OWUOK E COUNTY MA MIGORI. JULY NOMI NYING MAR ANGERA NI MBILIA BEL KENDO NONGERE KUOM WER MAR DUNIA MBAYA.</t>
+  </si>
+  <si>
+    <t>PIUS OCHIENG MA BENDE WUOK E COUNTY MA MIGORTI MANOCHUNGNE KENYA E OLYMPIC MA HIGA 1984 E TUKE MAG JINGÓ DEL KATA BODY BUILDING BENDE NE MICH MA KAMANO O OWEYO OKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E SECHE MANE IHINGO ODIECHIENG MAR RWEDHI MA PACHO KAE KATA MASHUJAA, MOKO KUOM OGANDA LUO MA OSEBEDO KA OTIMORE MABER E SECTOR MOPOGORE OPOGORE NOYANGI KAKA MASHUJAA. </t>
+  </si>
+  <si>
+    <t>E SECTOR MAR NGOLO, JAWER MAR AHUMA MAR WENDE MAG PAKO NYASAYE CHRISTINE OTIENO MONGERE GI WER MAR OLOYO LWENY, EN ACHIEL KUOM JOK MANOYANGI E SACH NYASI MA KAMANO. CHRISTINE OTIENO WUOK E COUNTYT MA MIGORI</t>
+  </si>
+  <si>
+    <t>SHAKIL OK DWAR LARO KOM GAVANA</t>
+  </si>
+  <si>
+    <t>JAOD BURA MA KISUMU EAST SHAKIL SHABIR, KAWUONO OWACHO NI OONGE GI DWARO MAR LARO KOM GAVANA E YIERO MADUONG MABIRO. SHAKIL WACHO NI JDAK MA KISUMO OSETIMONE NGUONO KUOM YIERE DIDEK KA KUOM MANO OONGE GI MILUMA MAR DHI E LEMO MA MBELE MAK MANA NI OBIRO LARO KENDO KOM OD BURA MA KKISUMU EAST.</t>
+  </si>
+  <si>
+    <t>KANOLOSO E ALAK MA JARAMOGI OGINGA ODINGA SPORTS GROUND, SHAKIL NOWACHO NE PINY OWACHO MA COUNTY MA KISUMU NI MONDO OCHUOG HEMBKO MAG RWEDHI MAG ONAGI E ALAK ACHIEL ONO MONDO OBED KAKA RAPAR.</t>
+  </si>
+  <si>
+    <t>OSIEM JOK MA MIYO NYITHINDO IYE</t>
+  </si>
+  <si>
+    <t>MALOYO NYITHINDO MA NYIRI 1,200 OGAMO REMO E COUNTY MA MIGORI E BUO THUOLO MAR DWWECHE ADEK MOKALO. COUNTY COMMISSUIONER MA MIGORI BOAZ CHERUTICH OSIEMO MOKALO JOK MA IYO NYITHINDO MA KAMAGO IYE KOKONEGI NI NDALOGI IKWANO AKWANA.</t>
+  </si>
+  <si>
+    <t>JATELONO BENDE OKWAYO JONYUOL NI MONDO JORIT MABER NYITHINDGI KAKA YOOO MAR NENO NI NGIMAGI MA KINDE MABIRO OK OKETHORE</t>
+  </si>
+  <si>
+    <t>JODAK MA OGILO EI NYANDO YUAGO CHAL MARACH MAR OLALO OGILO</t>
+  </si>
+  <si>
+    <t>BAD MIGAO MAR APIDA E COUNTY MA KISUMO IKWAYO MONDO ONON ANENA TICH MATIYORE E GEDO MAR OLALO MA OGILO MANITIERE NYANDO A OSEBED MIDHIERO NE JOPINY.</t>
+  </si>
+  <si>
+    <t>KOTELNEGI KOD JADUONG MIRUKA MASEO, JOPINYGO WACHO NI OLALONO OKETHORE MOKALO KENDO NI JOK MA NGÁDE KETO MANA NGIMAGI E KIND AKURU GASUMBI.</t>
+  </si>
+  <si>
+    <t>MASEO WCHO NI GISERADO GI GAVANA ANYANG NYONGO E WI WACH MA KAMANO MANOSINGONEGI NI IBIRO LOSO OLALONO KA KATA KAMANO OWACHO NI NYAKA KANYO, CONTRACTOR MANE LOSO OLALONO</t>
+  </si>
+  <si>
+    <t>MALOYO SIKUNDE 176 NIGI MIDHIERO</t>
+  </si>
+  <si>
+    <t>MALOYO SIKUNDE 176 MAG JII GIWEGI E KUONDE DAK MONGOHORE MA KIBRA  KOD LANGATA, NI E MUDHO KOTUDORE GI WACH YEPO MAR SIKUNDE KALUWORE GI CHIKE MANYIEN MA SANI OKETI GI PINY OWACHO  KAKA YOO MAR KEDO GI LANDRUOK MIDHUSI MAR CORONA.</t>
+  </si>
+  <si>
+    <t>KALUWORE GI JAKOM RIWRUOK SIKUNDEGO CHARLES OCHIEL,  SIKUNDEGO OSEKONYO MOKALO E DONGRUOK MAG SIKUNDE MA THURKA. ERIC OWENGA KETOWA E LER.</t>
+  </si>
+  <si>
+    <t>JII233,000 OSEWITO TIJEGI NYAKA NE KORONA CHAKRE</t>
+  </si>
+  <si>
+    <t>KWAN JII MOHING 233,000 NOWITO  TIJEGI E BUO DWEVHE AUCHIL MOKALO NYAKA NE TUO MAKOCH MAR CORONA NYNYRE E PACHO KAE. MAERI EN KALUWORE GI JATEND MIGAO MAR LEBA SIMON CHELUGUI</t>
+  </si>
+  <si>
+    <t>KANOLOSO GI RADIO RAMOGI, CHELUGUI NOWACHO NI OKENGE MOWINJORE IBIRO KAWO MAR NENO NI JOK MANOWITO TIJEGIO OYUDI KENDO.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI EN GI GENO NI SECTOR MAR LIMBE KOD MAMOKO MANONDIKI JII MATHOTH BIRO CHIER MAPIYO KAPONI KAKA LANDRUOK MAR TUONO OSECHAKO DOK PINY E THURKAENI NYALO DHI NHYIME</t>
+  </si>
+  <si>
+    <t>NOKWAYO KEMBE MA BENDE NOSENGADO OSACH JOTICH KOD MAGO MANOCHUNGO JII E TICH NI MONDO ONDIK JOTIJGO KENDO KOWACHO NI  GIMANY YORE MAMOKO MANYALO YAWO THUOLO MAR TIJE</t>
+  </si>
+  <si>
+    <t>NODAGI NDIKO DUOND BUCH TANGATANGA</t>
+  </si>
+  <si>
+    <t>JANDIK DUOND BUCHE MAG SIASA E THURKA WACHO NI NODAGI NDIKO DUOND BURA MAR TANGA TANGA NIKECH NYING CHAMANO GALAGALA KENDO NI KENDO KALUWORE GI CHIKE, NE OK ONYAL NDIKO CHAMANAO KAOK NE OLOK NYINGNO.</t>
+  </si>
+  <si>
+    <t>BENDE OLERO NI NODAGI NDIKO DUOND BURA MAR COAST PEKEE NIKECH PEND CHIK NAMBA ABORO OTWEYO LWETE E NDIKO DUOND BURA MOTENORE E ALUORA ACHIEL KOWACHO NI NYAKA DUOND BURA BED MANO MA ONYWAKO KENYA MANGIMA.</t>
+  </si>
+  <si>
+    <t>NOKWAYO JOSIASA MAGETO NDIKO DUOND BUCHE MAG SIASA NI MONDO JOSOM CHIKE MATAYO NDIKRUOK MA KAMANO MAOK NI NGATO BET TO CHUOGO NYIK MAOK ONYISO ACHIEL MAR JOKENYA.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI BENDE DUOND BUCHE MADWA DHI E YIERO E TWECH ACHIEL NYAKA LOS MANIFESTO ACHIEL MA GIN DUTO GIDHI LUWO.</t>
+  </si>
+  <si>
+    <t>MIYO MORO OROCH RATIRO MARE MMBASA</t>
+  </si>
+  <si>
+    <t>MIYO MORO MANYOCHA CHUORE OGOYO MOMUKO LAKE E KAR DAK MONGOHORE MA KIDOGO BASIE EOD BURA MA NYALI MOMBASA KORO KWAYO PINY OWACHO MONDO MI OJOLE MONDO MI KAW OKANG NE CHUORENO.</t>
+  </si>
+  <si>
+    <t>MAGI NE OWACHO BANG RINGO KENDO NINDO EKO E THUOLONMAR NDALO ABICH GI NYATHINE MATIN MAJADWECHE ADEK MOKONI CHUORE NO MAJAKONGO NE DWARO DEYO.</t>
+  </si>
+  <si>
+    <t>ngA’TO ODERE BANG NYUOMO CHIEGE TAMORE</t>
+  </si>
+  <si>
+    <t>JAL MORO MA JA HIGNI 36 BANG OMIN MARE TAME USO BATH LOPGI MANYODWA USO MONDO MI OYUD OMENDA MAR DHI NYUO,O CHIEGE E GWENG MA CHIGA, EI KANYACH KACHAR LOCATION E SUB COUNTY MA HOMABAY TOWN.</t>
+  </si>
+  <si>
+    <t>MOSENINDO MOSEYANGI KAKA PETER OTIENO NODERE GI TOND TUORO E YADH MAWEMBE MORO E DLAGI KANYO BANG OMIN MARE TAMORE WINJO KWAYO MARE. RUOTH MA KONO BERNARD OMUGA, NLERO NI MOSENINDO NOSEWINBJORE GI MIN MARE NI MONDO OUS BATH LOPNO MONDO MI ONYUOM JAODE BANG KAOCHE SUNDE MONDO ONYUOM NYAKONO MANOSEBEDO GODO HIGNI 10.</t>
+  </si>
+  <si>
+    <t>OMUGA WACH NI JALO JAODE NOWUOK ODOK THURGI GI NYINDO ADEK TO KANODUOGO TO NYOWACHO NI JONYUOLNE DWARO NI MONDO ONYUOME MAPIYO , OKANG MANOMIYO MOSENINDO OLOSO GI MIN MARE OPOGNE BATH LOO MONDO OUSI ONYUOM GODO JAODENO.</t>
+  </si>
+  <si>
+    <t>RUODHNO WACHO NI JALO NOSEYUDO JANGIEWO MANYOBIROGO DALA NYORO EMA KAETPO OWADGI NORIEMBO JANGIEWONO GINO MANIMIYO JALO OJOK OKAW NGIMANE.</t>
+  </si>
+  <si>
+    <t>MOTELO NE DERE, JAL NYODHI IR MIN MARE GI ICHWANG KOKONEGI NI OWEYO NEGI LOPNO GIDAGIE. RINGRE NOTER HOMABAY MORTUARY.</t>
+  </si>
+  <si>
+    <t>MCAS MA MIGORI OJOK GI OMAMBA</t>
+  </si>
+  <si>
+    <t>MANA ODIECHIENG ACHIEL KENDE TOK KANYODUOK MCA MA NORTH KANYAMKAGO KAKA JALUP SPIKA MAR OD BURA MA MIGORI, , KWETH ARIYO MAGIN KAACHIEL GI COUNTY ASSEMBLY MA MIGORI KOD MIGORI COUNTY ASSEMBLY PUBLIC SERVICE BOARD  JIODHI E DOHO MAR MAKO APPEAL E WI NGETO MAR DOHOP MA YALO WECHE JOTICH MANOYIENE OMAMBA NI MONDO ODUOKI KAKA JALIP SPIKA. GEORGE JUMA NIGHI LER MATUT.</t>
+  </si>
+  <si>
+    <t>ROWERE ONGÁNYO MOMBASA</t>
+  </si>
+  <si>
+    <t>ROWERE MOHEWO 200 JOBAGO NGANYO EOD BURA MA CHANGAMWE MOMBASA GISUNDO PINY OWACHO MONDO MI OCHULGI PESA BANG TIYO E CHENRO MAR KAZI MTAANI E THUOLO MOHEWO DWECHE ARIYO TO KATAKAMANO POK OCHULGI.</t>
+  </si>
+  <si>
+    <t>ROWEREGO KONI OKANGE DUTO MAGISEKAWO MAR WUOTHO E PAISE MAG PINY OWACHO EWI WACH PESANO OSEBEDO KAGORE E LWANDA OMIYO GINGADO MAR CHIWO YWAKGI E YOR BAGO NGANYO.</t>
+  </si>
+  <si>
+    <t>JAOD BURA MA SUNA WEST DWARO NONRO E WI NEK</t>
+  </si>
+  <si>
+    <t>JAOD BURA MA SUNA WEST PETER MASARA OKWAYO PINY OWACHO MONDO OCHUL JOK MANOHINYORE E BTULO MANOMOCH E KIND OBILA KOD KWETH MOBALO MAR LEGIO MARIA E LOG TICH MAGOD KWERO MANOWEYO KA JII 8 OWITO NGIMAGI.</t>
+  </si>
+  <si>
+    <t>MASARA DWARO NI BAD MIGAO MAR ARITA MONDO OLER ANENA GIMA NOKELO LWENY MA KAMANO  KODWARO NI JATEND MIGAO MAR ARITA FREDMATIANGI OLER ANENA NI NORO OSECHOPO KAMA NAD KAACHIEL GI ONDAMO MIBIRO KAWONI APISA MANOCHIWO LWEDO E NEK MA KAMANO.</t>
+  </si>
+  <si>
+    <t>Wakeini dwani owuo od bura</t>
+  </si>
+  <si>
+    <t>WAKEINI MA JOKEDO  NE RATYIRO MAG OGANDA JOKWAYO JATEND PINY KENYA UHURU KENYATTA MONDO MI OFUNJ BUNGE MANA KAKA OGAI MAR DOHO JUSTICE DAVID MARAGA NYONGADO NE PARO.</t>
+  </si>
+  <si>
+    <t>KOTELNEGI KOD ESTHER ACHIENG MAR KENYA FEMALE ADVISORY ORGANIZATION (KEFEADO) ,  OKANG MAR JOOD BURA REM CHOPO CHIK  MALOSO KORKA KIT CHWECH EN ROCHO KATIBA KENDO NI MANO KORO OMIYO NYAKA FUNJ MARA OD BURA.</t>
+  </si>
+  <si>
+    <t>ACHIENG WACHO NI KATIBA MA HIGA 2010 JOOD BURA OSEBETIE E HIGNIGI DUTO KOWACHO NI KENYATTA ONGE GI OKANG MACHIELO MONYALO KAWO MAK MANA FUNJO OD BURA.</t>
+  </si>
+  <si>
+    <t>NOWACHO NI KA KENYATTA OREM FUNJO OD BURA TO MANO BIRO NYISO NI KENYA ITAYO MAOK OLUWORE GI KATIBA</t>
+  </si>
+  <si>
+    <t>Anne Nderitu opuodhi</t>
+  </si>
+  <si>
+    <t>Jood bura jopuodho mikayi Anne Nderitu kaka jatend duol mandiko duond buche mano ma dhoo ngere luongo ni Registrar of Political Parties.</t>
+  </si>
+  <si>
+    <t>Komiti mar od bura ma malo ma ochung’ne ng’iyo weche mag chike kod ratiro, opuodho welo mar anne nderitu ma nyocha owal gi jatend piny kenya migosi Uhuru Kenyatta.</t>
+  </si>
+  <si>
+    <t>Nderitu ma osebedo kani e lemono e yor kojolo, koro kawo kar lucy ndung’u ma yande ni e lemono.</t>
+  </si>
+  <si>
+    <t>Komitino ma jakom mare en migosi Kigano Muturi, bende opuodho welo mar Ali Abdullahi kod Florence Tabu kaka jolup Anne Nderitu.</t>
+  </si>
+  <si>
+    <t>Count of MUDAVADI DWARO REFERENDUM MONYWAKO JOKENYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3986,8 +4611,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4167,6 +4804,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4328,7 +4971,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4384,11 +5027,34 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4437,6 +5103,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4460,6 +5134,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -4484,6 +5163,178 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="David Chiawo" refreshedDate="44261.666441550929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A911:B1011" sheet="Annotated"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="PIDHURU RECH MATINDO MIUSO NE JOPITH" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Business" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Business"/>
+        <s v="Politics and Government"/>
+        <s v="Crime and Legal"/>
+        <s v="Health"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Education"/>
+        <s v="Religion"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="David Chiawo" refreshedDate="44262.702488078707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1012:B1121" sheet="Annotated"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="MUDAVADI DWARO REFERENDUM MONYWAKO JOKENYA" numFmtId="0">
+      <sharedItems count="109" longText="1">
+        <s v="JATEND DUOND BURA MAR ANC MUSALIA MUDAVADI OKWAYO MOGANDA JO MASAI  MONDO JOMED RIWORE E TWECH ACHIEL  E SECHEGI MA KENYA OCHOMO YIERO MA HIGA 2022. MUDAVADI MA BENDE NYOWACHO NI EN GI MILUMA MAR BEDO JATEND PINY KENYA E YIERO MADUONG MAR HIGA 2022, NOKWAYO OGANDA JO MASAI NI MONDO JOBI OSIRE LWEDO E KINDE YIERO."/>
+        <s v="NOWACHO NI KAPO OYIER, OBIRO TIYO GI THUOLO MA KAMANO E CHIERO OCHUMI MAR KENYA.  MUDAVADI NOWACHO NI GI SANI OSIRO OKANG MAR JATEND KENYA UHURU KENYATTA E LWENY MAR KEDO GI MIBADHI KOPAKO DUOL MAR KEDO GI MIBADHI KUOM OKENGE MOSEGOYO E LWENY MA KAMANO."/>
+        <s v="MUDAVADI NOWACHO NI OKANG MA SANI KENYA OCHOMO MAR DWARO LOKO KATIBA OK ONEGO BED NI EN MANO MA KELO BER NE JII MANOK KOWACHO NI ONEGO OBED NI EN MAKELO CHIKO MA BIRO DEWO JII DUTO MACHAL"/>
+        <s v="MAGOHA OWACH NI SIKUNDE KORO OK YAW"/>
+        <s v="ATEND MIGAO MAR SOMO NGIRE GEORGE MAGOHA, OWACHO NI JOPUONJRE MANI PACHO BIRO MEDO BEDO PACHO NYAKA CHOP KAMA PINY OWACHO BIRO LANDO YEPO AR SIKUNDE. KANOLOSO BANG TIM LIMBE E SIKUND PRIMAR MA DR MUTHIORA YOO DAGORETI, MAGOHA NOWACHO NI YEPO KAMOR OK BI TIMORE MACHIEGNI KALUWPORE FG MEDRUOK MAR MIDHUSI MAR CORONA E PACHO KAE."/>
+        <s v="NOKWAYO SIKUNDE MACHIWO PUONJ MAG 8-4-4 MONDO JONE NI OLUWORE GI CHIKE MOKET MAG GAYO KORONA KOWACHO NI IBIRO KAWO ONDAMO NE NGATO ANGATA MABIRO YAWO SIKUL MOTELO NE LEMNDO MOYIEDHI MAR YEPO."/>
+        <s v="GI E KINDENO, MAGOHA OWACHO NI APIS A MAWUOK E BAD MIGAO MAR SOMO KOD MANO MAR ARITA MOCHUUNGNE LOSO KOMBE MAG SIKUNDE ONEGO ONE NI KOMBE KATA DESK MA KAMAGO OCHOPO E RANGINY MA DWARORE."/>
+        <s v="MAERI NE BANG YANGORE NI DESK MOTER E SIKUND DR MUTHIORANO OK OCHOPO E RANGINY MA KARE."/>
+        <s v="OWNG’ NEDE MAG LUPO"/>
+        <s v="JAKOM DHO WEDHE DUTO MA PACHO KAE BMUS TOM GUDA, OPAKO MOKALO OKANG MOKAW GI KENYA COAST GUARDS  MAR WANGÓ GIGE LUPO MAOK OUPDHI MA YANDE NE JOLUPO MOKO TIYO GODO E NAM LOLWE MA NENGOGI ROMO SILING MILLIN 4"/>
+        <s v="NEDEGO GIMN MAGO MANOMAKI ENAM LOLWE  KENDO NYOWANGGI MANA E DHO LWANGNI BEACH  KISUMO."/>
+        <s v="GUDA WACHO NI KATA KOBEDO NI EN GIMA LIT NENO KAKA GOGO MILUWOGO RECH WANG, THOTH GIGE LIUPO MAOK OPUODHIGO EMA OSEBEDO KA KELO IDHIERO MATHOTH E NAM."/>
+        <s v="NOWACHO NI OSEYANGORE NI RECH KWANNE DOK PINY E NAM LOLWE  KALUWORE NI JOLUPO MATHOTH SANI POD NEGO REDCH MATINDO."/>
+        <s v="JO KISUMO ONYIS MONDO OTII GI CHENRO MAR PINY OWACHO MABER"/>
+        <s v="COUNTY COMMISSIONER MA KISUMO JOSEPHINE OUKO, DWARO NI JODAK MA COUNTINO MKONDO KAW THUOLO MAKENDE MAG CHENRO MAG DONGRUOK MAG PINY OWACHO MA MALO MONDO GIDONGREGO."/>
+        <s v="OUKO WACHO NI DHO WATH MANYIEN MIGERONO KOD GACH RERU KOD UHURU MARKET MIDWA CHUOGI E ALUORANO ONEGO OBED MAGO MANYALO KONYO JODAK MA KONO DONGORE."/>
+        <s v="NOWACHO NI MALOYO ROWERE 7000 SANI CHAMO OLEMNMO MAG PINY OWCAHOM A MALO KOKALO KUOM CHENRO MAR KAZI MTAANI."/>
+        <s v="KANOLOSO E SACH YNYASI MAR ODIECHIENG MAR YANGO THUONDI MONGERE KAKA MASHUJAA DAY, OUKO NOWCAHO NE JDAK MA KONO NI MONDO JOMED LUWO CHIKE MAG GAYO LANDRUOK MAR CORONA."/>
+        <s v="OBUILA MA NYAKACH MANYO JOKUOYE MAG LAPTOP"/>
+        <s v="OBILA E SUB COUNTY MA NYAKACH JOCHAKO APEDHA MAR MANYO JONJORE MOKO MANOKWAELO E SIKUND PRIMAR MA NYABOLA EI NYALUNYA LOCATION KAMA NE GIKWALE LAPTOPS 15"/>
+        <s v="JATEND OBILA MA SU COUNTY MA NYAKACH JONATHAN KOECH, WACHO NI JOKUOYEG NODONJO E APISI MAR JAPUONJ MADUONG MAR SIKUNDNO GI E WI TADO KAMA BANGE NE GITURO DHOOT GI IYE."/>
+        <s v="NOILERO NI NE GITWEYO CHUKDAR MAR SIKUNDNO BANG GOYE RADAR EKA BANGE NE GIDONJO MA GIKWELO."/>
+        <s v="NOLERO NI MOPOGORE GI LAPTOPGO, NE GIKWALO OPICH ADHULA KOD WAYA MAR JWAYO SIKUNDNO. BARACK RANDA MA EN JAPUONJ MADUONG MAR SIKUNDNO WACHO NI NE GITERO CHUKDAR E OSIPTAL KAMA NOTHIEDHE KA KORO SANI BETKA ODHI MABER."/>
+        <s v="NOLERO NI SANI KORO GIDO6 MANE GIYUDO KOWUOK KUOM PINY OWACHO.NG MANA GI LAPTOPS 21 E KIND"/>
+        <s v="JACHUNG ODM MSAMBWENI OPUODHI GI IEBC"/>
+        <s v="JACHUNG’ MAR DUOND BURA MAAR ODM MIGOSI OMARI BOGA OSEPUODHI GI DUOL MATAYO CHENRO MAG YIERO E PACHOKA IEBC NE DHII LARO KOM KAR CHUNG’ OD BURA MA MSAMBWENI E COUNTY MA KWALE; E YIERO MA ADUNDO MA IDHI BAGI TARIK 15 DWEE MAR 12 HIGANI."/>
+        <s v="MIGOSI BOGA MA OLOSO BANG’ IEBC PUODHE NE DHII E YIERONO, OKOO NI EN KOD GENO MAR YUDO KOMNO MANE ODONG’ NONO BANG’ THOO MR MIGOSI SULEIMAN DORI."/>
+        <s v="NE OTENE GI GAVANA MA MOMBASA ALI HASSAN JOHO E KIND JOTELO MAMOKO."/>
+        <s v="MIGOSI OMARBOGA DHII PEIM GI JOCHUNG’ MAMOKO MORIWO KODA KA MIGOSI FEISAL ABDALLAH MA OCHUNG’ MA ONGE DUOND BURA, KANYAKLA KODD JACHUNG’ SHARLET MARIAM"/>
+        <s v="JACHUNG’ MAR WIPER SHEHE MAHMOUD KOD HAMISI MWAKAONJE MAR UNITED GREEN MOVEMENT IGENO NI IDHI PUODHI GI IEBC BANG’E."/>
+        <s v="KENYATTA KWAYO JOKENYA MONDO JOYIE LOKRUOK KATIBA"/>
+        <s v="JATEND PINY KENYA UHURU KENYATTA OKWAYO OGANDA JOKENYA MONDO JOYIERE E WACH LOKO KATIBA KOKALO E OMBULU MAR REFERENDUM E BUO CHENRO MAR BBI MAR KEDO GI MOKO KUOM ACHIEDHNADE MA OSEBEDO KA OKWAKO JOKENYA."/>
+        <s v="UHURU WACHO NI SIASA MAPOGO JOKENYA E KINDE YIERO OK OWINJORTE KOWACHO NI MANO OSEBEDO MA DUOKO CHIEN DIONGRUOK MAG KENYA."/>
+        <s v="KANONENORE KA NGÁMA DUUOKO JALUPNE WILLIAM RUTO, UHURU NOWACHO NI GIMA LOKRUOK MAR KATIBANO GETO KELO EN RIWO WI OGANDA JOKENYA."/>
+        <s v="OGAI MAR ODM RAILA ODINGA KORKA KORE OWACHO NI GIIKORE DOK E PAP GOO KAMPEN NE BBI KOWACHO NI NE GIN MANA E YUEYO KALUWORE GI WACH KORONA MANOMUOCH E PACHO KAE."/>
+        <s v="KUOM THUOLO MACHIELO RAILA NOWACHO NI WACH LOKO KATIBA OK NOKETHI KATA NADE."/>
+        <s v="RIWRUOGE MAG OGANDA DWANI OKAW PACH JOPINY"/>
+        <s v="RIWRUOGE MAG OGANDA E COUNTY MA MIGORI KOTELNEGI KOD BETTYY OKERO JONGUR E WI RANGINY MA PINY MA INYWAKOGO JOPINY E CHENRO MAG DONGRUOK KOKALO KUOM KAW PACH OGANDA  NYAKA NE  YUD RANYISI MOKUONGO MAR CORONA E COUNTINO."/>
+        <s v="KALUWORE GI MIKAI OKERO, KWAN MAR JII MIMIYO THUOLO TIN MOKALO KA MANO OK NYIS PICHA MOYIEDHI MAR NYWAKO PACH JOPINY E COUNTINO."/>
+        <s v="OKERO WACHO NI WACH MIDHUSI MAR CORONA ROCHO CHENRO MAG ROMO MADIMII  JOPINY BEDIE ROMO MAG DONGRUOK."/>
+        <s v="GI E KINDENO MIKAI OKERO WACHO NI OKWAYO RIWRUOGE MAG OGANDA E COUNTY MA MIGORI  MONDO OWUOG OKO OPUONJ JOPINY E WI WACH BBI."/>
+        <s v="NOLERO NI JOKENYA MATHOTH KOD JO MIGORI POK ONGEYO MATUT MAHGO MANIE LIPORT MAR BBI."/>
+        <s v="RINGRE NGÁTO ACHIEL MANOTHO E NAM LOLWE OYUDI, POD IMANYO OCHIKO"/>
+        <s v="RINGRE ACHIEL KUOM JOK MANOGADO PII E MASIRA MAKOCH MAR NAM LOLWE OTIENO MOKALO E DHO WATH MA HONGE E SUB COUNTY MA BONDO OYUDI. RINGRE NOYUDI E SACH MENYO MOSEBEDO KADH NYIME MANOTELNEGI KOD APISA MAG KRA , KENYA COAST GUARD SERVICES KOD TELO MAG DHO WEDHE MA ALUORANO."/>
+        <s v="KAMATI MAE SENATE DAYOP DHO JOK MANOLOKO GI KEMSA"/>
+        <s v="KAMATI MAR OD BURA  MAR SENATE E WI THIETH ISECHAKO NONO KEMBE MANOCHIWO MWANDU MAG GENGRUOK NE MIDHUSI MAR CORONA  MA GIYUDO BILLION MODHURO MAG OMENDA."/>
+        <s v="JATAA TIJE MADUONG KA ANDELICA MEDICAL NICHOLAS MATU NOWACHO E SAMA NIDAYO DHOGE GI KAMATINO MOTELNE KOD SENETA MA TRANZOIA  MICHAEL MBITO NI NONDIKO NE KEMSA NI NODWA CHWALO GIGE THIETHGO KATA KOBEDO NI KEMSA NE POK OLANDO TENDER MA KAMANO."/>
+        <s v="NOLERO NI KEMSA NOYIENE KA BANG MANO NE GICHAKO WINJORE E WI NENGO  MAG NGIEWO PPES GO. MOPOGORE GI ANGELICA MEDICAL , KEMBE MAMOKO MA IDAYO DHOGI MANOYUDO BILLION MODHURO MAG OMENDA E MIBADHI MA KA KEMSA GO GIN KAACHIEL KOD"/>
+        <s v="JOK MODAK GI NGÓL MUHORONI SIRO MLWEDO BBI"/>
+        <s v="JOGO MODAK GI NG’OL E SUB COUNTY MA MUHORONI, JOLERO NI GISIRO WACH BBI. ISAYA AMBUSO MA EN ACHIEL KUOM JOK MODAK GI NGÓL E ALUORANO, WACHO NI BEDO NI BBI EN OLEMO MAR MOSRUOK"/>
+        <s v="AMBUSO WACHO NI NE GICHANDORE MOKALO E KINDE MACHON  MA LWENY NE MUOCH TOK YIERO  KENDO OK DIGIHER NI GIMA KAMANO ONUORE."/>
+        <s v="AMBUSO WACHO NI MOKO KUOM NGOL MANE GIYUDE NE KINDE TULO MA TOK YIERO, TO MOLOYO MOKO MANOCHIEL GI MAGINA GOBILA  KOWACHO NI MAGO E MOKO KUOM GIGO MOMIYO GIDWARO KWE."/>
+        <s v="KANYOLOSO E BOMA MA KISUMO, AMBUSO NYOWACHO NI GIRITO GI SISO CHENRO MAR CHOKO SEI MA BENDE POD NYOCHWAL MBELE."/>
+        <s v="THUONDI MAG LUO OYANGI"/>
+        <s v="E SECHE MANE IHINGO ODIECHIENG MAR RWEDHI MA PACHO KAE KATA MASHUJAA, MOKO KUOM OGANDA LUO MA OSEBEDO KA OTIMORE MABER E SECTOR MOPOGORE OPOGORE NOYANGI KAKA MASHUJAA. "/>
+        <s v="E SECTOR MAR NGOLO, JAWER MAR AHUMA MAR WENDE MAG PAKO NYASAYE CHRISTINE OTIENO MONGERE GI WER MAR OLOYO LWENY, EN ACHIEL KUOM JOK MANOYANGI E SACH NYASI MA KAMANO. CHRISTINE OTIENO WUOK E COUNTYT MA MIGORI"/>
+        <s v="E HIGA 2013, NOYUDO MICH MAR GROOVE AWARDS KUOM WENDE MANILUONGO NI SONKO WA MASONKO."/>
+        <s v="JANGOLO MAR BENGA PRINCESS JULLY BENDE NOYUDO YANG MA KAMANO KA EN BENDE OWUOK E COUNTY MA MIGORI. JULY NOMI NYING MAR ANGERA NI MBILIA BEL KENDO NONGERE KUOM WER MAR DUNIA MBAYA."/>
+        <s v="PIUS OCHIENG MA BENDE WUOK E COUNTY MA MIGORTI MANOCHUNGNE KENYA E OLYMPIC MA HIGA 1984 E TUKE MAG JINGÓ DEL KATA BODY BUILDING BENDE NE MICH MA KAMANO O OWEYO OKO"/>
+        <s v="SHAKIL OK DWAR LARO KOM GAVANA"/>
+        <s v="JAOD BURA MA KISUMU EAST SHAKIL SHABIR, KAWUONO OWACHO NI OONGE GI DWARO MAR LARO KOM GAVANA E YIERO MADUONG MABIRO. SHAKIL WACHO NI JDAK MA KISUMO OSETIMONE NGUONO KUOM YIERE DIDEK KA KUOM MANO OONGE GI MILUMA MAR DHI E LEMO MA MBELE MAK MANA NI OBIRO LARO KENDO KOM OD BURA MA KKISUMU EAST."/>
+        <s v="KANOLOSO E ALAK MA JARAMOGI OGINGA ODINGA SPORTS GROUND, SHAKIL NOWACHO NE PINY OWACHO MA COUNTY MA KISUMU NI MONDO OCHUOG HEMBKO MAG RWEDHI MAG ONAGI E ALAK ACHIEL ONO MONDO OBED KAKA RAPAR."/>
+        <s v="OSIEM JOK MA MIYO NYITHINDO IYE"/>
+        <s v="MALOYO NYITHINDO MA NYIRI 1,200 OGAMO REMO E COUNTY MA MIGORI E BUO THUOLO MAR DWWECHE ADEK MOKALO. COUNTY COMMISSUIONER MA MIGORI BOAZ CHERUTICH OSIEMO MOKALO JOK MA IYO NYITHINDO MA KAMAGO IYE KOKONEGI NI NDALOGI IKWANO AKWANA."/>
+        <s v="JATELONO BENDE OKWAYO JONYUOL NI MONDO JORIT MABER NYITHINDGI KAKA YOOO MAR NENO NI NGIMAGI MA KINDE MABIRO OK OKETHORE"/>
+        <s v="JODAK MA OGILO EI NYANDO YUAGO CHAL MARACH MAR OLALO OGILO"/>
+        <s v="BAD MIGAO MAR APIDA E COUNTY MA KISUMO IKWAYO MONDO ONON ANENA TICH MATIYORE E GEDO MAR OLALO MA OGILO MANITIERE NYANDO A OSEBED MIDHIERO NE JOPINY."/>
+        <s v="KOTELNEGI KOD JADUONG MIRUKA MASEO, JOPINYGO WACHO NI OLALONO OKETHORE MOKALO KENDO NI JOK MA NGÁDE KETO MANA NGIMAGI E KIND AKURU GASUMBI."/>
+        <s v="MASEO WCHO NI GISERADO GI GAVANA ANYANG NYONGO E WI WACH MA KAMANO MANOSINGONEGI NI IBIRO LOSO OLALONO KA KATA KAMANO OWACHO NI NYAKA KANYO, CONTRACTOR MANE LOSO OLALONO"/>
+        <s v="MALOYO SIKUNDE 176 NIGI MIDHIERO"/>
+        <s v="MALOYO SIKUNDE 176 MAG JII GIWEGI E KUONDE DAK MONGOHORE MA KIBRA  KOD LANGATA, NI E MUDHO KOTUDORE GI WACH YEPO MAR SIKUNDE KALUWORE GI CHIKE MANYIEN MA SANI OKETI GI PINY OWACHO  KAKA YOO MAR KEDO GI LANDRUOK MIDHUSI MAR CORONA."/>
+        <s v="KALUWORE GI JAKOM RIWRUOK SIKUNDEGO CHARLES OCHIEL,  SIKUNDEGO OSEKONYO MOKALO E DONGRUOK MAG SIKUNDE MA THURKA. ERIC OWENGA KETOWA E LER."/>
+        <s v="JII233,000 OSEWITO TIJEGI NYAKA NE KORONA CHAKRE"/>
+        <s v="KWAN JII MOHING 233,000 NOWITO  TIJEGI E BUO DWEVHE AUCHIL MOKALO NYAKA NE TUO MAKOCH MAR CORONA NYNYRE E PACHO KAE. MAERI EN KALUWORE GI JATEND MIGAO MAR LEBA SIMON CHELUGUI"/>
+        <s v="KANOLOSO GI RADIO RAMOGI, CHELUGUI NOWACHO NI OKENGE MOWINJORE IBIRO KAWO MAR NENO NI JOK MANOWITO TIJEGIO OYUDI KENDO."/>
+        <s v="NOWACHO NI EN GI GENO NI SECTOR MAR LIMBE KOD MAMOKO MANONDIKI JII MATHOTH BIRO CHIER MAPIYO KAPONI KAKA LANDRUOK MAR TUONO OSECHAKO DOK PINY E THURKAENI NYALO DHI NHYIME"/>
+        <s v="NOKWAYO KEMBE MA BENDE NOSENGADO OSACH JOTICH KOD MAGO MANOCHUNGO JII E TICH NI MONDO ONDIK JOTIJGO KENDO KOWACHO NI  GIMANY YORE MAMOKO MANYALO YAWO THUOLO MAR TIJE"/>
+        <s v="NODAGI NDIKO DUOND BUCH TANGATANGA"/>
+        <s v="JANDIK DUOND BUCHE MAG SIASA E THURKA WACHO NI NODAGI NDIKO DUOND BURA MAR TANGA TANGA NIKECH NYING CHAMANO GALAGALA KENDO NI KENDO KALUWORE GI CHIKE, NE OK ONYAL NDIKO CHAMANAO KAOK NE OLOK NYINGNO."/>
+        <s v="BENDE OLERO NI NODAGI NDIKO DUOND BURA MAR COAST PEKEE NIKECH PEND CHIK NAMBA ABORO OTWEYO LWETE E NDIKO DUOND BURA MOTENORE E ALUORA ACHIEL KOWACHO NI NYAKA DUOND BURA BED MANO MA ONYWAKO KENYA MANGIMA."/>
+        <s v="NOKWAYO JOSIASA MAGETO NDIKO DUOND BUCHE MAG SIASA NI MONDO JOSOM CHIKE MATAYO NDIKRUOK MA KAMANO MAOK NI NGATO BET TO CHUOGO NYIK MAOK ONYISO ACHIEL MAR JOKENYA."/>
+        <s v="NOWACHO NI BENDE DUOND BUCHE MADWA DHI E YIERO E TWECH ACHIEL NYAKA LOS MANIFESTO ACHIEL MA GIN DUTO GIDHI LUWO."/>
+        <s v="MIYO MORO OROCH RATIRO MARE MMBASA"/>
+        <s v="MIYO MORO MANYOCHA CHUORE OGOYO MOMUKO LAKE E KAR DAK MONGOHORE MA KIDOGO BASIE EOD BURA MA NYALI MOMBASA KORO KWAYO PINY OWACHO MONDO MI OJOLE MONDO MI KAW OKANG NE CHUORENO."/>
+        <s v="MAGI NE OWACHO BANG RINGO KENDO NINDO EKO E THUOLONMAR NDALO ABICH GI NYATHINE MATIN MAJADWECHE ADEK MOKONI CHUORE NO MAJAKONGO NE DWARO DEYO."/>
+        <s v="ngA’TO ODERE BANG NYUOMO CHIEGE TAMORE"/>
+        <s v="JAL MORO MA JA HIGNI 36 BANG OMIN MARE TAME USO BATH LOPGI MANYODWA USO MONDO MI OYUD OMENDA MAR DHI NYUO,O CHIEGE E GWENG MA CHIGA, EI KANYACH KACHAR LOCATION E SUB COUNTY MA HOMABAY TOWN."/>
+        <s v="MOSENINDO MOSEYANGI KAKA PETER OTIENO NODERE GI TOND TUORO E YADH MAWEMBE MORO E DLAGI KANYO BANG OMIN MARE TAMORE WINJO KWAYO MARE. RUOTH MA KONO BERNARD OMUGA, NLERO NI MOSENINDO NOSEWINBJORE GI MIN MARE NI MONDO OUS BATH LOPNO MONDO MI ONYUOM JAODE BANG KAOCHE SUNDE MONDO ONYUOM NYAKONO MANOSEBEDO GODO HIGNI 10."/>
+        <s v="OMUGA WACH NI JALO JAODE NOWUOK ODOK THURGI GI NYINDO ADEK TO KANODUOGO TO NYOWACHO NI JONYUOLNE DWARO NI MONDO ONYUOME MAPIYO , OKANG MANOMIYO MOSENINDO OLOSO GI MIN MARE OPOGNE BATH LOO MONDO OUSI ONYUOM GODO JAODENO."/>
+        <s v="RUODHNO WACHO NI JALO NOSEYUDO JANGIEWO MANYOBIROGO DALA NYORO EMA KAETPO OWADGI NORIEMBO JANGIEWONO GINO MANIMIYO JALO OJOK OKAW NGIMANE."/>
+        <s v="MOTELO NE DERE, JAL NYODHI IR MIN MARE GI ICHWANG KOKONEGI NI OWEYO NEGI LOPNO GIDAGIE. RINGRE NOTER HOMABAY MORTUARY."/>
+        <s v="MCAS MA MIGORI OJOK GI OMAMBA"/>
+        <s v="MANA ODIECHIENG ACHIEL KENDE TOK KANYODUOK MCA MA NORTH KANYAMKAGO KAKA JALUP SPIKA MAR OD BURA MA MIGORI, , KWETH ARIYO MAGIN KAACHIEL GI COUNTY ASSEMBLY MA MIGORI KOD MIGORI COUNTY ASSEMBLY PUBLIC SERVICE BOARD  JIODHI E DOHO MAR MAKO APPEAL E WI NGETO MAR DOHOP MA YALO WECHE JOTICH MANOYIENE OMAMBA NI MONDO ODUOKI KAKA JALIP SPIKA. GEORGE JUMA NIGHI LER MATUT."/>
+        <s v="ROWERE ONGÁNYO MOMBASA"/>
+        <s v="ROWERE MOHEWO 200 JOBAGO NGANYO EOD BURA MA CHANGAMWE MOMBASA GISUNDO PINY OWACHO MONDO MI OCHULGI PESA BANG TIYO E CHENRO MAR KAZI MTAANI E THUOLO MOHEWO DWECHE ARIYO TO KATAKAMANO POK OCHULGI."/>
+        <s v="ROWEREGO KONI OKANGE DUTO MAGISEKAWO MAR WUOTHO E PAISE MAG PINY OWACHO EWI WACH PESANO OSEBEDO KAGORE E LWANDA OMIYO GINGADO MAR CHIWO YWAKGI E YOR BAGO NGANYO."/>
+        <s v="JAOD BURA MA SUNA WEST DWARO NONRO E WI NEK"/>
+        <s v="JAOD BURA MA SUNA WEST PETER MASARA OKWAYO PINY OWACHO MONDO OCHUL JOK MANOHINYORE E BTULO MANOMOCH E KIND OBILA KOD KWETH MOBALO MAR LEGIO MARIA E LOG TICH MAGOD KWERO MANOWEYO KA JII 8 OWITO NGIMAGI."/>
+        <s v="MASARA DWARO NI BAD MIGAO MAR ARITA MONDO OLER ANENA GIMA NOKELO LWENY MA KAMANO  KODWARO NI JATEND MIGAO MAR ARITA FREDMATIANGI OLER ANENA NI NORO OSECHOPO KAMA NAD KAACHIEL GI ONDAMO MIBIRO KAWONI APISA MANOCHIWO LWEDO E NEK MA KAMANO."/>
+        <s v="Wakeini dwani owuo od bura"/>
+        <s v="WAKEINI MA JOKEDO  NE RATYIRO MAG OGANDA JOKWAYO JATEND PINY KENYA UHURU KENYATTA MONDO MI OFUNJ BUNGE MANA KAKA OGAI MAR DOHO JUSTICE DAVID MARAGA NYONGADO NE PARO."/>
+        <s v="KOTELNEGI KOD ESTHER ACHIENG MAR KENYA FEMALE ADVISORY ORGANIZATION (KEFEADO) ,  OKANG MAR JOOD BURA REM CHOPO CHIK  MALOSO KORKA KIT CHWECH EN ROCHO KATIBA KENDO NI MANO KORO OMIYO NYAKA FUNJ MARA OD BURA."/>
+        <s v="ACHIENG WACHO NI KATIBA MA HIGA 2010 JOOD BURA OSEBETIE E HIGNIGI DUTO KOWACHO NI KENYATTA ONGE GI OKANG MACHIELO MONYALO KAWO MAK MANA FUNJO OD BURA."/>
+        <s v="NOWACHO NI KA KENYATTA OREM FUNJO OD BURA TO MANO BIRO NYISO NI KENYA ITAYO MAOK OLUWORE GI KATIBA"/>
+        <s v="Anne Nderitu opuodhi"/>
+        <s v="Jood bura jopuodho mikayi Anne Nderitu kaka jatend duol mandiko duond buche mano ma dhoo ngere luongo ni Registrar of Political Parties."/>
+        <s v="Komiti mar od bura ma malo ma ochung’ne ng’iyo weche mag chike kod ratiro, opuodho welo mar anne nderitu ma nyocha owal gi jatend piny kenya migosi Uhuru Kenyatta."/>
+        <s v="Nderitu ma osebedo kani e lemono e yor kojolo, koro kawo kar lucy ndung’u ma yande ni e lemono."/>
+        <s v="Komitino ma jakom mare en migosi Kigano Muturi, bende opuodho welo mar Ali Abdullahi kod Florence Tabu kaka jolup Anne Nderitu."/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Politics and Government" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Politics and Government"/>
+        <s v="Education"/>
+        <s v="Business"/>
+        <s v="Crime and Legal"/>
+        <s v="Accidents, disasters and deaths"/>
+        <s v="Health"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -4905,9 +5756,1026 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="100">
+  <r>
+    <s v="JOPUR KOD JOPITH MA SIAYA OKWA MONDO JONE NI OCHAKO PITH MAR RECH MATINDO MIUSO NE JOPITH MAR NENO NI NWENGO MARGI OMEDORE "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="KALUWORE GI DWARO MA JATEND MIGAO MAR PUR E COU NTY MA SIAYA DR. ELIZABETH ODHIAMBO, OWACHO NI BEDO NI NITIE CAGES MOHINGO 2,000 E ALUORANO, DWARO MAR RECH MATINDO MIPIDH KORO NI MALO MOKALO."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NOMEDO NI KWAN JOPUR KOD JOPITH MA SNAI USO RECH MATINDO POD NI PINY KA KUOM MANO DWARO NITIERE MAR NENO NI OMED KWANNO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="JAOD BURA OCHANDA OBALO E WACH KOMBE MILOSO NE SIKUNDE"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JAOD BURA MA BOINDO GUIDEON OCHANDA KORO WCAHO NI PINY OWACHO NONEGO OMI THUOLO MOKUONGO GIGO MOCHUNO E WACH  GAYO LANDRUOK KORONA KAR NE GIKET THENGE SILING BILLION 1.9 MAR LOSO KOMBE NE SIKUNDE. "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GEORGE AMOLO NIGI MATHOTH"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JO KISUMU MANYATTA DWARO NI MONDO ONON JOK MAKAW NAMBA OPANDE"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JODAK MA KONA MBAYA EI MANYATTA SANI NGUR MOKALO KALUWORE GI JWETH MORO MOSEBEDO KA LUORORE E ALUORANO KA WACHO NI GINDIKO NYING JII MONDO JOYUD CHIEMB KONY."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JODAK MA KONO WACHPO NI GICHICHI NI GITIE GIA DH NYIME MOPGOGORE GI WACH CHIEMB KONY NIMAR GIPENJ JII NYAKA NAMBA MARGI MAR KIPANDE."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GRACE ATIENO MA EN JA OHALA EI MANYATTA WACHO NI JOTELO MAG ARITA EI MANYATTA KANYO ONEGO OWUOG OKO MONDO ORANG ANE LER MAR KWETH MA KAMANO."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ALEX OMONDO MANOLOSO GI RADIO RAMOGI WACHO NI GIN GI LUORO NIMAR JII MATHOTH NI KECH KENDO NYALO CHIW KIPANDEGI MAYOT."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="OBILA ARIYO OMAKI BANG CHUO JOMATH MOKO GI PALA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="APISA 2 MAG OBILA E COUNTY MA NAKURU OLORNEGI E TESEND OBILAMA NJABINI BANG CHUOYO GI PALA CHUO MOKO ARIYO E BAR MORO KAMA NYOYUDO GIKUOTE ANDIWO."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="WACHORE NI YUARUOK NOMUOCH E KIND OGUL MAMA KOD JOMATH MAMOKGO E SECHE MANYO OCHUOGI GI PALA KA ACHIEL NYOCHUO E BUND IYE TO MACHIELO OCHUO NGÚT LWETE."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JATEND OBILA MA KINANGOP BENJAMIN ONGÓMBE OYANGO WCAH MEKO MAR OBILAGO KA GILERO NI IBIRO CHOPOGI EMNYIM DOHO KA NONRO OSERUMO."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Japuony moro ma Senye Primary School sani ogengne e tesend obila gi ketho mar nego dichuo moro ma ja higni 35"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jago moro omaki ne ketho mar bambo mingi ma bathe"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Chenro mag thieth koro osechako dok e wang’e mos mos Migori Level Four Hospital"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Namba lope iketo e chike manyasani"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Migao ma ochung’ne lope ma pachoka osechako chenro mar daro ‘title deeds’ mag lope kigolo e rijista ma nene kendo irwako e rijista manyien manyasani ma osir gi chike mag loo mane okadhi e higa 2012."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Migao mar lope osingo ni onge ng’ata ng’ata ma dhii wito lope  kata odoko ni lokruok makamano dhii nyime"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pii taka orocho chenro Kisumu Girls"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Tend skund nyiri mar Kisumu Girls okone kambi ma keyo pii (KIWASCO) mono oruwre ma piyo e loso hoto-goro mar pii taka ma ne obarore kendo keyo pii mochido e skundno."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Chenro mag wuoth ma donjo kata wuok e skundno obedo matek chakre nyoro manyo pii mochidono ochako kere. "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Board mar skundno ma Kisumu Girls okoo ni chenro mag somo ok nyal dhii nyime makare ka ok olosi midhierono."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ochuno mondo mii jogo ma donjo e skundno otii mana kod apiko eka gichop ei skul."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Thoo mar ja od bura machon Zablon Olang’"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Oganda dhii nyime gi ywago mosenindo Zablon Owigo Olang’ mane en ja od bura ma Ndhiwa e kinde mokalo."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Gavana mar county ma Migori e ote mare, opuoyo mosenindo Olang kaka jal mane konyo e chiwo paro ma liwu mag dongo county ma Migori."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ja od bura machon ma Rongo migosi Dalmas Otieno ma bende sani en komishona mar duol machano osara mag jotich e pachoka SRC, bende opuoyo mosenindo olang."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mosenindo zablon olang ne ongielo orengo odiechieng ma nyoro ka en jahigni 81."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ne obedo ja od bura ma ndhiwa e kind higa 1979 nyaka 83."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Piny owacho ogolo omenda maromo siling million 10 ne skunde"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Piny owacho koro ogolo omenda maromo silings million 10 ne skunde mane okethi gi pii mapong kendo mamuomore mar konyo e chenro mag gedo mag skundego"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Magi ne oyangi kod jatend migao mochungne yoore mag somo e pachoka ngire George Magoha mabende nowacho ni lipiago biro konyo e chenro mag daro skundego e kuonde mane ogergiego ka idhi gerogi kuonde mamoko makoro oula ok nyal chendee"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo e skund primary ma Ombaka e Sub County ma Nyando e County ma Kisumu ngire Magoha nowacho ni piny owacho ne ogolo pesago ne skunde ma County ma Kisumu kod County ma Baringo mar konyo e chako weche mag gedo mag skunde mane pii oketho e Countiesgo"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Jatend migaono bende nowacho ni omor gi kwan mag jopuonjre mane jogoyo ripot e skunde nyakane yau skunde chieng wuok tich kanowacho ni kwanno duong maber kabende ne okwayo ruodhi mondo jodhi nyime gi pedho jopuonjre mapok jodhi e school mondo mi gine ni jopuonjrego jodhi e school"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Katakamano ngire Magoha ne ogolo siem mager ne jopuonje madongo mag skunde mag primary ni kik gitem riembo nyithindo e school ne school fees"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Piny owacho mamalo chano tiego jo ohala"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Piny owacho mamalo kokalo kuom bad migao mochungne riuruok pinje Africa ma Ugwe san koro osechako tiego jo ohala modak e Counties manie tong mag pinje Africa ma Ugwego kaka yoore ting’o malo weche mag ohala e kind pinjego"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Oseyudi ni rem bedo kod ng’eyo ewii weche mag ohala ema osebedo obadho maduong mokalo ewii dongruok mag ohala migoyo e tong mag pinje Africa ma Ugwego moting’o rocho yoore mag ohala kuom jo ohala ma piny Kenyaka modak e Counties manie tong pinjego -wach mabende koro ne omiyo piny owacho mamalo ochako chenro mag tiego jo ohala e weche mag ohalago mar tieko chutho wach rem bedo kod ng’eyo e weche mag ohalago"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Magi ne oyangi kod jagoro mongirore e migao mochungne riuruok mar pinje Africa ma Ugweno Kevit Desai mabende ne oromne e limbe mare mane otimo e County ma Homa Bay gi jalup governor mar County ma Homa Bay kuno migosi Hamilton Orata"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo e romo mane obedo godo gi jotelo ma County ma Homa Bay kuno Desai nowacho ni gigeto tiego jo ohala modhuro e County ma Homa Bay kuno mondo jobed kod lony mowinjore e weche mag ohala"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jatelono nowacho ni piny owacho ochiwore gi yoore duto mag tieko chutho rem bedo kod rieko e wii weche mag ohalano mar konyo neno ni jo ohala ma Kenya koro jonyalo donjo e weche mag ohala gi mijing’o"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="To bende kanowuoyo e romo achiel nogono jalup govenor ma Homa Bay migosi Hamilton O rata nowacho ni bad migao mochungne weche mag ohala e piny owacho mar County ma Homa Bay kuno biro dhi nyime gi tiego jo ohala modhuro e weche mag ohala ma mariwa ma oriwo pinjego"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Orata nowacho ni gie sechegi gidhi nyime kod lalruok gi piny owacho mamalo mondo mi ogerie kar ohala moro maduong e boma ma Mbita mar konyo jiwo weche mag ohala e kind County ma Homa Bay gi pinje ma libamba mag pinje Africa ma Ugwe"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Clinical officers jowacho ni gidok e ng’anyo margi e dier otieno makawuononi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Riuruok mar clinical officers mapachoka kawuono koro olando ni gidhi dok e ng’anyo margi kochakore saa auchiel mar otieno makawuononi bang rumb seche 48 mane gimiyo riuruok mar governors mathurka mondo ne joloo godo dwachgi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanegiwuoyo ewii wachno jotend riuruogno ma gin jagoro George Gibore kod jakom Peterson Wachira ne jowacho ni riuruok mar governorsno oserem chopo dwach winjruok mane gichopee kodgi ewii kakane onegobed ni gidok e tich mabende ong’ere gi dho ngere ni Return to Work Formula mabende ne oketie kogno tarik achiel mar dweni"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanomedowuoyo ewii wachno migosi Gibore nowacho ni riuruok mar governorsno onge kod chuny mar bero sekta mar thieth e pachoka ni nikech moko kuom governors koro osebukore gi tim moro mar riembo jothieth e tich kaachiel gi buogo moko mapok jodok e tich bende"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Negiwacho ni ng’anyo masanini biro dhi nyime nyakachop chieng ma riuruok mar governorsno obiro obedo ni ohikore mar keto koke e winjruogno mabende oting’o thuond weche 17 ma giduaro ni lonegi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nyathi skul obambi kaeto onegi"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Obila ma Sub county ma Bondo timo nonro ewii nek mar japuonjre ma ja klass 10 ma ringre ne okwany e gweng’ ma Abom mani e sub location ma Ajigo."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ringre japuonjreno ma en jahigni 20 ma nyocha somo e skund sekondar ma Kamnara Mixed ne okwany e puodho moro mana bang’ ka nyo oselal kowuok e ot mosebedo koninde e dalagi."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Jalup ruoth ma Ajigo Emily Awimbo chiwo lerno."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ruto kawuono ne odhi nyime gi kidho BBI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jalup jatend piny Kenya laktar William Ruto kawuono ne odhi nyime gi kidho BBI kane owacho ni BBI ok en gima ochuno ahinya e piny Kenyaka gie sechegi"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanomedowuoyo ewii wachno laktar Ruto nowacho gima ochuno e piny Kenyaka gie sechegi ma onegobed ni jotelo ma Kenyaka joketoe maino margi en wach dongruok kanowacho ni dongruok ema onegobed ni iketo nyime moloyo e pachoka gie sechegi maok wach BBIno"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo e County ma Embu kucho laktar Ruto nowacho ni nikech gombo nitie mar chiero ochumi mapachoka bang tuo mar Corona ketho ochumi ma piny Kenyaka onegobed ni jotelo mathurka joketo maino margi e weche mag dongruok kende gie sechegi maok dich gi goyo campaign ne BBI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kanowuoyo e kanisa mar Moore Catholic Church Kairuri Parish mabende ne odhi yuagoe familia mar jatend oganda jokopere mapachoka Cardinal John Njue kuom tho mar nyamin Njue nogono laktar Ruto nowacho ni wach sieko mar BBIno osemono piny owacho mar Jubilee e timo chenro meke mag dongruok ne jopiny kabende ne osingo ne oganda ma Embu kuno ni piny owacho ohikore mar biro tieko wach gedo mag apaya makono"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="KUONDE SOMO MA MALO POK OIKORE NE YEPO–MAGOHA OLERO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MANA COLEGES ADEK KENDE MAPUONJO TIJE MAG LWEDO EMA OSEIKORE NE YEPO KENDO . ADEKGO GIN NYERI NYERI NATIONAL POLYTECHNIC, RIFT VALLEY TECHNICAL TRAINING INSTITUTE KOD THE ELDORET POLYTECHNIC."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="KALUWORE GI JATEND MIGAO MAR SOMO NGIRE GEORGE MAGOHA, MANOTIMO LIMBE MAR NONO CHAL MAR IKRUOK E KAR TIEGRUOK MA NYERI, , NOWACHO NI ATA MALO 40 MAR KUONDE TIEGRUOK MAPUONJO TIJE LWEDOGO OSEGIK CHOPO E RANGINY MIDWARO MAR YEPO KENDO."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="KATA KAMAN MAGOHA NOWACHO NI SIKUNDE MAG PRIMAR KOD MAG SECONDAR IKRUOK MAR YEPO MARGI POD NI MABOR."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MAGOHA NOWACHO NI POD OBIRO MEDO TIMO LIMBE E KUONDE TIEGRUOK E SECHEGI MA PINY OWACHO MEDO TIMO IKRUOK MAR YEPO MAR SIKUNDE MA THURKA."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="JODOLO MATINDO OKWA MONDO OSUM PARO KUOM MADONGO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="ESECHEEGI MA PINY OWACHO POD OKETO KUM MAGENGO NE JODONGO DHI E UTE MAG ALAM  MAR GAYOGI MONDO MI KIK GIGAM MIDHUSI MAR CORONA, LUORO NITIERE NI MOKO KUOM UTE MAG ALAM KIDEK PODHO KALUWORE GI TELO MAG OJENDE."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="KALUWOREGI MANO OJENDE MASANI OKAWO TELO MAG KANISNI KORO IJIWO MONDO NI JOBED KASUMO PACH JODONGO MOSEBEDO KATAYO CHENRO MAG ALAM TO KATAKAMANO SANI KORO OLORNEGI OKO MAR KANISNI."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="JOTHIETH MEDO YUDO CORONA KENDO GIYUAK"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="E SECHEGI A MIDHUSI MAR CORONA MEDO MAA LANDORE E PACHO KAE, KWAN JOTHIETH MA MEDO YUDO TUONO BENDE MEDO MANA IDHO. NYAKA SANI KWAN JOTHIETH MAROMO 1,437 OSEYUDO TUONO."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="E DWENI MAR 10 KENDE JOTHIETH 217 OSEGAMO TUO MAKOCHNO KA THOTHGI MEDO YUAK NE LWASI MARACH MAR TICH. 0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="JAGORO MAR RIWRUOK LAKTACHE DR CHIBANZI MWACHONDA NYISOWA GIMOMIYO TUO MA KAMANO MEDO LANDORE E KIND JOTHIETH."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="MWACHONDA WACHO NI OKANG A KORO JOTHIETH 18 OSETHO GI KORONA ROCHO MOKALO CHENRO MAG THIETH KOWACHO NI KATA KOBEDO NI JOTHIETH OCHIWORE MOKALO, KATA MANA MBALANG MIMIYOGI MBENDE ONGE."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="GEORGE GIBORE MOCHUNGNE JOTHIETH KATA CLINICIANS WACHO NI CHAKRUOK MAR TIELO MAR ARIYO MAR CORONA MEDO KELO LUORO MOKALO E KIND OGANDA."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="OBILA ARIYO OMAKI BANG CHUO JOMATH MOKO GI PALA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="APISA 2 MAG OBILA E COUNTY MA NAKURU OLORNEGI E TESEND OBILAMA NJABINI BANG CHUOYO GI PALA CHUO MOKO ARIYO E BAR MORO KAMA NYOYUDO GIKUOTE ANDIWO."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="WACHORE NI YUARUOK NOMUOCH E KIND OGUL MAMA KOD JOMATH MAMOKGO E SECHE MANYO OCHUOGI GI PALA KA ACHIEL NYOCHUO E BUND IYE TO MACHIELO OCHUO NGÚT LWETE."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="JATEND OBILA MA KINANGOP BENJAMIN ONGÓMBE OYANGO WCAH MEKO MAR OBILAGO KA GILERO NI IBIRO CHOPOGI EMNYIM DOHO KA NONRO OSERUMO."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MIYO MORO ODERE ALEGO BANG PESANE GWENYORE"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="JODAK MA LWALA VILLAGE E KAR CHUNG OD BURA MA ALEGO USONGA, NOCHIEW GI BUOK OKINYI MA KAWUONO BANG YUDO RINGRE MIYO MA JA HIGNI 51 KA DANGNI E TAT ODE KA ICHICH NI NOKAW NGIMANE OWUON."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="JARED JUMA NOYUDE RINGRE JAODE MARGRET ATINEO KOLIERO KA THOL BENDE NORIDO NGÚTE"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="KALUWORE GI WEDENE, MIYONO IWACHO NI PESA MAROMO SH 20,000 MAG CHAMA NYOGWENYORENE EN KAKA JAKENO GINO MANE NALO MIYO OKAW NGIMANE"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="IWACHO NI MOTELO NE MANO NYOYUAK NI NOKANO SILING 40,000 MAG CHAMA TO EMA BANGE NOFWENY NI 20,000 ONGE"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RINGRE NOTER SIAYA COUNTY REFERAL HOSPITAL MORTUARY"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="JOK MANODAR KOWUOK KIBUYE YUAK "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="KUPPET DWARO LWASI MABER NE JOPUONJ"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="JAGORO MAR KUPPET BADE MA KISUMU ZABLON AWANGE, SANI DWARO NI PINY OWACHO MONDO OKET LWASI MABER NE JOPUONJ MOTELO NE YEPO MAR SIKUNDE MOCHAN TIMORE JANUAR HIGA MANYIEN."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AWANGE WACHO NI YEPO MA ALUNDE MA SANI OSECHAKORENI NI KOD ACHIEDHNADE MATHOTH MOKALO. NOWACHO NE PINY OWACHO NI NYAKA GINE NI JOPUONJ NIGI GIGE GENG’RUOK MORTOMO KATA PPES MA RANGNINY GI NI MALO."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="KANOLOSO E BOMA MA KISUMO, AWANGE KATA KAMANO NOWACHO NI GIONGE GI WACH GI KALENDAR MANYIEN MAR SOMONO KOWACHO NI JOPUONJ MA HIKGI OKALO 58 OK ONEGO OCHUN DHI E SIKUL NIMAR MOKO KUOMGI NYAKA SANI ICHUNO MONDO JOTII KA GIN E SIKUL KAR TIYO KA GIN PACHO."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="LUORO NITIE MOMBASA KALUWORE GI NGÁNYO MAG JOTHIETH"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="LUORO NITIERE NI OGANDA MATHOTH KIDEK WITO NGIMAGI MOMBASA TO CHUTHO ESECHEGI MA JOTUO CORONA KORONA MEDORE E PACHOKA KALUWORE GI NGANYO MAR NURSES MASANI ODONJO ODIOCHIENGE MAR ADEK."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="KAMATI MAE SENATE DAYOP DHO JOK MANOLOKO GI KEMSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="KAMATI MAR OD BURA  MAR SENATE E WI THIETH ISECHAKO NONO KEMBE MANOCHIWO MWANDU MAG GENGRUOK NE MIDHUSI MAR CORONA  MA GIYUDO BILLION MODHURO MAG OMENDA."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="JATAA TIJE MADUONG KA ANDELICA MEDICAL NICHOLAS MATU NOWACHO E SAMA NIDAYO DHOGE GI KAMATINO MOTELNE KOD SENETA MA TRANZOIA  MICHAEL MBITO NI NONDIKO NE KEMSA NI NODWA CHWALO GIGE THIETHGO KATA KOBEDO NI KEMSA NE POK OLANDO TENDER MA KAMANO."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NOLERO NI KEMSA NOYIENE KA BANG MANO NE GICHAKO WINJORE E WI NENGO  MAG NGIEWO PPES GO. MOPOGORE GI ANGELICA MEDICAL , KEMBE MAMOKO MA IDAYO DHOGI MANOYUDO BILLION MODHURO MAG OMENDA E MIBADHI MA KA KEMSA GO GIN KAACHIEL KOD"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Jabodaboda odere nikech gowi"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="ROWERE 21 OMAKI BUNGOMA KA TOYO NGONA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ANYUOLA MORO MIGORI DWARO RATIRO NE NYARGI MNAOBAMBI"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="OKWACH KICH NONO KENDO MANYIEN TULO MA TOK YIERO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="MATIANGÍ WACHO NI KENYA OSEGOYO OKANG"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="109">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G17:H25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J16:K23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0">
+      <items count="110">
+        <item x="102"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="104"/>
+        <item x="4"/>
+        <item x="66"/>
+        <item x="79"/>
+        <item x="14"/>
+        <item x="56"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="40"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="86"/>
+        <item x="78"/>
+        <item x="57"/>
+        <item x="60"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="46"/>
+        <item x="64"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="31"/>
+        <item x="72"/>
+        <item x="13"/>
+        <item x="65"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="105"/>
+        <item x="71"/>
+        <item x="38"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="17"/>
+        <item x="74"/>
+        <item x="33"/>
+        <item x="52"/>
+        <item x="30"/>
+        <item x="106"/>
+        <item x="108"/>
+        <item x="101"/>
+        <item x="67"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="7"/>
+        <item x="84"/>
+        <item x="3"/>
+        <item x="63"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="92"/>
+        <item x="98"/>
+        <item x="68"/>
+        <item x="91"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="87"/>
+        <item x="90"/>
+        <item x="2"/>
+        <item x="107"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="85"/>
+        <item x="77"/>
+        <item x="21"/>
+        <item x="80"/>
+        <item x="76"/>
+        <item x="5"/>
+        <item x="41"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="81"/>
+        <item x="75"/>
+        <item x="103"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="88"/>
+        <item x="62"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="95"/>
+        <item x="89"/>
+        <item x="59"/>
+        <item x="53"/>
+        <item x="32"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of MUDAVADI DWARO REFERENDUM MONYWAKO JOKENYA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D16:E24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -4962,9 +6830,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A16:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -5015,6 +6883,68 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G16:H24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of PIDHURU RECH MATINDO MIUSO NE JOPITH" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5058,7 +6988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5090,9 +7020,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5124,6 +7055,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5299,10 +7231,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1054"/>
   <sheetViews>
-    <sheetView topLeftCell="A1049" workbookViewId="0">
+    <sheetView topLeftCell="A992" workbookViewId="0">
       <selection activeCell="A999" sqref="A999:A1054"/>
     </sheetView>
   </sheetViews>
@@ -10587,11 +12519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B910"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="A909" sqref="A909"/>
+    <sheetView topLeftCell="A1105" workbookViewId="0">
+      <selection activeCell="A1014" sqref="A1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15748,7 +17680,7 @@
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" t="s">
+      <c r="A646" s="15" t="s">
         <v>645</v>
       </c>
       <c r="B646" s="6" t="s">
@@ -15779,8 +17711,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
-      <c r="A650" t="s">
+    <row r="650" spans="1:2" ht="30">
+      <c r="A650" s="15" t="s">
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
@@ -15852,7 +17784,7 @@
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" t="s">
+      <c r="A659" s="15" t="s">
         <v>657</v>
       </c>
       <c r="B659" s="2" t="s">
@@ -16028,7 +17960,7 @@
       </c>
     </row>
     <row r="681" spans="1:2">
-      <c r="A681" t="s">
+      <c r="A681" s="15" t="s">
         <v>679</v>
       </c>
       <c r="B681" s="2" t="s">
@@ -16547,8 +18479,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
-      <c r="A746" t="s">
+    <row r="746" spans="1:2" ht="45">
+      <c r="A746" s="15" t="s">
         <v>742</v>
       </c>
       <c r="B746" s="2" t="s">
@@ -16732,7 +18664,7 @@
       </c>
     </row>
     <row r="769" spans="1:2">
-      <c r="A769" t="s">
+      <c r="A769" s="15" t="s">
         <v>1103</v>
       </c>
       <c r="B769" s="2" t="s">
@@ -16771,8 +18703,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:2">
-      <c r="A774" t="s">
+    <row r="774" spans="1:2" ht="30">
+      <c r="A774" s="15" t="s">
         <v>1110</v>
       </c>
       <c r="B774" s="2" t="s">
@@ -16788,7 +18720,7 @@
       </c>
     </row>
     <row r="776" spans="1:2">
-      <c r="A776" t="s">
+      <c r="A776" s="15" t="s">
         <v>1112</v>
       </c>
       <c r="B776" s="2" t="s">
@@ -17099,8 +19031,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
-      <c r="A815" t="s">
+    <row r="815" spans="1:2" ht="30">
+      <c r="A815" s="15" t="s">
         <v>1151</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -17147,8 +19079,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="18.75">
-      <c r="A821" s="18" t="s">
+    <row r="821" spans="1:2" ht="75">
+      <c r="A821" s="24" t="s">
         <v>1157</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -17427,8 +19359,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="18.75">
-      <c r="A856" s="18" t="s">
+    <row r="856" spans="1:2" ht="75">
+      <c r="A856" s="24" t="s">
         <v>1195</v>
       </c>
       <c r="B856" s="2" t="s">
@@ -17756,7 +19688,7 @@
       </c>
     </row>
     <row r="897" spans="1:2" ht="21">
-      <c r="A897" s="22" t="s">
+      <c r="A897" s="21" t="s">
         <v>1238</v>
       </c>
       <c r="B897" s="2" t="s">
@@ -17780,7 +19712,7 @@
       </c>
     </row>
     <row r="900" spans="1:2" ht="21">
-      <c r="A900" s="22" t="s">
+      <c r="A900" s="21" t="s">
         <v>1241</v>
       </c>
       <c r="B900" s="2" t="s">
@@ -17804,7 +19736,7 @@
       </c>
     </row>
     <row r="903" spans="1:2" ht="21">
-      <c r="A903" s="22" t="s">
+      <c r="A903" s="21" t="s">
         <v>1244</v>
       </c>
       <c r="B903" s="2" t="s">
@@ -17812,7 +19744,7 @@
       </c>
     </row>
     <row r="904" spans="1:2" ht="21">
-      <c r="A904" s="22" t="s">
+      <c r="A904" s="21" t="s">
         <v>1245</v>
       </c>
       <c r="B904" s="2" t="s">
@@ -17844,7 +19776,7 @@
       </c>
     </row>
     <row r="908" spans="1:2" ht="21">
-      <c r="A908" s="22" t="s">
+      <c r="A908" s="21" t="s">
         <v>1249</v>
       </c>
       <c r="B908" s="2" t="s">
@@ -17866,6 +19798,1874 @@
       <c r="B910" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="911" spans="1:2" s="29" customFormat="1" ht="21">
+      <c r="A911" s="27" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B911" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="63">
+      <c r="A912" s="23" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B912" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" ht="84">
+      <c r="A913" s="23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B913" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" ht="42">
+      <c r="A914" s="23" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B914" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" ht="21">
+      <c r="A915" s="22" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B915" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" ht="75">
+      <c r="A916" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B916" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" ht="18.75">
+      <c r="A917" s="24" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B917" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" ht="42">
+      <c r="A918" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B918" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" ht="63">
+      <c r="A919" s="23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" ht="63">
+      <c r="A920" s="23" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" ht="63">
+      <c r="A921" s="23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B921" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" ht="42">
+      <c r="A922" s="23" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B922" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" ht="21">
+      <c r="A923" s="23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B923" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="63">
+      <c r="A924" s="23" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B924" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" ht="63">
+      <c r="A925" s="23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B925" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="63">
+      <c r="A926" s="23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B926" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" ht="42">
+      <c r="A927" s="23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B927" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" ht="21">
+      <c r="A928" s="23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B928" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="42">
+      <c r="A929" s="23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B929" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" ht="21">
+      <c r="A930" s="22" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B930" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="63">
+      <c r="A931" s="23" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B931" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="42">
+      <c r="A932" s="23" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B932" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" ht="21">
+      <c r="A933" s="22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B933" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" ht="63">
+      <c r="A934" s="23" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B934" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" ht="42">
+      <c r="A935" s="23" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B935" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" ht="42">
+      <c r="A936" s="23" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B936" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" ht="42">
+      <c r="A937" s="23" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B937" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" ht="21">
+      <c r="A938" s="22" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B938" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" ht="42">
+      <c r="A939" s="23" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B939" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" ht="42">
+      <c r="A940" s="23" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B940" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" ht="63">
+      <c r="A941" s="23" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B941" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" ht="42">
+      <c r="A942" s="23" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B942" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" ht="21">
+      <c r="A943" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B943" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" ht="21">
+      <c r="A944" s="22" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B944" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" ht="63">
+      <c r="A945" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B945" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" ht="84">
+      <c r="A946" s="23" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" ht="84">
+      <c r="A947" s="23" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B947" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" ht="84">
+      <c r="A948" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B948" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" ht="42">
+      <c r="A949" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B949" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" ht="21">
+      <c r="A950" s="22" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B950" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" ht="84">
+      <c r="A951" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" ht="126">
+      <c r="A952" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="84">
+      <c r="A953" s="23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B953" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" ht="63">
+      <c r="A954" s="23" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" ht="63">
+      <c r="A955" s="23" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" ht="84">
+      <c r="A956" s="23" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" ht="84">
+      <c r="A957" s="23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B957" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" ht="21">
+      <c r="A958" s="22" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" ht="84">
+      <c r="A959" s="23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" ht="105">
+      <c r="A960" s="23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B960" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="84">
+      <c r="A961" s="23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="63">
+      <c r="A962" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" ht="21">
+      <c r="A963" s="22" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="42">
+      <c r="A964" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="63">
+      <c r="A965" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" ht="21">
+      <c r="A966" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" ht="21">
+      <c r="A967" s="22" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" ht="42">
+      <c r="A968" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B968" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="84">
+      <c r="A969" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" ht="84">
+      <c r="A970" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" ht="126">
+      <c r="A971" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" ht="21">
+      <c r="A972" s="22" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B972" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="63">
+      <c r="A973" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B973" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" ht="84">
+      <c r="A974" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" ht="42">
+      <c r="A975" s="23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" ht="63">
+      <c r="A976" s="23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B976" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="21">
+      <c r="A977" s="22" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" ht="84">
+      <c r="A978" s="23" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="84">
+      <c r="A979" s="23" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="21">
+      <c r="A980" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" ht="63">
+      <c r="A981" s="23" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="42">
+      <c r="A982" s="23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="42">
+      <c r="A983" s="23" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="84">
+      <c r="A984" s="23" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" ht="63">
+      <c r="A985" s="23" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" ht="21">
+      <c r="A986" s="22" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" ht="63">
+      <c r="A987" s="23" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="63">
+      <c r="A988" s="23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="63">
+      <c r="A989" s="23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="21">
+      <c r="A990" s="22" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="63">
+      <c r="A991" s="23" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="42">
+      <c r="A992" s="23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B992" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" ht="63">
+      <c r="A993" s="23" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="42">
+      <c r="A994" s="23" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" ht="21">
+      <c r="A995" s="23" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" ht="21">
+      <c r="A996" s="23" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B996" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" ht="21">
+      <c r="A997" s="22" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" ht="63">
+      <c r="A998" s="23" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="84">
+      <c r="A999" s="23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B999" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="105">
+      <c r="A1000" s="23" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" ht="21">
+      <c r="A1001" s="22" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" ht="84">
+      <c r="A1002" s="22" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="21">
+      <c r="A1003" s="22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="63">
+      <c r="A1004" s="23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="105">
+      <c r="A1005" s="23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" ht="84">
+      <c r="A1006" s="23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="21">
+      <c r="A1007" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="21">
+      <c r="A1008" s="23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="21">
+      <c r="A1009" s="23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" ht="21">
+      <c r="A1010" s="23" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" ht="21">
+      <c r="A1011" s="23" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" s="29" customFormat="1" ht="21">
+      <c r="A1012" s="31" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1012" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="126">
+      <c r="A1013" s="23" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" ht="105">
+      <c r="A1014" s="23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" ht="84">
+      <c r="A1015" s="23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="21">
+      <c r="A1016" s="30" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" ht="126">
+      <c r="A1017" s="23" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" ht="84">
+      <c r="A1018" s="23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" ht="84">
+      <c r="A1019" s="23" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" ht="42">
+      <c r="A1020" s="23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" ht="21">
+      <c r="A1021" s="30" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="84">
+      <c r="A1022" s="23" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="42">
+      <c r="A1023" s="23" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="63">
+      <c r="A1024" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="42">
+      <c r="A1025" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="21">
+      <c r="A1026" s="30" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="63">
+      <c r="A1027" s="23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="63">
+      <c r="A1028" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="42">
+      <c r="A1029" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" ht="63">
+      <c r="A1030" s="23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" ht="21">
+      <c r="A1031" s="30" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" ht="63">
+      <c r="A1032" s="23" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" ht="63">
+      <c r="A1033" s="23" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" ht="42">
+      <c r="A1034" s="23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="84">
+      <c r="A1035" s="23" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="42">
+      <c r="A1036" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" ht="21">
+      <c r="A1037" s="30" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" ht="84">
+      <c r="A1038" s="23" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1038" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="63">
+      <c r="A1039" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="42">
+      <c r="A1040" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1040" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="63">
+      <c r="A1041" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1041" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="42">
+      <c r="A1042" s="23" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1042" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="21">
+      <c r="A1043" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1043" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="84">
+      <c r="A1044" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1044" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="63">
+      <c r="A1045" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1045" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="63">
+      <c r="A1046" s="23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1046" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="63">
+      <c r="A1047" s="23" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1047" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="42">
+      <c r="A1048" s="23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1048" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" ht="21">
+      <c r="A1049" s="30" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1049" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="84">
+      <c r="A1050" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1050" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" ht="63">
+      <c r="A1051" s="23" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1051" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="42">
+      <c r="A1052" s="23" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1052" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" ht="63">
+      <c r="A1053" s="23" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1053" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="42">
+      <c r="A1054" s="23" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1054" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="42">
+      <c r="A1055" s="30" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1055" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="105">
+      <c r="A1056" s="30" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1056" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" ht="21">
+      <c r="A1057" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1057" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="63">
+      <c r="A1058" s="23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1058" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="105">
+      <c r="A1059" s="23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1059" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="84">
+      <c r="A1060" s="23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1060" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="21">
+      <c r="A1061" s="30" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1061" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="63">
+      <c r="A1062" s="23" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1062" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="63">
+      <c r="A1063" s="23" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1063" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="63">
+      <c r="A1064" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1064" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="42">
+      <c r="A1065" s="23" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1065" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" ht="21">
+      <c r="A1066" s="30" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1066" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" ht="63">
+      <c r="A1067" s="23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1067" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="84">
+      <c r="A1068" s="23" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1068" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="42">
+      <c r="A1069" s="23" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1069" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="63">
+      <c r="A1070" s="23" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" ht="63">
+      <c r="A1071" s="23" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1071" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" ht="21">
+      <c r="A1072" s="30" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1072" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="105">
+      <c r="A1073" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1073" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" ht="84">
+      <c r="A1074" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="21">
+      <c r="A1075" s="30" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1075" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" ht="84">
+      <c r="A1076" s="23" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1076" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" ht="42">
+      <c r="A1077" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1077" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="21">
+      <c r="A1078" s="30" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" ht="63">
+      <c r="A1079" s="23" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1079" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="63">
+      <c r="A1080" s="23" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1080" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" ht="63">
+      <c r="A1081" s="23" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1081" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" ht="21">
+      <c r="A1082" s="30" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1082" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" ht="84">
+      <c r="A1083" s="23" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" ht="63">
+      <c r="A1084" s="23" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1084" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" ht="21">
+      <c r="A1085" s="30" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1085" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="63">
+      <c r="A1086" s="30" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1086" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" ht="63">
+      <c r="A1087" s="23" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1087" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="63">
+      <c r="A1088" s="23" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1088" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" ht="63">
+      <c r="A1089" s="23" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1089" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" ht="21">
+      <c r="A1090" s="30" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1090" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="84">
+      <c r="A1091" s="23" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1091" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" ht="84">
+      <c r="A1092" s="23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1092" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="63">
+      <c r="A1093" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1093" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" ht="42">
+      <c r="A1094" s="23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1094" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" ht="21">
+      <c r="A1095" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1095" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="84">
+      <c r="A1096" s="23" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1096" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" ht="63">
+      <c r="A1097" s="23" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1097" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" ht="21">
+      <c r="A1098" s="30" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1098" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" ht="84">
+      <c r="A1099" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1099" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" ht="126">
+      <c r="A1100" s="23" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1100" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" ht="84">
+      <c r="A1101" s="23" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1101" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" ht="63">
+      <c r="A1102" s="23" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1102" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" ht="42">
+      <c r="A1103" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" ht="21">
+      <c r="A1104" s="30" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1104" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" ht="147">
+      <c r="A1105" s="30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1105" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" ht="21">
+      <c r="A1106" s="30" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1106" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" ht="84">
+      <c r="A1107" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1107" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" ht="63">
+      <c r="A1108" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" ht="21">
+      <c r="A1109" s="30" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1109" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" ht="84">
+      <c r="A1110" s="23" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1110" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" ht="105">
+      <c r="A1111" s="23" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1111" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" ht="21">
+      <c r="A1112" s="30" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1112" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" ht="63">
+      <c r="A1113" s="23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1113" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" ht="84">
+      <c r="A1114" s="23" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1114" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" ht="63">
+      <c r="A1115" s="23" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1115" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" ht="42">
+      <c r="A1116" s="23" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1116" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" ht="21">
+      <c r="A1117" s="30" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1117" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" ht="42">
+      <c r="A1118" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1118" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" ht="63">
+      <c r="A1119" s="23" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" ht="42">
+      <c r="A1120" s="23" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1120" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="42">
+      <c r="A1121" s="23" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1121" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" ht="21">
+      <c r="A1122" s="30"/>
+    </row>
+    <row r="1123" spans="1:2" ht="21">
+      <c r="A1123" s="30"/>
+    </row>
+    <row r="1124" spans="1:2" ht="21">
+      <c r="A1124" s="30"/>
+    </row>
+    <row r="1125" spans="1:2" ht="21">
+      <c r="A1125" s="30"/>
+    </row>
+    <row r="1126" spans="1:2" ht="21">
+      <c r="A1126" s="30"/>
+    </row>
+    <row r="1127" spans="1:2" ht="21">
+      <c r="A1127" s="30"/>
+    </row>
+    <row r="1128" spans="1:2" ht="21">
+      <c r="A1128" s="30"/>
+    </row>
+    <row r="1129" spans="1:2" ht="21">
+      <c r="A1129" s="30"/>
+    </row>
+    <row r="1130" spans="1:2" ht="21">
+      <c r="A1130" s="30"/>
+    </row>
+    <row r="1131" spans="1:2" ht="21">
+      <c r="A1131" s="30"/>
+    </row>
+    <row r="1132" spans="1:2" ht="21">
+      <c r="A1132" s="30"/>
+    </row>
+    <row r="1133" spans="1:2" ht="21">
+      <c r="A1133" s="30"/>
+    </row>
+    <row r="1134" spans="1:2" ht="21">
+      <c r="A1134" s="30"/>
+    </row>
+    <row r="1135" spans="1:2" ht="21">
+      <c r="A1135" s="30"/>
+    </row>
+    <row r="1136" spans="1:2" ht="21">
+      <c r="A1136" s="30"/>
+    </row>
+    <row r="1137" spans="1:1" ht="21">
+      <c r="A1137" s="30"/>
+    </row>
+    <row r="1138" spans="1:1" ht="21">
+      <c r="A1138" s="30"/>
+    </row>
+    <row r="1139" spans="1:1" ht="21">
+      <c r="A1139" s="30"/>
+    </row>
+    <row r="1140" spans="1:1" ht="21">
+      <c r="A1140" s="30"/>
+    </row>
+    <row r="1141" spans="1:1" ht="21">
+      <c r="A1141" s="30"/>
+    </row>
+    <row r="1142" spans="1:1" ht="21">
+      <c r="A1142" s="30"/>
+    </row>
+    <row r="1143" spans="1:1" ht="21">
+      <c r="A1143" s="30"/>
+    </row>
+    <row r="1144" spans="1:1" ht="21">
+      <c r="A1144" s="30"/>
+    </row>
+    <row r="1145" spans="1:1" ht="21">
+      <c r="A1145" s="30"/>
+    </row>
+    <row r="1146" spans="1:1" ht="21">
+      <c r="A1146" s="30"/>
+    </row>
+    <row r="1147" spans="1:1" ht="21">
+      <c r="A1147" s="30"/>
+    </row>
+    <row r="1148" spans="1:1" ht="21">
+      <c r="A1148" s="30"/>
+    </row>
+    <row r="1149" spans="1:1" ht="21">
+      <c r="A1149" s="30"/>
+    </row>
+    <row r="1150" spans="1:1" ht="21">
+      <c r="A1150" s="30"/>
+    </row>
+    <row r="1151" spans="1:1" ht="21">
+      <c r="A1151" s="30"/>
+    </row>
+    <row r="1152" spans="1:1" ht="21">
+      <c r="A1152" s="30"/>
+    </row>
+    <row r="1153" spans="1:1" ht="21">
+      <c r="A1153" s="30"/>
+    </row>
+    <row r="1154" spans="1:1" ht="21">
+      <c r="A1154" s="30"/>
+    </row>
+    <row r="1155" spans="1:1" ht="21">
+      <c r="A1155" s="30"/>
+    </row>
+    <row r="1156" spans="1:1" ht="21">
+      <c r="A1156" s="30"/>
+    </row>
+    <row r="1157" spans="1:1" ht="21">
+      <c r="A1157" s="30"/>
+    </row>
+    <row r="1158" spans="1:1" ht="21">
+      <c r="A1158" s="30"/>
+    </row>
+    <row r="1159" spans="1:1" ht="21">
+      <c r="A1159" s="30"/>
+    </row>
+    <row r="1160" spans="1:1" ht="21">
+      <c r="A1160" s="30"/>
+    </row>
+    <row r="1161" spans="1:1" ht="21">
+      <c r="A1161" s="30"/>
+    </row>
+    <row r="1162" spans="1:1" ht="21">
+      <c r="A1162" s="30"/>
+    </row>
+    <row r="1163" spans="1:1" ht="21">
+      <c r="A1163" s="30"/>
+    </row>
+    <row r="1164" spans="1:1" ht="21">
+      <c r="A1164" s="30"/>
+    </row>
+    <row r="1165" spans="1:1" ht="21">
+      <c r="A1165" s="30"/>
+    </row>
+    <row r="1166" spans="1:1" ht="21">
+      <c r="A1166" s="30"/>
+    </row>
+    <row r="1167" spans="1:1" ht="21">
+      <c r="A1167" s="30"/>
+    </row>
+    <row r="1168" spans="1:1" ht="21">
+      <c r="A1168" s="30"/>
+    </row>
+    <row r="1169" spans="1:1" ht="21">
+      <c r="A1169" s="30"/>
+    </row>
+    <row r="1170" spans="1:1" ht="21">
+      <c r="A1170" s="30"/>
+    </row>
+    <row r="1171" spans="1:1" ht="21">
+      <c r="A1171" s="30"/>
+    </row>
+    <row r="1172" spans="1:1" ht="21">
+      <c r="A1172" s="30"/>
+    </row>
+    <row r="1173" spans="1:1" ht="21">
+      <c r="A1173" s="30"/>
+    </row>
+    <row r="1174" spans="1:1" ht="21">
+      <c r="A1174" s="30"/>
+    </row>
+    <row r="1175" spans="1:1" ht="21">
+      <c r="A1175" s="30"/>
+    </row>
+    <row r="1176" spans="1:1" ht="21">
+      <c r="A1176" s="30"/>
+    </row>
+    <row r="1177" spans="1:1" ht="21">
+      <c r="A1177" s="30"/>
+    </row>
+    <row r="1178" spans="1:1" ht="21">
+      <c r="A1178" s="30"/>
+    </row>
+    <row r="1179" spans="1:1" ht="21">
+      <c r="A1179" s="30"/>
+    </row>
+    <row r="1180" spans="1:1" ht="21">
+      <c r="A1180" s="30"/>
+    </row>
+    <row r="1181" spans="1:1" ht="21">
+      <c r="A1181" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17874,11 +21674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:S33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17886,27 +21686,34 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>1123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="25">
+        <v>44350</v>
+      </c>
+      <c r="G2" s="25">
+        <v>44380</v>
+      </c>
+      <c r="H2" t="s">
         <v>1122</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
         <v>112</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -17923,21 +21730,27 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <f>SUM(B3:E3)</f>
-        <v>162</v>
-      </c>
-      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B3:G3)</f>
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>162</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="K3">
+        <v>190</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17951,21 +21764,27 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F11" si="0">SUM(B4:E4)</f>
-        <v>212</v>
-      </c>
-      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v>246</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="M4">
-        <v>212</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="K4">
+        <v>246</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -17979,21 +21798,27 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f>SUM(B5:G5)</f>
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
         <v>204</v>
       </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="K5">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18009,22 +21834,22 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="H6">
+        <f t="shared" ref="H4:H9" si="0">SUM(B6:F6)</f>
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="K6">
         <v>17</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -18041,21 +21866,27 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>SUM(B7:G7)</f>
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>235</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="K7">
+        <v>249</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -18072,21 +21903,27 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>274</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f>SUM(B8:G8)</f>
+        <v>361</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>361</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -18097,19 +21934,22 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
         <v>9</v>
       </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="K9">
+        <v>49</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -18126,17 +21966,20 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <f>SUM(B10:F10)</f>
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="K10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -18149,20 +21992,23 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f>SUM(B11:G11)</f>
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="M11">
-        <v>29</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="K11">
+        <v>39</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -18171,7 +22017,7 @@
         <v>910</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:F12" si="1">SUM(C3:C11)</f>
+        <f t="shared" ref="C12:G12" si="1">SUM(C3:C11)</f>
         <v>40</v>
       </c>
       <c r="D12">
@@ -18184,134 +22030,255 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1054</v>
-      </c>
-      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H3:H11)</f>
+        <v>1265</v>
+      </c>
+      <c r="J12" t="s">
         <v>262</v>
       </c>
-      <c r="M12">
-        <v>1054</v>
+      <c r="K12">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1232</v>
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1">
-        <v>6</v>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>1172</v>
       </c>
       <c r="B23" s="1">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K23" s="1">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="B24" s="1">
-        <v>47</v>
+      <c r="E24" s="1">
+        <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>1172</v>
       </c>
       <c r="H24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="G25" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H25" s="1">
-        <v>55</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2"/>
@@ -18369,29 +22336,18 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="6:11">
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="O13:P21">
-    <sortCondition ref="O13:O21"/>
+  <sortState ref="J13:K21">
+    <sortCondition ref="J13:J21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELOHOME\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621471D-8F59-421F-9D3A-A4195F3CACE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A0DE4-A32C-458D-95EA-D9A4BB72B0DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="1440">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -4234,13 +4234,151 @@
   </si>
   <si>
     <t>Kanowuoyo e kanisa mar Moore Catholic Church Kairuri Parish mabende ne odhi yuagoe familia mar jatend oganda jokopere mapachoka Cardinal John Njue kuom tho mar nyamin Njue nogono laktar Ruto nowacho ni wach sieko mar BBIno osemono piny owacho mar Jubilee e timo chenro meke mag dongruok ne jopiny kabende ne osingo ne oganda ma Embu kuno ni piny owacho ohikore mar biro tieko wach gedo mag apaya makono</t>
+  </si>
+  <si>
+    <t>Jopur niang dwaro ni mondo kembe marego niang ochulgi omenda ma wuok kuom molases</t>
+  </si>
+  <si>
+    <t>Jagoro mar riuruok jopur niang migosi Ezra Okoth Olodi dwaro ni kembe marego niang ochul jopur go mwandu mamoko mabende wuok kuom niang kaka molasses kod mamoko.</t>
+  </si>
+  <si>
+    <t>Okoth wacho ni kembe marego niang loso omenda mathoth kuom mwandu mamaoko mabende wuoke niang mabende on’gere kaka by products.</t>
+  </si>
+  <si>
+    <t>Okoth wacho ni jopur bende onego oyud ber kowuok kuom mwandugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chenro mar dwaro loko pend chike ma pachoka okao okang achiel nyime bang counties mohewo 24 kadho paro mar chik mar bbi </t>
+  </si>
+  <si>
+    <t>Koro en ayanga ni chenro mar dwaro loko pend chike ma pachoka okao okang achiel nyime bang counties mohewo 24 kadho paro mar chik mar bbi</t>
+  </si>
+  <si>
+    <t>Odiochineg ma kawuono counties 26  ne okadho paro ongo mar chik kaka ne igeno ka jogo masiro paro Onogo mar chik wacho ni mano nyiso ni chenro mar loko pend chike ma pachoka biro yudo sir kowuok kuom oganda jokenya .</t>
+  </si>
+  <si>
+    <t>Giesani wenge koro ochom ne od bura maamalo to kod mano mar senate mar twak e wii paro onogo kapok gibiro gichwale ne duol matayo weche yiero to kod tomg e pachoka iebc mar bago ombulu mago mar referendum.</t>
+  </si>
+  <si>
+    <t>Japuonj moro madichuo mapuonjo  St Pius Uriri boys sec  school  e subcounty ma  Uriri olalo ngimane e masira mar apaya</t>
+  </si>
+  <si>
+    <t>Japuonj moro madichuo mapuonjo  St Pius Uriri boys sec  school  e subcounty ma  Uriri olalo ngimane e masira mar apaya  mane ojuko lory mar tipa mar kambi jochina matimo gedo mar apaya kod apiko  ecenter mar Garage mantie Ururi e apaya maduong mar Migori Rongo.</t>
+  </si>
+  <si>
+    <t>Comanda mar obila  esub county ma Uriri Peter Njoroge owacho ni japuonj no maja igni 40 ne riembo apikone kadhi school  emane lory mar tipano otuome gi  yoka toke ma otho kanyo gi kanyo kendo ringre noter  e kar kano ringre ma Migori level 4 hospital</t>
+  </si>
+  <si>
+    <t>Njoroge owacho ni jopiny mane igi owang ne dwa wan’go lorry mar tipano kata kamano obila ne ogen’gogi.</t>
+  </si>
+  <si>
+    <t>BBI ochomo ng’iende</t>
+  </si>
+  <si>
+    <t>Geno mar jogo ma siro paro mar chik mar BBI kawuono ni kuom ute bura ma ikore mar dhii goyo ombulu mar yie kata kwedo parono odiechieng’ ma kawuono.</t>
+  </si>
+  <si>
+    <t>Nyaka sani ute bura mag counties 12 osekadho paro mar chikno ka kwan ma dwarore mondo mii puodhe ne dhii e ombulu mar paro en ute bura mag counties 24.</t>
+  </si>
+  <si>
+    <t>Counties ma ute bura maggi igeno ni dhii tiekore gi wach bbi kawuono oriwo koda ka county ma Migori, county ma Nyamira, Mombasa, Kilifi, Nakuru, Nyeri, Embu, Kirinyaga, Makueni, Machakos, Kitui, Isiolo, Garissa, kod Taita-Taveta.</t>
+  </si>
+  <si>
+    <t>Raila ogolo siem ewii keto chik makumo tiyo gi dhok mar hustler</t>
+  </si>
+  <si>
+    <t>Ogai mar ODM migosi Raila Amolo Odinga ogolo siem ewii mar kumo tiyo gi dhok moro ni hustler manyochane jalup jatend piny Kenya laktar William Ruto ochako kaka ngero mare mar campaign e thurka kowacho ni keto chik makumo tiyo gi dhok machalo kamano romre gi ketho ratich oganda mar wacho dwachgi e pachoka</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Raila nowacho ni kata obedo ni kit siasa ailano sigande ok osebedo ka ber ahinya e pachoka kamano to nowacho ni paro kumo tiyo gi dhok moro ni hustler e campainno en gino manyaloketho weche mag demokrasia ma piny Kenyaka kod bende ketho thuolo ma onegobed ni imiyo oganda mar wacho pachgi kagin thuolo</t>
+  </si>
+  <si>
+    <t>Paro nyochane osebedo e thurka mar kalo chik moro mane birokumo tiyo gi dhokno kendo keto fuai maduong ne joma oyud katiyo gi dhok mar hustlerno kata tweyogi mondo gidhi gicham oganda iye</t>
+  </si>
+  <si>
+    <t>Doho ma Rongo on’gadone jago moro maike niediere buch twech mar igni 5 kod keth mar bambo rawera moro manyako maja igni 13</t>
+  </si>
+  <si>
+    <t>Doho ma Rongo  on’gado ne jago moro ma ike nie diere  buch twech mar igni 5 bang yie kod  keth mar bambo rawera moro  manyako maja igni 13.</t>
+  </si>
+  <si>
+    <t>Evance Onyango mane otere nyim  jan’gad  buche  Rymond  Lan’gat ne oyie ni ne otimo keth maka mano kendo ne on’gadne buch twech mar igni 5.</t>
+  </si>
+  <si>
+    <r>
+      <t>Onyango ne oketho chik mar  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.2"/>
+        <color rgb="FF212529"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Sexual offences act  2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, kare no 3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Onyango ne oketho chikno  ekind tarik 10 dwe mar achiel igani  gi tarik 19 dwe mar achiel igani egweng ma Nyarombo , Dede location Awendo sub county  kendo ne omake tarik 19 mar dwe mar achiel , kabende ne otere edoho mokuongo tarik 22 dwe mar achiel igani.</t>
+  </si>
+  <si>
+    <t>Doho ma malo ma Kisumo ogolo chik mondo piny owacho ma county ma Kisumo ochul Speaker machon mar countyno Ann Adul sh million 5.2</t>
+  </si>
+  <si>
+    <t>Doho mamalo ma Kisumo ogolo chik ne piny  owacho mar County ma Kisumo mondo mi ochul  Speaker machon mar county assembly ma Kisumono   Anne Adul omenda maromo million 5.2  kuom thuolo mar dweche ariyo.</t>
+  </si>
+  <si>
+    <t>Justice Stephen Radido  ne ochuno  clerk mar assembly Owen Ojuok, county secretary Geoffrey Kigochi  kod jatend migao mar omenda   George Okong’go mondo jondik piny ni gibiro timo chudo maka mano ekidienje ariyo kata two installments.</t>
+  </si>
+  <si>
+    <t>Okil mar Adul ne otero bura edoho tarik 4 dwe mar 8 iga mokalo mar donjone jii adek go kaluore kod tamruok luwo chik doho mane doho ogolo mondo mi ne chul Ann Adul  kaluore kod kaka ne odhiche oko ekom mar Speaker mar county assembly no eiga mar 2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piny owacho mar countyno osingo ni biro timo chudo ne Speaker machon no omenda maromo million 2.5 kochopo tarik 3 dwe mar adek  igani kendo omenda modon’g million 2.9 ibiro chulo tarik 19 mar dwe mar 4 igani. </t>
+  </si>
+  <si>
+    <t>Justice Radido  omedo ni burano ibiro winjo kendo tarik 21 mar dwe mar 4 mar rango kabende singo go ochopi.</t>
+  </si>
+  <si>
+    <t>Chudo mar spika machon ma Kisumu pod okwamo</t>
+  </si>
+  <si>
+    <t>Karan mar od bura ma Kisumu owen ojuok to kod jatend migao mar omenda e countnyno ongo george okongo, to kod jagoro mar county Geoffrey Kigochi igeno e doho kawuono mondo mii gidhi gichiwu ler mar gimomiyo giserem chulo omenda maromo silingis milion 5.2 ne spika machon ma Kisumu Anne Adul.</t>
+  </si>
+  <si>
+    <t>Jayal bura mar doho ma Kisumu ma winjo buche mag jotich stephen radido ogolo chik ne apisas 3go mondo mii jochop e nyim doho kawuono.</t>
+  </si>
+  <si>
+    <t>Doho dwaro ni giluok nyinggi mar gimomiyo ok nyal kawnegi okang’ mar chik kuom rem luwo chik mane doho osegolo ni chul mikayi Anne Adul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruodhi gi jolupgi ecounty ma Siaya omi siem mondo owe tudore kod wede mamoko mar mayo mond liete gi nyithi kiye mwandu
+</t>
+  </si>
+  <si>
+    <t>Ruodhi gi jolupgi ecounty ma siaya omi siem mager kaluore kod tim moro mar timo tudruok mar mayo mond liete gi nyithi kiye mwandu ma owenegi.</t>
+  </si>
+  <si>
+    <t>Jalup County  Commissioner ma Siaya Enock Nyarango owacho ni giseyudo  buche moko ma ruodhi gi jolupgi tudore kod wede moko mar mayo mond liete gi nyithi kiye mwandu ma owenegi.</t>
+  </si>
+  <si>
+    <t>Migosi  Nyarango  mane owacho magi esach romo mar rango arita kwe mane otimore e apise mag IEBC  ma Siaya owacho ni tend nango ma osebedo katimo tim maka mano mondo owe mapiyo piyo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4452,6 +4590,18 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4795,7 +4945,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4854,9 +5004,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4865,6 +5012,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11129,10 +11282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1070"/>
+  <dimension ref="A1:B1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
-      <selection activeCell="A1070" sqref="A1070"/>
+    <sheetView tabSelected="1" topLeftCell="A1104" workbookViewId="0">
+      <selection activeCell="A1109" sqref="A1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18409,7 +18562,7 @@
       </c>
     </row>
     <row r="911" spans="1:2" ht="20.399999999999999">
-      <c r="A911" s="23" t="s">
+      <c r="A911" s="22" t="s">
         <v>1252</v>
       </c>
       <c r="B911" s="6" t="s">
@@ -18417,7 +18570,7 @@
       </c>
     </row>
     <row r="912" spans="1:2" ht="15">
-      <c r="A912" s="24" t="s">
+      <c r="A912" s="23" t="s">
         <v>1253</v>
       </c>
       <c r="B912" s="6" t="s">
@@ -18433,7 +18586,7 @@
       </c>
     </row>
     <row r="914" spans="1:2" ht="15">
-      <c r="A914" s="24" t="s">
+      <c r="A914" s="23" t="s">
         <v>1255</v>
       </c>
       <c r="B914" s="6" t="s">
@@ -18457,7 +18610,7 @@
       </c>
     </row>
     <row r="917" spans="1:2" ht="15">
-      <c r="A917" s="24" t="s">
+      <c r="A917" s="23" t="s">
         <v>1258</v>
       </c>
       <c r="B917" s="6" t="s">
@@ -18473,7 +18626,7 @@
       </c>
     </row>
     <row r="919" spans="1:2" ht="15">
-      <c r="A919" s="24" t="s">
+      <c r="A919" s="23" t="s">
         <v>1260</v>
       </c>
       <c r="B919" s="6" t="s">
@@ -18481,7 +18634,7 @@
       </c>
     </row>
     <row r="920" spans="1:2" ht="20.399999999999999">
-      <c r="A920" s="23" t="s">
+      <c r="A920" s="22" t="s">
         <v>1261</v>
       </c>
       <c r="B920" s="6" t="s">
@@ -18489,7 +18642,7 @@
       </c>
     </row>
     <row r="921" spans="1:2" ht="79.2">
-      <c r="A921" s="25" t="s">
+      <c r="A921" s="24" t="s">
         <v>1262</v>
       </c>
       <c r="B921" s="6" t="s">
@@ -18497,7 +18650,7 @@
       </c>
     </row>
     <row r="922" spans="1:2" ht="39.6">
-      <c r="A922" s="25" t="s">
+      <c r="A922" s="24" t="s">
         <v>1263</v>
       </c>
       <c r="B922" s="6" t="s">
@@ -18505,7 +18658,7 @@
       </c>
     </row>
     <row r="923" spans="1:2" ht="20.399999999999999">
-      <c r="A923" s="23" t="s">
+      <c r="A923" s="22" t="s">
         <v>1264</v>
       </c>
       <c r="B923" s="6" t="s">
@@ -18513,7 +18666,7 @@
       </c>
     </row>
     <row r="924" spans="1:2" ht="59.4">
-      <c r="A924" s="25" t="s">
+      <c r="A924" s="24" t="s">
         <v>1265</v>
       </c>
       <c r="B924" s="6" t="s">
@@ -18521,7 +18674,7 @@
       </c>
     </row>
     <row r="925" spans="1:2" ht="59.4">
-      <c r="A925" s="25" t="s">
+      <c r="A925" s="24" t="s">
         <v>1266</v>
       </c>
       <c r="B925" s="6" t="s">
@@ -18529,7 +18682,7 @@
       </c>
     </row>
     <row r="926" spans="1:2" ht="79.2">
-      <c r="A926" s="25" t="s">
+      <c r="A926" s="24" t="s">
         <v>1267</v>
       </c>
       <c r="B926" s="6" t="s">
@@ -18537,7 +18690,7 @@
       </c>
     </row>
     <row r="927" spans="1:2" ht="79.2">
-      <c r="A927" s="25" t="s">
+      <c r="A927" s="24" t="s">
         <v>1268</v>
       </c>
       <c r="B927" s="6" t="s">
@@ -18553,7 +18706,7 @@
       </c>
     </row>
     <row r="929" spans="1:2" ht="39.6">
-      <c r="A929" s="25" t="s">
+      <c r="A929" s="24" t="s">
         <v>1271</v>
       </c>
       <c r="B929" s="6" t="s">
@@ -18569,7 +18722,7 @@
       </c>
     </row>
     <row r="931" spans="1:2" ht="79.2">
-      <c r="A931" s="25" t="s">
+      <c r="A931" s="24" t="s">
         <v>1270</v>
       </c>
       <c r="B931" s="6" t="s">
@@ -18577,7 +18730,7 @@
       </c>
     </row>
     <row r="932" spans="1:2" ht="20.399999999999999">
-      <c r="A932" s="23" t="s">
+      <c r="A932" s="22" t="s">
         <v>1273</v>
       </c>
       <c r="B932" s="6" t="s">
@@ -18585,7 +18738,7 @@
       </c>
     </row>
     <row r="933" spans="1:2" ht="59.4">
-      <c r="A933" s="25" t="s">
+      <c r="A933" s="24" t="s">
         <v>1274</v>
       </c>
       <c r="B933" s="6" t="s">
@@ -18593,7 +18746,7 @@
       </c>
     </row>
     <row r="934" spans="1:2" ht="79.2">
-      <c r="A934" s="25" t="s">
+      <c r="A934" s="24" t="s">
         <v>1275</v>
       </c>
       <c r="B934" s="6" t="s">
@@ -18601,7 +18754,7 @@
       </c>
     </row>
     <row r="935" spans="1:2" ht="79.2">
-      <c r="A935" s="25" t="s">
+      <c r="A935" s="24" t="s">
         <v>1276</v>
       </c>
       <c r="B935" s="6" t="s">
@@ -18609,7 +18762,7 @@
       </c>
     </row>
     <row r="936" spans="1:2" ht="20.399999999999999">
-      <c r="A936" s="23" t="s">
+      <c r="A936" s="22" t="s">
         <v>1277</v>
       </c>
       <c r="B936" s="6" t="s">
@@ -18617,7 +18770,7 @@
       </c>
     </row>
     <row r="937" spans="1:2" ht="59.4">
-      <c r="A937" s="25" t="s">
+      <c r="A937" s="24" t="s">
         <v>1278</v>
       </c>
       <c r="B937" s="6" t="s">
@@ -18625,7 +18778,7 @@
       </c>
     </row>
     <row r="938" spans="1:2" ht="59.4">
-      <c r="A938" s="25" t="s">
+      <c r="A938" s="24" t="s">
         <v>1279</v>
       </c>
       <c r="B938" s="6" t="s">
@@ -18633,7 +18786,7 @@
       </c>
     </row>
     <row r="939" spans="1:2" ht="59.4">
-      <c r="A939" s="25" t="s">
+      <c r="A939" s="24" t="s">
         <v>1280</v>
       </c>
       <c r="B939" s="6" t="s">
@@ -18641,7 +18794,7 @@
       </c>
     </row>
     <row r="940" spans="1:2" ht="79.2">
-      <c r="A940" s="25" t="s">
+      <c r="A940" s="24" t="s">
         <v>1281</v>
       </c>
       <c r="B940" s="6" t="s">
@@ -18649,7 +18802,7 @@
       </c>
     </row>
     <row r="941" spans="1:2" ht="40.799999999999997">
-      <c r="A941" s="23" t="s">
+      <c r="A941" s="22" t="s">
         <v>1282</v>
       </c>
       <c r="B941" s="6" t="s">
@@ -18657,7 +18810,7 @@
       </c>
     </row>
     <row r="942" spans="1:2" ht="59.4">
-      <c r="A942" s="25" t="s">
+      <c r="A942" s="24" t="s">
         <v>1283</v>
       </c>
       <c r="B942" s="6" t="s">
@@ -18673,7 +18826,7 @@
       </c>
     </row>
     <row r="944" spans="1:2" ht="59.4">
-      <c r="A944" s="25" t="s">
+      <c r="A944" s="24" t="s">
         <v>1236</v>
       </c>
       <c r="B944" s="6" t="s">
@@ -18681,7 +18834,7 @@
       </c>
     </row>
     <row r="945" spans="1:2" ht="59.4">
-      <c r="A945" s="25" t="s">
+      <c r="A945" s="24" t="s">
         <v>1237</v>
       </c>
       <c r="B945" s="6" t="s">
@@ -18697,7 +18850,7 @@
       </c>
     </row>
     <row r="947" spans="1:2" ht="79.2">
-      <c r="A947" s="25" t="s">
+      <c r="A947" s="24" t="s">
         <v>1239</v>
       </c>
       <c r="B947" s="6" t="s">
@@ -18705,7 +18858,7 @@
       </c>
     </row>
     <row r="948" spans="1:2" ht="79.2">
-      <c r="A948" s="25" t="s">
+      <c r="A948" s="24" t="s">
         <v>1240</v>
       </c>
       <c r="B948" s="6" t="s">
@@ -18713,7 +18866,7 @@
       </c>
     </row>
     <row r="949" spans="1:2" ht="20.399999999999999">
-      <c r="A949" s="23" t="s">
+      <c r="A949" s="22" t="s">
         <v>1241</v>
       </c>
       <c r="B949" s="6" t="s">
@@ -18721,7 +18874,7 @@
       </c>
     </row>
     <row r="950" spans="1:2" ht="79.2">
-      <c r="A950" s="25" t="s">
+      <c r="A950" s="24" t="s">
         <v>1242</v>
       </c>
       <c r="B950" s="6" t="s">
@@ -18729,7 +18882,7 @@
       </c>
     </row>
     <row r="951" spans="1:2" ht="79.2">
-      <c r="A951" s="25" t="s">
+      <c r="A951" s="24" t="s">
         <v>1243</v>
       </c>
       <c r="B951" s="6" t="s">
@@ -18745,7 +18898,7 @@
       </c>
     </row>
     <row r="953" spans="1:2" ht="79.2">
-      <c r="A953" s="25" t="s">
+      <c r="A953" s="24" t="s">
         <v>1286</v>
       </c>
       <c r="B953" s="6" t="s">
@@ -18753,7 +18906,7 @@
       </c>
     </row>
     <row r="954" spans="1:2" ht="59.4">
-      <c r="A954" s="25" t="s">
+      <c r="A954" s="24" t="s">
         <v>1287</v>
       </c>
       <c r="B954" s="6" t="s">
@@ -18761,7 +18914,7 @@
       </c>
     </row>
     <row r="955" spans="1:2" ht="79.2">
-      <c r="A955" s="25" t="s">
+      <c r="A955" s="24" t="s">
         <v>1288</v>
       </c>
       <c r="B955" s="6" t="s">
@@ -18769,7 +18922,7 @@
       </c>
     </row>
     <row r="956" spans="1:2" ht="79.2">
-      <c r="A956" s="25" t="s">
+      <c r="A956" s="24" t="s">
         <v>1289</v>
       </c>
       <c r="B956" s="6" t="s">
@@ -18777,7 +18930,7 @@
       </c>
     </row>
     <row r="957" spans="1:2" ht="40.799999999999997">
-      <c r="A957" s="23" t="s">
+      <c r="A957" s="22" t="s">
         <v>1290</v>
       </c>
       <c r="B957" s="6" t="s">
@@ -18785,7 +18938,7 @@
       </c>
     </row>
     <row r="958" spans="1:2" ht="59.4">
-      <c r="A958" s="25" t="s">
+      <c r="A958" s="24" t="s">
         <v>1291</v>
       </c>
       <c r="B958" s="6" t="s">
@@ -18793,7 +18946,7 @@
       </c>
     </row>
     <row r="959" spans="1:2" ht="59.4">
-      <c r="A959" s="25" t="s">
+      <c r="A959" s="24" t="s">
         <v>1292</v>
       </c>
       <c r="B959" s="6" t="s">
@@ -18801,7 +18954,7 @@
       </c>
     </row>
     <row r="960" spans="1:2" ht="20.399999999999999">
-      <c r="A960" s="23" t="s">
+      <c r="A960" s="22" t="s">
         <v>1293</v>
       </c>
       <c r="B960" s="6" t="s">
@@ -18809,7 +18962,7 @@
       </c>
     </row>
     <row r="961" spans="1:2" ht="59.4">
-      <c r="A961" s="25" t="s">
+      <c r="A961" s="24" t="s">
         <v>1294</v>
       </c>
       <c r="B961" s="6" t="s">
@@ -18817,7 +18970,7 @@
       </c>
     </row>
     <row r="962" spans="1:2" ht="59.4">
-      <c r="A962" s="25" t="s">
+      <c r="A962" s="24" t="s">
         <v>1295</v>
       </c>
       <c r="B962" s="6" t="s">
@@ -18825,7 +18978,7 @@
       </c>
     </row>
     <row r="963" spans="1:2" ht="59.4">
-      <c r="A963" s="25" t="s">
+      <c r="A963" s="24" t="s">
         <v>1296</v>
       </c>
       <c r="B963" s="6" t="s">
@@ -18833,7 +18986,7 @@
       </c>
     </row>
     <row r="964" spans="1:2" ht="40.799999999999997">
-      <c r="A964" s="23" t="s">
+      <c r="A964" s="22" t="s">
         <v>1297</v>
       </c>
       <c r="B964" s="6" t="s">
@@ -18841,7 +18994,7 @@
       </c>
     </row>
     <row r="965" spans="1:2" ht="15">
-      <c r="A965" s="24" t="s">
+      <c r="A965" s="23" t="s">
         <v>1298</v>
       </c>
       <c r="B965" s="6" t="s">
@@ -18849,7 +19002,7 @@
       </c>
     </row>
     <row r="966" spans="1:2" ht="15">
-      <c r="A966" s="24" t="s">
+      <c r="A966" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="B966" s="6" t="s">
@@ -18857,7 +19010,7 @@
       </c>
     </row>
     <row r="967" spans="1:2" ht="20.399999999999999">
-      <c r="A967" s="23" t="s">
+      <c r="A967" s="22" t="s">
         <v>1300</v>
       </c>
       <c r="B967" s="6" t="s">
@@ -18865,7 +19018,7 @@
       </c>
     </row>
     <row r="968" spans="1:2" ht="33.6">
-      <c r="A968" s="26" t="s">
+      <c r="A968" s="25" t="s">
         <v>1301</v>
       </c>
       <c r="B968" s="6" t="s">
@@ -18873,7 +19026,7 @@
       </c>
     </row>
     <row r="969" spans="1:2" ht="33.6">
-      <c r="A969" s="26" t="s">
+      <c r="A969" s="25" t="s">
         <v>1302</v>
       </c>
       <c r="B969" s="6" t="s">
@@ -18881,7 +19034,7 @@
       </c>
     </row>
     <row r="970" spans="1:2" ht="50.4">
-      <c r="A970" s="26" t="s">
+      <c r="A970" s="25" t="s">
         <v>1303</v>
       </c>
       <c r="B970" s="6" t="s">
@@ -18889,7 +19042,7 @@
       </c>
     </row>
     <row r="971" spans="1:2" ht="67.2">
-      <c r="A971" s="26" t="s">
+      <c r="A971" s="25" t="s">
         <v>1304</v>
       </c>
       <c r="B971" s="6" t="s">
@@ -18897,7 +19050,7 @@
       </c>
     </row>
     <row r="972" spans="1:2" ht="40.799999999999997">
-      <c r="A972" s="23" t="s">
+      <c r="A972" s="22" t="s">
         <v>1305</v>
       </c>
       <c r="B972" s="6" t="s">
@@ -18905,7 +19058,7 @@
       </c>
     </row>
     <row r="973" spans="1:2" ht="15">
-      <c r="A973" s="24" t="s">
+      <c r="A973" s="23" t="s">
         <v>1306</v>
       </c>
       <c r="B973" s="6" t="s">
@@ -18913,7 +19066,7 @@
       </c>
     </row>
     <row r="974" spans="1:2" ht="15">
-      <c r="A974" s="24" t="s">
+      <c r="A974" s="23" t="s">
         <v>1307</v>
       </c>
       <c r="B974" s="6" t="s">
@@ -18921,7 +19074,7 @@
       </c>
     </row>
     <row r="975" spans="1:2" ht="15">
-      <c r="A975" s="24" t="s">
+      <c r="A975" s="23" t="s">
         <v>1308</v>
       </c>
       <c r="B975" s="6" t="s">
@@ -18929,7 +19082,7 @@
       </c>
     </row>
     <row r="976" spans="1:2" ht="15">
-      <c r="A976" s="24" t="s">
+      <c r="A976" s="23" t="s">
         <v>1309</v>
       </c>
       <c r="B976" s="6" t="s">
@@ -18937,7 +19090,7 @@
       </c>
     </row>
     <row r="977" spans="1:2" ht="40.799999999999997">
-      <c r="A977" s="23" t="s">
+      <c r="A977" s="22" t="s">
         <v>1310</v>
       </c>
       <c r="B977" s="6" t="s">
@@ -18945,7 +19098,7 @@
       </c>
     </row>
     <row r="978" spans="1:2" ht="15">
-      <c r="A978" s="24" t="s">
+      <c r="A978" s="23" t="s">
         <v>1311</v>
       </c>
       <c r="B978" s="6" t="s">
@@ -18953,7 +19106,7 @@
       </c>
     </row>
     <row r="979" spans="1:2" ht="15">
-      <c r="A979" s="24" t="s">
+      <c r="A979" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="B979" s="6" t="s">
@@ -18961,7 +19114,7 @@
       </c>
     </row>
     <row r="980" spans="1:2" ht="40.799999999999997">
-      <c r="A980" s="23" t="s">
+      <c r="A980" s="22" t="s">
         <v>1313</v>
       </c>
       <c r="B980" s="6" t="s">
@@ -18969,7 +19122,7 @@
       </c>
     </row>
     <row r="981" spans="1:2" ht="15">
-      <c r="A981" s="24" t="s">
+      <c r="A981" s="23" t="s">
         <v>1313</v>
       </c>
       <c r="B981" s="6" t="s">
@@ -18977,7 +19130,7 @@
       </c>
     </row>
     <row r="982" spans="1:2" ht="15">
-      <c r="A982" s="24" t="s">
+      <c r="A982" s="23" t="s">
         <v>1314</v>
       </c>
       <c r="B982" s="6" t="s">
@@ -18985,7 +19138,7 @@
       </c>
     </row>
     <row r="983" spans="1:2" ht="15">
-      <c r="A983" s="24" t="s">
+      <c r="A983" s="23" t="s">
         <v>1315</v>
       </c>
       <c r="B983" s="6" t="s">
@@ -18993,7 +19146,7 @@
       </c>
     </row>
     <row r="984" spans="1:2" ht="15">
-      <c r="A984" s="24" t="s">
+      <c r="A984" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="B984" s="6" t="s">
@@ -19001,7 +19154,7 @@
       </c>
     </row>
     <row r="985" spans="1:2" ht="40.799999999999997">
-      <c r="A985" s="23" t="s">
+      <c r="A985" s="22" t="s">
         <v>1317</v>
       </c>
       <c r="B985" s="6" t="s">
@@ -19009,7 +19162,7 @@
       </c>
     </row>
     <row r="986" spans="1:2" ht="59.4">
-      <c r="A986" s="25" t="s">
+      <c r="A986" s="24" t="s">
         <v>1318</v>
       </c>
       <c r="B986" s="6" t="s">
@@ -19017,7 +19170,7 @@
       </c>
     </row>
     <row r="987" spans="1:2" ht="99">
-      <c r="A987" s="25" t="s">
+      <c r="A987" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="B987" s="6" t="s">
@@ -19025,7 +19178,7 @@
       </c>
     </row>
     <row r="988" spans="1:2" ht="40.799999999999997">
-      <c r="A988" s="23" t="s">
+      <c r="A988" s="22" t="s">
         <v>1320</v>
       </c>
       <c r="B988" s="6" t="s">
@@ -19033,7 +19186,7 @@
       </c>
     </row>
     <row r="989" spans="1:2" ht="99">
-      <c r="A989" s="25" t="s">
+      <c r="A989" s="24" t="s">
         <v>1321</v>
       </c>
       <c r="B989" s="6" t="s">
@@ -19041,7 +19194,7 @@
       </c>
     </row>
     <row r="990" spans="1:2" ht="79.2">
-      <c r="A990" s="25" t="s">
+      <c r="A990" s="24" t="s">
         <v>1322</v>
       </c>
       <c r="B990" s="6" t="s">
@@ -19049,7 +19202,7 @@
       </c>
     </row>
     <row r="991" spans="1:2" ht="39.6">
-      <c r="A991" s="25" t="s">
+      <c r="A991" s="24" t="s">
         <v>1323</v>
       </c>
       <c r="B991" s="6" t="s">
@@ -19057,7 +19210,7 @@
       </c>
     </row>
     <row r="992" spans="1:2" ht="79.2">
-      <c r="A992" s="25" t="s">
+      <c r="A992" s="24" t="s">
         <v>1324</v>
       </c>
       <c r="B992" s="6" t="s">
@@ -19065,7 +19218,7 @@
       </c>
     </row>
     <row r="993" spans="1:2" ht="40.799999999999997">
-      <c r="A993" s="23" t="s">
+      <c r="A993" s="22" t="s">
         <v>1325</v>
       </c>
       <c r="B993" s="6" t="s">
@@ -19073,7 +19226,7 @@
       </c>
     </row>
     <row r="994" spans="1:2" ht="59.4">
-      <c r="A994" s="25" t="s">
+      <c r="A994" s="24" t="s">
         <v>1326</v>
       </c>
       <c r="B994" s="6" t="s">
@@ -19081,7 +19234,7 @@
       </c>
     </row>
     <row r="995" spans="1:2" ht="59.4">
-      <c r="A995" s="25" t="s">
+      <c r="A995" s="24" t="s">
         <v>1327</v>
       </c>
       <c r="B995" s="6" t="s">
@@ -19089,7 +19242,7 @@
       </c>
     </row>
     <row r="996" spans="1:2" ht="79.2">
-      <c r="A996" s="25" t="s">
+      <c r="A996" s="24" t="s">
         <v>1328</v>
       </c>
       <c r="B996" s="6" t="s">
@@ -19105,7 +19258,7 @@
       </c>
     </row>
     <row r="998" spans="1:2" ht="99">
-      <c r="A998" s="25" t="s">
+      <c r="A998" s="24" t="s">
         <v>1330</v>
       </c>
       <c r="B998" s="6" t="s">
@@ -19113,7 +19266,7 @@
       </c>
     </row>
     <row r="999" spans="1:2" ht="59.4">
-      <c r="A999" s="25" t="s">
+      <c r="A999" s="24" t="s">
         <v>1331</v>
       </c>
       <c r="B999" s="6" t="s">
@@ -19121,7 +19274,7 @@
       </c>
     </row>
     <row r="1000" spans="1:2" ht="40.799999999999997">
-      <c r="A1000" s="23" t="s">
+      <c r="A1000" s="22" t="s">
         <v>1332</v>
       </c>
       <c r="B1000" s="6" t="s">
@@ -19129,7 +19282,7 @@
       </c>
     </row>
     <row r="1001" spans="1:2" ht="59.4">
-      <c r="A1001" s="25" t="s">
+      <c r="A1001" s="24" t="s">
         <v>1333</v>
       </c>
       <c r="B1001" s="6" t="s">
@@ -19137,7 +19290,7 @@
       </c>
     </row>
     <row r="1002" spans="1:2" ht="39.6">
-      <c r="A1002" s="25" t="s">
+      <c r="A1002" s="24" t="s">
         <v>1334</v>
       </c>
       <c r="B1002" s="6" t="s">
@@ -19145,7 +19298,7 @@
       </c>
     </row>
     <row r="1003" spans="1:2" ht="59.4">
-      <c r="A1003" s="25" t="s">
+      <c r="A1003" s="24" t="s">
         <v>1335</v>
       </c>
       <c r="B1003" s="6" t="s">
@@ -19153,7 +19306,7 @@
       </c>
     </row>
     <row r="1004" spans="1:2" ht="39.6">
-      <c r="A1004" s="25" t="s">
+      <c r="A1004" s="24" t="s">
         <v>1336</v>
       </c>
       <c r="B1004" s="6" t="s">
@@ -19161,7 +19314,7 @@
       </c>
     </row>
     <row r="1005" spans="1:2" ht="20.399999999999999">
-      <c r="A1005" s="23" t="s">
+      <c r="A1005" s="22" t="s">
         <v>1337</v>
       </c>
       <c r="B1005" s="6" t="s">
@@ -19169,7 +19322,7 @@
       </c>
     </row>
     <row r="1006" spans="1:2" ht="59.4">
-      <c r="A1006" s="25" t="s">
+      <c r="A1006" s="24" t="s">
         <v>1338</v>
       </c>
       <c r="B1006" s="6" t="s">
@@ -19177,7 +19330,7 @@
       </c>
     </row>
     <row r="1007" spans="1:2" ht="59.4">
-      <c r="A1007" s="25" t="s">
+      <c r="A1007" s="24" t="s">
         <v>1339</v>
       </c>
       <c r="B1007" s="6" t="s">
@@ -19185,7 +19338,7 @@
       </c>
     </row>
     <row r="1008" spans="1:2" ht="39.6">
-      <c r="A1008" s="25" t="s">
+      <c r="A1008" s="24" t="s">
         <v>1340</v>
       </c>
       <c r="B1008" s="6" t="s">
@@ -19193,7 +19346,7 @@
       </c>
     </row>
     <row r="1009" spans="1:2" ht="40.799999999999997">
-      <c r="A1009" s="23" t="s">
+      <c r="A1009" s="22" t="s">
         <v>1341</v>
       </c>
       <c r="B1009" s="6" t="s">
@@ -19201,7 +19354,7 @@
       </c>
     </row>
     <row r="1010" spans="1:2" ht="59.4">
-      <c r="A1010" s="25" t="s">
+      <c r="A1010" s="24" t="s">
         <v>1342</v>
       </c>
       <c r="B1010" s="6" t="s">
@@ -19215,7 +19368,7 @@
       </c>
     </row>
     <row r="1012" spans="1:2" ht="79.2">
-      <c r="A1012" s="25" t="s">
+      <c r="A1012" s="24" t="s">
         <v>1343</v>
       </c>
       <c r="B1012" s="6" t="s">
@@ -19223,7 +19376,7 @@
       </c>
     </row>
     <row r="1013" spans="1:2" ht="59.4">
-      <c r="A1013" s="25" t="s">
+      <c r="A1013" s="24" t="s">
         <v>1344</v>
       </c>
       <c r="B1013" s="6" t="s">
@@ -19231,7 +19384,7 @@
       </c>
     </row>
     <row r="1014" spans="1:2" ht="39.6">
-      <c r="A1014" s="25" t="s">
+      <c r="A1014" s="24" t="s">
         <v>1345</v>
       </c>
       <c r="B1014" s="6" t="s">
@@ -19239,7 +19392,7 @@
       </c>
     </row>
     <row r="1015" spans="1:2" ht="59.4">
-      <c r="A1015" s="25" t="s">
+      <c r="A1015" s="24" t="s">
         <v>1346</v>
       </c>
       <c r="B1015" s="6" t="s">
@@ -19247,7 +19400,7 @@
       </c>
     </row>
     <row r="1016" spans="1:2" ht="19.8">
-      <c r="A1016" s="25" t="s">
+      <c r="A1016" s="24" t="s">
         <v>1347</v>
       </c>
       <c r="B1016" s="6" t="s">
@@ -19255,7 +19408,7 @@
       </c>
     </row>
     <row r="1017" spans="1:2" ht="39.6">
-      <c r="A1017" s="25" t="s">
+      <c r="A1017" s="24" t="s">
         <v>1348</v>
       </c>
       <c r="B1017" s="6" t="s">
@@ -19263,7 +19416,7 @@
       </c>
     </row>
     <row r="1018" spans="1:2" ht="20.399999999999999">
-      <c r="A1018" s="23" t="s">
+      <c r="A1018" s="22" t="s">
         <v>1349</v>
       </c>
       <c r="B1018" s="6" t="s">
@@ -19271,7 +19424,7 @@
       </c>
     </row>
     <row r="1019" spans="1:2" ht="39.6">
-      <c r="A1019" s="25" t="s">
+      <c r="A1019" s="24" t="s">
         <v>1350</v>
       </c>
       <c r="B1019" s="6" t="s">
@@ -19279,7 +19432,7 @@
       </c>
     </row>
     <row r="1020" spans="1:2" ht="59.4">
-      <c r="A1020" s="25" t="s">
+      <c r="A1020" s="24" t="s">
         <v>1353</v>
       </c>
       <c r="B1020" s="6" t="s">
@@ -19287,7 +19440,7 @@
       </c>
     </row>
     <row r="1021" spans="1:2" ht="39.6">
-      <c r="A1021" s="25" t="s">
+      <c r="A1021" s="24" t="s">
         <v>1351</v>
       </c>
       <c r="B1021" s="6" t="s">
@@ -19295,7 +19448,7 @@
       </c>
     </row>
     <row r="1022" spans="1:2" ht="19.8">
-      <c r="A1022" s="25" t="s">
+      <c r="A1022" s="24" t="s">
         <v>1352</v>
       </c>
       <c r="B1022" s="6" t="s">
@@ -19303,7 +19456,7 @@
       </c>
     </row>
     <row r="1023" spans="1:2" ht="40.799999999999997">
-      <c r="A1023" s="23" t="s">
+      <c r="A1023" s="22" t="s">
         <v>1354</v>
       </c>
       <c r="B1023" s="6" t="s">
@@ -19311,7 +19464,7 @@
       </c>
     </row>
     <row r="1024" spans="1:2" ht="59.4">
-      <c r="A1024" s="25" t="s">
+      <c r="A1024" s="24" t="s">
         <v>1355</v>
       </c>
       <c r="B1024" s="6" t="s">
@@ -19319,7 +19472,7 @@
       </c>
     </row>
     <row r="1025" spans="1:2" ht="59.4">
-      <c r="A1025" s="25" t="s">
+      <c r="A1025" s="24" t="s">
         <v>1356</v>
       </c>
       <c r="B1025" s="6" t="s">
@@ -19327,7 +19480,7 @@
       </c>
     </row>
     <row r="1026" spans="1:2" ht="59.4">
-      <c r="A1026" s="25" t="s">
+      <c r="A1026" s="24" t="s">
         <v>1357</v>
       </c>
       <c r="B1026" s="6" t="s">
@@ -19335,7 +19488,7 @@
       </c>
     </row>
     <row r="1027" spans="1:2" ht="79.2">
-      <c r="A1027" s="25" t="s">
+      <c r="A1027" s="24" t="s">
         <v>1358</v>
       </c>
       <c r="B1027" s="6" t="s">
@@ -19343,7 +19496,7 @@
       </c>
     </row>
     <row r="1028" spans="1:2" ht="20.399999999999999">
-      <c r="A1028" s="23" t="s">
+      <c r="A1028" s="22" t="s">
         <v>1359</v>
       </c>
       <c r="B1028" s="6" t="s">
@@ -19351,7 +19504,7 @@
       </c>
     </row>
     <row r="1029" spans="1:2" ht="59.4">
-      <c r="A1029" s="25" t="s">
+      <c r="A1029" s="24" t="s">
         <v>1360</v>
       </c>
       <c r="B1029" s="6" t="s">
@@ -19359,7 +19512,7 @@
       </c>
     </row>
     <row r="1030" spans="1:2" ht="39.6">
-      <c r="A1030" s="25" t="s">
+      <c r="A1030" s="24" t="s">
         <v>1361</v>
       </c>
       <c r="B1030" s="6" t="s">
@@ -19367,7 +19520,7 @@
       </c>
     </row>
     <row r="1031" spans="1:2" ht="20.399999999999999">
-      <c r="A1031" s="23" t="s">
+      <c r="A1031" s="22" t="s">
         <v>1362</v>
       </c>
       <c r="B1031" s="6" t="s">
@@ -19375,7 +19528,7 @@
       </c>
     </row>
     <row r="1032" spans="1:2" ht="59.4">
-      <c r="A1032" s="25" t="s">
+      <c r="A1032" s="24" t="s">
         <v>1363</v>
       </c>
       <c r="B1032" s="6" t="s">
@@ -19383,7 +19536,7 @@
       </c>
     </row>
     <row r="1033" spans="1:2" ht="39.6">
-      <c r="A1033" s="25" t="s">
+      <c r="A1033" s="24" t="s">
         <v>1365</v>
       </c>
       <c r="B1033" s="6" t="s">
@@ -19399,7 +19552,7 @@
       </c>
     </row>
     <row r="1035" spans="1:2" ht="39.6">
-      <c r="A1035" s="25" t="s">
+      <c r="A1035" s="24" t="s">
         <v>1364</v>
       </c>
       <c r="B1035" s="6" t="s">
@@ -19407,7 +19560,7 @@
       </c>
     </row>
     <row r="1036" spans="1:2" ht="20.399999999999999">
-      <c r="A1036" s="23" t="s">
+      <c r="A1036" s="22" t="s">
         <v>1367</v>
       </c>
       <c r="B1036" s="6" t="s">
@@ -19415,7 +19568,7 @@
       </c>
     </row>
     <row r="1037" spans="1:2" ht="39.6">
-      <c r="A1037" s="25" t="s">
+      <c r="A1037" s="24" t="s">
         <v>1368</v>
       </c>
       <c r="B1037" s="6" t="s">
@@ -19429,7 +19582,7 @@
       </c>
     </row>
     <row r="1039" spans="1:2" ht="39.6">
-      <c r="A1039" s="25" t="s">
+      <c r="A1039" s="24" t="s">
         <v>1369</v>
       </c>
       <c r="B1039" s="6" t="s">
@@ -19437,7 +19590,7 @@
       </c>
     </row>
     <row r="1040" spans="1:2" ht="59.4">
-      <c r="A1040" s="25" t="s">
+      <c r="A1040" s="24" t="s">
         <v>1370</v>
       </c>
       <c r="B1040" s="6" t="s">
@@ -19445,7 +19598,7 @@
       </c>
     </row>
     <row r="1041" spans="1:2" ht="19.8">
-      <c r="A1041" s="25" t="s">
+      <c r="A1041" s="24" t="s">
         <v>1371</v>
       </c>
       <c r="B1041" s="6" t="s">
@@ -19453,7 +19606,7 @@
       </c>
     </row>
     <row r="1042" spans="1:2" ht="19.8">
-      <c r="A1042" s="25" t="s">
+      <c r="A1042" s="24" t="s">
         <v>1372</v>
       </c>
       <c r="B1042" s="6" t="s">
@@ -19461,7 +19614,7 @@
       </c>
     </row>
     <row r="1043" spans="1:2" ht="20.399999999999999">
-      <c r="A1043" s="23" t="s">
+      <c r="A1043" s="22" t="s">
         <v>1373</v>
       </c>
       <c r="B1043" s="6" t="s">
@@ -19469,7 +19622,7 @@
       </c>
     </row>
     <row r="1044" spans="1:2" ht="39.6">
-      <c r="A1044" s="25" t="s">
+      <c r="A1044" s="24" t="s">
         <v>1374</v>
       </c>
       <c r="B1044" s="6" t="s">
@@ -19477,7 +19630,7 @@
       </c>
     </row>
     <row r="1045" spans="1:2" ht="79.2">
-      <c r="A1045" s="25" t="s">
+      <c r="A1045" s="24" t="s">
         <v>1375</v>
       </c>
       <c r="B1045" s="6" t="s">
@@ -19485,7 +19638,7 @@
       </c>
     </row>
     <row r="1046" spans="1:2" ht="79.2">
-      <c r="A1046" s="25" t="s">
+      <c r="A1046" s="24" t="s">
         <v>1376</v>
       </c>
       <c r="B1046" s="6" t="s">
@@ -19493,7 +19646,7 @@
       </c>
     </row>
     <row r="1047" spans="1:2" ht="79.2">
-      <c r="A1047" s="25" t="s">
+      <c r="A1047" s="24" t="s">
         <v>1377</v>
       </c>
       <c r="B1047" s="6" t="s">
@@ -19501,7 +19654,7 @@
       </c>
     </row>
     <row r="1048" spans="1:2" ht="39.6">
-      <c r="A1048" s="25" t="s">
+      <c r="A1048" s="24" t="s">
         <v>1378</v>
       </c>
       <c r="B1048" s="6" t="s">
@@ -19517,7 +19670,7 @@
       </c>
     </row>
     <row r="1050" spans="1:2" ht="59.4">
-      <c r="A1050" s="25" t="s">
+      <c r="A1050" s="24" t="s">
         <v>1380</v>
       </c>
       <c r="B1050" s="6" t="s">
@@ -19525,7 +19678,7 @@
       </c>
     </row>
     <row r="1051" spans="1:2" ht="118.8">
-      <c r="A1051" s="25" t="s">
+      <c r="A1051" s="24" t="s">
         <v>1381</v>
       </c>
       <c r="B1051" s="6" t="s">
@@ -19533,7 +19686,7 @@
       </c>
     </row>
     <row r="1052" spans="1:2" ht="79.2">
-      <c r="A1052" s="25" t="s">
+      <c r="A1052" s="24" t="s">
         <v>1382</v>
       </c>
       <c r="B1052" s="6" t="s">
@@ -19541,7 +19694,7 @@
       </c>
     </row>
     <row r="1053" spans="1:2" ht="59.4">
-      <c r="A1053" s="25" t="s">
+      <c r="A1053" s="24" t="s">
         <v>1383</v>
       </c>
       <c r="B1053" s="6" t="s">
@@ -19549,7 +19702,7 @@
       </c>
     </row>
     <row r="1054" spans="1:2" ht="59.4">
-      <c r="A1054" s="25" t="s">
+      <c r="A1054" s="24" t="s">
         <v>1384</v>
       </c>
       <c r="B1054" s="6" t="s">
@@ -19557,7 +19710,7 @@
       </c>
     </row>
     <row r="1055" spans="1:2" ht="79.2">
-      <c r="A1055" s="25" t="s">
+      <c r="A1055" s="24" t="s">
         <v>1385</v>
       </c>
       <c r="B1055" s="6" t="s">
@@ -19565,7 +19718,7 @@
       </c>
     </row>
     <row r="1056" spans="1:2" ht="79.2">
-      <c r="A1056" s="25" t="s">
+      <c r="A1056" s="24" t="s">
         <v>1386</v>
       </c>
       <c r="B1056" s="6" t="s">
@@ -19573,7 +19726,7 @@
       </c>
     </row>
     <row r="1057" spans="1:2" ht="20.399999999999999">
-      <c r="A1057" s="23" t="s">
+      <c r="A1057" s="22" t="s">
         <v>1387</v>
       </c>
       <c r="B1057" s="6" t="s">
@@ -19581,7 +19734,7 @@
       </c>
     </row>
     <row r="1058" spans="1:2" ht="59.4">
-      <c r="A1058" s="25" t="s">
+      <c r="A1058" s="24" t="s">
         <v>1388</v>
       </c>
       <c r="B1058" s="6" t="s">
@@ -19589,7 +19742,7 @@
       </c>
     </row>
     <row r="1059" spans="1:2" ht="99">
-      <c r="A1059" s="25" t="s">
+      <c r="A1059" s="24" t="s">
         <v>1389</v>
       </c>
       <c r="B1059" s="6" t="s">
@@ -19597,7 +19750,7 @@
       </c>
     </row>
     <row r="1060" spans="1:2" ht="79.2">
-      <c r="A1060" s="25" t="s">
+      <c r="A1060" s="24" t="s">
         <v>1390</v>
       </c>
       <c r="B1060" s="6" t="s">
@@ -19605,7 +19758,7 @@
       </c>
     </row>
     <row r="1061" spans="1:2" ht="59.4">
-      <c r="A1061" s="25" t="s">
+      <c r="A1061" s="24" t="s">
         <v>1391</v>
       </c>
       <c r="B1061" s="6" t="s">
@@ -19621,7 +19774,7 @@
       </c>
     </row>
     <row r="1063" spans="1:2" ht="39.6">
-      <c r="A1063" s="25" t="s">
+      <c r="A1063" s="24" t="s">
         <v>1393</v>
       </c>
       <c r="B1063" s="6" t="s">
@@ -19629,7 +19782,7 @@
       </c>
     </row>
     <row r="1064" spans="1:2" ht="59.4">
-      <c r="A1064" s="25" t="s">
+      <c r="A1064" s="24" t="s">
         <v>1394</v>
       </c>
       <c r="B1064" s="6" t="s">
@@ -19637,7 +19790,7 @@
       </c>
     </row>
     <row r="1065" spans="1:2" ht="19.8">
-      <c r="A1065" s="25" t="s">
+      <c r="A1065" s="24" t="s">
         <v>1395</v>
       </c>
       <c r="B1065" s="6" t="s">
@@ -19645,7 +19798,7 @@
       </c>
     </row>
     <row r="1066" spans="1:2" ht="20.399999999999999">
-      <c r="A1066" s="23" t="s">
+      <c r="A1066" s="22" t="s">
         <v>1396</v>
       </c>
       <c r="B1066" s="6" t="s">
@@ -19653,7 +19806,7 @@
       </c>
     </row>
     <row r="1067" spans="1:2" ht="39.6">
-      <c r="A1067" s="25" t="s">
+      <c r="A1067" s="24" t="s">
         <v>1397</v>
       </c>
       <c r="B1067" s="6" t="s">
@@ -19661,7 +19814,7 @@
       </c>
     </row>
     <row r="1068" spans="1:2" ht="79.2">
-      <c r="A1068" s="25" t="s">
+      <c r="A1068" s="24" t="s">
         <v>1398</v>
       </c>
       <c r="B1068" s="6" t="s">
@@ -19669,7 +19822,7 @@
       </c>
     </row>
     <row r="1069" spans="1:2" ht="79.2">
-      <c r="A1069" s="25" t="s">
+      <c r="A1069" s="24" t="s">
         <v>1399</v>
       </c>
       <c r="B1069" s="6" t="s">
@@ -19677,10 +19830,322 @@
       </c>
     </row>
     <row r="1070" spans="1:2" ht="118.8">
-      <c r="A1070" s="25" t="s">
+      <c r="A1070" s="24" t="s">
         <v>1400</v>
       </c>
       <c r="B1070" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" ht="40.799999999999997">
+      <c r="A1071" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1071" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" ht="59.4">
+      <c r="A1072" s="24" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1072" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="39.6">
+      <c r="A1073" s="24" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1073" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" ht="19.8">
+      <c r="A1074" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="28.8">
+      <c r="A1075" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1075" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" ht="39.6">
+      <c r="A1076" s="24" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1076" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" ht="59.4">
+      <c r="A1077" s="24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1077" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="59.4">
+      <c r="A1078" s="24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" ht="28.8">
+      <c r="A1079" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1079" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="79.2">
+      <c r="A1080" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1080" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" ht="79.2">
+      <c r="A1081" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1081" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" ht="39.6">
+      <c r="A1082" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1082" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" ht="20.399999999999999">
+      <c r="A1083" s="27" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" ht="39.6">
+      <c r="A1084" s="24" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1084" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" ht="59.4">
+      <c r="A1085" s="24" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1085" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="59.4">
+      <c r="A1086" s="24" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1086" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1087" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="79.2">
+      <c r="A1088" s="24" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1088" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" ht="99">
+      <c r="A1089" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1089" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" ht="59.4">
+      <c r="A1090" s="24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1090" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="40.799999999999997">
+      <c r="A1091" s="27" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1091" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" ht="39.6">
+      <c r="A1092" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1092" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="39.6">
+      <c r="A1093" s="24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1093" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" ht="19.8">
+      <c r="A1094" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1094" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" ht="79.2">
+      <c r="A1095" s="24" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1095" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="40.799999999999997">
+      <c r="A1096" s="27" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1096" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" ht="59.4">
+      <c r="A1097" s="24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1097" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" ht="79.2">
+      <c r="A1098" s="24" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1098" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" ht="59.4">
+      <c r="A1099" s="24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1099" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1100" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" ht="79.2">
+      <c r="A1101" s="24" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1101" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1102" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" ht="79.2">
+      <c r="A1103" s="24" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" ht="39.6">
+      <c r="A1104" s="24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1104" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" ht="39.6">
+      <c r="A1105" s="24" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1105" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" ht="61.2">
+      <c r="A1106" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1106" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" ht="39.6">
+      <c r="A1107" s="24" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1107" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" ht="59.4">
+      <c r="A1108" s="24" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" ht="59.4">
+      <c r="A1109" s="24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1109" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19976,8 +20441,8 @@
       <c r="M11">
         <v>29</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELOHOME\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ogayo\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE18FA-975B-419A-8A5C-E92B52B29374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E211F-FEC8-4B42-A629-66BFEC82FCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2328" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
     <sheet name="New 10-3-2021" sheetId="17" r:id="rId2"/>
-    <sheet name="Annotated" sheetId="2" r:id="rId3"/>
-    <sheet name="Statistics" sheetId="4" r:id="rId4"/>
+    <sheet name="New May 2021" sheetId="18" r:id="rId3"/>
+    <sheet name="Classified" sheetId="2" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1917">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -5392,12 +5393,423 @@
   <si>
     <t xml:space="preserve">Total </t>
   </si>
+  <si>
+    <t>Jodolo ma County ma Kisumu kawuono jokwedo lweny manyocha omuoch e yiero moko ma adundo mathurka</t>
+  </si>
+  <si>
+    <t>Moko kuom jodolo ma County ma Kisumu kawuono ne joseyo malit mokalo wach lweny manyocha omuoch e yiero moko ma adundo manyochane otim e thurka nyochani kagiwacho ni ok ginyal gombo kata matin mondo lwenje machal kamago obedie e pachoka</t>
+  </si>
+  <si>
+    <t>Jodologo mane rik joromo Kisumu kawuononi mar lalruok ewii weche mag nyayo kwee e County ma Kisumu kuno e sechegi makoro dhano jong’iyoe wach yiero maduong ma hik 2022ni ne jokwayo jotelo mapachoka mondo kik joyie Kenya odogi e lweny moko ma tok yiero mane giseayego</t>
+  </si>
+  <si>
+    <t>Arch-bishop Winnie Owiti mar kanisa mar Voice of Salvation and Healing Church nowacho ni ok onego jotelo mathurka joyie ni Kenya dok e lwenje moko machal gi mane bedo e yiero moko mokalogo</t>
+  </si>
+  <si>
+    <t>Jadolono nowacho ni yiero ma hik 2022no koro okayo maok onegobed ni iyie tulo moko machal gi manyocha omuoch e yiero ma adundogo ni birobedo e yiero maduong ma higa manyienno</t>
+  </si>
+  <si>
+    <t>Ne okwayo oganda jokenya ni jonegobed ni jotiyo kod mosruok mane obedo e kind jatend piny Kenya migosi Uhuru Kenyatta gi ogai mar ODM migosi Raila Amolo Odinga mabende ne okelo kwee e thurka e neno kwee obiro obedo e yiero ma hik 2022no maonge dok chien e ngima mamoko mag lweny ma higni moko mokalogo</t>
+  </si>
+  <si>
+    <t>Apisas mag EACC kawuono ne omonjo apise piny owacho ma County ma Nyandarua</t>
+  </si>
+  <si>
+    <t>Duol makedo gi mibadhi e pachoka -Ethics and Anti Corruption Commission kawuono ne jomonjo apise piny owacho ma County ma Nyandarua man Ol Kalou mar manyo obok moko ma giduaro ni okonygi e nono wach mibadhi mar omenda maromo silings million 55 miwacho ni ne ocham kokalo kuom orage moko mane ochiu e yoore moko mogwenyore gi duaro mar dound chik</t>
+  </si>
+  <si>
+    <t>Obila mag okwach kich mag duol mar Ethics and Anti Corruption Commissiongo ne jomonjo apis governor ma Nyandarua kuno migosi Francis Kimemia , monjo apis jatend migao mochungne omenda e Countyno Stephen Njoroge kod apis jogoro mag Countyno mane gikawoe obok buora mag konyo timo nonro ewii wach mibadhino</t>
+  </si>
+  <si>
+    <t>Japuonj mar Manyonge Pri. sch e sub county ma Bondo , omadho sum ma otho.</t>
+  </si>
+  <si>
+    <t>Lit kod kuyo okwaKo jogweng kod skund primary ma Manyonge e sub county ma Bondo kaluore kod tho mar japuonj moro mapuonjo eskundno mawachore ni ne okao ngimane ka omadho sum.</t>
+  </si>
+  <si>
+    <t>Japuonj no ma oyangi kaka George Otieno Abor ne olalo ngimane kama ne odhinyime gi yudo thieth, Bondo sub hosptal bang kane oring kode ekar thieth kanyo kane wachore ni omadho sum.</t>
+  </si>
+  <si>
+    <t>Omolo owacho ni nyadin’geny osetemo thego gwandruok ekind japuonjno gi min ode , ka omedo ni japuonjno bende ne oyangone ni en kod pek mag omenda , ka ochich ni mano ema omiyo nyalobedo ni okaone ngimane.</t>
+  </si>
+  <si>
+    <t>Omolo oyango masirano , kata kamano, owacho ni japuonjno ne ok oweyo oboke manyiso gima omiyo okao ngimane ka omedo ni nonro osechak timo ewi wachno.</t>
+  </si>
+  <si>
+    <t>Ruoth ma Bondo Townshiop location Migosi Walter Omolo , owacho ni japuonj no osebedo gi gwandruok gi min ode ma osebedo kang'ur ni japuonjno ok osebedo kasiro familia margi.</t>
+  </si>
+  <si>
+    <t>Jagomoro ojuk randoo ka rocho ratiro mar nyathi moro maja iga 9 ekar dak ma Manyatta slums Kisumo</t>
+  </si>
+  <si>
+    <t>Jodak egweng ma Flamingo mantie e slums ma Manyatta eboma ma Kisumo kawuono ne joigi o wang mokalo bang kane gi juko jago moro maja igni 35 randoo , ka bambo nyathi moro maja iga 9 epuoth niang.</t>
+  </si>
+  <si>
+    <t>Jodak go mane jonigi mau mager ne joketo jagono ma ogo ogol ogol nyaka e apis ruoth ma Kosao.</t>
+  </si>
+  <si>
+    <t>Akinyi wacho ni jopiny ne okelo jagono mabende oyang kaka evans otieno e pis ruoth no, kendo ne oyie ni otimo tim maka mano , ka obila ne okao jagono kendo olorne tesend obila ma Kondele esama nonro dhinyime.</t>
+  </si>
+  <si>
+    <t>Agnes Akinyi Ogweno ma e jalup ruoth ma Manyatta A sub location wacho ni ne giringo mapiyo piyo kod nyathino nyaka ekar thieth ma Jaramogi Oginga Odinga Teaching and Refaral , mar mondo otimne thieth kod nonro.</t>
+  </si>
+  <si>
+    <t>Youths eod bura ma Gem onyis mondo kik giyie josiasa otii kodgi marach</t>
+  </si>
+  <si>
+    <t>Youths mawuoke od bura ma Gem onyis mondo jobed mabor gi josiasa ma oikore mar tiyo kodgi marach ahinya esama koro yiero maduong okayo machiegni.</t>
+  </si>
+  <si>
+    <t>James Oduor ma en jakanyo eriuruok mar yuoth ma on’gere kaka Borne International Conference onyiso youths mondo jonyaa kwee kendo kik giyie mondo otii kodgi ka omedo ni onge jasiasa mora mora mabiro rango chal margi kata kagiyudo hinruok kaluore kod yore mag siasa.</t>
+  </si>
+  <si>
+    <t>Oduor mane loso eboma ma Yala owacho ni en gino malit ni josiasa okao thuolo mar tiyo kod youths eyo marach kaluore kod onge mag tije, ka onyiso piny owacho mondo orang yore mag loso thuolo mag tije manyalo konyo kata youths bende.</t>
+  </si>
+  <si>
+    <t>Kor ka kore to jakom mar riuruog no Moses Owiti to okwedo mokalo tulo mar siasa mane otimore od bura ma Alego Usonga juma mokalo ka onyiso josiasa mondo jonee kaka ginyalo timo siasa ma ok gikelo tulo maka mago mondo ginyis ranyisi maber kata ne youths .</t>
+  </si>
+  <si>
+    <t>Jago moro manie kweth ma osebedo ka koto johala e boma ma Awendo omaki</t>
+  </si>
+  <si>
+    <t>Jago moro maja igni 30 ma en achiel kuom kweth ma osebedo ka koto johala esub county ma Awendo ne omaki odhiambo maka wuono.</t>
+  </si>
+  <si>
+    <t>Jakom mar community policing esub countyno ma Awendo Migosi Joseph Opole owacho ni jagono ma oyangi kaka Kevin, ne owuondore ni en supplier matiyo kod kambi moro mar chiemo kendo ne otemo koto ja ohala moro ebomano, emane omake.</t>
+  </si>
+  <si>
+    <t>Opole omedo ni jaohala mane itemo kotino ne ochich emane ogo othothoriyo kendo ne omak jagono ma okete lwete obila.</t>
+  </si>
+  <si>
+    <t>Jagono ne oyie ni en achiel kuom kweth ma osebedo ka koto johala ebomano ma Awendo.</t>
+  </si>
+  <si>
+    <t>Opole owacho ni gitiyo machiegni gi obila mar temo mako joma moko manie kwethno.</t>
+  </si>
+  <si>
+    <t>Jolupo okwa mondo mii obed motang kaluore kod kwan momedore mar monj mag rao to kod nyang</t>
+  </si>
+  <si>
+    <t>Jolupo okwa mondo mii obed motang kaluore kod kwan momedore mar monj mag rao to kod nyang e seche ma pige mag nam lolwe medore</t>
+  </si>
+  <si>
+    <t>Ma en kwayo mogol kod jakom mar dho wedhe e kenya mangima migosi Tom Guda mawacho ni jolupo onego koro yang makare kuonde ma monj ma kama thoro timore ka ikonyo gi kod jogo maoselupo kuom kinde malach mago maoyango kuondema lee gi thoro monjo e jolupo kotingo nyaka kuonde ma gunyuolie</t>
+  </si>
+  <si>
+    <t>kanotwak gi nyakalondo mar Ramogi migosi Guda ne bende okwayo bad migao motenore gi weche mag lee mondo mii omany kendo nego mago mathoro chando jodak ka olero ni nyang mantiere e dho wath ma dunga osekelo midhiero mathoth ne jodak</t>
+  </si>
+  <si>
+    <t>Jii 410 osemak kod apisas mag obila e county ma Homabay kotenore gi rem mar luwo chike moket ne gayo landruok mar mihusi mar Corona</t>
+  </si>
+  <si>
+    <t>Kaluore kod kamati maotenore gi weche mag kedo gi midhusi no e county no jii 264 ne omak kaluore ni ok girwako abuog rombe ka 146 ne ok orito chik mar seche mag wuoth mano curfew ka giduto ne ochwal gi e nyim doho</t>
+  </si>
+  <si>
+    <t>County kamishna e county no migosi Moses Lilan wacho ni apisas mag obila bende ne omako nyamburko 16 kod pikipiki 27 ma weg gi ne o k orito chike mag okum mag wuoth</t>
+  </si>
+  <si>
+    <t>Ne oyango ni gibiro dhi nyime gi mako kendo chwalo e nyim doho jogo duto maok luu chike go</t>
+  </si>
+  <si>
+    <t>Jii 137 oyud kod midhusi mar corona e buo seche 24 mokadho kuom jii 1,641 manopim</t>
+  </si>
+  <si>
+    <t>Jii 137 oyud kod midhusi mar corona e buo seche 24 mokadho kuom jii 1,641. manopim mano ma en kwan atamalo 8.3 mar jogo mopim</t>
+  </si>
+  <si>
+    <t>ma koro kelo kwan jogo moseyud gi midhusi ni nyaka 160,559</t>
+  </si>
+  <si>
+    <t>kaluore kod migao mar thieth jii mamoko 216, ne ochango mano makelo kwan jogo maosechango nyaka 109,077</t>
+  </si>
+  <si>
+    <t>kata kamano jii 18 ne owito ngimagi mano makelo kwan jogo mosewito ngimagi nyaka 2,781</t>
+  </si>
+  <si>
+    <t>Dichuo moro imanyo bang’ rodho nyathi jirande</t>
+  </si>
+  <si>
+    <t>Obila ma Migori luwo ndach jago moro ma itudo gi ketho mar goyo kendo hinyo nyathi jirande ma jahigni 5 e kar dak ma rejareja mani e sub county ma Suna West.</t>
+  </si>
+  <si>
+    <t>Wuon nyathino ma nyinge stephen otieno olero ni jagono ma hike ni e kar higni 30, nyo ogoyo wuodeno wira ni nyo wuodeo kanyakla kod osiepene mamoko nyo jotugo machiegni kod ode ni kendo kidi moro nyo nyithindogo obayo e ode.</t>
+  </si>
+  <si>
+    <t>Diana Rose ma en jaked ne ratiro mar oganda, olero ni nyo gitero nyathino osiptal ma kaeto ochwal lipot ne obila ma sani koro pedho jagono manyo oringo.</t>
+  </si>
+  <si>
+    <t>Obala ma Homabay omako clinical officer moro mawachore ni ne obambo miyo moro ekar thieth ma St. Pauls Mission Hosptal</t>
+  </si>
+  <si>
+    <t>Obila ecounty ma Homabay omako clinical officer moro maja igni 32 mawachore ni ne obambo miyo moro maja igni 33 mane odhidwaro thieth ekar thieth ma ST. Pauls Mission Hospital mantie boma ma Homabay.</t>
+  </si>
+  <si>
+    <t>Achijno matiyo ekar thieth no oyangi kaka Laban Otieno Obor, ne omaki kod obila bang miyono goyo riport etesend obila ma Homabay.</t>
+  </si>
+  <si>
+    <t>Wachore ni achijno ne ochuoyo miyono gi yath moro nyadiriyo, yadhno mabende pod ok oyangi, ban’ge otere eroom moro mar kar thieth no ,kar saa achiel odhiambo ma obambe.</t>
+  </si>
+  <si>
+    <t>Miyono maja nyithindo 4 wachore ni ne odhidwaro thieth ekar thieth no kane owinjo ka kore rame, ema apisano onyise ni mondo opiele ekar kende mondo eka timne nonro.</t>
+  </si>
+  <si>
+    <t>Comanda mar obila ecounty ma homabay Esther Seroney oyango ni jagono nomaki kawuono kama otiyeno , kabende owacho ni miyono pache ne oduogo mana kar saa aboro otieno mar tarik 27 dweni emane oyudo mana ka achijno onindo ebadhe kanyo e otanda achiel.</t>
+  </si>
+  <si>
+    <t>Seroney bende owacho ni liport mar laktar nyiso ni miyono ne obambi nyadinuoya kendo achij no koro ibiro tere doho kod keth mar bembo.</t>
+  </si>
+  <si>
+    <t>Jago moro maja igni 48 obambo nyathima jaiga 6 e center ma Chabera.</t>
+  </si>
+  <si>
+    <t>Jago moro maja igni 48 omaki kawachore ni ne obambo nyathima nyako maja iga 6 e center ma Chabera mantie location ma Atela esub county ma Rachuonyo East odhiambo manyoro.</t>
+  </si>
+  <si>
+    <t>Ruoth ma Atela Location Peres Muga owacho ni achijno ne omaki gi jopiny mane otere tesend obila ma Chabera bang ka nyathima nyakono wacho ni ne obambe.</t>
+  </si>
+  <si>
+    <t>Nyathima nyakono ne otere kar thieth ma Othoro mar mondo otimne thieth kod nonro ka achijno to ne oduogo oter etesend obila ma Othoro ka orito dhiye doho.</t>
+  </si>
+  <si>
+    <t>Jagono ma oyangi kaka Kennedy Adongo wachore ni ne obambo nyathima nyakano eode mantie ecenter kanyo bang kane olombe kod sh 30.</t>
+  </si>
+  <si>
+    <t>Kata kamano, nyathima nyako maja ecd ne otamore kao omendano gino mana omiyo jagono omake githuon ma obambe.</t>
+  </si>
+  <si>
+    <t>Achich moro madichuo onegi gi jopiny egweng ma Osiri Matanda</t>
+  </si>
+  <si>
+    <t>Achich moro madichuo man kod igni 20 gi wiye mawachore ni ne onego chukdar moro manerito Osiri Matanda ndalo moko abich mokalo ne jopiny mane nigi mau ne onego ma owan’go ringre odhiambo manyoro ekar kunyo goldi ma Osiri Matanda esub county ma Nyatike.</t>
+  </si>
+  <si>
+    <t>Ruoth ma gwengno David Oula wacho ni achijno ma osebedo katiye kar kunyo goldino ne owang kod jopiny mane wacho ni ne en kod tudruok ewi tho mar chuk dar moro maja iga 43 mane onegi otieno mar tarik 16 mar dweni</t>
+  </si>
+  <si>
+    <t>Oula wacho ni jopiny nyo omonjo mana achijno mabende ne otemo gore gi jopiny , kata kamano ne jopiny ohewe kod teko ma onege.</t>
+  </si>
+  <si>
+    <t>Jo njore mane onego chukdar no bende ne oturo kama norito no ma oyombo kod kite man kod gold.</t>
+  </si>
+  <si>
+    <t>Oula kata kamano ne onyiso jopiny go ni kik gikau chik elwetgi ka omedo ni achich en n’gama imako to ikete lwet obila.</t>
+  </si>
+  <si>
+    <t>Kwan atamalo mar jogo moyud gi midhusi mar corona mano midendo ni positivity rate odok piny odiochineg ma kawuono</t>
+  </si>
+  <si>
+    <t>Kwan atamalo mar jogo moyud gi midhusi mar corona mano midendo ni positiiity rate odok piny odiochineg ma kawuono ka jii 241 oyud gi midhusi no kuom jii 2515 manopim mano ma en kwan atamalo 9.6.</t>
+  </si>
+  <si>
+    <t>Kata kamano jii 20 ne owito ngimagi mano makelo kwa jogo mosewito ngimagi nyaka 2501</t>
+  </si>
+  <si>
+    <t>Kaluore kod jatend migao mar thieth Mutahi Kagwe mano koro kelo kwan jogo moseyud gi midhusi no nyaka 151,894</t>
+  </si>
+  <si>
+    <t>Jii mamoko 636 ne ochango mano makelo kwan jogo mosechango nyaka 102,278</t>
+  </si>
+  <si>
+    <t>Doho ma Migori oweyo thuolo gi rambun jachiw thieth maitudo gi rocho ratich nyathi manyako ma ja higni 17</t>
+  </si>
+  <si>
+    <t>Doho ma Migori oweyo thuolo gi rambun jachiw thieth mano maneosedhi e rutaya mano manomak kendo tudo gi rochi ratich nyathi ma manyako ma jahigni 17 e kar dak ma Apida Suna East Sub County.</t>
+  </si>
+  <si>
+    <t>Michael Tiengo ne owe thuolo gi rambun mar silings eluf 100 kod doho no ma Migori ngeto manogol kod jangad buche Jonson Munguti bang ne odagi ketho go manodonj ne go e nyime</t>
+  </si>
+  <si>
+    <t>Tiengo ne omaki tarik 15 dweni ka itude gi bambo nyathino ma nyako ma jahigni 17 mano maodak kod ngol ka nomake kod apisa mag obila kaachiel kod mikayi Consolate Odongo ka nyako no mawachore ni ne obambo ne okonyore kendo yudo nyathi otieno ma tarik 14 dweni e od gi e kar dak ma Apida Suna East Sub County</t>
+  </si>
+  <si>
+    <t>Masich tingni Migori</t>
+  </si>
+  <si>
+    <t>Jopiny ma Awendo gi Rongo e kaonti ma Migori ywak ni tingni moko pod iriembo e seche mag otieno kata odoko ni chik nyocha osegol ma kumo wuodhe mag tingnigo otieno.</t>
+  </si>
+  <si>
+    <t>Jopinygo kotelnegi gi Evance Otieno, joywak ni masira mag apaya pod medo timore nikech tingni miriembo ma ok teyini kod mago ma ichungo e ndara e kuonde ma nigi mudho.</t>
+  </si>
+  <si>
+    <t>Tarik 24 dwee mar 3 higani, jalup komishona morito Rongo Andrew Mwiti ne okoo ni onge tinga mowinjore oringi kosekadho saa 6pm.</t>
+  </si>
+  <si>
+    <t>Mor maduong ne okwako moko kuom gwenge mag mag County ma Siaya e seche mane skunde jodhiyoe nyime gi yudo duoko mag penj mag class 8 mane owuok ayanga ei kawuononi</t>
+  </si>
+  <si>
+    <t>E Bondo Township Primary School e Sub County ma Bondo e County ma Siaya jonyuol kod tend skundno ne jochokore kamoro achiel ka gimiel kod wer modhi wang achiel kane gipako nyathigi mane otimo maber e penj mar class 8 no maen Masinde Joshua Nigel mane oyudo marks 420 e penj mag KCPE mane owuokno</t>
+  </si>
+  <si>
+    <t>Mamoko mane oyudo marks chakre 400 kadhi nyime ne oting’o Onyango Cecil Miller mane oyudo marks 409 , Shisia Euphrase Ashuma mane oyudo marks 407 kod Henry Odhiambo mane oyudo marks 403</t>
+  </si>
+  <si>
+    <t>Maendi bende ne obedo Wango Christian Academy ei Bondo ma Enoch Excellent Otieno ne oyudo marks 417 kane iluwe kod Pacifique Pauline Akinyi mane oyudo marks 400 kaeto iluwe kod Fidel Ochieng mane obedo namba 3 gi marks 392</t>
+  </si>
+  <si>
+    <t>E Awelo Primary School e Sub County ma Alego Usonga Martin Okoth ne yudo marks 400 ka iluwe kod Ferdinand Ochieng gi marks 390 ka Kimberly Joy Odhiambo ma Lwak Girls Boarding Primary School ne oyudo marks 386</t>
+  </si>
+  <si>
+    <t>Japuonj manyocha omaki gi keth mar kuo mar penj, owe thuolo gi bond mar sh 300,000</t>
+  </si>
+  <si>
+    <t>Japuonj skund secondar moro manyocha omaki ecounty ma Homabay kaluore kod keth ma itudo kod kuo mar penj owe thuolo gi bond mar sh 300,000</t>
+  </si>
+  <si>
+    <t>Magolo ne otere nyim Principal Magistrate Joy Wesonga kama ne odagi yie kethogo kendo ne oweye thuolo gi bond ka burano ibiro winjo kendo Tarik 5, dwe manyien.</t>
+  </si>
+  <si>
+    <t>Kelvin Magolo, ma en japuonj Nyagwethe Sec Sch. E Suba sub county ne otere doho ma Homabay kaluore ni ne oyude kod otese moko mag penj to kod ote moko mag penj esimbe mar ong'we yamo gino ma odhi ataro mar chik mar duol ma ochung ne penj The kenya National Examination Council.</t>
+  </si>
+  <si>
+    <t>CEO mar kar thieth ma Homabay County Referal Hosptal DR. Lilian Kochola otere yueyo mochuno</t>
+  </si>
+  <si>
+    <t>EO mar kar thieth ma Homabay County Referal Hosptal DR. Lilian Kochola onyis mondo odhiye yueyo mochuno kaluore kod yuak ma jopiny ecountyno osebedo godo ewi chal marach mar kar thieth no.</t>
+  </si>
+  <si>
+    <t>Oboke mar dhiye yueyo mochono no ne ondik kod County Secretary Migosi Isaya Ogwe mabende ema otelone jotich mag piny owacho ecountyno ma Homabay.</t>
+  </si>
+  <si>
+    <t>E obokeno, Migosi Ogwe onyiso DR. Kochola mondo ochiu tijege ne DR. Peter Simon Ogola makoro biro tayo kar thieth no kaka CEO manyien.</t>
+  </si>
+  <si>
+    <t>Oboke mane ondikne DR.Kochola onyise mondo ochaka chaka yueyo mare mana sano sano , kabende piny owacho mar county ma Homabay olero ni gitimo chenro mar chule chude mage nyaka ethulo mane onego bedni ni contranct mare rumo tarik 31 /8 / igani.</t>
+  </si>
+  <si>
+    <t>Migosi Isaya Ogwe ma oloso kod Radio Ramogi owacho ni okang maka mano ok en mare owuon, ka oluwo ni okang maka mano ne ochope kaluore kod bura mabende ne ochuoye kom piny gi Gavana ma Homabay Migosi Cyprian Awiti.</t>
+  </si>
+  <si>
+    <t>Juma mokalo, commity mar yore thieth ecounty assembly ma Homabay ma otelne gi Joah Ogada ne jochako timo nonro ewi chal marach mar kar thiethno , kendo igeno ni gibiro loso report bang kane jopiny ogolo yuakgi.</t>
+  </si>
+  <si>
+    <t>Japuonjre moro manyako olokore muofu seche machuok ka pok ne ochako penj mar KCSE</t>
+  </si>
+  <si>
+    <t>Japuonjre moro manyako matimo penj mar KCSE ne olokore muofu okinyi makawuono mana seche machuok kane pod ok ochak penj ma okinyi.</t>
+  </si>
+  <si>
+    <t>Japuonjreno masomo skund secondar ma Wayaga Mixed ne oring godo ekar thieth ma Ndhiwa sub county mane oyang ni olokore muofu.</t>
+  </si>
+  <si>
+    <t>Wachore ni japuonjre no ne onyiso jopuonjre wetene odhiambo manyoro ni ne ok onen maber esama nyoro ne gitimo revision kod jowetene.</t>
+  </si>
+  <si>
+    <t>Director mar chenro mag somo ecounty ma Homabay Migosi Fredrick Kiiru wacho ni japuonjreno chal mare ne obedo marach esama ne giikore mar timo penj mar CRE gino mane ochuno mondo oring kode ekar thieth no.</t>
+  </si>
+  <si>
+    <t>Kiiru owacho ni liport mar laktar onyiso ni japuonjreno olokore muofu, kabende negioro lipodno kachiel kod mano mane ondik kod japuoj maduong mar skundno, ne duol maochungne chenro mag penj epachoka knec, kama duondno ne ochiwo duoko mapiyo piyo mar konyo japuonjreno mondo odhinyime gi penjmare.</t>
+  </si>
+  <si>
+    <t>Kiiru bende omedo ni japuonjreno ibiro konyo mondo otim penj mago ma pod odong kendo neno ni oyudo thieth kata bang tieko penjgo.</t>
+  </si>
+  <si>
+    <t>Chenro mar tego grube eyore mag pith gi pur mar ohala dhinyime ecounty ma Kisumo</t>
+  </si>
+  <si>
+    <t>Migao mar pur ecounty ma Kisumo dhinyime kod chenro mag tego grube eyore mag pith kod pur mar ohala, bang kane gipogo dho chak ne grube 8 egwenge mag North East Nyakach.</t>
+  </si>
+  <si>
+    <t>Jatend migao mar pur ecountyno Gilchrist Okuom mane otele chenro maka mano owacho ni chenrono dhimaber esub counties 7 manie countyno ma Kisumo.</t>
+  </si>
+  <si>
+    <t>Ne bende omedo ni machiegni ni gibiro chiwo diek 30 mag chak ne grube ma opogore opogore ei Nyakach.</t>
+  </si>
+  <si>
+    <t>Okuom owacho ni giketo yore makare mar neno ni dhoge go oriti eyo makare kendo ok ousgi ka omedo ni chenro maka mano nikod nyalo mar loko gima oganda, kabende ojiwo grube go mondo omak chenro no motegno kaka yor yuto.</t>
+  </si>
+  <si>
+    <t>Joriemb boda boda ma Kenya kod ma Tanzania dwaro ni piny owacho mag pinje ariyogo oketh gono moro ma ikwale apiko kasto iuso epiny mar Tanzania.</t>
+  </si>
+  <si>
+    <t>Joriemb apikogo wacho ni gono no nitie kod jokanyo magin jokenya kod jotanzania mabende tiyo mana eboda mag pinje ariyogo.</t>
+  </si>
+  <si>
+    <t>Kane oloso kod Radio Ramogi, jakom joboda boda esub county ma Nyatike Silvance Oluoch wacho ni apiko ma okwal egwenge go ikalo godo boda , ranyisi ni kweth mag jokuoyego gin jokenya kod jotanzania.</t>
+  </si>
+  <si>
+    <t>Oluoch wacho ni giselalo apiko mathoth kendo gikwayo piny owacho mag pinje ariyogo mondo odonjre</t>
+  </si>
+  <si>
+    <t>Motelo kucha, Radio Ramogi ne oloso kod jakom boda boda ma boma ma Isibania Peter Chacha mane owacho ni tie mar chiro ma iuse apiko ma okwal go ema nyayo kuo mag apiko egwenge g</t>
+  </si>
+  <si>
+    <t>Piny owacho ma Kenya gi ma Tanzania onyis mondo oketh gono ma ikwale apiko kasto iuse piny Tanzania</t>
+  </si>
+  <si>
+    <t>Piny owacho mar County ma Homa Bay sani chano pogo oganda ma Homa Bay nede mag suna</t>
+  </si>
+  <si>
+    <t>Chenrono migeto chako e dwe mar 5 mar higani ibiro timo kod apisas mochungne thieth ne oganda ka jotenore kod ruodhi gi jolupgi kod nyamrerwa bang ka osebi otieki kao kwan familia maonge gi nyalo ma igeto pogo nedego</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod apisa mochungne yoore thieth e Sub County ma Homa Bay laktar Bernard Omondi mane owacho ni nyamrerwa gie sechegi jodhi nyime gi ndiko nying miere ma ibiro teroe konyno</t>
+  </si>
+  <si>
+    <t>Nowacho ni gisefuenyo ni kwand atamalo 27 mag oganda ma county ma Homa Bay kuno joyudo tuo mar malariano e higa ka higa nikech wach onge mag nede mag sunago kane okwayo jopiny mondo joyie osir nyamrerwago e chenro masani koro gitayo mag kao nying jii ma gibiro pogo nedego</t>
+  </si>
+  <si>
+    <t>Piny owacho mar County ma Homa Bay kokalo kuom bad migao mochungne yoore mag thieth e County ma Homa Bay kuno chano chako chenro mag pogo nede mag suna ne familia maonge gi yuto maber e Countyno e chenro ma ibiro siro kod joka Global Fund mar konyo nyago tuo mar malaria Homa Bay kuno</t>
+  </si>
+  <si>
+    <t>Maloyo jii 3,744 makoro oyangi ni joseyudo chanjo mar Corona e County ma Migori</t>
+  </si>
+  <si>
+    <t>Jii ma kwan gi romo 3, 744 makoro oyangi ni joseyudo chanjo mar corona e County ma Migori</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod bad migao mochungne yoore mag thieth e Countyno mane wacho ni kwanno nyo ochopo kama entiereno nyoro godhiambo</t>
+  </si>
+  <si>
+    <t>Maendi en kaluwore gi nonro manyo otim kod bad migao mar thiethno mabende ne wacho ni jothieth ema okao namba kuom kwan mag joma osechanjigo kanegilero ni jothieth maromo 1,805 ma osechanji kiluwe kod joma hikgi chakore e 58 kadhi nyime mane gin jii 882 ka jopuony ne obedo namba adek gi jii 571 kaeto mogik namba ang’wen ne gin apisas mochungne arita kwee mane gin jii 348</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod apisa maduong mochungne thieth ne oganda e County ma Migori kuno mikai Pauline Amolo mane owacho ni nyochane gineno medruok e kwan joma dhi e chanjono e juma achiel mokaloni</t>
+  </si>
+  <si>
+    <t>Jii maromo 279 oyudi ni jokalee midhiero moko matindo tindo mikelo gi chanjo mar Astrazeneca</t>
+  </si>
+  <si>
+    <t>Ripot mane wayudo wacho ni jii ma kwan gi romo 279 josebedo kod midhiero moko matindo tindo mikelo kod yadh chanjo mar Astrazeneca ka mamoko 7 bende oyangi ni kalee midhiero mapek moloyo kaluwore kod chanjono</t>
+  </si>
+  <si>
+    <t>Katakamano nenore ni pogruok mapek nitie e wach chanjono e kind migao mochungne yoore mag thieth kod board mochungne weche yedhe e thurka -Pharmacy and Poisons Board bang Pharmacy and Poisons Board ne yango ni nitie ng’at achiel mane otho bang yudo chanjono</t>
+  </si>
+  <si>
+    <t>Laktar Peter Ikamati mar PBP  ne okuongo oyango wach thogno kaeto bang’e oduogo olero ni jalno ne nyalo tho kaluwore kod chal mar ngima mare mane onyalobedo godo .</t>
+  </si>
+  <si>
+    <t>Wach tho mane iwacho ni ne obedo nikech chanjono ne okwed malit mokalo kod laktar Tabu maen jatelo mochungne chenro mag chanjo e migao mochungne yoore mag theith e pachoka</t>
+  </si>
+  <si>
+    <t>Governor machon ma Nairobi laktar Evans Kidero ne oyudi ni nikod Covid-19</t>
+  </si>
+  <si>
+    <t>Governor machon ma Nairobi laktar Evans Kidero oyangi ni ne oyudi kod midusi mar coronavirus ei kawuononi mana bang ndalo manok bang kanyochane oyudo chanjo mar corona</t>
+  </si>
+  <si>
+    <t>Kokalo kuom mbui mare mar facebook laktar Kidero ne oyango ni nyochane rik odhi e chanjo mar corona chieng wuok tich mar juma mokaloni en kaachiel kod familia mare duto ni ema bang yudo chanjono to otieko ndalo moko manok to ochako winjo kagima ok ongima ruok kachalo kagima en kod rang’isi moko machal mag midusi mar Covid-19 emane gineno ni gidhiye e pim en kaachiel gi familia mare duto kowacho ni bang pimno to duoko ne oduogo ei okinyi makawuononi ni familia mare duto ler ni to en kende emane oyude kod midusi mar Coronano</t>
+  </si>
+  <si>
+    <t>Jatelono ne olero ni kaluwore kod wachno odhi bedo kar kende kuom jumbe ariyo midendo ni self isolation kabende ne okwayo jogo duto ma osebedo kode machiegni mondo joyie odhi e pim mar Covid-19 mar mondo okonygi e ng’eyo chal margi ne tuono kaachiel bende gi kwayo oganda jokenya mondo joyie odhi mana nyime gi luwo chike mane oketi gi migao mochungne yoore mag thieth mag konyo nyago tuono kaka luoko lwedo gi sabun kod pii maler mamol , ruako mask kod dhano bedo mogwechore gi jowetegi kuom mamoko.</t>
+  </si>
+  <si>
+    <t>IEBC olando Abdulkadir Haji kaka senator ma Garissa</t>
+  </si>
+  <si>
+    <t>Duol mochungne yiero e pachoka -IEBC kawuono ne olando migosi Abdulkadir Haji kaka senator manyien ma county ma Garissa</t>
+  </si>
+  <si>
+    <t>Maendi ne gitimo bang Abdulkadir laro komno maonge ng’amane lero kode</t>
+  </si>
+  <si>
+    <t>Abdulkadir koro okao kar wuongi mosenindo Yussuf Haji mane magoro olalgo kane en e senator ma Garissa kuno</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5550,6 +5962,30 @@
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -5905,7 +6341,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6017,9 +6453,19 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6081,7 +6527,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ELOHOME" refreshedDate="44265.441987615741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1273" xr:uid="{C607C216-5FFE-4D8D-9BDC-7EB41900D679}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1274" sheet="Annotated"/>
+    <worksheetSource ref="A1:B1274" sheet="Classified"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Text" numFmtId="0">
@@ -11608,7 +12054,7 @@
   <dimension ref="A1:A1414"/>
   <sheetViews>
     <sheetView topLeftCell="A1053" workbookViewId="0">
-      <selection activeCell="A1057" sqref="A1057:A1414"/>
+      <selection activeCell="D1058" sqref="D1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18697,8 +19143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF2FC49-8576-4274-9513-E8D9E893D3B5}">
   <dimension ref="A1:A358"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20503,11 +20949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386CA97-9DB9-4D9E-A52E-CC64BCC04B59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1321"/>
+  <dimension ref="A1:B1414"/>
   <sheetViews>
-    <sheetView topLeftCell="A888" workbookViewId="0">
-      <selection activeCell="B898" sqref="B898"/>
+    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="B1411" sqref="B1411:B1414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30710,189 +31170,1117 @@
       <c r="A1275"/>
       <c r="B1275"/>
     </row>
-    <row r="1276" spans="1:2">
-      <c r="A1276"/>
-      <c r="B1276"/>
-    </row>
-    <row r="1277" spans="1:2">
-      <c r="A1277"/>
-      <c r="B1277"/>
-    </row>
-    <row r="1278" spans="1:2">
-      <c r="A1278"/>
-      <c r="B1278"/>
-    </row>
-    <row r="1279" spans="1:2">
-      <c r="A1279"/>
-      <c r="B1279"/>
-    </row>
-    <row r="1280" spans="1:2">
-      <c r="A1280"/>
-      <c r="B1280"/>
-    </row>
-    <row r="1281" spans="1:2">
-      <c r="A1281"/>
-      <c r="B1281"/>
-    </row>
-    <row r="1282" spans="1:2">
-      <c r="A1282"/>
-      <c r="B1282"/>
-    </row>
-    <row r="1283" spans="1:2">
-      <c r="A1283"/>
-      <c r="B1283"/>
-    </row>
-    <row r="1284" spans="1:2">
-      <c r="A1284"/>
-      <c r="B1284"/>
-    </row>
-    <row r="1285" spans="1:2">
-      <c r="A1285"/>
-      <c r="B1285"/>
-    </row>
-    <row r="1286" spans="1:2">
-      <c r="A1286"/>
-      <c r="B1286"/>
-    </row>
-    <row r="1287" spans="1:2">
-      <c r="A1287"/>
-      <c r="B1287"/>
-    </row>
-    <row r="1288" spans="1:2">
-      <c r="A1288"/>
-      <c r="B1288"/>
-    </row>
-    <row r="1289" spans="1:2">
-      <c r="A1289"/>
-      <c r="B1289"/>
-    </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290"/>
-      <c r="B1290"/>
-    </row>
-    <row r="1291" spans="1:2">
-      <c r="A1291"/>
-      <c r="B1291"/>
-    </row>
-    <row r="1292" spans="1:2">
-      <c r="A1292"/>
-      <c r="B1292"/>
-    </row>
-    <row r="1293" spans="1:2">
-      <c r="A1293"/>
-      <c r="B1293"/>
-    </row>
-    <row r="1294" spans="1:2">
-      <c r="A1294"/>
-      <c r="B1294"/>
-    </row>
-    <row r="1295" spans="1:2">
-      <c r="A1295"/>
-      <c r="B1295"/>
-    </row>
-    <row r="1296" spans="1:2">
-      <c r="A1296"/>
-      <c r="B1296"/>
-    </row>
-    <row r="1297" spans="1:2">
-      <c r="A1297"/>
-      <c r="B1297"/>
-    </row>
-    <row r="1298" spans="1:2">
-      <c r="A1298"/>
-      <c r="B1298"/>
-    </row>
-    <row r="1299" spans="1:2">
-      <c r="A1299"/>
-      <c r="B1299"/>
-    </row>
-    <row r="1300" spans="1:2">
-      <c r="A1300"/>
-      <c r="B1300"/>
-    </row>
-    <row r="1301" spans="1:2">
-      <c r="A1301"/>
-      <c r="B1301"/>
-    </row>
-    <row r="1302" spans="1:2">
-      <c r="A1302"/>
-      <c r="B1302"/>
-    </row>
-    <row r="1303" spans="1:2">
-      <c r="A1303"/>
-      <c r="B1303"/>
-    </row>
-    <row r="1304" spans="1:2">
-      <c r="A1304"/>
-      <c r="B1304"/>
-    </row>
-    <row r="1305" spans="1:2">
-      <c r="A1305"/>
-      <c r="B1305"/>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="A1306"/>
-      <c r="B1306"/>
-    </row>
-    <row r="1307" spans="1:2">
-      <c r="A1307"/>
-      <c r="B1307"/>
-    </row>
-    <row r="1308" spans="1:2">
-      <c r="A1308"/>
-      <c r="B1308"/>
-    </row>
-    <row r="1309" spans="1:2">
-      <c r="A1309"/>
-      <c r="B1309"/>
-    </row>
-    <row r="1310" spans="1:2">
-      <c r="A1310"/>
-      <c r="B1310"/>
-    </row>
-    <row r="1311" spans="1:2">
-      <c r="A1311"/>
-      <c r="B1311"/>
-    </row>
-    <row r="1312" spans="1:2">
-      <c r="A1312"/>
-      <c r="B1312"/>
-    </row>
-    <row r="1313" spans="1:2">
-      <c r="A1313"/>
-      <c r="B1313"/>
-    </row>
-    <row r="1314" spans="1:2">
-      <c r="A1314"/>
-      <c r="B1314"/>
-    </row>
-    <row r="1315" spans="1:2">
-      <c r="A1315"/>
-      <c r="B1315"/>
-    </row>
-    <row r="1316" spans="1:2">
-      <c r="A1316"/>
-      <c r="B1316"/>
-    </row>
-    <row r="1317" spans="1:2">
-      <c r="A1317"/>
-      <c r="B1317"/>
-    </row>
-    <row r="1318" spans="1:2">
-      <c r="A1318"/>
-      <c r="B1318"/>
-    </row>
-    <row r="1319" spans="1:2">
-      <c r="A1319"/>
-      <c r="B1319"/>
-    </row>
-    <row r="1320" spans="1:2">
-      <c r="A1320"/>
-      <c r="B1320"/>
-    </row>
-    <row r="1321" spans="1:2">
-      <c r="A1321"/>
-      <c r="B1321"/>
+    <row r="1276" spans="1:2" ht="40.799999999999997">
+      <c r="A1276" s="45" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1276" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" ht="79.2">
+      <c r="A1277" s="46" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1277" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" ht="79.2">
+      <c r="A1278" s="46" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1278" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" ht="59.4">
+      <c r="A1279" s="46" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1279" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" ht="19.8">
+      <c r="A1280" s="46">
+        <v>8</v>
+      </c>
+      <c r="B1280" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" ht="59.4">
+      <c r="A1281" s="46" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1281" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" ht="79.2">
+      <c r="A1282" s="46" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1282" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" ht="40.799999999999997">
+      <c r="A1283" s="48" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1283" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" ht="99">
+      <c r="A1284" s="46" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1284" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" ht="99">
+      <c r="A1285" s="46" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1285" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" ht="20.399999999999999">
+      <c r="A1286" s="48" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" ht="59.4">
+      <c r="A1287" s="46" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1287" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" ht="59.4">
+      <c r="A1288" s="46" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1288" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" ht="59.4">
+      <c r="A1289" s="46" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1289" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" ht="59.4">
+      <c r="A1290" s="46" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1290" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" ht="39.6">
+      <c r="A1291" s="46" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1291" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" ht="40.799999999999997">
+      <c r="A1292" s="48" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1292" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" ht="59.4">
+      <c r="A1293" s="46" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1293" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" ht="39.6">
+      <c r="A1294" s="46" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1294" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" ht="59.4">
+      <c r="A1295" s="46" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1295" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" ht="59.4">
+      <c r="A1296" s="46" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1296" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="20.399999999999999">
+      <c r="A1297" s="48" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" ht="39.6">
+      <c r="A1298" s="46" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1298" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" ht="79.2">
+      <c r="A1299" s="46" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1299" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" ht="59.4">
+      <c r="A1300" s="46" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1300" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" ht="79.2">
+      <c r="A1301" s="46" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1301" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" ht="20.399999999999999">
+      <c r="A1302" s="48" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" ht="15">
+      <c r="A1303" s="49" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1303" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" ht="15">
+      <c r="A1304" s="49" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1304" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" ht="15">
+      <c r="A1305" s="49" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1305" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" ht="15">
+      <c r="A1306" s="49" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1306" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" ht="15">
+      <c r="A1307" s="49" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1307" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" ht="40.799999999999997">
+      <c r="A1308" s="48" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1308" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" ht="15">
+      <c r="A1309" s="49" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1309" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" ht="15">
+      <c r="A1310" s="49" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1310" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" ht="15">
+      <c r="A1311" s="49" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1311" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" ht="40.799999999999997">
+      <c r="A1312" s="48" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1312" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" ht="15">
+      <c r="A1313" s="49" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1313" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" ht="15">
+      <c r="A1314" s="49" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1314" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" ht="15">
+      <c r="A1315" s="49" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1315" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="15">
+      <c r="A1316" s="49" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1316" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" ht="40.799999999999997">
+      <c r="A1317" s="48" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1317" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" ht="15">
+      <c r="A1318" s="49" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1318" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" ht="15">
+      <c r="A1319" s="49" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1319" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" ht="15">
+      <c r="A1320" s="49" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1320" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" ht="15">
+      <c r="A1321" s="49" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1321" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" ht="20.399999999999999">
+      <c r="A1322" s="48" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1322" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" ht="39.6">
+      <c r="A1323" s="46" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1323" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="59.4">
+      <c r="A1324" s="46" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1324" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" ht="39.6">
+      <c r="A1325" s="46" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1325" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" ht="40.799999999999997">
+      <c r="A1326" s="48" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1326" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="59.4">
+      <c r="A1327" s="46" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1327" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" ht="39.6">
+      <c r="A1328" s="46" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1328" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" ht="59.4">
+      <c r="A1329" s="46" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1329" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="59.4">
+      <c r="A1330" s="46" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1330" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="79.2">
+      <c r="A1331" s="46" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1331" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" ht="39.6">
+      <c r="A1332" s="46" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1332" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" ht="20.399999999999999">
+      <c r="A1333" s="48" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" ht="59.4">
+      <c r="A1334" s="46" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1334" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" ht="39.6">
+      <c r="A1335" s="46" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1335" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" ht="39.6">
+      <c r="A1336" s="46" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1336" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" ht="39.6">
+      <c r="A1337" s="46" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1337" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" ht="39.6">
+      <c r="A1338" s="46" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1338" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" ht="20.399999999999999">
+      <c r="A1339" s="48" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1339" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="79.2">
+      <c r="A1340" s="46" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1340" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" ht="59.4">
+      <c r="A1341" s="46" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1341" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" ht="39.6">
+      <c r="A1342" s="46" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1342" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" ht="39.6">
+      <c r="A1343" s="46" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1343" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" ht="39.6">
+      <c r="A1344" s="46" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1344" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" ht="40.799999999999997">
+      <c r="A1345" s="48" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1345" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" ht="15">
+      <c r="A1346" s="49" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1346" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" ht="15">
+      <c r="A1347" s="49" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1347" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" ht="15">
+      <c r="A1348" s="49" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1348" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" ht="15">
+      <c r="A1349" s="49" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1349" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" ht="40.799999999999997">
+      <c r="A1350" s="48" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1350" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" ht="15">
+      <c r="A1351" s="49" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1351" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" ht="15">
+      <c r="A1352" s="49" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1352" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" ht="15">
+      <c r="A1353" s="49" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1353" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" ht="20.399999999999999">
+      <c r="A1354" s="48" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1354" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" ht="59.4">
+      <c r="A1355" s="46" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1355" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" ht="59.4">
+      <c r="A1356" s="46" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1356" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" ht="39.6">
+      <c r="A1357" s="46" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1357" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" ht="59.4">
+      <c r="A1358" s="46" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1358" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" ht="79.2">
+      <c r="A1359" s="46" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1359" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" ht="59.4">
+      <c r="A1360" s="46" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1360" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" ht="59.4">
+      <c r="A1361" s="46" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1361" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" ht="59.4">
+      <c r="A1362" s="46" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1362" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" ht="40.799999999999997">
+      <c r="A1363" s="48" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1363" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" ht="39.6">
+      <c r="A1364" s="46" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1364" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" ht="79.2">
+      <c r="A1365" s="46" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1365" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" ht="39.6">
+      <c r="A1366" s="46" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1366" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" ht="40.799999999999997">
+      <c r="A1367" s="48" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1367" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" ht="59.4">
+      <c r="A1368" s="46" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1368" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" ht="39.6">
+      <c r="A1369" s="46" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1369" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" ht="39.6">
+      <c r="A1370" s="46" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1370" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" ht="79.2">
+      <c r="A1371" s="46" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1371" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" ht="59.4">
+      <c r="A1372" s="46" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1372" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" ht="59.4">
+      <c r="A1373" s="46" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1373" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" ht="40.799999999999997">
+      <c r="A1374" s="48" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1374" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" ht="15">
+      <c r="A1375" s="49" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1375" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" ht="15">
+      <c r="A1376" s="49" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1376" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" ht="15">
+      <c r="A1377" s="49" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1377" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" ht="15">
+      <c r="A1378" s="49" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1378" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" ht="15">
+      <c r="A1379" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1379" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" ht="15">
+      <c r="A1380" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1380" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" ht="40.799999999999997">
+      <c r="A1381" s="48" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1381" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" ht="59.4">
+      <c r="A1382" s="46" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1382" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" ht="39.6">
+      <c r="A1383" s="46" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1383" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" ht="59.4">
+      <c r="A1384" s="46" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1384" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" ht="39.6">
+      <c r="A1385" s="46" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1385" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" s="9" customFormat="1" ht="40.799999999999997">
+      <c r="A1386" s="48" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1386" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" ht="39.6">
+      <c r="A1387" s="46" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1387" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" ht="39.6">
+      <c r="A1388" s="46" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1388" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" ht="59.4">
+      <c r="A1389" s="46" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1389" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" ht="39.6">
+      <c r="A1390" s="46" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1390" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" ht="59.4">
+      <c r="A1391" s="46" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1391" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" ht="40.799999999999997">
+      <c r="A1392" s="48" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1392" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" ht="79.2">
+      <c r="A1393" s="46" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1393" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" ht="59.4">
+      <c r="A1394" s="46" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1394" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" ht="59.4">
+      <c r="A1395" s="46" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1395" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" ht="79.2">
+      <c r="A1396" s="46" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1396" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" ht="40.799999999999997">
+      <c r="A1397" s="48" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1397" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" ht="39.6">
+      <c r="A1398" s="46" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1398" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" ht="39.6">
+      <c r="A1399" s="46" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1399" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" ht="99">
+      <c r="A1400" s="46" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1400" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" ht="59.4">
+      <c r="A1401" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1401" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1402" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" ht="59.4">
+      <c r="A1403" s="46" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1403" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" ht="79.2">
+      <c r="A1404" s="46" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1404" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" ht="59.4">
+      <c r="A1405" s="46" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1405" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" ht="59.4">
+      <c r="A1406" s="46" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1406" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" ht="20.399999999999999">
+      <c r="A1407" s="48" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1407" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" ht="59.4">
+      <c r="A1408" s="46" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1408" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" ht="138.6">
+      <c r="A1409" s="46" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1409" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" ht="138.6">
+      <c r="A1410" s="46" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1410" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" ht="20.399999999999999">
+      <c r="A1411" s="48" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1411" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" ht="39.6">
+      <c r="A1412" s="46" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1412" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" ht="19.8">
+      <c r="A1413" s="46" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1413" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" ht="39.6">
+      <c r="A1414" s="46" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1414" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30900,12 +32288,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31199,8 +32587,8 @@
         <v>30</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:19" s="9" customFormat="1">
       <c r="A12" s="9" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ogayo\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E211F-FEC8-4B42-A629-66BFEC82FCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A914A69-DC98-459C-8019-3A951848B717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
@@ -6459,13 +6459,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -20966,8 +20966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
-      <selection activeCell="B1411" sqref="B1411:B1414"/>
+    <sheetView topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="B1157" sqref="B1157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31227,7 +31227,7 @@
       </c>
     </row>
     <row r="1283" spans="1:2" ht="40.799999999999997">
-      <c r="A1283" s="48" t="s">
+      <c r="A1283" s="47" t="s">
         <v>1786</v>
       </c>
       <c r="B1283" s="21" t="s">
@@ -31251,7 +31251,7 @@
       </c>
     </row>
     <row r="1286" spans="1:2" ht="20.399999999999999">
-      <c r="A1286" s="48" t="s">
+      <c r="A1286" s="47" t="s">
         <v>1789</v>
       </c>
       <c r="B1286" t="s">
@@ -31299,7 +31299,7 @@
       </c>
     </row>
     <row r="1292" spans="1:2" ht="40.799999999999997">
-      <c r="A1292" s="48" t="s">
+      <c r="A1292" s="47" t="s">
         <v>1795</v>
       </c>
       <c r="B1292" s="9" t="s">
@@ -31339,7 +31339,7 @@
       </c>
     </row>
     <row r="1297" spans="1:2" ht="20.399999999999999">
-      <c r="A1297" s="48" t="s">
+      <c r="A1297" s="47" t="s">
         <v>1800</v>
       </c>
       <c r="B1297" t="s">
@@ -31379,7 +31379,7 @@
       </c>
     </row>
     <row r="1302" spans="1:2" ht="20.399999999999999">
-      <c r="A1302" s="48" t="s">
+      <c r="A1302" s="47" t="s">
         <v>1805</v>
       </c>
       <c r="B1302" t="s">
@@ -31387,7 +31387,7 @@
       </c>
     </row>
     <row r="1303" spans="1:2" ht="15">
-      <c r="A1303" s="49" t="s">
+      <c r="A1303" s="48" t="s">
         <v>1806</v>
       </c>
       <c r="B1303" s="9" t="s">
@@ -31395,7 +31395,7 @@
       </c>
     </row>
     <row r="1304" spans="1:2" ht="15">
-      <c r="A1304" s="49" t="s">
+      <c r="A1304" s="48" t="s">
         <v>1807</v>
       </c>
       <c r="B1304" s="9" t="s">
@@ -31403,7 +31403,7 @@
       </c>
     </row>
     <row r="1305" spans="1:2" ht="15">
-      <c r="A1305" s="49" t="s">
+      <c r="A1305" s="48" t="s">
         <v>1808</v>
       </c>
       <c r="B1305" s="9" t="s">
@@ -31411,7 +31411,7 @@
       </c>
     </row>
     <row r="1306" spans="1:2" ht="15">
-      <c r="A1306" s="49" t="s">
+      <c r="A1306" s="48" t="s">
         <v>1809</v>
       </c>
       <c r="B1306" s="9" t="s">
@@ -31419,7 +31419,7 @@
       </c>
     </row>
     <row r="1307" spans="1:2" ht="15">
-      <c r="A1307" s="49" t="s">
+      <c r="A1307" s="48" t="s">
         <v>1810</v>
       </c>
       <c r="B1307" s="9" t="s">
@@ -31427,7 +31427,7 @@
       </c>
     </row>
     <row r="1308" spans="1:2" ht="40.799999999999997">
-      <c r="A1308" s="48" t="s">
+      <c r="A1308" s="47" t="s">
         <v>1811</v>
       </c>
       <c r="B1308" s="4" t="s">
@@ -31435,7 +31435,7 @@
       </c>
     </row>
     <row r="1309" spans="1:2" ht="15">
-      <c r="A1309" s="49" t="s">
+      <c r="A1309" s="48" t="s">
         <v>1812</v>
       </c>
       <c r="B1309" s="15" t="s">
@@ -31443,7 +31443,7 @@
       </c>
     </row>
     <row r="1310" spans="1:2" ht="15">
-      <c r="A1310" s="49" t="s">
+      <c r="A1310" s="48" t="s">
         <v>1813</v>
       </c>
       <c r="B1310" s="15" t="s">
@@ -31451,7 +31451,7 @@
       </c>
     </row>
     <row r="1311" spans="1:2" ht="15">
-      <c r="A1311" s="49" t="s">
+      <c r="A1311" s="48" t="s">
         <v>1814</v>
       </c>
       <c r="B1311" s="15" t="s">
@@ -31459,7 +31459,7 @@
       </c>
     </row>
     <row r="1312" spans="1:2" ht="40.799999999999997">
-      <c r="A1312" s="48" t="s">
+      <c r="A1312" s="47" t="s">
         <v>1815</v>
       </c>
       <c r="B1312" s="4" t="s">
@@ -31467,7 +31467,7 @@
       </c>
     </row>
     <row r="1313" spans="1:2" ht="15">
-      <c r="A1313" s="49" t="s">
+      <c r="A1313" s="48" t="s">
         <v>1815</v>
       </c>
       <c r="B1313" s="15" t="s">
@@ -31475,7 +31475,7 @@
       </c>
     </row>
     <row r="1314" spans="1:2" ht="15">
-      <c r="A1314" s="49" t="s">
+      <c r="A1314" s="48" t="s">
         <v>1816</v>
       </c>
       <c r="B1314" s="15" t="s">
@@ -31483,7 +31483,7 @@
       </c>
     </row>
     <row r="1315" spans="1:2" ht="15">
-      <c r="A1315" s="49" t="s">
+      <c r="A1315" s="48" t="s">
         <v>1817</v>
       </c>
       <c r="B1315" s="15" t="s">
@@ -31491,7 +31491,7 @@
       </c>
     </row>
     <row r="1316" spans="1:2" ht="15">
-      <c r="A1316" s="49" t="s">
+      <c r="A1316" s="48" t="s">
         <v>1818</v>
       </c>
       <c r="B1316" s="15" t="s">
@@ -31499,7 +31499,7 @@
       </c>
     </row>
     <row r="1317" spans="1:2" ht="40.799999999999997">
-      <c r="A1317" s="48" t="s">
+      <c r="A1317" s="47" t="s">
         <v>1819</v>
       </c>
       <c r="B1317" s="15" t="s">
@@ -31507,7 +31507,7 @@
       </c>
     </row>
     <row r="1318" spans="1:2" ht="15">
-      <c r="A1318" s="49" t="s">
+      <c r="A1318" s="48" t="s">
         <v>1820</v>
       </c>
       <c r="B1318" s="15" t="s">
@@ -31515,7 +31515,7 @@
       </c>
     </row>
     <row r="1319" spans="1:2" ht="15">
-      <c r="A1319" s="49" t="s">
+      <c r="A1319" s="48" t="s">
         <v>1821</v>
       </c>
       <c r="B1319" s="15" t="s">
@@ -31523,7 +31523,7 @@
       </c>
     </row>
     <row r="1320" spans="1:2" ht="15">
-      <c r="A1320" s="49" t="s">
+      <c r="A1320" s="48" t="s">
         <v>1822</v>
       </c>
       <c r="B1320" s="15" t="s">
@@ -31531,7 +31531,7 @@
       </c>
     </row>
     <row r="1321" spans="1:2" ht="15">
-      <c r="A1321" s="49" t="s">
+      <c r="A1321" s="48" t="s">
         <v>1823</v>
       </c>
       <c r="B1321" s="15" t="s">
@@ -31539,7 +31539,7 @@
       </c>
     </row>
     <row r="1322" spans="1:2" ht="20.399999999999999">
-      <c r="A1322" s="48" t="s">
+      <c r="A1322" s="47" t="s">
         <v>1824</v>
       </c>
       <c r="B1322" s="4" t="s">
@@ -31571,7 +31571,7 @@
       </c>
     </row>
     <row r="1326" spans="1:2" ht="40.799999999999997">
-      <c r="A1326" s="48" t="s">
+      <c r="A1326" s="47" t="s">
         <v>1828</v>
       </c>
       <c r="B1326" s="15" t="s">
@@ -31627,7 +31627,7 @@
       </c>
     </row>
     <row r="1333" spans="1:2" ht="20.399999999999999">
-      <c r="A1333" s="48" t="s">
+      <c r="A1333" s="47" t="s">
         <v>1835</v>
       </c>
       <c r="B1333" s="4" t="s">
@@ -31675,7 +31675,7 @@
       </c>
     </row>
     <row r="1339" spans="1:2" ht="20.399999999999999">
-      <c r="A1339" s="48" t="s">
+      <c r="A1339" s="47" t="s">
         <v>1841</v>
       </c>
       <c r="B1339" s="15" t="s">
@@ -31723,7 +31723,7 @@
       </c>
     </row>
     <row r="1345" spans="1:2" ht="40.799999999999997">
-      <c r="A1345" s="48" t="s">
+      <c r="A1345" s="47" t="s">
         <v>1847</v>
       </c>
       <c r="B1345" s="4" t="s">
@@ -31731,7 +31731,7 @@
       </c>
     </row>
     <row r="1346" spans="1:2" ht="15">
-      <c r="A1346" s="49" t="s">
+      <c r="A1346" s="48" t="s">
         <v>1848</v>
       </c>
       <c r="B1346" s="15" t="s">
@@ -31739,7 +31739,7 @@
       </c>
     </row>
     <row r="1347" spans="1:2" ht="15">
-      <c r="A1347" s="49" t="s">
+      <c r="A1347" s="48" t="s">
         <v>1850</v>
       </c>
       <c r="B1347" s="15" t="s">
@@ -31747,7 +31747,7 @@
       </c>
     </row>
     <row r="1348" spans="1:2" ht="15">
-      <c r="A1348" s="49" t="s">
+      <c r="A1348" s="48" t="s">
         <v>1851</v>
       </c>
       <c r="B1348" s="15" t="s">
@@ -31755,7 +31755,7 @@
       </c>
     </row>
     <row r="1349" spans="1:2" ht="15">
-      <c r="A1349" s="49" t="s">
+      <c r="A1349" s="48" t="s">
         <v>1849</v>
       </c>
       <c r="B1349" s="15" t="s">
@@ -31763,7 +31763,7 @@
       </c>
     </row>
     <row r="1350" spans="1:2" ht="40.799999999999997">
-      <c r="A1350" s="48" t="s">
+      <c r="A1350" s="47" t="s">
         <v>1852</v>
       </c>
       <c r="B1350" s="4" t="s">
@@ -31771,7 +31771,7 @@
       </c>
     </row>
     <row r="1351" spans="1:2" ht="15">
-      <c r="A1351" s="49" t="s">
+      <c r="A1351" s="48" t="s">
         <v>1853</v>
       </c>
       <c r="B1351" s="15" t="s">
@@ -31779,7 +31779,7 @@
       </c>
     </row>
     <row r="1352" spans="1:2" ht="15">
-      <c r="A1352" s="49" t="s">
+      <c r="A1352" s="48" t="s">
         <v>1854</v>
       </c>
       <c r="B1352" s="15" t="s">
@@ -31787,7 +31787,7 @@
       </c>
     </row>
     <row r="1353" spans="1:2" ht="15">
-      <c r="A1353" s="49" t="s">
+      <c r="A1353" s="48" t="s">
         <v>1855</v>
       </c>
       <c r="B1353" s="15" t="s">
@@ -31795,7 +31795,7 @@
       </c>
     </row>
     <row r="1354" spans="1:2" ht="20.399999999999999">
-      <c r="A1354" s="48" t="s">
+      <c r="A1354" s="47" t="s">
         <v>1856</v>
       </c>
       <c r="B1354" s="4" t="s">
@@ -31867,7 +31867,7 @@
       </c>
     </row>
     <row r="1363" spans="1:2" ht="40.799999999999997">
-      <c r="A1363" s="48" t="s">
+      <c r="A1363" s="47" t="s">
         <v>1865</v>
       </c>
       <c r="B1363" s="4" t="s">
@@ -31899,7 +31899,7 @@
       </c>
     </row>
     <row r="1367" spans="1:2" ht="40.799999999999997">
-      <c r="A1367" s="48" t="s">
+      <c r="A1367" s="47" t="s">
         <v>1869</v>
       </c>
       <c r="B1367" s="4" t="s">
@@ -31955,7 +31955,7 @@
       </c>
     </row>
     <row r="1374" spans="1:2" ht="40.799999999999997">
-      <c r="A1374" s="48" t="s">
+      <c r="A1374" s="47" t="s">
         <v>1876</v>
       </c>
       <c r="B1374" s="4" t="s">
@@ -31963,7 +31963,7 @@
       </c>
     </row>
     <row r="1375" spans="1:2" ht="15">
-      <c r="A1375" s="49" t="s">
+      <c r="A1375" s="48" t="s">
         <v>1877</v>
       </c>
       <c r="B1375" s="15" t="s">
@@ -31971,7 +31971,7 @@
       </c>
     </row>
     <row r="1376" spans="1:2" ht="15">
-      <c r="A1376" s="49" t="s">
+      <c r="A1376" s="48" t="s">
         <v>1878</v>
       </c>
       <c r="B1376" s="15" t="s">
@@ -31979,7 +31979,7 @@
       </c>
     </row>
     <row r="1377" spans="1:2" ht="15">
-      <c r="A1377" s="49" t="s">
+      <c r="A1377" s="48" t="s">
         <v>1879</v>
       </c>
       <c r="B1377" s="15" t="s">
@@ -31987,7 +31987,7 @@
       </c>
     </row>
     <row r="1378" spans="1:2" ht="15">
-      <c r="A1378" s="49" t="s">
+      <c r="A1378" s="48" t="s">
         <v>1880</v>
       </c>
       <c r="B1378" s="15" t="s">
@@ -31995,7 +31995,7 @@
       </c>
     </row>
     <row r="1379" spans="1:2" ht="15">
-      <c r="A1379" s="49" t="s">
+      <c r="A1379" s="48" t="s">
         <v>1881</v>
       </c>
       <c r="B1379" s="15" t="s">
@@ -32003,7 +32003,7 @@
       </c>
     </row>
     <row r="1380" spans="1:2" ht="15">
-      <c r="A1380" s="49" t="s">
+      <c r="A1380" s="48" t="s">
         <v>1882</v>
       </c>
       <c r="B1380" s="15" t="s">
@@ -32011,7 +32011,7 @@
       </c>
     </row>
     <row r="1381" spans="1:2" ht="40.799999999999997">
-      <c r="A1381" s="48" t="s">
+      <c r="A1381" s="47" t="s">
         <v>1883</v>
       </c>
       <c r="B1381" s="4" t="s">
@@ -32051,7 +32051,7 @@
       </c>
     </row>
     <row r="1386" spans="1:2" s="9" customFormat="1" ht="40.799999999999997">
-      <c r="A1386" s="48" t="s">
+      <c r="A1386" s="47" t="s">
         <v>1893</v>
       </c>
       <c r="B1386" s="15" t="s">
@@ -32099,7 +32099,7 @@
       </c>
     </row>
     <row r="1392" spans="1:2" ht="40.799999999999997">
-      <c r="A1392" s="48" t="s">
+      <c r="A1392" s="47" t="s">
         <v>1894</v>
       </c>
       <c r="B1392" s="4" t="s">
@@ -32139,7 +32139,7 @@
       </c>
     </row>
     <row r="1397" spans="1:2" ht="40.799999999999997">
-      <c r="A1397" s="48" t="s">
+      <c r="A1397" s="47" t="s">
         <v>1899</v>
       </c>
       <c r="B1397" s="4" t="s">
@@ -32219,7 +32219,7 @@
       </c>
     </row>
     <row r="1407" spans="1:2" ht="20.399999999999999">
-      <c r="A1407" s="48" t="s">
+      <c r="A1407" s="47" t="s">
         <v>1909</v>
       </c>
       <c r="B1407" s="15" t="s">
@@ -32251,7 +32251,7 @@
       </c>
     </row>
     <row r="1411" spans="1:2" ht="20.399999999999999">
-      <c r="A1411" s="48" t="s">
+      <c r="A1411" s="47" t="s">
         <v>1913</v>
       </c>
       <c r="B1411" s="4" t="s">
@@ -32292,8 +32292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32587,8 +32587,8 @@
         <v>30</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:19" s="9" customFormat="1">
       <c r="A12" s="9" t="s">

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ogayo\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A914A69-DC98-459C-8019-3A951848B717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBA03F-AB1B-4578-87E0-694CF34D6EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
     <sheet name="New 10-3-2021" sheetId="17" r:id="rId2"/>
-    <sheet name="New May 2021" sheetId="18" r:id="rId3"/>
-    <sheet name="Classified" sheetId="2" r:id="rId4"/>
+    <sheet name="Classified" sheetId="2" r:id="rId3"/>
+    <sheet name="New May 2021" sheetId="18" r:id="rId4"/>
     <sheet name="Statistics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="1922">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -5804,12 +5804,27 @@
   <si>
     <t>Abdulkadir koro okao kar wuongi mosenindo Yussuf Haji mane magoro olalgo kane en e senator ma Garissa kuno</t>
   </si>
+  <si>
+    <t>Starts from 1276 in Classified sheet</t>
+  </si>
+  <si>
+    <t>Regional Commissioner ma Nyanza koro ne owuoyo ewii ikruok moseketi ne Madaraka Day</t>
+  </si>
+  <si>
+    <t>Regional Commissioner ma Nyanza migosi Magu Mutindika kawuono koro ne oyango ni giseketo okenge duto mag biro thiro landruok mar tuo mar corona e kinde nyasi mag Madaraka Day ma higani ma obiro bago e boma ma Kisumu -kowacho ni giketo okengego kaluwore gi wach jimbruok mag landruok mar tuono</t>
+  </si>
+  <si>
+    <t>Kanomedowuoyo ewii wachno migosi Mutindika nowacho ni gibironeno ni alap ma Jomo Kenyatta International Stadium man Mamboleo Kisumu ma ibiro bagoe nyasino obiro oluwo chike duto mag kedo gi tuono kod neno ni welo duto mabiro dhi kanyo chiengno jobiro oluwo chike mag kedo gi tuono bende</t>
+  </si>
+  <si>
+    <t>Kanowuoyo e boma ma Kisumu jatelono bende ne oyango ni yoore mag arita osehiki mogik tik e boma ma Kisumu kuno ka iikruok ne nyasino.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5983,6 +5998,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -6341,7 +6362,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6465,6 +6486,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -12053,8 +12077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1414"/>
   <sheetViews>
-    <sheetView topLeftCell="A1053" workbookViewId="0">
-      <selection activeCell="D1058" sqref="D1058"/>
+    <sheetView topLeftCell="A1401" workbookViewId="0">
+      <selection activeCell="A1414" sqref="A1414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19143,7 +19167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF2FC49-8576-4274-9513-E8D9E893D3B5}">
   <dimension ref="A1:A358"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A340" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -20949,25 +20973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386CA97-9DB9-4D9E-A52E-CC64BCC04B59}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1414"/>
-  <sheetViews>
-    <sheetView topLeftCell="A1157" workbookViewId="0">
-      <selection activeCell="B1157" sqref="B1157"/>
+    <sheetView tabSelected="1" topLeftCell="A1412" workbookViewId="0">
+      <selection activeCell="D1456" sqref="D1456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31203,9 +31213,7 @@
       </c>
     </row>
     <row r="1280" spans="1:2" ht="19.8">
-      <c r="A1280" s="46">
-        <v>8</v>
-      </c>
+      <c r="A1280" s="46"/>
       <c r="B1280" s="21" t="s">
         <v>8</v>
       </c>
@@ -32234,7 +32242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1409" spans="1:2" ht="138.6">
+    <row r="1409" spans="1:3" ht="138.6">
       <c r="A1409" s="46" t="s">
         <v>1911</v>
       </c>
@@ -32242,7 +32250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1410" spans="1:2" ht="138.6">
+    <row r="1410" spans="1:3" ht="138.6">
       <c r="A1410" s="46" t="s">
         <v>1912</v>
       </c>
@@ -32250,7 +32258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1411" spans="1:2" ht="20.399999999999999">
+    <row r="1411" spans="1:3" ht="20.399999999999999">
       <c r="A1411" s="47" t="s">
         <v>1913</v>
       </c>
@@ -32258,7 +32266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1412" spans="1:2" ht="39.6">
+    <row r="1412" spans="1:3" ht="39.6">
       <c r="A1412" s="46" t="s">
         <v>1914</v>
       </c>
@@ -32266,7 +32274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1413" spans="1:2" ht="19.8">
+    <row r="1413" spans="1:3" ht="19.8">
       <c r="A1413" s="46" t="s">
         <v>1915</v>
       </c>
@@ -32274,17 +32282,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1414" spans="1:2" ht="39.6">
+    <row r="1414" spans="1:3" ht="39.6">
       <c r="A1414" s="46" t="s">
         <v>1916</v>
       </c>
       <c r="B1414" s="15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" ht="40.799999999999997">
+      <c r="A1415" s="50" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1415">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3" ht="79.2">
+      <c r="A1416" s="46" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1416">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" ht="79.2">
+      <c r="A1417" s="46" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" ht="39.6">
+      <c r="A1418" s="46" t="s">
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386CA97-9DB9-4D9E-A52E-CC64BCC04B59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -32292,8 +32346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LUO.xlsx
+++ b/LUO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ogayo\OneDrive\Desktop\Masakhane\Luo-News-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE1487-17DA-4274-8A19-C423730F18F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C53B3-39C9-489A-8603-CE38A41239AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_text" sheetId="9" r:id="rId1"/>
     <sheet name="New 10-3-2021" sheetId="17" r:id="rId2"/>
     <sheet name="Classified" sheetId="2" r:id="rId3"/>
-    <sheet name="New May 2021" sheetId="18" r:id="rId4"/>
+    <sheet name="May- June 2021" sheetId="18" r:id="rId4"/>
     <sheet name="Statistics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5294" uniqueCount="2253">
   <si>
     <t>Jii 7 jowito ngimagi e masira mar apaya yoo Kisian e County ma Kisumu</t>
   </si>
@@ -6461,9 +6461,6 @@
     <t>Chief justice machon migosi David Maraga wachoni Ker Uhuru Kenyatta onego thich oko e tich kaluoreni oserem tayo chenro mar chamo muma mar jong'ad buche 41 manosepuodhi kod duol mar doho.</t>
   </si>
   <si>
-    <t>Lolwe TV</t>
-  </si>
-  <si>
     <t>Period/Source</t>
   </si>
   <si>
@@ -6582,9 +6579,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tend duond Bura mar ODM ogolo chik ne Mca's mag county assembly ma Migori ochak okang' mokwongo mar thicho oko eapis Gov. Okoth Obado kaluore gi pek mar Case Mar Mibadhi momake. </t>
-  </si>
-  <si>
-    <t>Radio Lake Victoria</t>
   </si>
   <si>
     <t>Riwruok mar adhula e Africa CAF, ogoo Gor Mahia fine mar siling tara 3 kaachiel bende gi kumo Kenneth Muguna gi Boniface Oluoch ma iwacho ni nomonjo jakudh firimbi e piny Zambia e tugo e kind Gor gi Napsa Stars.</t>
@@ -6754,6 +6748,72 @@
   </si>
   <si>
     <t>Jakom Ambrose Rachier oyango mano.</t>
+  </si>
+  <si>
+    <t>Laktar Amoth ne oguel kaka jakom board maduong mar WHO</t>
+  </si>
+  <si>
+    <t>Riuruok mochungne weche mag thieth e bwo piny mangima -World Health Organization -WHO- kawuono ne oguelo Director makojolo e migao mochungne yoore mag thieth e pachoka laktar Patrick Amoth kaka jakom board maduong mar riuruok mar WHO no</t>
+  </si>
+  <si>
+    <t>Magi ne oyangi kod jatend migao mochungne yoore mag thieth e riuruogno laktar Harsh Vardhan mane otimo lendono e romo mar 149 mar board mar riuruok mar World Health Organizationno</t>
+  </si>
+  <si>
+    <t>E dwe mar 5 mar higa mokalo , laktar Amoth ne oyier kaka jalup ker mar board maduong mar riuruok mar World Health Organizationno – e lemo mane odhi bede kuom higni ariyo</t>
+  </si>
+  <si>
+    <t>Gikone gavana mar county ma Migori Zachary Okoth Obado ochopo e nyim komiti mar od bura mar senate ma ng’iyo kaka itiyo gi omenda jopiny.</t>
+  </si>
+  <si>
+    <t>Migosi Obado nyocha oluongi gi komitino mondo mii ochopi kawuono ma ok olewo bang’ ka dwee mokalo ne orem ma ok ochopo kata bang’ kane osemiye milome.</t>
+  </si>
+  <si>
+    <t>Komitino nyocha nikod penjo ewii lipod odita jener ka achiel kuom weche nen ni tend county ma migori ne orem ma ok ochiwo oboke moko ma dwarore ne apis odita jener mondo mii ne non kaka itiyo gi omenda e piny owacho mar migori.</t>
+  </si>
+  <si>
+    <t>Gavana Obado kata kamano okoo ni ne oluwore gi okenge mag kedo gi midhusi mar coronavirus nimar hike thoth ne 58 kendo ne ok onyal chopo e apise dhii kawo obokego mondo mii ochiwgi.</t>
+  </si>
+  <si>
+    <t>Ramogi website June 2021</t>
+  </si>
+  <si>
+    <t>Tarik moket mar yalo appeal mar Paro mar chik mar BBI koro ong'uko tarik mane iliekoni itime ombulu mar Paro.</t>
+  </si>
+  <si>
+    <t>Waikore mar kelonu lendo achiel kachiel kowuok e paw tuke mar Jomo Kenyatta International Stadium Kisumu Mamboleo e nyasi mar 58 mar Madaraka day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joohala moko bende osechopo e paw tuke mar Jomo Kenyatta International Stadium Kisumu e nyasi mar MadarakaDay 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaka Weche Chalo e paw tuke mar Jomo Kenyatta International Stadium Kisumu e nyasi mar 58 mar #MadarakaDay2021 </t>
+  </si>
+  <si>
+    <t>Radio Lake Victoria Twitter</t>
+  </si>
+  <si>
+    <t>Lolwe TV Twiter</t>
+  </si>
+  <si>
+    <t>Piny Uingereza chano bago romo odiochieng'  makawuono gi jotend ute thieth mawuok e pinje abirio madongo momewo,mong'ere kaka G7 kumagidhi wuoye ewi pinje maonge nyalo maok nyalo yudo chanjo mar Covid -19 kaachiel gi tuoche manenore e Lee</t>
+  </si>
+  <si>
+    <t>Duol mar African Union(AU ) ochungo kuom thuolo pinyno mar  Mali ebedo jakanyo margi kaluore giloko loch magiloko kendo e tielo mar ariyo ekind dweche ochiko mokalo.</t>
+  </si>
+  <si>
+    <t>Duolno mar AU kokalo e telo mochung'ne kelo kwe kod arita okao ondamono nyakachieng' gilure gi chike.</t>
+  </si>
+  <si>
+    <t>Piny Australia ochoro nyime lockdown mar gweng' ma Melbourne kuom juma achiel kaluore gi medruok mar midhusi mar Corona e boma ma Melbourne juma mokadho.</t>
+  </si>
+  <si>
+    <t>Ker mapiny South Africa Cyril Ramaphosa owachoni pinyno chano keto chike motegno mag Covid -19 kaluoreni third wave mar Corona nyalo nenore machiegni.</t>
+  </si>
+  <si>
+    <t>Lolwe Twitter June</t>
+  </si>
+  <si>
+    <t>Ramogi Twitter June</t>
   </si>
 </sst>
 </file>
@@ -7438,9 +7498,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7461,6 +7518,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -20250,7 +20310,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="28.8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -22046,10 +22106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1722"/>
+  <dimension ref="A1:C1738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1712" workbookViewId="0">
-      <selection activeCell="A1718" sqref="A1718"/>
+    <sheetView topLeftCell="A1729" workbookViewId="0">
+      <selection activeCell="A1738" sqref="A1738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22242,7 +22302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8">
+    <row r="24" spans="1:2" ht="43.2">
       <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
@@ -22378,7 +22438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2">
+    <row r="41" spans="1:2" ht="57.6">
       <c r="A41" s="21" t="s">
         <v>48</v>
       </c>
@@ -22442,7 +22502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="57.6">
+    <row r="49" spans="1:2" ht="72">
       <c r="A49" s="21" t="s">
         <v>56</v>
       </c>
@@ -22530,7 +22590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="28.8">
       <c r="A60" s="19" t="s">
         <v>67</v>
       </c>
@@ -22538,7 +22598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="28.8">
       <c r="A61" s="19" t="s">
         <v>68</v>
       </c>
@@ -22610,7 +22670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="28.8">
+    <row r="70" spans="1:2" ht="43.2">
       <c r="A70" s="21" t="s">
         <v>77</v>
       </c>
@@ -22706,7 +22766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2">
+    <row r="82" spans="1:2" ht="57.6">
       <c r="A82" s="21" t="s">
         <v>89</v>
       </c>
@@ -22746,7 +22806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="28.8">
+    <row r="87" spans="1:2" ht="43.2">
       <c r="A87" s="21" t="s">
         <v>94</v>
       </c>
@@ -22866,7 +22926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="28.8">
+    <row r="102" spans="1:2" ht="43.2">
       <c r="A102" s="21" t="s">
         <v>107</v>
       </c>
@@ -23050,7 +23110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="28.8">
+    <row r="125" spans="1:2" ht="43.2">
       <c r="A125" s="21" t="s">
         <v>141</v>
       </c>
@@ -23074,7 +23134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="43.2">
+    <row r="128" spans="1:2" ht="57.6">
       <c r="A128" s="21" t="s">
         <v>144</v>
       </c>
@@ -23090,7 +23150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="28.8">
+    <row r="130" spans="1:2" ht="43.2">
       <c r="A130" s="21" t="s">
         <v>146</v>
       </c>
@@ -23130,7 +23190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="28.8">
+    <row r="135" spans="1:2" ht="43.2">
       <c r="A135" s="21" t="s">
         <v>151</v>
       </c>
@@ -23202,7 +23262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="28.8">
+    <row r="144" spans="1:2" ht="43.2">
       <c r="A144" s="21" t="s">
         <v>160</v>
       </c>
@@ -23258,7 +23318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="28.8">
+    <row r="151" spans="1:2" ht="43.2">
       <c r="A151" s="21" t="s">
         <v>167</v>
       </c>
@@ -23290,7 +23350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="28.8">
+    <row r="155" spans="1:2" ht="43.2">
       <c r="A155" s="21" t="s">
         <v>171</v>
       </c>
@@ -23298,7 +23358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="28.8">
       <c r="A156" s="21" t="s">
         <v>172</v>
       </c>
@@ -23314,7 +23374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" ht="28.8">
       <c r="A158" s="21" t="s">
         <v>174</v>
       </c>
@@ -23410,7 +23470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="28.8">
+    <row r="170" spans="1:2" ht="43.2">
       <c r="A170" s="21" t="s">
         <v>184</v>
       </c>
@@ -23554,7 +23614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="43.2">
+    <row r="188" spans="1:2" ht="57.6">
       <c r="A188" s="21" t="s">
         <v>203</v>
       </c>
@@ -23570,7 +23630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="28.8">
+    <row r="190" spans="1:2" ht="43.2">
       <c r="A190" s="21" t="s">
         <v>205</v>
       </c>
@@ -23602,7 +23662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="43.2">
+    <row r="194" spans="1:2" ht="57.6">
       <c r="A194" s="21" t="s">
         <v>209</v>
       </c>
@@ -23610,7 +23670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="43.2">
+    <row r="195" spans="1:2" ht="57.6">
       <c r="A195" s="21" t="s">
         <v>210</v>
       </c>
@@ -23722,7 +23782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="28.8">
+    <row r="209" spans="1:2" ht="43.2">
       <c r="A209" s="21" t="s">
         <v>224</v>
       </c>
@@ -23730,7 +23790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="28.8">
+    <row r="210" spans="1:2" ht="43.2">
       <c r="A210" s="21" t="s">
         <v>225</v>
       </c>
@@ -23762,7 +23822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="43.2">
+    <row r="214" spans="1:2" ht="57.6">
       <c r="A214" s="21" t="s">
         <v>229</v>
       </c>
@@ -23842,7 +23902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="28.8">
+    <row r="224" spans="1:2" ht="43.2">
       <c r="A224" s="21" t="s">
         <v>237</v>
       </c>
@@ -23882,7 +23942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="28.8">
+    <row r="229" spans="1:2" ht="43.2">
       <c r="A229" s="21" t="s">
         <v>241</v>
       </c>
@@ -23922,7 +23982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" ht="28.8">
       <c r="A234" s="21" t="s">
         <v>245</v>
       </c>
@@ -24034,7 +24094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="28.8">
+    <row r="248" spans="1:2" ht="43.2">
       <c r="A248" s="21" t="s">
         <v>117</v>
       </c>
@@ -24066,7 +24126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="28.8">
       <c r="A252" s="21" t="s">
         <v>121</v>
       </c>
@@ -24138,7 +24198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="28.8">
+    <row r="261" spans="1:2" ht="43.2">
       <c r="A261" s="21" t="s">
         <v>263</v>
       </c>
@@ -24146,7 +24206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="28.8">
+    <row r="262" spans="1:2" ht="43.2">
       <c r="A262" s="21" t="s">
         <v>264</v>
       </c>
@@ -24274,7 +24334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" ht="28.8">
       <c r="A278" s="21" t="s">
         <v>281</v>
       </c>
@@ -24386,7 +24446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="28.8">
+    <row r="292" spans="1:2" ht="43.2">
       <c r="A292" s="21" t="s">
         <v>295</v>
       </c>
@@ -24434,7 +24494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="28.8">
+    <row r="298" spans="1:2" ht="43.2">
       <c r="A298" s="21" t="s">
         <v>301</v>
       </c>
@@ -24466,7 +24526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="28.8">
+    <row r="302" spans="1:2" ht="43.2">
       <c r="A302" s="21" t="s">
         <v>305</v>
       </c>
@@ -24618,7 +24678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="28.8">
+    <row r="321" spans="1:2" ht="43.2">
       <c r="A321" s="21" t="s">
         <v>320</v>
       </c>
@@ -24634,7 +24694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="28.8">
+    <row r="323" spans="1:2" ht="43.2">
       <c r="A323" s="21" t="s">
         <v>324</v>
       </c>
@@ -24642,7 +24702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="28.8">
+    <row r="324" spans="1:2" ht="43.2">
       <c r="A324" s="21" t="s">
         <v>325</v>
       </c>
@@ -32455,7 +32515,7 @@
       </c>
     </row>
     <row r="1301" spans="1:2" ht="30">
-      <c r="A1301" s="51" t="s">
+      <c r="A1301" s="50" t="s">
         <v>1806</v>
       </c>
       <c r="B1301" t="s">
@@ -32463,7 +32523,7 @@
       </c>
     </row>
     <row r="1302" spans="1:2" ht="45">
-      <c r="A1302" s="51" t="s">
+      <c r="A1302" s="50" t="s">
         <v>1807</v>
       </c>
       <c r="B1302" s="8" t="s">
@@ -32471,7 +32531,7 @@
       </c>
     </row>
     <row r="1303" spans="1:2" ht="30">
-      <c r="A1303" s="51" t="s">
+      <c r="A1303" s="50" t="s">
         <v>1808</v>
       </c>
       <c r="B1303" s="8" t="s">
@@ -32479,7 +32539,7 @@
       </c>
     </row>
     <row r="1304" spans="1:2" ht="15">
-      <c r="A1304" s="51" t="s">
+      <c r="A1304" s="50" t="s">
         <v>1809</v>
       </c>
       <c r="B1304" s="8" t="s">
@@ -32487,7 +32547,7 @@
       </c>
     </row>
     <row r="1305" spans="1:2" ht="15">
-      <c r="A1305" s="51" t="s">
+      <c r="A1305" s="50" t="s">
         <v>1810</v>
       </c>
       <c r="B1305" s="8" t="s">
@@ -32503,7 +32563,7 @@
       </c>
     </row>
     <row r="1307" spans="1:2" ht="30">
-      <c r="A1307" s="51" t="s">
+      <c r="A1307" s="50" t="s">
         <v>1812</v>
       </c>
       <c r="B1307" s="3" t="s">
@@ -32511,7 +32571,7 @@
       </c>
     </row>
     <row r="1308" spans="1:2" ht="60">
-      <c r="A1308" s="51" t="s">
+      <c r="A1308" s="50" t="s">
         <v>1813</v>
       </c>
       <c r="B1308" s="14" t="s">
@@ -32519,7 +32579,7 @@
       </c>
     </row>
     <row r="1309" spans="1:2" ht="45">
-      <c r="A1309" s="51" t="s">
+      <c r="A1309" s="50" t="s">
         <v>1814</v>
       </c>
       <c r="B1309" s="14" t="s">
@@ -32535,7 +32595,7 @@
       </c>
     </row>
     <row r="1311" spans="1:2" ht="45">
-      <c r="A1311" s="51" t="s">
+      <c r="A1311" s="50" t="s">
         <v>1816</v>
       </c>
       <c r="B1311" s="3" t="s">
@@ -32543,7 +32603,7 @@
       </c>
     </row>
     <row r="1312" spans="1:2" ht="30">
-      <c r="A1312" s="51" t="s">
+      <c r="A1312" s="50" t="s">
         <v>1817</v>
       </c>
       <c r="B1312" s="14" t="s">
@@ -32551,7 +32611,7 @@
       </c>
     </row>
     <row r="1313" spans="1:2" ht="15">
-      <c r="A1313" s="51" t="s">
+      <c r="A1313" s="50" t="s">
         <v>1818</v>
       </c>
       <c r="B1313" s="14" t="s">
@@ -32567,7 +32627,7 @@
       </c>
     </row>
     <row r="1315" spans="1:2" ht="30">
-      <c r="A1315" s="51" t="s">
+      <c r="A1315" s="50" t="s">
         <v>1820</v>
       </c>
       <c r="B1315" s="14" t="s">
@@ -32575,7 +32635,7 @@
       </c>
     </row>
     <row r="1316" spans="1:2" ht="15">
-      <c r="A1316" s="51" t="s">
+      <c r="A1316" s="50" t="s">
         <v>1821</v>
       </c>
       <c r="B1316" s="14" t="s">
@@ -32583,7 +32643,7 @@
       </c>
     </row>
     <row r="1317" spans="1:2" ht="30">
-      <c r="A1317" s="51" t="s">
+      <c r="A1317" s="50" t="s">
         <v>1822</v>
       </c>
       <c r="B1317" s="14" t="s">
@@ -32591,7 +32651,7 @@
       </c>
     </row>
     <row r="1318" spans="1:2" ht="15">
-      <c r="A1318" s="51" t="s">
+      <c r="A1318" s="50" t="s">
         <v>1823</v>
       </c>
       <c r="B1318" s="14" t="s">
@@ -32791,7 +32851,7 @@
       </c>
     </row>
     <row r="1343" spans="1:2" ht="45">
-      <c r="A1343" s="51" t="s">
+      <c r="A1343" s="50" t="s">
         <v>1848</v>
       </c>
       <c r="B1343" s="14" t="s">
@@ -32799,7 +32859,7 @@
       </c>
     </row>
     <row r="1344" spans="1:2" ht="30">
-      <c r="A1344" s="51" t="s">
+      <c r="A1344" s="50" t="s">
         <v>1850</v>
       </c>
       <c r="B1344" s="3" t="s">
@@ -32807,7 +32867,7 @@
       </c>
     </row>
     <row r="1345" spans="1:2" ht="15">
-      <c r="A1345" s="51" t="s">
+      <c r="A1345" s="50" t="s">
         <v>1851</v>
       </c>
       <c r="B1345" s="14" t="s">
@@ -32815,7 +32875,7 @@
       </c>
     </row>
     <row r="1346" spans="1:2" ht="15">
-      <c r="A1346" s="51" t="s">
+      <c r="A1346" s="50" t="s">
         <v>1849</v>
       </c>
       <c r="B1346" s="14" t="s">
@@ -32831,7 +32891,7 @@
       </c>
     </row>
     <row r="1348" spans="1:2" ht="45">
-      <c r="A1348" s="51" t="s">
+      <c r="A1348" s="50" t="s">
         <v>1853</v>
       </c>
       <c r="B1348" s="14" t="s">
@@ -32839,7 +32899,7 @@
       </c>
     </row>
     <row r="1349" spans="1:2" ht="30">
-      <c r="A1349" s="51" t="s">
+      <c r="A1349" s="50" t="s">
         <v>1854</v>
       </c>
       <c r="B1349" s="3" t="s">
@@ -32847,7 +32907,7 @@
       </c>
     </row>
     <row r="1350" spans="1:2" ht="60">
-      <c r="A1350" s="51" t="s">
+      <c r="A1350" s="50" t="s">
         <v>1855</v>
       </c>
       <c r="B1350" s="14" t="s">
@@ -33023,7 +33083,7 @@
       </c>
     </row>
     <row r="1372" spans="1:2" ht="30">
-      <c r="A1372" s="51" t="s">
+      <c r="A1372" s="50" t="s">
         <v>1877</v>
       </c>
       <c r="B1372" s="14" t="s">
@@ -33031,7 +33091,7 @@
       </c>
     </row>
     <row r="1373" spans="1:2" ht="30">
-      <c r="A1373" s="51" t="s">
+      <c r="A1373" s="50" t="s">
         <v>1878</v>
       </c>
       <c r="B1373" s="3" t="s">
@@ -33039,7 +33099,7 @@
       </c>
     </row>
     <row r="1374" spans="1:2" ht="30">
-      <c r="A1374" s="51" t="s">
+      <c r="A1374" s="50" t="s">
         <v>1879</v>
       </c>
       <c r="B1374" s="14" t="s">
@@ -33047,7 +33107,7 @@
       </c>
     </row>
     <row r="1375" spans="1:2" ht="45">
-      <c r="A1375" s="51" t="s">
+      <c r="A1375" s="50" t="s">
         <v>1880</v>
       </c>
       <c r="B1375" s="14" t="s">
@@ -33055,7 +33115,7 @@
       </c>
     </row>
     <row r="1376" spans="1:2" ht="60">
-      <c r="A1376" s="51" t="s">
+      <c r="A1376" s="50" t="s">
         <v>1881</v>
       </c>
       <c r="B1376" s="14" t="s">
@@ -33063,7 +33123,7 @@
       </c>
     </row>
     <row r="1377" spans="1:2" ht="30">
-      <c r="A1377" s="51" t="s">
+      <c r="A1377" s="50" t="s">
         <v>1882</v>
       </c>
       <c r="B1377" s="14" t="s">
@@ -33375,7 +33435,7 @@
       </c>
     </row>
     <row r="1416" spans="1:3" ht="26.4">
-      <c r="A1416" s="48" t="s">
+      <c r="A1416" s="47" t="s">
         <v>1921</v>
       </c>
       <c r="B1416" s="3" t="s">
@@ -33391,7 +33451,7 @@
       </c>
     </row>
     <row r="1418" spans="1:3" ht="26.4">
-      <c r="A1418" s="48" t="s">
+      <c r="A1418" s="47" t="s">
         <v>1923</v>
       </c>
       <c r="B1418" s="3" t="s">
@@ -33431,7 +33491,7 @@
       </c>
     </row>
     <row r="1423" spans="1:3" ht="81.599999999999994">
-      <c r="A1423" s="52" t="s">
+      <c r="A1423" s="51" t="s">
         <v>1928</v>
       </c>
       <c r="B1423" s="14" t="s">
@@ -33471,7 +33531,7 @@
       </c>
     </row>
     <row r="1428" spans="1:2" ht="26.4">
-      <c r="A1428" s="48" t="s">
+      <c r="A1428" s="47" t="s">
         <v>1933</v>
       </c>
       <c r="B1428" s="3" t="s">
@@ -33487,7 +33547,7 @@
       </c>
     </row>
     <row r="1430" spans="1:2" ht="26.4">
-      <c r="A1430" s="48" t="s">
+      <c r="A1430" s="47" t="s">
         <v>1935</v>
       </c>
       <c r="B1430" s="3" t="s">
@@ -33511,7 +33571,7 @@
       </c>
     </row>
     <row r="1433" spans="1:2" ht="26.4">
-      <c r="A1433" s="48" t="s">
+      <c r="A1433" s="47" t="s">
         <v>1938</v>
       </c>
       <c r="B1433" s="14" t="s">
@@ -33519,7 +33579,7 @@
       </c>
     </row>
     <row r="1434" spans="1:2" ht="26.4">
-      <c r="A1434" s="48" t="s">
+      <c r="A1434" s="47" t="s">
         <v>1939</v>
       </c>
       <c r="B1434" s="14" t="s">
@@ -33527,7 +33587,7 @@
       </c>
     </row>
     <row r="1435" spans="1:2" ht="26.4">
-      <c r="A1435" s="48" t="s">
+      <c r="A1435" s="47" t="s">
         <v>1940</v>
       </c>
       <c r="B1435" s="3" t="s">
@@ -33535,7 +33595,7 @@
       </c>
     </row>
     <row r="1436" spans="1:2" ht="39.6">
-      <c r="A1436" s="48" t="s">
+      <c r="A1436" s="47" t="s">
         <v>1941</v>
       </c>
       <c r="B1436" s="14" t="s">
@@ -33543,7 +33603,7 @@
       </c>
     </row>
     <row r="1437" spans="1:2">
-      <c r="A1437" s="48" t="s">
+      <c r="A1437" s="47" t="s">
         <v>1942</v>
       </c>
       <c r="B1437" s="3" t="s">
@@ -33559,7 +33619,7 @@
       </c>
     </row>
     <row r="1439" spans="1:2" ht="39.6">
-      <c r="A1439" s="48" t="s">
+      <c r="A1439" s="47" t="s">
         <v>1944</v>
       </c>
       <c r="B1439" s="3" t="s">
@@ -33567,7 +33627,7 @@
       </c>
     </row>
     <row r="1440" spans="1:2" ht="81.599999999999994">
-      <c r="A1440" s="52" t="s">
+      <c r="A1440" s="51" t="s">
         <v>1945</v>
       </c>
       <c r="B1440" s="14" t="s">
@@ -33599,7 +33659,7 @@
       </c>
     </row>
     <row r="1444" spans="1:2" ht="26.4">
-      <c r="A1444" s="48" t="s">
+      <c r="A1444" s="47" t="s">
         <v>1949</v>
       </c>
       <c r="B1444" s="3" t="s">
@@ -33607,7 +33667,7 @@
       </c>
     </row>
     <row r="1445" spans="1:2" ht="26.4">
-      <c r="A1445" s="50" t="s">
+      <c r="A1445" s="49" t="s">
         <v>1950</v>
       </c>
       <c r="B1445" s="3" t="s">
@@ -33623,7 +33683,7 @@
       </c>
     </row>
     <row r="1447" spans="1:2" ht="26.4">
-      <c r="A1447" s="48" t="s">
+      <c r="A1447" s="47" t="s">
         <v>1952</v>
       </c>
       <c r="B1447" s="3" t="s">
@@ -33639,7 +33699,7 @@
       </c>
     </row>
     <row r="1449" spans="1:2" ht="26.4">
-      <c r="A1449" s="48" t="s">
+      <c r="A1449" s="47" t="s">
         <v>1954</v>
       </c>
       <c r="B1449" s="14" t="s">
@@ -33655,7 +33715,7 @@
       </c>
     </row>
     <row r="1451" spans="1:2" ht="26.4">
-      <c r="A1451" s="50" t="s">
+      <c r="A1451" s="49" t="s">
         <v>1956</v>
       </c>
       <c r="B1451" s="14" t="s">
@@ -33671,7 +33731,7 @@
       </c>
     </row>
     <row r="1453" spans="1:2" ht="26.4">
-      <c r="A1453" s="48" t="s">
+      <c r="A1453" s="47" t="s">
         <v>1958</v>
       </c>
       <c r="B1453" s="14" t="s">
@@ -33695,7 +33755,7 @@
       </c>
     </row>
     <row r="1456" spans="1:2" ht="26.4">
-      <c r="A1456" s="48" t="s">
+      <c r="A1456" s="47" t="s">
         <v>1961</v>
       </c>
       <c r="B1456" s="14" t="s">
@@ -33703,7 +33763,7 @@
       </c>
     </row>
     <row r="1457" spans="1:2" ht="39.6">
-      <c r="A1457" s="48" t="s">
+      <c r="A1457" s="47" t="s">
         <v>1962</v>
       </c>
       <c r="B1457" s="14" t="s">
@@ -33727,7 +33787,7 @@
       </c>
     </row>
     <row r="1460" spans="1:2">
-      <c r="A1460" s="47" t="s">
+      <c r="A1460" s="46" t="s">
         <v>1965</v>
       </c>
       <c r="B1460" s="14" t="s">
@@ -33743,7 +33803,7 @@
       </c>
     </row>
     <row r="1462" spans="1:2">
-      <c r="A1462" s="47" t="s">
+      <c r="A1462" s="46" t="s">
         <v>1967</v>
       </c>
       <c r="B1462" s="14" t="s">
@@ -33759,7 +33819,7 @@
       </c>
     </row>
     <row r="1464" spans="1:2">
-      <c r="A1464" s="47" t="s">
+      <c r="A1464" s="46" t="s">
         <v>1969</v>
       </c>
       <c r="B1464" s="14" t="s">
@@ -33767,7 +33827,7 @@
       </c>
     </row>
     <row r="1465" spans="1:2">
-      <c r="A1465" s="47" t="s">
+      <c r="A1465" s="46" t="s">
         <v>1970</v>
       </c>
       <c r="B1465" s="14" t="s">
@@ -33775,7 +33835,7 @@
       </c>
     </row>
     <row r="1466" spans="1:2">
-      <c r="A1466" s="47" t="s">
+      <c r="A1466" s="46" t="s">
         <v>1971</v>
       </c>
       <c r="B1466" s="3" t="s">
@@ -33783,7 +33843,7 @@
       </c>
     </row>
     <row r="1467" spans="1:2" ht="20.399999999999999">
-      <c r="A1467" s="49" t="s">
+      <c r="A1467" s="48" t="s">
         <v>1972</v>
       </c>
       <c r="B1467" s="3" t="s">
@@ -33791,7 +33851,7 @@
       </c>
     </row>
     <row r="1468" spans="1:2">
-      <c r="A1468" s="47" t="s">
+      <c r="A1468" s="46" t="s">
         <v>1973</v>
       </c>
       <c r="B1468" s="14" t="s">
@@ -33799,7 +33859,7 @@
       </c>
     </row>
     <row r="1469" spans="1:2">
-      <c r="A1469" s="47" t="s">
+      <c r="A1469" s="46" t="s">
         <v>1974</v>
       </c>
       <c r="B1469" s="14" t="s">
@@ -33807,7 +33867,7 @@
       </c>
     </row>
     <row r="1470" spans="1:2">
-      <c r="A1470" s="47" t="s">
+      <c r="A1470" s="46" t="s">
         <v>1975</v>
       </c>
       <c r="B1470" s="14" t="s">
@@ -33815,7 +33875,7 @@
       </c>
     </row>
     <row r="1471" spans="1:2">
-      <c r="A1471" s="47" t="s">
+      <c r="A1471" s="46" t="s">
         <v>1976</v>
       </c>
       <c r="B1471" s="14" t="s">
@@ -33831,7 +33891,7 @@
       </c>
     </row>
     <row r="1473" spans="1:2">
-      <c r="A1473" s="47" t="s">
+      <c r="A1473" s="46" t="s">
         <v>1978</v>
       </c>
       <c r="B1473" s="14" t="s">
@@ -33839,7 +33899,7 @@
       </c>
     </row>
     <row r="1474" spans="1:2">
-      <c r="A1474" s="47" t="s">
+      <c r="A1474" s="46" t="s">
         <v>1979</v>
       </c>
       <c r="B1474" s="14" t="s">
@@ -33847,7 +33907,7 @@
       </c>
     </row>
     <row r="1475" spans="1:2">
-      <c r="A1475" s="47" t="s">
+      <c r="A1475" s="46" t="s">
         <v>1980</v>
       </c>
       <c r="B1475" s="14" t="s">
@@ -33871,7 +33931,7 @@
       </c>
     </row>
     <row r="1478" spans="1:2">
-      <c r="A1478" s="47" t="s">
+      <c r="A1478" s="46" t="s">
         <v>1982</v>
       </c>
       <c r="B1478" s="14" t="s">
@@ -33879,7 +33939,7 @@
       </c>
     </row>
     <row r="1479" spans="1:2">
-      <c r="A1479" s="47" t="s">
+      <c r="A1479" s="46" t="s">
         <v>1984</v>
       </c>
       <c r="B1479" s="3" t="s">
@@ -33895,7 +33955,7 @@
       </c>
     </row>
     <row r="1481" spans="1:2">
-      <c r="A1481" s="47" t="s">
+      <c r="A1481" s="46" t="s">
         <v>1986</v>
       </c>
       <c r="B1481" s="14" t="s">
@@ -33903,7 +33963,7 @@
       </c>
     </row>
     <row r="1482" spans="1:2">
-      <c r="A1482" s="47" t="s">
+      <c r="A1482" s="46" t="s">
         <v>1987</v>
       </c>
       <c r="B1482" s="14" t="s">
@@ -33911,7 +33971,7 @@
       </c>
     </row>
     <row r="1483" spans="1:2">
-      <c r="A1483" s="47" t="s">
+      <c r="A1483" s="46" t="s">
         <v>1988</v>
       </c>
       <c r="B1483" s="14" t="s">
@@ -33919,12 +33979,12 @@
       </c>
     </row>
     <row r="1484" spans="1:2">
-      <c r="A1484" s="47" t="s">
+      <c r="A1484" s="46" t="s">
         <v>1989</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
-      <c r="A1485" s="47" t="s">
+      <c r="A1485" s="46" t="s">
         <v>1990</v>
       </c>
       <c r="B1485" s="3" t="s">
@@ -33932,7 +33992,7 @@
       </c>
     </row>
     <row r="1486" spans="1:2">
-      <c r="A1486" s="47" t="s">
+      <c r="A1486" s="46" t="s">
         <v>1991</v>
       </c>
       <c r="B1486" s="3" t="s">
@@ -33940,7 +34000,7 @@
       </c>
     </row>
     <row r="1487" spans="1:2">
-      <c r="A1487" s="47" t="s">
+      <c r="A1487" s="46" t="s">
         <v>1992</v>
       </c>
       <c r="B1487" s="3" t="s">
@@ -33956,7 +34016,7 @@
       </c>
     </row>
     <row r="1489" spans="1:2">
-      <c r="A1489" s="47" t="s">
+      <c r="A1489" s="46" t="s">
         <v>1994</v>
       </c>
       <c r="B1489" s="14" t="s">
@@ -33972,7 +34032,7 @@
       </c>
     </row>
     <row r="1491" spans="1:2">
-      <c r="A1491" s="47" t="s">
+      <c r="A1491" s="46" t="s">
         <v>1996</v>
       </c>
       <c r="B1491" s="14" t="s">
@@ -33980,7 +34040,7 @@
       </c>
     </row>
     <row r="1492" spans="1:2">
-      <c r="A1492" s="47" t="s">
+      <c r="A1492" s="46" t="s">
         <v>1997</v>
       </c>
       <c r="B1492" s="14" t="s">
@@ -33996,7 +34056,7 @@
       </c>
     </row>
     <row r="1494" spans="1:2">
-      <c r="A1494" s="47" t="s">
+      <c r="A1494" s="46" t="s">
         <v>1999</v>
       </c>
       <c r="B1494" s="3" t="s">
@@ -34004,7 +34064,7 @@
       </c>
     </row>
     <row r="1495" spans="1:2">
-      <c r="A1495" s="47" t="s">
+      <c r="A1495" s="46" t="s">
         <v>2000</v>
       </c>
       <c r="B1495" s="3" t="s">
@@ -34012,7 +34072,7 @@
       </c>
     </row>
     <row r="1496" spans="1:2">
-      <c r="A1496" s="47" t="s">
+      <c r="A1496" s="46" t="s">
         <v>2001</v>
       </c>
       <c r="B1496" s="14" t="s">
@@ -34020,7 +34080,7 @@
       </c>
     </row>
     <row r="1497" spans="1:2">
-      <c r="A1497" s="47" t="s">
+      <c r="A1497" s="46" t="s">
         <v>2002</v>
       </c>
       <c r="B1497" s="14" t="s">
@@ -34028,7 +34088,7 @@
       </c>
     </row>
     <row r="1498" spans="1:2">
-      <c r="A1498" s="47" t="s">
+      <c r="A1498" s="46" t="s">
         <v>2003</v>
       </c>
       <c r="B1498" s="14" t="s">
@@ -34044,7 +34104,7 @@
       </c>
     </row>
     <row r="1500" spans="1:2">
-      <c r="A1500" s="47" t="s">
+      <c r="A1500" s="46" t="s">
         <v>2005</v>
       </c>
       <c r="B1500" s="14" t="s">
@@ -34052,7 +34112,7 @@
       </c>
     </row>
     <row r="1501" spans="1:2">
-      <c r="A1501" s="47" t="s">
+      <c r="A1501" s="46" t="s">
         <v>2006</v>
       </c>
       <c r="B1501" s="3" t="s">
@@ -34060,7 +34120,7 @@
       </c>
     </row>
     <row r="1502" spans="1:2">
-      <c r="A1502" s="47" t="s">
+      <c r="A1502" s="46" t="s">
         <v>2007</v>
       </c>
       <c r="B1502" s="14" t="s">
@@ -34068,7 +34128,7 @@
       </c>
     </row>
     <row r="1503" spans="1:2">
-      <c r="A1503" s="47" t="s">
+      <c r="A1503" s="46" t="s">
         <v>2008</v>
       </c>
       <c r="B1503" s="3" t="s">
@@ -34084,7 +34144,7 @@
       </c>
     </row>
     <row r="1505" spans="1:2">
-      <c r="A1505" s="47" t="s">
+      <c r="A1505" s="46" t="s">
         <v>2010</v>
       </c>
       <c r="B1505" s="3" t="s">
@@ -34092,7 +34152,7 @@
       </c>
     </row>
     <row r="1506" spans="1:2">
-      <c r="A1506" s="47" t="s">
+      <c r="A1506" s="46" t="s">
         <v>2011</v>
       </c>
       <c r="B1506" s="3" t="s">
@@ -34108,7 +34168,7 @@
       </c>
     </row>
     <row r="1508" spans="1:2">
-      <c r="A1508" s="47" t="s">
+      <c r="A1508" s="46" t="s">
         <v>2013</v>
       </c>
       <c r="B1508" s="3" t="s">
@@ -34116,7 +34176,7 @@
       </c>
     </row>
     <row r="1509" spans="1:2">
-      <c r="A1509" s="47" t="s">
+      <c r="A1509" s="46" t="s">
         <v>2014</v>
       </c>
       <c r="B1509" s="3" t="s">
@@ -34124,7 +34184,7 @@
       </c>
     </row>
     <row r="1510" spans="1:2">
-      <c r="A1510" s="47" t="s">
+      <c r="A1510" s="46" t="s">
         <v>2015</v>
       </c>
       <c r="B1510" s="3" t="s">
@@ -34132,7 +34192,7 @@
       </c>
     </row>
     <row r="1511" spans="1:2">
-      <c r="A1511" s="47" t="s">
+      <c r="A1511" s="46" t="s">
         <v>2016</v>
       </c>
       <c r="B1511" s="3" t="s">
@@ -34140,7 +34200,7 @@
       </c>
     </row>
     <row r="1512" spans="1:2">
-      <c r="A1512" s="47" t="s">
+      <c r="A1512" s="46" t="s">
         <v>2017</v>
       </c>
       <c r="B1512" s="3" t="s">
@@ -34156,7 +34216,7 @@
       </c>
     </row>
     <row r="1514" spans="1:2" ht="20.399999999999999">
-      <c r="A1514" s="49" t="s">
+      <c r="A1514" s="48" t="s">
         <v>2019</v>
       </c>
       <c r="B1514" s="3" t="s">
@@ -34164,7 +34224,7 @@
       </c>
     </row>
     <row r="1515" spans="1:2">
-      <c r="A1515" s="47" t="s">
+      <c r="A1515" s="46" t="s">
         <v>2020</v>
       </c>
       <c r="B1515" s="3" t="s">
@@ -34172,7 +34232,7 @@
       </c>
     </row>
     <row r="1516" spans="1:2">
-      <c r="A1516" s="47" t="s">
+      <c r="A1516" s="46" t="s">
         <v>2022</v>
       </c>
       <c r="B1516" s="3" t="s">
@@ -34180,7 +34240,7 @@
       </c>
     </row>
     <row r="1517" spans="1:2">
-      <c r="A1517" s="47" t="s">
+      <c r="A1517" s="46" t="s">
         <v>2023</v>
       </c>
       <c r="B1517" s="3" t="s">
@@ -34188,7 +34248,7 @@
       </c>
     </row>
     <row r="1518" spans="1:2">
-      <c r="A1518" s="47" t="s">
+      <c r="A1518" s="46" t="s">
         <v>2024</v>
       </c>
       <c r="B1518" s="3" t="s">
@@ -34204,7 +34264,7 @@
       </c>
     </row>
     <row r="1520" spans="1:2" s="8" customFormat="1">
-      <c r="A1520" s="47" t="s">
+      <c r="A1520" s="46" t="s">
         <v>2026</v>
       </c>
       <c r="B1520" s="14" t="s">
@@ -34212,7 +34272,7 @@
       </c>
     </row>
     <row r="1521" spans="1:2">
-      <c r="A1521" s="47" t="s">
+      <c r="A1521" s="46" t="s">
         <v>2027</v>
       </c>
       <c r="B1521" s="3" t="s">
@@ -34220,7 +34280,7 @@
       </c>
     </row>
     <row r="1522" spans="1:2">
-      <c r="A1522" s="47" t="s">
+      <c r="A1522" s="46" t="s">
         <v>2028</v>
       </c>
       <c r="B1522" s="3" t="s">
@@ -34228,7 +34288,7 @@
       </c>
     </row>
     <row r="1523" spans="1:2">
-      <c r="A1523" s="47" t="s">
+      <c r="A1523" s="46" t="s">
         <v>2029</v>
       </c>
       <c r="B1523" s="3" t="s">
@@ -34244,7 +34304,7 @@
       </c>
     </row>
     <row r="1525" spans="1:2">
-      <c r="A1525" s="47" t="s">
+      <c r="A1525" s="46" t="s">
         <v>2031</v>
       </c>
       <c r="B1525" s="3" t="s">
@@ -34252,7 +34312,7 @@
       </c>
     </row>
     <row r="1526" spans="1:2">
-      <c r="A1526" s="47" t="s">
+      <c r="A1526" s="46" t="s">
         <v>2032</v>
       </c>
       <c r="B1526" s="3" t="s">
@@ -34260,7 +34320,7 @@
       </c>
     </row>
     <row r="1527" spans="1:2">
-      <c r="A1527" s="47" t="s">
+      <c r="A1527" s="46" t="s">
         <v>2033</v>
       </c>
       <c r="B1527" s="3" t="s">
@@ -34268,7 +34328,7 @@
       </c>
     </row>
     <row r="1528" spans="1:2">
-      <c r="A1528" s="47" t="s">
+      <c r="A1528" s="46" t="s">
         <v>2034</v>
       </c>
       <c r="B1528" s="3" t="s">
@@ -34276,7 +34336,7 @@
       </c>
     </row>
     <row r="1529" spans="1:2">
-      <c r="A1529" s="47" t="s">
+      <c r="A1529" s="46" t="s">
         <v>2035</v>
       </c>
       <c r="B1529" s="3" t="s">
@@ -34292,7 +34352,7 @@
       </c>
     </row>
     <row r="1531" spans="1:2" ht="20.399999999999999">
-      <c r="A1531" s="49" t="s">
+      <c r="A1531" s="48" t="s">
         <v>2037</v>
       </c>
       <c r="B1531" s="3" t="s">
@@ -34308,7 +34368,7 @@
       </c>
     </row>
     <row r="1533" spans="1:2">
-      <c r="A1533" s="47" t="s">
+      <c r="A1533" s="46" t="s">
         <v>2039</v>
       </c>
       <c r="B1533" s="3" t="s">
@@ -34316,7 +34376,7 @@
       </c>
     </row>
     <row r="1534" spans="1:2" ht="20.399999999999999">
-      <c r="A1534" s="49" t="s">
+      <c r="A1534" s="48" t="s">
         <v>2040</v>
       </c>
       <c r="B1534" s="3" t="s">
@@ -34332,7 +34392,7 @@
       </c>
     </row>
     <row r="1536" spans="1:2">
-      <c r="A1536" s="47" t="s">
+      <c r="A1536" s="46" t="s">
         <v>2042</v>
       </c>
       <c r="B1536" s="3" t="s">
@@ -34340,7 +34400,7 @@
       </c>
     </row>
     <row r="1537" spans="1:2">
-      <c r="A1537" s="47" t="s">
+      <c r="A1537" s="46" t="s">
         <v>2043</v>
       </c>
       <c r="B1537" s="3" t="s">
@@ -34348,7 +34408,7 @@
       </c>
     </row>
     <row r="1538" spans="1:2">
-      <c r="A1538" s="47" t="s">
+      <c r="A1538" s="46" t="s">
         <v>2044</v>
       </c>
       <c r="B1538" s="3" t="s">
@@ -34356,7 +34416,7 @@
       </c>
     </row>
     <row r="1539" spans="1:2">
-      <c r="A1539" s="47" t="s">
+      <c r="A1539" s="46" t="s">
         <v>2045</v>
       </c>
       <c r="B1539" s="3" t="s">
@@ -34372,7 +34432,7 @@
       </c>
     </row>
     <row r="1541" spans="1:2">
-      <c r="A1541" s="47" t="s">
+      <c r="A1541" s="46" t="s">
         <v>2047</v>
       </c>
       <c r="B1541" s="14" t="s">
@@ -34388,7 +34448,7 @@
       </c>
     </row>
     <row r="1543" spans="1:2">
-      <c r="A1543" s="47" t="s">
+      <c r="A1543" s="46" t="s">
         <v>2049</v>
       </c>
       <c r="B1543" s="3" t="s">
@@ -34404,7 +34464,7 @@
       </c>
     </row>
     <row r="1545" spans="1:2">
-      <c r="A1545" s="47" t="s">
+      <c r="A1545" s="46" t="s">
         <v>2051</v>
       </c>
       <c r="B1545" s="14" t="s">
@@ -34420,7 +34480,7 @@
       </c>
     </row>
     <row r="1547" spans="1:2">
-      <c r="A1547" s="47" t="s">
+      <c r="A1547" s="46" t="s">
         <v>2053</v>
       </c>
       <c r="B1547" s="3" t="s">
@@ -34428,7 +34488,7 @@
       </c>
     </row>
     <row r="1548" spans="1:2">
-      <c r="A1548" s="47" t="s">
+      <c r="A1548" s="46" t="s">
         <v>2054</v>
       </c>
       <c r="B1548" s="3" t="s">
@@ -34444,7 +34504,7 @@
       </c>
     </row>
     <row r="1550" spans="1:2">
-      <c r="A1550" s="47" t="s">
+      <c r="A1550" s="46" t="s">
         <v>2056</v>
       </c>
       <c r="B1550" s="3" t="s">
@@ -34460,7 +34520,7 @@
       </c>
     </row>
     <row r="1552" spans="1:2">
-      <c r="A1552" s="47" t="s">
+      <c r="A1552" s="46" t="s">
         <v>2058</v>
       </c>
       <c r="B1552" s="3" t="s">
@@ -34476,7 +34536,7 @@
       </c>
     </row>
     <row r="1554" spans="1:2">
-      <c r="A1554" s="47" t="s">
+      <c r="A1554" s="46" t="s">
         <v>2060</v>
       </c>
       <c r="B1554" s="3" t="s">
@@ -34492,7 +34552,7 @@
       </c>
     </row>
     <row r="1556" spans="1:2">
-      <c r="A1556" s="47" t="s">
+      <c r="A1556" s="46" t="s">
         <v>2062</v>
       </c>
       <c r="B1556" s="3" t="s">
@@ -34500,7 +34560,7 @@
       </c>
     </row>
     <row r="1557" spans="1:2">
-      <c r="A1557" s="47" t="s">
+      <c r="A1557" s="46" t="s">
         <v>2063</v>
       </c>
       <c r="B1557" s="3" t="s">
@@ -34508,7 +34568,7 @@
       </c>
     </row>
     <row r="1558" spans="1:2">
-      <c r="A1558" s="47" t="s">
+      <c r="A1558" s="46" t="s">
         <v>2064</v>
       </c>
       <c r="B1558" s="3" t="s">
@@ -34524,7 +34584,7 @@
       </c>
     </row>
     <row r="1560" spans="1:2">
-      <c r="A1560" s="47" t="s">
+      <c r="A1560" s="46" t="s">
         <v>2066</v>
       </c>
       <c r="B1560" s="3" t="s">
@@ -34540,7 +34600,7 @@
       </c>
     </row>
     <row r="1562" spans="1:2">
-      <c r="A1562" s="47" t="s">
+      <c r="A1562" s="46" t="s">
         <v>2068</v>
       </c>
       <c r="B1562" s="3" t="s">
@@ -34548,7 +34608,7 @@
       </c>
     </row>
     <row r="1563" spans="1:2">
-      <c r="A1563" s="47" t="s">
+      <c r="A1563" s="46" t="s">
         <v>2069</v>
       </c>
       <c r="B1563" s="3" t="s">
@@ -34556,7 +34616,7 @@
       </c>
     </row>
     <row r="1564" spans="1:2">
-      <c r="A1564" s="47" t="s">
+      <c r="A1564" s="46" t="s">
         <v>2070</v>
       </c>
       <c r="B1564" s="3" t="s">
@@ -34564,7 +34624,7 @@
       </c>
     </row>
     <row r="1565" spans="1:2">
-      <c r="A1565" s="47" t="s">
+      <c r="A1565" s="46" t="s">
         <v>2071</v>
       </c>
       <c r="B1565" s="3" t="s">
@@ -34572,7 +34632,7 @@
       </c>
     </row>
     <row r="1566" spans="1:2">
-      <c r="A1566" s="47" t="s">
+      <c r="A1566" s="46" t="s">
         <v>2072</v>
       </c>
       <c r="B1566" s="3" t="s">
@@ -34588,7 +34648,7 @@
       </c>
     </row>
     <row r="1568" spans="1:2">
-      <c r="A1568" s="47" t="s">
+      <c r="A1568" s="46" t="s">
         <v>2074</v>
       </c>
       <c r="B1568" s="3" t="s">
@@ -34604,7 +34664,7 @@
       </c>
     </row>
     <row r="1570" spans="1:2">
-      <c r="A1570" s="47" t="s">
+      <c r="A1570" s="46" t="s">
         <v>2076</v>
       </c>
       <c r="B1570" s="3" t="s">
@@ -34620,7 +34680,7 @@
       </c>
     </row>
     <row r="1572" spans="1:2">
-      <c r="A1572" s="47" t="s">
+      <c r="A1572" s="46" t="s">
         <v>2077</v>
       </c>
       <c r="B1572" s="3" t="s">
@@ -34636,7 +34696,7 @@
       </c>
     </row>
     <row r="1574" spans="1:2">
-      <c r="A1574" s="47" t="s">
+      <c r="A1574" s="46" t="s">
         <v>2079</v>
       </c>
       <c r="B1574" s="3" t="s">
@@ -34652,7 +34712,7 @@
       </c>
     </row>
     <row r="1576" spans="1:2">
-      <c r="A1576" s="47" t="s">
+      <c r="A1576" s="46" t="s">
         <v>2081</v>
       </c>
       <c r="B1576" s="3" t="s">
@@ -34660,7 +34720,7 @@
       </c>
     </row>
     <row r="1577" spans="1:2">
-      <c r="A1577" s="47" t="s">
+      <c r="A1577" s="46" t="s">
         <v>2082</v>
       </c>
       <c r="B1577" s="3" t="s">
@@ -34676,7 +34736,7 @@
       </c>
     </row>
     <row r="1579" spans="1:2">
-      <c r="A1579" s="47" t="s">
+      <c r="A1579" s="46" t="s">
         <v>2084</v>
       </c>
       <c r="B1579" s="3" t="s">
@@ -34684,7 +34744,7 @@
       </c>
     </row>
     <row r="1580" spans="1:2">
-      <c r="A1580" s="47" t="s">
+      <c r="A1580" s="46" t="s">
         <v>2085</v>
       </c>
       <c r="B1580" s="3" t="s">
@@ -34692,7 +34752,7 @@
       </c>
     </row>
     <row r="1581" spans="1:2">
-      <c r="A1581" s="47" t="s">
+      <c r="A1581" s="46" t="s">
         <v>2086</v>
       </c>
       <c r="B1581" s="3" t="s">
@@ -34708,7 +34768,7 @@
       </c>
     </row>
     <row r="1583" spans="1:2">
-      <c r="A1583" s="47" t="s">
+      <c r="A1583" s="46" t="s">
         <v>2088</v>
       </c>
       <c r="B1583" s="3" t="s">
@@ -34716,7 +34776,7 @@
       </c>
     </row>
     <row r="1584" spans="1:2">
-      <c r="A1584" s="47" t="s">
+      <c r="A1584" s="46" t="s">
         <v>2089</v>
       </c>
       <c r="B1584" s="3" t="s">
@@ -34724,7 +34784,7 @@
       </c>
     </row>
     <row r="1585" spans="1:2">
-      <c r="A1585" s="47" t="s">
+      <c r="A1585" s="46" t="s">
         <v>2090</v>
       </c>
       <c r="B1585" s="3" t="s">
@@ -34732,7 +34792,7 @@
       </c>
     </row>
     <row r="1586" spans="1:2">
-      <c r="A1586" s="47" t="s">
+      <c r="A1586" s="46" t="s">
         <v>2091</v>
       </c>
       <c r="B1586" s="3" t="s">
@@ -34740,7 +34800,7 @@
       </c>
     </row>
     <row r="1587" spans="1:2">
-      <c r="A1587" s="47" t="s">
+      <c r="A1587" s="46" t="s">
         <v>2092</v>
       </c>
       <c r="B1587" s="3" t="s">
@@ -34756,7 +34816,7 @@
       </c>
     </row>
     <row r="1589" spans="1:2">
-      <c r="A1589" s="47" t="s">
+      <c r="A1589" s="46" t="s">
         <v>2094</v>
       </c>
       <c r="B1589" s="3" t="s">
@@ -34764,7 +34824,7 @@
       </c>
     </row>
     <row r="1590" spans="1:2" ht="20.399999999999999">
-      <c r="A1590" s="49" t="s">
+      <c r="A1590" s="48" t="s">
         <v>2095</v>
       </c>
       <c r="B1590" s="3" t="s">
@@ -34772,7 +34832,7 @@
       </c>
     </row>
     <row r="1591" spans="1:2">
-      <c r="A1591" s="47" t="s">
+      <c r="A1591" s="46" t="s">
         <v>2096</v>
       </c>
       <c r="B1591" s="3" t="s">
@@ -34780,7 +34840,7 @@
       </c>
     </row>
     <row r="1592" spans="1:2">
-      <c r="A1592" s="47" t="s">
+      <c r="A1592" s="46" t="s">
         <v>2097</v>
       </c>
       <c r="B1592" s="3" t="s">
@@ -34788,7 +34848,7 @@
       </c>
     </row>
     <row r="1593" spans="1:2">
-      <c r="A1593" s="47" t="s">
+      <c r="A1593" s="46" t="s">
         <v>2098</v>
       </c>
       <c r="B1593" s="3" t="s">
@@ -34796,7 +34856,7 @@
       </c>
     </row>
     <row r="1594" spans="1:2">
-      <c r="A1594" s="47" t="s">
+      <c r="A1594" s="46" t="s">
         <v>2099</v>
       </c>
       <c r="B1594" s="3" t="s">
@@ -34812,7 +34872,7 @@
       </c>
     </row>
     <row r="1596" spans="1:2">
-      <c r="A1596" s="47" t="s">
+      <c r="A1596" s="46" t="s">
         <v>2101</v>
       </c>
       <c r="B1596" s="3" t="s">
@@ -34820,7 +34880,7 @@
       </c>
     </row>
     <row r="1597" spans="1:2">
-      <c r="A1597" s="47" t="s">
+      <c r="A1597" s="46" t="s">
         <v>2102</v>
       </c>
       <c r="B1597" s="3" t="s">
@@ -34836,7 +34896,7 @@
       </c>
     </row>
     <row r="1599" spans="1:2">
-      <c r="A1599" s="47" t="s">
+      <c r="A1599" s="46" t="s">
         <v>2104</v>
       </c>
       <c r="B1599" s="3" t="s">
@@ -34844,7 +34904,7 @@
       </c>
     </row>
     <row r="1600" spans="1:2">
-      <c r="A1600" s="47" t="s">
+      <c r="A1600" s="46" t="s">
         <v>2105</v>
       </c>
       <c r="B1600" s="3" t="s">
@@ -34852,7 +34912,7 @@
       </c>
     </row>
     <row r="1601" spans="1:2">
-      <c r="A1601" s="47" t="s">
+      <c r="A1601" s="46" t="s">
         <v>2106</v>
       </c>
       <c r="B1601" s="3" t="s">
@@ -34860,7 +34920,7 @@
       </c>
     </row>
     <row r="1602" spans="1:2">
-      <c r="A1602" s="47" t="s">
+      <c r="A1602" s="46" t="s">
         <v>2107</v>
       </c>
       <c r="B1602" s="3" t="s">
@@ -34868,7 +34928,7 @@
       </c>
     </row>
     <row r="1603" spans="1:2">
-      <c r="A1603" s="47" t="s">
+      <c r="A1603" s="46" t="s">
         <v>2108</v>
       </c>
       <c r="B1603" s="3" t="s">
@@ -34876,7 +34936,7 @@
       </c>
     </row>
     <row r="1604" spans="1:2">
-      <c r="A1604" s="47" t="s">
+      <c r="A1604" s="46" t="s">
         <v>2109</v>
       </c>
       <c r="B1604" s="3" t="s">
@@ -34884,7 +34944,7 @@
       </c>
     </row>
     <row r="1605" spans="1:2">
-      <c r="A1605" s="47" t="s">
+      <c r="A1605" s="46" t="s">
         <v>2110</v>
       </c>
       <c r="B1605" s="3" t="s">
@@ -34892,7 +34952,7 @@
       </c>
     </row>
     <row r="1606" spans="1:2">
-      <c r="A1606" s="47" t="s">
+      <c r="A1606" s="46" t="s">
         <v>2111</v>
       </c>
       <c r="B1606" s="3" t="s">
@@ -34900,7 +34960,7 @@
       </c>
     </row>
     <row r="1607" spans="1:2">
-      <c r="A1607" s="47" t="s">
+      <c r="A1607" s="46" t="s">
         <v>2112</v>
       </c>
       <c r="B1607" s="3" t="s">
@@ -34908,7 +34968,7 @@
       </c>
     </row>
     <row r="1608" spans="1:2">
-      <c r="A1608" s="47" t="s">
+      <c r="A1608" s="46" t="s">
         <v>2113</v>
       </c>
       <c r="B1608" s="3" t="s">
@@ -34916,7 +34976,7 @@
       </c>
     </row>
     <row r="1609" spans="1:2">
-      <c r="A1609" s="47" t="s">
+      <c r="A1609" s="46" t="s">
         <v>2114</v>
       </c>
       <c r="B1609" s="3" t="s">
@@ -34924,7 +34984,7 @@
       </c>
     </row>
     <row r="1610" spans="1:2">
-      <c r="A1610" s="47" t="s">
+      <c r="A1610" s="46" t="s">
         <v>2115</v>
       </c>
       <c r="B1610" s="3" t="s">
@@ -34932,7 +34992,7 @@
       </c>
     </row>
     <row r="1611" spans="1:2">
-      <c r="A1611" s="47" t="s">
+      <c r="A1611" s="46" t="s">
         <v>2116</v>
       </c>
       <c r="B1611" s="3" t="s">
@@ -34940,7 +35000,7 @@
       </c>
     </row>
     <row r="1612" spans="1:2">
-      <c r="A1612" s="47" t="s">
+      <c r="A1612" s="46" t="s">
         <v>2117</v>
       </c>
       <c r="B1612" s="3" t="s">
@@ -34948,7 +35008,7 @@
       </c>
     </row>
     <row r="1613" spans="1:2" ht="20.399999999999999">
-      <c r="A1613" s="49" t="s">
+      <c r="A1613" s="48" t="s">
         <v>2118</v>
       </c>
       <c r="B1613" s="14" t="s">
@@ -34956,7 +35016,7 @@
       </c>
     </row>
     <row r="1614" spans="1:2">
-      <c r="A1614" s="47" t="s">
+      <c r="A1614" s="46" t="s">
         <v>2119</v>
       </c>
       <c r="B1614" s="14" t="s">
@@ -34964,7 +35024,7 @@
       </c>
     </row>
     <row r="1615" spans="1:2">
-      <c r="A1615" s="47" t="s">
+      <c r="A1615" s="46" t="s">
         <v>2120</v>
       </c>
       <c r="B1615" s="3" t="s">
@@ -34980,7 +35040,7 @@
       </c>
     </row>
     <row r="1617" spans="1:2">
-      <c r="A1617" s="47" t="s">
+      <c r="A1617" s="46" t="s">
         <v>2122</v>
       </c>
       <c r="B1617" s="3" t="s">
@@ -34988,7 +35048,7 @@
       </c>
     </row>
     <row r="1618" spans="1:2">
-      <c r="A1618" s="47" t="s">
+      <c r="A1618" s="46" t="s">
         <v>2123</v>
       </c>
       <c r="B1618" s="3" t="s">
@@ -35004,7 +35064,7 @@
       </c>
     </row>
     <row r="1620" spans="1:2">
-      <c r="A1620" s="47" t="s">
+      <c r="A1620" s="46" t="s">
         <v>2125</v>
       </c>
       <c r="B1620" s="3" t="s">
@@ -35012,7 +35072,7 @@
       </c>
     </row>
     <row r="1621" spans="1:2">
-      <c r="A1621" s="47" t="s">
+      <c r="A1621" s="46" t="s">
         <v>2126</v>
       </c>
       <c r="B1621" s="3" t="s">
@@ -35020,7 +35080,7 @@
       </c>
     </row>
     <row r="1622" spans="1:2">
-      <c r="A1622" s="47" t="s">
+      <c r="A1622" s="46" t="s">
         <v>2128</v>
       </c>
       <c r="B1622" s="3" t="s">
@@ -35044,7 +35104,7 @@
       </c>
     </row>
     <row r="1625" spans="1:2">
-      <c r="A1625" s="47" t="s">
+      <c r="A1625" s="46" t="s">
         <v>2130</v>
       </c>
       <c r="B1625" s="3" t="s">
@@ -35052,7 +35112,7 @@
       </c>
     </row>
     <row r="1626" spans="1:2">
-      <c r="A1626" s="47" t="s">
+      <c r="A1626" s="46" t="s">
         <v>2131</v>
       </c>
       <c r="B1626" s="14" t="s">
@@ -35060,7 +35120,7 @@
       </c>
     </row>
     <row r="1627" spans="1:2">
-      <c r="A1627" s="47" t="s">
+      <c r="A1627" s="46" t="s">
         <v>2132</v>
       </c>
       <c r="B1627" s="14" t="s">
@@ -35068,7 +35128,7 @@
       </c>
     </row>
     <row r="1628" spans="1:2">
-      <c r="A1628" s="47" t="s">
+      <c r="A1628" s="46" t="s">
         <v>2134</v>
       </c>
       <c r="B1628" s="3" t="s">
@@ -35076,7 +35136,7 @@
       </c>
     </row>
     <row r="1629" spans="1:2">
-      <c r="A1629" s="47" t="s">
+      <c r="A1629" s="46" t="s">
         <v>2133</v>
       </c>
       <c r="B1629" s="3" t="s">
@@ -35084,56 +35144,56 @@
       </c>
     </row>
     <row r="1630" spans="1:2">
-      <c r="A1630" s="47" t="s">
-        <v>2139</v>
+      <c r="A1630" s="46" t="s">
+        <v>2138</v>
       </c>
       <c r="B1630" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1631" spans="1:2" ht="26.4">
-      <c r="A1631" s="50" t="s">
-        <v>2140</v>
+      <c r="A1631" s="49" t="s">
+        <v>2139</v>
       </c>
       <c r="B1631" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
-      <c r="A1632" s="47" t="s">
+      <c r="A1632" s="46" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1632" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2">
+      <c r="A1633" s="46" t="s">
         <v>2141</v>
       </c>
-      <c r="B1632" s="47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:2">
-      <c r="A1633" s="47" t="s">
+      <c r="B1633" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2">
+      <c r="A1634" s="46" t="s">
         <v>2142</v>
       </c>
-      <c r="B1633" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:2">
-      <c r="A1634" s="47" t="s">
+      <c r="B1634" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2">
+      <c r="A1635" s="46" t="s">
         <v>2143</v>
-      </c>
-      <c r="B1634" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:2">
-      <c r="A1635" s="47" t="s">
-        <v>2144</v>
       </c>
       <c r="B1635" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
-      <c r="A1636" s="47" t="s">
-        <v>2145</v>
+      <c r="A1636" s="46" t="s">
+        <v>2144</v>
       </c>
       <c r="B1636" s="3" t="s">
         <v>34</v>
@@ -35141,151 +35201,151 @@
     </row>
     <row r="1637" spans="1:2" ht="28.8">
       <c r="A1637" s="13" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1637" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
-      <c r="A1638" s="47" t="s">
+      <c r="A1638" s="46" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1638" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2">
+      <c r="A1639" s="46" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1638" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2">
-      <c r="A1639" s="47" t="s">
-        <v>2147</v>
       </c>
       <c r="B1639" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
-      <c r="A1640" s="47" t="s">
-        <v>2148</v>
+      <c r="A1640" s="46" t="s">
+        <v>2147</v>
       </c>
       <c r="B1640" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
-      <c r="A1641" s="47" t="s">
+      <c r="A1641" s="46" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1641" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2">
+      <c r="A1642" s="46" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1641" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2">
-      <c r="A1642" s="47" t="s">
-        <v>2151</v>
       </c>
       <c r="B1642" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
-      <c r="A1643" s="47" t="s">
+      <c r="A1643" s="46" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1643" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2">
+      <c r="A1644" s="46" t="s">
         <v>2152</v>
       </c>
-      <c r="B1643" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2">
-      <c r="A1644" s="47" t="s">
+      <c r="B1644" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2">
+      <c r="A1645" s="46" t="s">
         <v>2153</v>
       </c>
-      <c r="B1644" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2">
-      <c r="A1645" s="47" t="s">
+      <c r="B1645" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2">
+      <c r="A1646" s="46" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1645" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2">
-      <c r="A1646" s="47" t="s">
-        <v>2155</v>
       </c>
       <c r="B1646" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
-      <c r="A1647" s="47" t="s">
-        <v>2156</v>
+      <c r="A1647" s="46" t="s">
+        <v>2155</v>
       </c>
       <c r="B1647" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
-      <c r="A1648" s="47" t="s">
-        <v>2157</v>
+      <c r="A1648" s="46" t="s">
+        <v>2156</v>
       </c>
       <c r="B1648" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
-      <c r="A1649" s="47" t="s">
+      <c r="A1649" s="46" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1649" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2">
+      <c r="A1650" s="46" t="s">
         <v>2158</v>
-      </c>
-      <c r="B1649" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:2">
-      <c r="A1650" s="47" t="s">
-        <v>2159</v>
       </c>
       <c r="B1650" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
-      <c r="A1651" s="47" t="s">
-        <v>2160</v>
+      <c r="A1651" s="46" t="s">
+        <v>2159</v>
       </c>
       <c r="B1651" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
-      <c r="A1652" s="47" t="s">
-        <v>2161</v>
+      <c r="A1652" s="46" t="s">
+        <v>2160</v>
       </c>
       <c r="B1652" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
-      <c r="A1653" s="47" t="s">
-        <v>2162</v>
+      <c r="A1653" s="46" t="s">
+        <v>2161</v>
       </c>
       <c r="B1653" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
-      <c r="A1654" s="47" t="s">
-        <v>2163</v>
+      <c r="A1654" s="46" t="s">
+        <v>2162</v>
       </c>
       <c r="B1654" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
-      <c r="A1655" s="47" t="s">
-        <v>2164</v>
+      <c r="A1655" s="46" t="s">
+        <v>2163</v>
       </c>
       <c r="B1655" s="3" t="s">
         <v>8</v>
@@ -35293,87 +35353,87 @@
     </row>
     <row r="1656" spans="1:2">
       <c r="A1656" s="13" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1656" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2">
+      <c r="A1657" s="46" t="s">
         <v>2165</v>
-      </c>
-      <c r="B1656" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2">
-      <c r="A1657" s="47" t="s">
-        <v>2166</v>
       </c>
       <c r="B1657" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1658" spans="1:2" ht="39.6">
-      <c r="A1658" s="50" t="s">
-        <v>2167</v>
+      <c r="A1658" s="49" t="s">
+        <v>2166</v>
       </c>
       <c r="B1658" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
-      <c r="A1659" s="47" t="s">
+      <c r="A1659" s="46" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1659" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2">
+      <c r="A1660" s="46" t="s">
         <v>2168</v>
       </c>
-      <c r="B1659" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2">
-      <c r="A1660" s="47" t="s">
+      <c r="B1660" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2">
+      <c r="A1661" s="46" t="s">
         <v>2169</v>
-      </c>
-      <c r="B1660" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2">
-      <c r="A1661" s="47" t="s">
-        <v>2170</v>
       </c>
       <c r="B1661" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
-      <c r="A1662" s="47" t="s">
-        <v>2171</v>
+      <c r="A1662" s="46" t="s">
+        <v>2170</v>
       </c>
       <c r="B1662" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
-      <c r="A1663" s="47" t="s">
-        <v>2172</v>
+      <c r="A1663" s="46" t="s">
+        <v>2171</v>
       </c>
       <c r="B1663" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
-      <c r="A1664" s="47" t="s">
-        <v>2174</v>
+      <c r="A1664" s="46" t="s">
+        <v>2173</v>
       </c>
       <c r="B1664" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
-      <c r="A1665" s="47" t="s">
-        <v>2173</v>
+      <c r="A1665" s="46" t="s">
+        <v>2172</v>
       </c>
       <c r="B1665" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
-      <c r="A1666" s="47" t="s">
-        <v>2175</v>
+      <c r="A1666" s="46" t="s">
+        <v>2174</v>
       </c>
       <c r="B1666" s="3" t="s">
         <v>8</v>
@@ -35381,7 +35441,7 @@
     </row>
     <row r="1667" spans="1:2" ht="43.2">
       <c r="A1667" s="13" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1667" s="3" t="s">
         <v>34</v>
@@ -35389,111 +35449,111 @@
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668" s="13" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1668" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
-      <c r="A1669" s="47" t="s">
+      <c r="A1669" s="46" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1669" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2">
+      <c r="A1670" s="46" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1670" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2">
+      <c r="A1671" s="46" t="s">
         <v>2179</v>
       </c>
-      <c r="B1669" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:2">
-      <c r="A1670" s="47" t="s">
+      <c r="B1671" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2">
+      <c r="A1672" s="46" t="s">
         <v>2180</v>
-      </c>
-      <c r="B1670" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2">
-      <c r="A1671" s="47" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B1671" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2">
-      <c r="A1672" s="47" t="s">
-        <v>2182</v>
       </c>
       <c r="B1672" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
-      <c r="A1673" s="47" t="s">
-        <v>2183</v>
+      <c r="A1673" s="46" t="s">
+        <v>2181</v>
       </c>
       <c r="B1673" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
-      <c r="A1674" s="47" t="s">
-        <v>2184</v>
+      <c r="A1674" s="46" t="s">
+        <v>2182</v>
       </c>
       <c r="B1674" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
-      <c r="A1675" s="47" t="s">
-        <v>2185</v>
+      <c r="A1675" s="46" t="s">
+        <v>2183</v>
       </c>
       <c r="B1675" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
-      <c r="A1676" s="47" t="s">
+      <c r="A1676" s="46" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1676" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2">
+      <c r="A1677" s="46" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1677" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2">
+      <c r="A1678" s="46" t="s">
         <v>2186</v>
       </c>
-      <c r="B1676" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2">
-      <c r="A1677" s="47" t="s">
+      <c r="B1678" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2">
+      <c r="A1679" s="46" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1679" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2">
+      <c r="A1680" s="46" t="s">
         <v>2187</v>
       </c>
-      <c r="B1677" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2">
-      <c r="A1678" s="47" t="s">
-        <v>2188</v>
-      </c>
-      <c r="B1678" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2">
-      <c r="A1679" s="47" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B1679" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2">
-      <c r="A1680" s="47" t="s">
+      <c r="B1680" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" ht="28.8">
+      <c r="A1681" s="13" t="s">
         <v>2189</v>
-      </c>
-      <c r="B1680" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2">
-      <c r="A1681" s="13" t="s">
-        <v>2191</v>
       </c>
       <c r="B1681" s="3" t="s">
         <v>5</v>
@@ -35501,15 +35561,15 @@
     </row>
     <row r="1682" spans="1:2" ht="28.8">
       <c r="A1682" s="13" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B1682" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="1683" spans="1:2" ht="28.8">
+    <row r="1683" spans="1:2">
       <c r="A1683" s="13" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="B1683" s="3" t="s">
         <v>8</v>
@@ -35517,23 +35577,23 @@
     </row>
     <row r="1684" spans="1:2">
       <c r="A1684" s="13" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1684" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
-      <c r="A1685" s="47" t="s">
-        <v>2195</v>
+      <c r="A1685" s="46" t="s">
+        <v>2193</v>
       </c>
       <c r="B1685" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="1686" spans="1:2">
+    <row r="1686" spans="1:2" ht="28.8">
       <c r="A1686" s="13" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B1686" s="3" t="s">
         <v>664</v>
@@ -35541,31 +35601,31 @@
     </row>
     <row r="1687" spans="1:2" ht="28.8">
       <c r="A1687" s="13" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1687" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2">
+      <c r="A1688" s="46" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1688" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="A1689" s="46" t="s">
         <v>2197</v>
-      </c>
-      <c r="B1687" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2" ht="28.8">
-      <c r="A1688" s="47" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B1688" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2">
-      <c r="A1689" s="47" t="s">
-        <v>2199</v>
       </c>
       <c r="B1689" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
-      <c r="A1690" s="47" t="s">
-        <v>2200</v>
+      <c r="A1690" s="46" t="s">
+        <v>2198</v>
       </c>
       <c r="B1690" s="3" t="s">
         <v>8</v>
@@ -35573,127 +35633,127 @@
     </row>
     <row r="1691" spans="1:2">
       <c r="A1691" s="13" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1691" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2">
+      <c r="A1692" s="46" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1692" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="A1693" s="46" t="s">
         <v>2201</v>
       </c>
-      <c r="B1691" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:2">
-      <c r="A1692" s="47" t="s">
+      <c r="B1693" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" s="46" t="s">
         <v>2202</v>
       </c>
-      <c r="B1692" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2">
-      <c r="A1693" s="47" t="s">
+      <c r="B1694" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" ht="43.2">
+      <c r="A1695" s="13" t="s">
         <v>2203</v>
       </c>
-      <c r="B1693" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2">
-      <c r="A1694" s="47" t="s">
+      <c r="B1695" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2">
+      <c r="A1696" s="46" t="s">
         <v>2204</v>
       </c>
-      <c r="B1694" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2">
-      <c r="A1695" s="13" t="s">
+      <c r="B1696" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2">
+      <c r="A1697" s="46" t="s">
         <v>2205</v>
-      </c>
-      <c r="B1695" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2" ht="43.2">
-      <c r="A1696" s="47" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B1696" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2">
-      <c r="A1697" s="47" t="s">
-        <v>2207</v>
       </c>
       <c r="B1697" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
-      <c r="A1698" s="47" t="s">
-        <v>2208</v>
+      <c r="A1698" s="46" t="s">
+        <v>2206</v>
       </c>
       <c r="B1698" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
-      <c r="A1699" s="47" t="s">
-        <v>2209</v>
+      <c r="A1699" s="46" t="s">
+        <v>2207</v>
       </c>
       <c r="B1699" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1700" spans="1:2">
+    <row r="1700" spans="1:2" ht="43.2">
       <c r="A1700" s="13" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1700" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2">
+      <c r="A1701" s="46" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1701" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2">
+      <c r="A1702" s="54" t="s">
         <v>2211</v>
-      </c>
-      <c r="B1700" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2" ht="43.2">
-      <c r="A1701" s="47" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B1701" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:2">
-      <c r="A1702" s="55" t="s">
-        <v>2213</v>
       </c>
       <c r="B1702" s="3" t="s">
         <v>2021</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
-      <c r="A1703" s="47" t="s">
-        <v>2214</v>
+      <c r="A1703" s="46" t="s">
+        <v>2212</v>
       </c>
       <c r="B1703" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
-      <c r="A1704" s="47" t="s">
+      <c r="A1704" s="46" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1704" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2">
+      <c r="A1705" s="46" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1705" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" ht="28.8">
+      <c r="A1706" s="13" t="s">
         <v>2215</v>
-      </c>
-      <c r="B1704" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:2">
-      <c r="A1705" s="47" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B1705" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2">
-      <c r="A1706" s="13" t="s">
-        <v>2217</v>
       </c>
       <c r="B1706" s="3" t="s">
         <v>8</v>
@@ -35701,47 +35761,47 @@
     </row>
     <row r="1707" spans="1:2" ht="28.8">
       <c r="A1707" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1707" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1708" spans="1:2" ht="28.8">
-      <c r="A1708" s="47" t="s">
-        <v>2219</v>
+    <row r="1708" spans="1:2">
+      <c r="A1708" s="46" t="s">
+        <v>2217</v>
       </c>
       <c r="B1708" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
-      <c r="A1709" s="55" t="s">
-        <v>2220</v>
+      <c r="A1709" s="54" t="s">
+        <v>2218</v>
       </c>
       <c r="B1709" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1710" spans="1:2">
-      <c r="A1710" s="48" t="s">
-        <v>2221</v>
+    <row r="1710" spans="1:2" ht="26.4">
+      <c r="A1710" s="47" t="s">
+        <v>2219</v>
       </c>
       <c r="B1710" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="1711" spans="1:2" ht="26.4">
-      <c r="A1711" s="47" t="s">
-        <v>2222</v>
+    <row r="1711" spans="1:2">
+      <c r="A1711" s="46" t="s">
+        <v>2220</v>
       </c>
       <c r="B1711" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
-      <c r="A1712" s="47" t="s">
-        <v>2223</v>
+      <c r="A1712" s="46" t="s">
+        <v>2221</v>
       </c>
       <c r="B1712" s="3" t="s">
         <v>7</v>
@@ -35749,23 +35809,23 @@
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1713" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1714" spans="1:2" ht="35.4" customHeight="1">
-      <c r="A1714" s="50" t="s">
-        <v>2225</v>
+      <c r="A1714" s="49" t="s">
+        <v>2223</v>
       </c>
       <c r="B1714" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1715" spans="1:2" ht="26.4">
+    <row r="1715" spans="1:2">
       <c r="A1715" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1715" s="3" t="s">
         <v>34</v>
@@ -35773,39 +35833,39 @@
     </row>
     <row r="1716" spans="1:2">
       <c r="A1716" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B1716" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
-      <c r="A1717" s="47" t="s">
-        <v>2228</v>
+      <c r="A1717" s="46" t="s">
+        <v>2226</v>
       </c>
       <c r="B1717" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1718" spans="1:2">
+    <row r="1718" spans="1:2" ht="28.8">
       <c r="A1718" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1718" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1719" spans="1:2" ht="28.8">
-      <c r="A1719" s="47" t="s">
-        <v>2230</v>
+    <row r="1719" spans="1:2">
+      <c r="A1719" s="46" t="s">
+        <v>2228</v>
       </c>
       <c r="B1719" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
-      <c r="A1720" s="47" t="s">
-        <v>2231</v>
+      <c r="A1720" s="46" t="s">
+        <v>2229</v>
       </c>
       <c r="B1720" s="3" t="s">
         <v>34</v>
@@ -35813,15 +35873,147 @@
     </row>
     <row r="1721" spans="1:2">
       <c r="A1721" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1721" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
-      <c r="A1722"/>
-      <c r="B1722"/>
+      <c r="A1722" s="46" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1722" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" ht="79.2">
+      <c r="A1723" s="43" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1723" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" ht="59.4">
+      <c r="A1724" s="43" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1724" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" ht="59.4">
+      <c r="A1725" s="43" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1725" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" ht="39.6">
+      <c r="A1726" s="43" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1726" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" ht="59.4">
+      <c r="A1727" s="43" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1727" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" ht="79.2">
+      <c r="A1728" s="43" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1728" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" ht="59.4">
+      <c r="A1729" s="43" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1729" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" ht="28.8">
+      <c r="A1730" s="13" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1730" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" ht="28.8">
+      <c r="A1731" s="13" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B1731" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" ht="28.8">
+      <c r="A1732" s="13" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1732" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" ht="28.8">
+      <c r="A1733" s="13" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1733" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" ht="43.2">
+      <c r="A1734" s="13" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1734" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" ht="28.8">
+      <c r="A1735" s="13" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1735" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" ht="28.8">
+      <c r="A1736" s="13" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1736" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2">
+      <c r="A1737" s="46" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1737" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2">
+      <c r="A1738" s="46" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1738" s="14" t="s">
+        <v>664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35832,27 +36024,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386CA97-9DB9-4D9E-A52E-CC64BCC04B59}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>2136</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>2137</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2138</v>
-      </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1">
-      <c r="A2" s="54">
+      <c r="A2" s="53">
         <v>44256</v>
       </c>
       <c r="B2" s="8">
@@ -35864,7 +36059,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="54">
+      <c r="A3" s="53">
         <v>44317</v>
       </c>
       <c r="B3">
@@ -35877,7 +36072,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2135</v>
+        <v>2245</v>
       </c>
       <c r="B4">
         <v>1417</v>
@@ -35889,7 +36084,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2176</v>
+        <v>2244</v>
       </c>
       <c r="B5">
         <v>1662</v>
@@ -35900,7 +36095,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B6">
         <v>1667</v>
@@ -35908,6 +36103,39 @@
       <c r="C6">
         <f>1721-B6</f>
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B7">
+        <v>1723</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1730</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B9">
+        <v>1734</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -36214,8 +36442,8 @@
         <v>30</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:19" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
